--- a/MOVILTRONICSROBOTICA.xlsx
+++ b/MOVILTRONICSROBOTICA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E398"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>seller_info</t>
         </is>
       </c>
@@ -473,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-887744704-voltimetro-medidor-bateria-9-150v-dc-h52cup-litio-gel-agm-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=a80a20ad-ed7e-4ace-9349-a5c069663596</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-887744704-voltimetro-medidor-bateria-9-150v-dc-h52cup-litio-gel-agm-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=b5c83078-eee9-42b9-b346-efc0f62ce918</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +486,12 @@
           <t>MCO887744704</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875930028-voltimetro-digital-mini-display-rojo-7-segmentos-4530v-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875930028-voltimetro-digital-mini-display-rojo-7-segmentos-4530v-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,7 +514,12 @@
           <t>MCO875930028</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -519,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610614985-ventilador-portatil-variable-recargable-usb-li-ion-18650-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610614985-ventilador-portatil-variable-recargable-usb-li-ion-18650-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,7 +542,12 @@
           <t>MCO610614985</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509368977-transformador-de-corriente-30001-amperio-mw01251l12-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=6418977f-a791-4e5c-97b8-0ba87c47ea30</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509368977-transformador-de-corriente-30001-amperio-mw01251l12-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=c2b35f3b-049a-4a9f-bbe5-90a9624a9e60</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -550,7 +570,12 @@
           <t>MCO509368977</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -565,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-584911004-tl-smoother-suavizador-smoother-motor-paso-paso-driver-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-584911004-tl-smoother-suavizador-smoother-motor-paso-paso-driver-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,7 +598,12 @@
           <t>MCO584911004</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -588,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529097877-terminal-conector-bateria-lipo-tipo-deans-plug-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529097877-terminal-conector-bateria-lipo-tipo-deans-plug-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -596,7 +626,12 @@
           <t>MCO529097877</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -611,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-608824951-tarjeta-psoc-6-wifi-bt-cy8cproto-0624343w-cypress-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-608824951-tarjeta-psoc-6-wifi-bt-cy8cproto-0624343w-cypress-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -620,6 +655,7 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -634,7 +670,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621534451-tarjeta-protector-bms-2s-2-celdas-lipo-litio-18650-74v-8a-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621534451-tarjeta-protector-bms-2s-2-celdas-lipo-litio-18650-74v-8a-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -642,7 +678,12 @@
           <t>MCO621534451</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -657,7 +698,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550773729-tarjeta-nodemcu-esp8266-v3-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550773729-tarjeta-nodemcu-esp8266-v3-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -665,7 +706,12 @@
           <t>MCO550773729</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -680,7 +726,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-605326775-tarjeta-educativa-bbc-microbit-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-605326775-tarjeta-educativa-bbc-microbit-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +734,12 @@
           <t>MCO605326775</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625632969-tarjeta-de-desarrollo-picoboard-atmega328-compatible-arduino-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625632969-tarjeta-de-desarrollo-picoboard-atmega328-compatible-arduino-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -712,6 +763,7 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -726,7 +778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-546308763-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-546308763-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -734,7 +786,12 @@
           <t>MCO546308763</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -749,7 +806,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625952106-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625952106-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -757,7 +814,12 @@
           <t>MCO625952106</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,7 +834,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610630605-tarjeta-compatible-nodemcu-esp8266-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610630605-tarjeta-compatible-nodemcu-esp8266-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -780,7 +842,12 @@
           <t>MCO610630605</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -795,7 +862,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509371732-taco-breaker-abb-50a-s-281-uc-z-50-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509371732-taco-breaker-abb-50a-s-281-uc-z-50-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -803,7 +870,12 @@
           <t>MCO509371732</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -818,7 +890,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-578347648-soporte-para-extrusor-mk7mk8-en-u-metalico-impresora-3d-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-578347648-soporte-para-extrusor-mk7mk8-en-u-metalico-impresora-3d-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -826,7 +898,12 @@
           <t>MCO578347648</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -841,7 +918,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641979708-soporte-base-holder-para-3-bateria-21700-ensamble-25-unidad-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641979708-soporte-base-holder-para-3-bateria-21700-ensamble-25-unidad-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -849,7 +926,12 @@
           <t>MCO641979708</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -864,7 +946,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641977768-soporte-base-holder-para-3-bateria-18650-ensamble-25-unidade-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641977768-soporte-base-holder-para-3-bateria-18650-ensamble-25-unidade-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -872,7 +954,12 @@
           <t>MCO641977768</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -887,7 +974,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641978782-soporte-base-holder-para-2-bateria-21700-ensamble-25-unidad-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641978782-soporte-base-holder-para-2-bateria-21700-ensamble-25-unidad-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -895,7 +982,12 @@
           <t>MCO641978782</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -910,7 +1002,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641977035-soporte-base-holder-para-2-bateria-18650-ensamble-25-unidade-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641977035-soporte-base-holder-para-2-bateria-18650-ensamble-25-unidade-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -918,7 +1010,12 @@
           <t>MCO641977035</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -933,7 +1030,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522901824-soldadura-estano-en-tubo-08mm-6337-flux-2-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522901824-soldadura-estano-en-tubo-08mm-6337-flux-2-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -941,7 +1038,12 @@
           <t>MCO522901824</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -956,7 +1058,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635803254-shield-data-logger-v10-compatible-arduino-uno-leonardo-mega-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635803254-shield-data-logger-v10-compatible-arduino-uno-leonardo-mega-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -964,7 +1066,12 @@
           <t>MCO635803254</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -979,7 +1086,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525753305-set-de-brocas-pcb-03-a-12-mm-made-in-japan-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=a80a20ad-ed7e-4ace-9349-a5c069663596</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525753305-set-de-brocas-pcb-03-a-12-mm-made-in-japan-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=b5c83078-eee9-42b9-b346-efc0f62ce918</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -987,7 +1094,12 @@
           <t>MCO525753305</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1002,7 +1114,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611291476-sensor-touch-pulsador-de-toque-electronico-no-mecanico-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611291476-sensor-touch-pulsador-de-toque-electronico-no-mecanico-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1010,7 +1122,12 @@
           <t>MCO611291476</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1025,7 +1142,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611313384-sensor-temperatura-infrarrojo-sin-contacto-mlx90614-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611313384-sensor-temperatura-infrarrojo-sin-contacto-mlx90614-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1033,7 +1150,12 @@
           <t>MCO611313384</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1048,7 +1170,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-514450258-sensor-reflexion-3-juegos-analogo-qtr-3a-seguimiento-linea-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-514450258-sensor-reflexion-3-juegos-analogo-qtr-3a-seguimiento-linea-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1057,6 +1179,7 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1071,7 +1194,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539252000-sensor-reflexion-16-juego-digital-qtr-md-16rc-seguidor-linea-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539252000-sensor-reflexion-16-juego-digital-qtr-md-16rc-seguidor-linea-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1079,7 +1202,12 @@
           <t>MCO539252000</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1094,7 +1222,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-515104272-sensor-reflectivo-3-juegos-digital-qtr-3rc-seguidor-linea-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-515104272-sensor-reflectivo-3-juegos-digital-qtr-3rc-seguidor-linea-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1103,6 +1231,7 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1117,7 +1246,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611308458-sensor-pulso-cardiaco-dactilar-ky-039-ritmo-cardiaco-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611308458-sensor-pulso-cardiaco-dactilar-ky-039-ritmo-cardiaco-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1125,7 +1254,12 @@
           <t>MCO611308458</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1140,7 +1274,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611311188-sensor-presion-atmosferica-y-temperatura-bmp280-barometrica-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611311188-sensor-presion-atmosferica-y-temperatura-bmp280-barometrica-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1148,7 +1282,12 @@
           <t>MCO611311188</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1163,7 +1302,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611259093-sensor-infrarrojo-tcrt5000-obstaculos-linea-velocista-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611259093-sensor-infrarrojo-tcrt5000-obstaculos-linea-velocista-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1171,7 +1310,12 @@
           <t>MCO611259093</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1186,7 +1330,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611257974-sensor-infrarrojo-e18-d80nk-3-80cm-e18-fotoelectrico-npn-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611257974-sensor-infrarrojo-e18-d80nk-3-80cm-e18-fotoelectrico-npn-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1194,7 +1338,12 @@
           <t>MCO611257974</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1209,7 +1358,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611276353-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611276353-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1217,7 +1366,12 @@
           <t>MCO611276353</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1232,7 +1386,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656242361-sensor-fuerza-vibracion-piezoelectrico-ldtm-028k-arduino-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656242361-sensor-fuerza-vibracion-piezoelectrico-ldtm-028k-arduino-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1240,7 +1394,12 @@
           <t>MCO656242361</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1255,7 +1414,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611271039-sensor-de-voltaje-0-25v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611271039-sensor-de-voltaje-0-25v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1264,6 +1423,7 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1278,7 +1438,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611272068-sensor-de-vibracion-sw18015p-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611272068-sensor-de-vibracion-sw18015p-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1287,6 +1447,7 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1301,7 +1462,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879588943-sensor-de-temperatura-ds18b20-circuito-integrado-to92-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879588943-sensor-de-temperatura-ds18b20-circuito-integrado-to92-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1309,7 +1470,12 @@
           <t>MCO879588943</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1324,7 +1490,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539935696-sensor-de-movimiento-pir-hc-sr501-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539935696-sensor-de-movimiento-pir-hc-sr501-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1332,7 +1498,12 @@
           <t>MCO539935696</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1347,7 +1518,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611318999-sensor-de-luz-fotocelda-fotorresistencia-7mm-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611318999-sensor-de-luz-fotocelda-fotorresistencia-7mm-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1355,7 +1526,12 @@
           <t>MCO611318999</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1370,7 +1546,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539937007-sensor-de-luz-digital-bh1750-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539937007-sensor-de-luz-digital-bh1750-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1378,7 +1554,12 @@
           <t>MCO539937007</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1393,7 +1574,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611274985-sensor-de-luz-con-fotocelda-ky018-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611274985-sensor-de-luz-con-fotocelda-ky018-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1402,6 +1583,7 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1416,7 +1598,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539930224-sensor-de-lluvia-yc69-arduino-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539930224-sensor-de-lluvia-yc69-arduino-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1424,7 +1606,12 @@
           <t>MCO539930224</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1439,7 +1626,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611307357-sensor-de-inclinacion-sw520d-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611307357-sensor-de-inclinacion-sw520d-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1447,7 +1634,12 @@
           <t>MCO611307357</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1462,7 +1654,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611253772-sensor-de-herradura-klh512-encoder-motor-sensor-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611253772-sensor-de-herradura-klh512-encoder-motor-sensor-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1470,7 +1662,12 @@
           <t>MCO611253772</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1485,7 +1682,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610977571-sensor-de-gas-mq8-hidrogeno-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610977571-sensor-de-gas-mq8-hidrogeno-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1493,7 +1690,12 @@
           <t>MCO610977571</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1508,7 +1710,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610966766-sensor-de-gas-mq4-gas-ch4-gas-natural-gnl-alcohol-humo-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610966766-sensor-de-gas-mq4-gas-ch4-gas-natural-gnl-alcohol-humo-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1516,7 +1718,12 @@
           <t>MCO610966766</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1531,7 +1738,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-554642565-sensor-de-flama-ky026-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-554642565-sensor-de-flama-ky026-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1539,7 +1746,12 @@
           <t>MCO554642565</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1554,7 +1766,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611309412-sensor-de-flama-de-5-canales-infrarrojo-movimiento-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611309412-sensor-de-flama-de-5-canales-infrarrojo-movimiento-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1563,6 +1775,7 @@
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1577,7 +1790,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879588987-sensor-de-efecto-hall-49e-circuito-integrado-to92-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879588987-sensor-de-efecto-hall-49e-circuito-integrado-to92-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1585,7 +1798,12 @@
           <t>MCO879588987</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1600,7 +1818,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874565073-sensor-de-distancia-ultrasonido-makeblock-me-11001-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874565073-sensor-de-distancia-ultrasonido-makeblock-me-11001-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1609,6 +1827,7 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1623,7 +1842,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611154829-sensor-de-corriente-acs712-30a-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611154829-sensor-de-corriente-acs712-30a-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1631,7 +1850,12 @@
           <t>MCO611154829</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1646,7 +1870,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611154382-sensor-de-corriente-acs712-20a-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611154382-sensor-de-corriente-acs712-20a-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1654,7 +1878,12 @@
           <t>MCO611154382</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1669,7 +1898,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525787997-seguidor-de-linea-5-sensores-reflexion-ir-bfd-1000-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525787997-seguidor-de-linea-5-sensores-reflexion-ir-bfd-1000-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1677,7 +1906,12 @@
           <t>MCO525787997</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1692,7 +1926,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539402343-sanyo-stk4141-ii-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539402343-sanyo-stk4141-ii-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1700,7 +1934,12 @@
           <t>MCO539402343</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1715,7 +1954,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-619777916-rueda-omnidireccional-56mm-proyectos-electronica-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-619777916-rueda-omnidireccional-56mm-proyectos-electronica-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1724,6 +1963,7 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1738,7 +1978,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-622073438-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-622073438-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1747,6 +1987,7 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1761,7 +2002,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621574092-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621574092-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1769,7 +2010,12 @@
           <t>MCO621574092</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1784,7 +2030,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513270827-rueda-loca-metalica-34-robot-arduino-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513270827-rueda-loca-metalica-34-robot-arduino-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1793,6 +2039,7 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1807,7 +2054,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610656227-rodamiento-lineal-lm10uu-101624mm-impresora-3d-cnc-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610656227-rodamiento-lineal-lm10uu-101624mm-impresora-3d-cnc-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1815,7 +2062,12 @@
           <t>MCO610656227</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1830,7 +2082,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656218578-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656218578-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1839,6 +2091,7 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1853,7 +2106,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512955887-rodamiento-chumacera-kp08-8mm-3d-maquinas-cnc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512955887-rodamiento-chumacera-kp08-8mm-3d-maquinas-cnc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1861,7 +2114,12 @@
           <t>MCO512955887</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1876,7 +2134,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947369503-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947369503-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1884,7 +2142,12 @@
           <t>MCO947369503</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1899,7 +2162,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947357018-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947357018-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1907,7 +2170,12 @@
           <t>MCO947357018</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1922,7 +2190,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640866873-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640866873-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1930,7 +2198,12 @@
           <t>MCO640866873</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1945,7 +2218,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640856146-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640856146-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1954,6 +2227,7 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1968,7 +2242,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560110726-reproductor-mp3-bluetooth-micro-sd-btlink-amplificador-20w-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560110726-reproductor-mp3-bluetooth-micro-sd-btlink-amplificador-20w-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1976,7 +2250,12 @@
           <t>MCO560110726</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1991,7 +2270,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947305630-reproductor-mp3-bluetooth-amplificador-15w-usb-micro-sd-fm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947305630-reproductor-mp3-bluetooth-amplificador-15w-usb-micro-sd-fm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2000,6 +2279,7 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2014,7 +2294,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307031-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-mini-relevo-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307031-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-mini-relevo-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2022,7 +2302,12 @@
           <t>MCO653307031</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2037,7 +2322,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509372247-rele-contactor-schaltbau-c137-e-bobina-12-vdc-cont-40-amp-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509372247-rele-contactor-schaltbau-c137-e-bobina-12-vdc-cont-40-amp-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2045,7 +2330,12 @@
           <t>MCO509372247</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2060,7 +2350,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641534787-pvc-tubular-de-250mm-3mts-proteccion-baterias-termoencogible-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641534787-pvc-tubular-de-250mm-3mts-proteccion-baterias-termoencogible-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2068,7 +2358,12 @@
           <t>MCO641534787</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2083,7 +2378,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625156541-protoboard-mini-170-puntos-colores-arduino-breadboard-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625156541-protoboard-mini-170-puntos-colores-arduino-breadboard-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2091,7 +2386,12 @@
           <t>MCO625156541</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2106,7 +2406,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880035837-probador-tester-de-baterias-12v-plomo-gel-agm-efb-7-16-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880035837-probador-tester-de-baterias-12v-plomo-gel-agm-efb-7-16-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2114,7 +2414,12 @@
           <t>MCO880035837</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2129,7 +2434,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637337566-probador-de-servos-y-esc-hj-4-canales-controlador-tester-6v-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637337566-probador-de-servos-y-esc-hj-4-canales-controlador-tester-6v-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2137,7 +2442,12 @@
           <t>MCO637337566</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2152,7 +2462,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644850621-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644850621-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2160,7 +2470,12 @@
           <t>MCO644850621</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2175,7 +2490,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613032207-polea-sin-dientes-con-rodamiento-5mm-5x16x12-impresora-3d-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613032207-polea-sin-dientes-con-rodamiento-5mm-5x16x12-impresora-3d-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2183,7 +2498,12 @@
           <t>MCO613032207</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2198,7 +2518,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-870058834-plataforma-rectangular-tamiya-70157-robot-electronica-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-870058834-plataforma-rectangular-tamiya-70157-robot-electronica-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2207,6 +2527,7 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2221,7 +2542,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612009295-placa-desarrollo-atmega-328p-cable-usb-compatible-arduino-r3-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612009295-placa-desarrollo-atmega-328p-cable-usb-compatible-arduino-r3-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2229,7 +2550,12 @@
           <t>MCO612009295</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2244,7 +2570,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613993406-placa-compatible-arduino-uno-r3-atmega328-smd-con-cable-usb-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613993406-placa-compatible-arduino-uno-r3-atmega328-smd-con-cable-usb-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2252,7 +2578,12 @@
           <t>MCO613993406</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2267,7 +2598,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625944699-placa-board-bigtreetech-skr-v13-32bit-1224v-impresora-3d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625944699-placa-board-bigtreetech-skr-v13-32bit-1224v-impresora-3d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2276,6 +2607,7 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2290,7 +2622,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-523600938-placa-bigtreetech-skr-v13-32bits-1224-voltios-impresora-3d-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-523600938-placa-bigtreetech-skr-v13-32bits-1224-voltios-impresora-3d-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2298,7 +2630,12 @@
           <t>MCO523600938</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2313,7 +2650,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522912472-pinza-punta-curva-esd-15-vetus-precision-integrados-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522912472-pinza-punta-curva-esd-15-vetus-precision-integrados-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2321,7 +2658,12 @@
           <t>MCO522912472</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2336,7 +2678,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522621223-pcb-placa-de-circuito-impreso-mini-sumo-sumotronics-smd-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522621223-pcb-placa-de-circuito-impreso-mini-sumo-sumotronics-smd-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2345,6 +2687,7 @@
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2359,7 +2702,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956414-paso-a-paso-nema-17-17hs4401-17-a-maquina-cnc-3d-robotica-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956414-paso-a-paso-nema-17-17hs4401-17-a-maquina-cnc-3d-robotica-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2367,7 +2710,12 @@
           <t>MCO648956414</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2382,7 +2730,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522901395-papel-termo-transferible-carta-pcb-circuitos-impresos-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522901395-papel-termo-transferible-carta-pcb-circuitos-impresos-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2390,7 +2738,12 @@
           <t>MCO522901395</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2405,7 +2758,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512722320-pantalla-lcd-20x4-reprapdiscount-smart-controller-adaptador-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512722320-pantalla-lcd-20x4-reprapdiscount-smart-controller-adaptador-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2413,7 +2766,12 @@
           <t>MCO512722320</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2428,7 +2786,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963924265-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-60w-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963924265-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-60w-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2436,7 +2794,12 @@
           <t>MCO963924265</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2451,7 +2814,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963935803-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-40w-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963935803-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-40w-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2459,7 +2822,12 @@
           <t>MCO963935803</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2474,7 +2842,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963959151-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-30w-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963959151-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-30w-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2483,6 +2851,7 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2497,7 +2866,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512741538-osciloscopio-siglent-sds1202x-e-200mhz-super-phosphor-1g-2ch-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=a80a20ad-ed7e-4ace-9349-a5c069663596</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512741538-osciloscopio-siglent-sds1202x-e-200mhz-super-phosphor-1g-2ch-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=b5c83078-eee9-42b9-b346-efc0f62ce918</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2505,7 +2874,12 @@
           <t>MCO512741538</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2520,7 +2894,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-559682150-osciloscopio-siglent-sds1102x-100mhz-2ch-spo-super-fosforo-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=a80a20ad-ed7e-4ace-9349-a5c069663596</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-559682150-osciloscopio-siglent-sds1102x-100mhz-2ch-spo-super-fosforo-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=b5c83078-eee9-42b9-b346-efc0f62ce918</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2529,6 +2903,7 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2543,7 +2918,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550909340-modulo-shield-gsmgprsdtmfsd-dual-sim-con-mc60-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550909340-modulo-shield-gsmgprsdtmfsd-dual-sim-con-mc60-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2552,6 +2927,7 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2566,7 +2942,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550907939-modulo-shield-gsmgprsdtmfsd-dual-sim-con-m95-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550907939-modulo-shield-gsmgprsdtmfsd-dual-sim-con-m95-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2575,6 +2951,7 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2589,7 +2966,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-573391583-modulo-shield-expansion-xbee-zigbee-compatible-con-arduino-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-573391583-modulo-shield-expansion-xbee-zigbee-compatible-con-arduino-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2598,6 +2975,7 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2612,7 +2990,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513057540-modulo-sensor-de-color-tcs3200-arduino-raspberry-pic-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513057540-modulo-sensor-de-color-tcs3200-arduino-raspberry-pic-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2620,7 +2998,12 @@
           <t>MCO513057540</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2635,7 +3018,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-588807565-modulo-rtc-ds1302-reloj-en-tiempo-real-para-arduino-pic-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-588807565-modulo-rtc-ds1302-reloj-en-tiempo-real-para-arduino-pic-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2643,7 +3026,12 @@
           <t>MCO588807565</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2658,7 +3046,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539649790-modulo-infrarrojo-con-control-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539649790-modulo-infrarrojo-con-control-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2667,6 +3055,7 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2681,7 +3070,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-628719855-modulo-generador-senales-icl8038-senoidal-cuadrada-triangulo-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-628719855-modulo-generador-senales-icl8038-senoidal-cuadrada-triangulo-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2689,7 +3078,12 @@
           <t>MCO628719855</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2704,7 +3098,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539923679-modulo-face-plate-audio-35-mm-x2-fp013-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539923679-modulo-face-plate-audio-35-mm-x2-fp013-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2713,6 +3107,7 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2727,7 +3122,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539574941-modulo-diodo-laser-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539574941-modulo-diodo-laser-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2735,7 +3130,12 @@
           <t>MCO539574941</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2750,7 +3150,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539576325-modulo-de-reloj-ds1307-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539576325-modulo-de-reloj-ds1307-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2758,7 +3158,12 @@
           <t>MCO539576325</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2773,7 +3178,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-627772150-modulo-camara-1080p-para-raspberry-pi-webcam-5mp-rev-13-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-627772150-modulo-camara-1080p-para-raspberry-pi-webcam-5mp-rev-13-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2782,6 +3187,7 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2796,7 +3202,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-965946133-modulo-controlador-carga-descarga-tp4056-usb-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-965946133-modulo-controlador-carga-descarga-tp4056-usb-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2804,7 +3210,12 @@
           <t>MCO965946133</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2819,7 +3230,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539576742-modulo-controlador-carga-descarga-lipo-litio-tp4056-usb-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539576742-modulo-controlador-carga-descarga-lipo-litio-tp4056-usb-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2827,7 +3238,12 @@
           <t>MCO539576742</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2842,7 +3258,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889469493-modulo-bms-de-carga-y-proteccion-baterias-litio-18650-1s-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889469493-modulo-bms-de-carga-y-proteccion-baterias-litio-18650-1s-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2850,7 +3266,12 @@
           <t>MCO889469493</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2865,7 +3286,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-890739053-modulo-bms-4s-40a-carga-proteccion-balanceo-baterias-litio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-890739053-modulo-bms-4s-40a-carga-proteccion-balanceo-baterias-litio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2873,7 +3294,12 @@
           <t>MCO890739053</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2888,7 +3314,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888493359-modulo-amplificador-digital-tpa3118-con-bluetooth-2x45-watts-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888493359-modulo-amplificador-digital-tpa3118-con-bluetooth-2x45-watts-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2896,7 +3322,12 @@
           <t>MCO888493359</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2911,7 +3342,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-553376222-multimetro-pinza-amperimetrica-digital-uni-t-ut200a-600v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-553376222-multimetro-pinza-amperimetrica-digital-uni-t-ut200a-600v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2919,7 +3350,12 @@
           <t>MCO553376222</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2934,7 +3370,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961144270-multimetro-digital-dt860d-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961144270-multimetro-digital-dt860d-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2942,7 +3378,12 @@
           <t>MCO961144270</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2957,7 +3398,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612445624-motorreductor-6v-6100rpm-51-12ga-o-n20-hp-pololu-1000-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612445624-motorreductor-6v-6100rpm-51-12ga-o-n20-hp-pololu-1000-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2965,7 +3406,12 @@
           <t>MCO612445624</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2980,7 +3426,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529085572-motorreductor-6v-590rpm-501-12ga-eje-extendido-pololu-2213-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529085572-motorreductor-6v-590rpm-501-12ga-eje-extendido-pololu-2213-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2988,7 +3434,12 @@
           <t>MCO529085572</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3003,7 +3454,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551296349-motorreductor-6v-3100rpm-101-12ga-hp-pololu-999-alto-rendim-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551296349-motorreductor-6v-3100rpm-101-12ga-hp-pololu-999-alto-rendim-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3011,7 +3462,12 @@
           <t>MCO551296349</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3026,7 +3482,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443299-motorreductor-6v-1000rpm-301-12ga-n20-eje-exten-pololu-2212-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443299-motorreductor-6v-1000rpm-301-12ga-n20-eje-exten-pololu-2212-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3035,6 +3491,7 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3049,7 +3506,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612444627-motorreductor-12v-650rpm-501-12ga-o-n20-hpcb-pololu-3039-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612444627-motorreductor-12v-650rpm-501-12ga-o-n20-hpcb-pololu-3039-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3058,6 +3515,7 @@
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3072,7 +3530,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443981-motorreductor-12v-6000rpm-51-12ga-n20-eje-exten-pololu-3047-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443981-motorreductor-12v-6000rpm-51-12ga-n20-eje-exten-pololu-3047-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3081,6 +3539,7 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3095,7 +3554,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443671-motorreductor-12v-3000rpm-101-12ga-n20-eje-exte-pololu-3048-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443671-motorreductor-12v-3000rpm-101-12ga-n20-eje-exte-pololu-3048-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3104,6 +3563,7 @@
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3118,7 +3578,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612445146-motorreductor-12v-1100rpm-301-12ga-o-n20-hpcb-pololu-3038-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612445146-motorreductor-12v-1100rpm-301-12ga-o-n20-hpcb-pololu-3038-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3127,6 +3587,7 @@
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3141,7 +3602,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612442184-motorreductor-12ga-o-n20-3-a-12v-600rpm-micro-reductor-501-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612442184-motorreductor-12ga-o-n20-3-a-12v-600rpm-micro-reductor-501-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3149,7 +3610,12 @@
           <t>MCO612442184</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3164,7 +3630,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612442425-motorreductor-12ga-o-n20-3-a-12v-1000rpm-micro-reductor-301-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612442425-motorreductor-12ga-o-n20-3-a-12v-1000rpm-micro-reductor-301-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3172,7 +3638,12 @@
           <t>MCO612442425</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3187,7 +3658,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-541781689-motorreductor-12ga-6v-500rpm-3-a-9-vdc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-541781689-motorreductor-12ga-6v-500rpm-3-a-9-vdc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3195,7 +3666,12 @@
           <t>MCO541781689</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3210,7 +3686,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612441530-motorreductor-12ga-3-a-12v-100rpm-micro-reductor-3001-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612441530-motorreductor-12ga-3-a-12v-100rpm-micro-reductor-3001-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3218,7 +3694,12 @@
           <t>MCO612441530</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3233,7 +3714,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956238-motor-paso-a-paso-nema-17-17hs4401-17-a-cnc-3d-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956238-motor-paso-a-paso-nema-17-17hs4401-17-a-cnc-3d-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3241,7 +3722,12 @@
           <t>MCO648956238</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3256,7 +3742,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-526966071-moto-bomba-de-aire-6v-map-am-265-proyectos-arduino-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-526966071-moto-bomba-de-aire-6v-map-am-265-proyectos-arduino-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3264,7 +3750,12 @@
           <t>MCO526966071</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3279,7 +3770,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-631793703-modulo-tester-voltaje-alarma-baterias-litio-lipo-de-1s-8s-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-631793703-modulo-tester-voltaje-alarma-baterias-litio-lipo-de-1s-8s-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3287,7 +3778,12 @@
           <t>MCO631793703</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3302,7 +3798,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512940408-modulo-shield-protoboard-compatible-arduino-uno-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512940408-modulo-shield-protoboard-compatible-arduino-uno-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3310,7 +3806,12 @@
           <t>MCO512940408</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3325,7 +3826,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529782694-modulo-shield-nodemcu-l293d-driver-motor-esp8266-cp2102-v2-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529782694-modulo-shield-nodemcu-l293d-driver-motor-esp8266-cp2102-v2-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3333,7 +3834,12 @@
           <t>MCO529782694</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3348,7 +3854,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512807398-modulo-shield-cnc-para-arduino-uno-fresadoras-laser-plotter-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512807398-modulo-shield-cnc-para-arduino-uno-fresadoras-laser-plotter-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3357,6 +3863,7 @@
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3371,7 +3878,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512808934-modulo-shield-cnc-para-arduino-nano-fresadoras-laser-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512808934-modulo-shield-cnc-para-arduino-nano-fresadoras-laser-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3380,6 +3887,7 @@
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3394,7 +3902,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656221762-modulo-sensor-deteccion-sonido-microfono-electret-arduino-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656221762-modulo-sensor-deteccion-sonido-microfono-electret-arduino-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3402,7 +3910,12 @@
           <t>MCO656221762</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3417,7 +3930,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610667831-modulo-sensor-de-herradura-f249o-o-fc03-compatible-arduino-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610667831-modulo-sensor-de-herradura-f249o-o-fc03-compatible-arduino-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3425,7 +3938,12 @@
           <t>MCO610667831</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3440,7 +3958,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513117477-modulo-sensor-de-efecto-hall-ky-035-arduino-pic-raspberry-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513117477-modulo-sensor-de-efecto-hall-ky-035-arduino-pic-raspberry-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3448,7 +3966,12 @@
           <t>MCO513117477</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3463,7 +3986,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512606307-modulo-reproductor-mp3-wtv020-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512606307-modulo-reproductor-mp3-wtv020-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3471,7 +3994,12 @@
           <t>MCO512606307</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3486,7 +4014,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-588873018-modulo-reloj-rtc-ds3231-tiempo-real-rtc-arduino-pic-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-588873018-modulo-reloj-rtc-ds3231-tiempo-real-rtc-arduino-pic-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3494,7 +4022,12 @@
           <t>MCO588873018</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3509,7 +4042,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-524177070-modulo-relevo-estado-solido-5v-x4-g3mb-202p-4-canales-ssr-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-524177070-modulo-relevo-estado-solido-5v-x4-g3mb-202p-4-canales-ssr-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3517,7 +4050,12 @@
           <t>MCO524177070</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3532,7 +4070,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512784666-modulo-rele-1-canal-5-voltios-arduino-raspberri-pic-micros-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512784666-modulo-rele-1-canal-5-voltios-arduino-raspberri-pic-micros-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3540,7 +4078,12 @@
           <t>MCO512784666</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3555,7 +4098,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635163131-modulo-relay-2-canales-optoacopladas-5v-rele-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635163131-modulo-relay-2-canales-optoacopladas-5v-rele-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3563,7 +4106,12 @@
           <t>MCO635163131</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3578,7 +4126,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635151729-modulo-reed-switch-sensor-magnetico-raspberry-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635151729-modulo-reed-switch-sensor-magnetico-raspberry-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3586,7 +4134,12 @@
           <t>MCO635151729</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3601,7 +4154,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-633946618-modulo-receptor-infrarrojo-ky-022-tl1838-ir-arduino-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-633946618-modulo-receptor-infrarrojo-ky-022-tl1838-ir-arduino-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3609,7 +4162,12 @@
           <t>MCO633946618</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3624,7 +4182,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641388605-modulo-multiplexor-i2c-tca9548-8-canales-arduino-nodemcu-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641388605-modulo-multiplexor-i2c-tca9548-8-canales-arduino-nodemcu-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3632,7 +4190,12 @@
           <t>MCO641388605</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3647,7 +4210,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-639256438-modulo-mp5-reproductor-mp3-video-control-remoto-bluetooth-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-639256438-modulo-mp5-reproductor-mp3-video-control-remoto-bluetooth-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3655,7 +4218,12 @@
           <t>MCO639256438</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3670,7 +4238,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874565026-modulo-mosfet-ha210no6-cama-caliente-12v-24v-30a-210a-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874565026-modulo-mosfet-ha210no6-cama-caliente-12v-24v-30a-210a-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3678,7 +4246,12 @@
           <t>MCO874565026</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3693,7 +4266,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539660483-modulo-matriz-88-led-rojo-5mm-con-controlador-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539660483-modulo-matriz-88-led-rojo-5mm-con-controlador-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3702,6 +4275,7 @@
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3716,7 +4290,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874457158-modulo-loragps-hat-915mhz-wireless-raspberry-shield-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874457158-modulo-loragps-hat-915mhz-wireless-raspberry-shield-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3724,7 +4298,12 @@
           <t>MCO874457158</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3739,7 +4318,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-544567573-modulo-led-cob-12-voltios-2-watts-variados-colores-abs-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-544567573-modulo-led-cob-12-voltios-2-watts-variados-colores-abs-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3747,7 +4326,12 @@
           <t>MCO544567573</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>+1000 vendidos</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3762,7 +4346,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512654880-modulo-led-bicolor-ky011-rojo-verde-arduino-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512654880-modulo-led-bicolor-ky011-rojo-verde-arduino-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3770,7 +4354,12 @@
           <t>MCO512654880</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3785,7 +4374,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-629249547-modulo-gps-ublox-neo-6m-gps6mv2-arduino-pic-raspberry-stm32-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-629249547-modulo-gps-ublox-neo-6m-gps6mv2-arduino-pic-raspberry-stm32-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3793,7 +4382,12 @@
           <t>MCO629249547</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3808,7 +4402,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512714915-modulo-final-de-carrera-impresora-3d-o-maquinas-cnc-bandas-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512714915-modulo-final-de-carrera-impresora-3d-o-maquinas-cnc-bandas-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3816,7 +4410,12 @@
           <t>MCO512714915</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3831,7 +4430,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512812107-modulo-easydriver-v44-a3967-para-motor-paso-a-paso-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512812107-modulo-easydriver-v44-a3967-para-motor-paso-a-paso-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3839,7 +4438,12 @@
           <t>MCO512812107</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3854,7 +4458,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-590314711-modulo-easy-driver-motor-paso-a-paso-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-590314711-modulo-easy-driver-motor-paso-a-paso-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3863,6 +4467,7 @@
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3877,7 +4482,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610629989-modulo-driver-para-motor-pololu-tb6612fng-713-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610629989-modulo-driver-para-motor-pololu-tb6612fng-713-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3886,6 +4491,7 @@
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3900,7 +4506,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512799407-modulo-driver-para-motor-paso-a-paso-pololu-drv8825-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512799407-modulo-driver-para-motor-paso-a-paso-pololu-drv8825-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3908,7 +4514,12 @@
           <t>MCO512799407</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3923,7 +4534,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539679527-modulo-driver-l9110-con-ventilador-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539679527-modulo-driver-l9110-con-ventilador-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3931,7 +4542,12 @@
           <t>MCO539679527</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3946,7 +4562,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509368389-modulo-diodo-x2-dsi-2x55-12a-56-amperios-x-2-1200-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509368389-modulo-diodo-x2-dsi-2x55-12a-56-amperios-x-2-1200-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3954,7 +4570,12 @@
           <t>MCO509368389</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3969,7 +4590,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889902288-modulo-corte-proteccion-sobredescarga-bateria-xh-m609-12-36v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889902288-modulo-corte-proteccion-sobredescarga-bateria-xh-m609-12-36v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3977,7 +4598,12 @@
           <t>MCO889902288</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3992,7 +4618,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637056235-modulo-conversor-niveles-logicos-5v-a-33v-4-canales-arduino-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637056235-modulo-conversor-niveles-logicos-5v-a-33v-4-canales-arduino-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4000,7 +4626,12 @@
           <t>MCO637056235</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4015,7 +4646,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-967755136-modulo-controlador-tp4056-proteccion-entrada-usb-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-967755136-modulo-controlador-tp4056-proteccion-entrada-usb-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4024,6 +4655,7 @@
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4038,7 +4670,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888808707-modulo-control-de-carga-baterias-hw-633-v-30-6-60-voltios-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888808707-modulo-control-de-carga-baterias-hw-633-v-30-6-60-voltios-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4046,7 +4678,12 @@
           <t>MCO888808707</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4061,7 +4698,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888391878-modulo-control-de-carga-baterias-hw-632-20a-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888391878-modulo-control-de-carga-baterias-hw-632-20a-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4069,7 +4706,12 @@
           <t>MCO888391878</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4084,7 +4726,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513073665-modulo-buzzer-fc-49-arduino-pic-stm32-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513073665-modulo-buzzer-fc-49-arduino-pic-stm32-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4092,7 +4734,12 @@
           <t>MCO513073665</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4107,7 +4754,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-638918157-modulo-bms-proteccion-bateria-litio-2s-6a-celda-1860-wh-2s80-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-638918157-modulo-bms-proteccion-bateria-litio-2s-6a-celda-1860-wh-2s80-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4115,7 +4762,12 @@
           <t>MCO638918157</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4130,7 +4782,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-638639748-modulo-bms-13s-25-amperios-48-voltios-baterias-litio-lithium-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-638639748-modulo-bms-13s-25-amperios-48-voltios-baterias-litio-lithium-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4138,7 +4790,12 @@
           <t>MCO638639748</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4153,7 +4810,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539664608-modulo-bluetooth-cc2541-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539664608-modulo-bluetooth-cc2541-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4161,7 +4818,12 @@
           <t>MCO539664608</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4176,7 +4838,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875084039-modulo-bluetooth-arduino-hc-06-hc06-4-pines-esclavo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875084039-modulo-bluetooth-arduino-hc-06-hc06-4-pines-esclavo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4184,7 +4846,12 @@
           <t>MCO875084039</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4199,7 +4866,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512943108-modulo-base-driver-l293d-esp12e-esp8266-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512943108-modulo-base-driver-l293d-esp12e-esp8266-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4208,6 +4875,7 @@
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4222,7 +4890,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637633757-modulo-amplificador-tpa3118-60-watts-mono-bajos-subwoofer-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637633757-modulo-amplificador-tpa3118-60-watts-mono-bajos-subwoofer-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4230,7 +4898,12 @@
           <t>MCO637633757</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4245,7 +4918,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539697412-modulo-amplificador-pam8403-con-control-de-volumen-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539697412-modulo-amplificador-pam8403-con-control-de-volumen-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4253,7 +4926,12 @@
           <t>MCO539697412</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4268,7 +4946,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-534363139-modulo-amplificador-pam8403-3w-5v-dos-canales-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-534363139-modulo-amplificador-pam8403-3w-5v-dos-canales-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4276,7 +4954,12 @@
           <t>MCO534363139</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4291,7 +4974,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875860813-modulo-amplificador-audio-tda2030-mono-18watts-6-12-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875860813-modulo-amplificador-audio-tda2030-mono-18watts-6-12-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4299,7 +4982,12 @@
           <t>MCO875860813</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4314,7 +5002,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539665378-modulo-acondicionamiento-con-termocupla-tipo-k-max6675-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539665378-modulo-acondicionamiento-con-termocupla-tipo-k-max6675-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4322,7 +5010,12 @@
           <t>MCO539665378</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4337,7 +5030,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539805124-modulo-6-led-24v-2w-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539805124-modulo-6-led-24v-2w-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4345,7 +5038,12 @@
           <t>MCO539805124</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>+500 vendidos</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4360,7 +5058,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539802958-modulo-3-led-12v-15w-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539802958-modulo-3-led-12v-15w-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4368,7 +5066,12 @@
           <t>MCO539802958</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4383,7 +5086,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539797565-modulo-1-led-12v-15w-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539797565-modulo-1-led-12v-15w-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4391,7 +5094,12 @@
           <t>MCO539797565</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4406,7 +5114,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647289756-mini-protoboard-adhesiva-de-400-puntos-85cm-x-55cm-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647289756-mini-protoboard-adhesiva-de-400-puntos-85cm-x-55cm-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4414,7 +5122,12 @@
           <t>MCO647289756</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4429,7 +5142,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-564163046-mini-moto-bomba-de-aire-3v-robotica-arduino-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-564163046-mini-moto-bomba-de-aire-3v-robotica-arduino-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4437,7 +5150,12 @@
           <t>MCO564163046</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4452,7 +5170,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-615272957-mini-bomba-de-aire-6-voltios-proyectos-caseros-electronica-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-615272957-mini-bomba-de-aire-6-voltios-proyectos-caseros-electronica-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4460,7 +5178,12 @@
           <t>MCO615272957</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4475,7 +5198,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874993134-microcontrolador-pic16f877-8bit-256ram-4k-flash-dip-40-20mhz-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874993134-microcontrolador-pic16f877-8bit-256ram-4k-flash-dip-40-20mhz-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4483,7 +5206,12 @@
           <t>MCO874993134</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4498,7 +5226,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-543292794-microcontrolador-pic16f716-8-bit-converter-ad-compare-pwm-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-543292794-microcontrolador-pic16f716-8-bit-converter-ad-compare-pwm-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4506,7 +5234,12 @@
           <t>MCO543292794</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4521,7 +5254,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874462679-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-modelismo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874462679-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-modelismo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4530,6 +5263,7 @@
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4544,7 +5278,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-514321752-marco-impresora-3d-prusa-p3steel-acero-3mm-200x200x200mm-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-514321752-marco-impresora-3d-prusa-p3steel-acero-3mm-200x200x200mm-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4552,7 +5286,12 @@
           <t>MCO514321752</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4567,7 +5306,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613624419-luz-led-modulo-3-smd-x20und-12v-15w-avisos-espejos-vitrinas-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613624419-luz-led-modulo-3-smd-x20und-12v-15w-avisos-espejos-vitrinas-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4575,7 +5314,12 @@
           <t>MCO613624419</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4590,7 +5334,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551297947-llantas-velocista-goma-linetronics-con-alma-metalica-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551297947-llantas-velocista-goma-linetronics-con-alma-metalica-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4598,7 +5342,12 @@
           <t>MCO551297947</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4613,7 +5362,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513996392-llantas-para-mini-sumo-rin-en-aluminio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513996392-llantas-para-mini-sumo-rin-en-aluminio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4621,7 +5370,12 @@
           <t>MCO513996392</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4636,7 +5390,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539030354-llantas-mini-sumo-rin-plastico-goma-especial-alto-agarre-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539030354-llantas-mini-sumo-rin-plastico-goma-especial-alto-agarre-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4644,7 +5398,12 @@
           <t>MCO539030354</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4659,7 +5418,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513995714-llantas-mini-sumo-rin-aluminio-goma-especial-alto-agarre-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513995714-llantas-mini-sumo-rin-aluminio-goma-especial-alto-agarre-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4667,7 +5426,12 @@
           <t>MCO513995714</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4682,7 +5446,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-896572300-llanta-tamiya-70101-36mm-4pcs-robotica-modelismo-proyectos-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-896572300-llanta-tamiya-70101-36mm-4pcs-robotica-modelismo-proyectos-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4691,6 +5455,7 @@
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4705,7 +5470,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877939516-llanta-50mm-todo-terreno-2-unidades-tamiya-70096-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877939516-llanta-50mm-todo-terreno-2-unidades-tamiya-70096-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4714,6 +5479,7 @@
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4728,7 +5494,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1031238901-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1031238901-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4736,7 +5502,12 @@
           <t>MCO1031238901</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4751,7 +5522,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1031220135-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1031220135-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4759,7 +5530,12 @@
           <t>MCO1031220135</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4774,7 +5550,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-806870555-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-806870555-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4782,7 +5558,12 @@
           <t>MCO806870555</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>+500 vendidos</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4797,7 +5578,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-842167011-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-842167011-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4805,7 +5586,12 @@
           <t>MCO842167011</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4820,7 +5606,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625612215-kit-placa-electronica-psoc-6-wi-fi-bt-cy8cproto-062-4343w-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625612215-kit-placa-electronica-psoc-6-wi-fi-bt-cy8cproto-062-4343w-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4829,6 +5615,7 @@
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4843,7 +5630,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550903746-kit-mini-pci-e-evb-gsmgprs-4g-lte-quectel-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550903746-kit-mini-pci-e-evb-gsmgprs-4g-lte-quectel-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4852,6 +5639,7 @@
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4866,7 +5654,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550901370-kit-gsmnb-iot-evb-quectel-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550901370-kit-gsmnb-iot-evb-quectel-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4875,6 +5663,7 @@
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4889,7 +5678,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621595940-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621595940-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4898,6 +5687,7 @@
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4912,7 +5702,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621521172-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621521172-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4921,6 +5711,7 @@
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4935,7 +5726,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621513325-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621513325-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4944,6 +5735,7 @@
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4958,7 +5750,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621597243-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621597243-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4967,6 +5759,7 @@
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4981,7 +5774,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-573391560-kit-gps-l86-series-evb-quectel-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-573391560-kit-gps-l86-series-evb-quectel-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4990,6 +5783,7 @@
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5004,7 +5798,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550902033-kit-gps-l76-series-evb-quectel-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550902033-kit-gps-l76-series-evb-quectel-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5013,6 +5807,7 @@
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5027,7 +5822,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550902694-kit-evb-gsmgprs-3g-umtslte-quectel-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550902694-kit-evb-gsmgprs-3g-umtslte-quectel-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5036,6 +5831,7 @@
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5050,7 +5846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-622073737-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-622073737-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5058,7 +5854,12 @@
           <t>MCO622073737</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5073,7 +5874,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621576377-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621576377-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5081,7 +5882,12 @@
           <t>MCO621576377</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5096,7 +5902,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-967252175-juguete-kit-robot-solar-didactico-6-en-1-para-armar-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-967252175-juguete-kit-robot-solar-didactico-6-en-1-para-armar-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5104,7 +5910,12 @@
           <t>MCO967252175</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5119,7 +5930,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550770915-juego-de-destornilladores-torx-25-en-1-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=a80a20ad-ed7e-4ace-9349-a5c069663596</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550770915-juego-de-destornilladores-torx-25-en-1-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=b5c83078-eee9-42b9-b346-efc0f62ce918</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5127,7 +5938,12 @@
           <t>MCO550770915</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5142,7 +5958,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1218414760-inversor-ups-portatil-bluetti-ac300-generador-portatil-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1218414760-inversor-ups-portatil-bluetti-ac300-generador-portatil-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5151,6 +5967,7 @@
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5165,7 +5982,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961140250-inversor-solar-o-automovil-800-watts-1224-vdc-a-110ac-usb-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961140250-inversor-solar-o-automovil-800-watts-1224-vdc-a-110ac-usb-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5173,7 +5990,12 @@
           <t>MCO961140250</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5188,7 +6010,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961149072-inversor-solar-o-automovil-500-watts-1224-vdc-a-110ac-usb-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961149072-inversor-solar-o-automovil-500-watts-1224-vdc-a-110ac-usb-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5197,6 +6019,7 @@
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5211,7 +6034,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961124435-inversor-solar-o-automovil-1000-watts-1224-vdc-a-110ac-usb-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961124435-inversor-solar-o-automovil-1000-watts-1224-vdc-a-110ac-usb-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5219,7 +6042,12 @@
           <t>MCO961124435</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5234,7 +6062,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624317628-interruptor-balancin-neon-2-pociciones-switch-110v-20a-g132-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624317628-interruptor-balancin-neon-2-pociciones-switch-110v-20a-g132-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5242,7 +6070,12 @@
           <t>MCO624317628</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5257,7 +6090,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512615313-impresora-termica-ep-260c-12v-raspberry-pi-arduino-ttl-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512615313-impresora-termica-ep-260c-12v-raspberry-pi-arduino-ttl-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5266,6 +6099,7 @@
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5280,7 +6114,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956710-impresora-3d-maquina-cnc-paso-a-paso-nema-17-17hs4401-17a-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956710-impresora-3d-maquina-cnc-paso-a-paso-nema-17-17hs4401-17a-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5288,7 +6122,12 @@
           <t>MCO648956710</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5303,7 +6142,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640205487-ic-mt093ae-8-x-12-analog-switch-array-40-pin-plastic-dip-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640205487-ic-mt093ae-8-x-12-analog-switch-array-40-pin-plastic-dip-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5312,6 +6151,7 @@
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5326,7 +6166,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-626125935-guia-lineal-eje-40-cm-carro-mgn12h-maquinas-cnc-impresora-3d-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-626125935-guia-lineal-eje-40-cm-carro-mgn12h-maquinas-cnc-impresora-3d-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5335,6 +6175,7 @@
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5349,7 +6190,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640519396-gripper-brazo-robotico-pinzas-garra-aluminio-2-servos-mg996-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640519396-gripper-brazo-robotico-pinzas-garra-aluminio-2-servos-mg996-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5357,7 +6198,12 @@
           <t>MCO640519396</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5372,7 +6218,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936698418-generador-electrico-recargable-portatil-500wh-potencia-300-w-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936698418-generador-electrico-recargable-portatil-500wh-potencia-300-w-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5380,7 +6226,12 @@
           <t>MCO936698418</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5395,7 +6246,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512810794-fuente-de-laboratorio-profesional-siglent-spd3303c-2-ch-3-a-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512810794-fuente-de-laboratorio-profesional-siglent-spd3303c-2-ch-3-a-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5403,7 +6254,12 @@
           <t>MCO512810794</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5418,7 +6274,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636930217-fototransistor-receptor-ir-infrarojo-3-pines-mys838-p-tsop17-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636930217-fototransistor-receptor-ir-infrarojo-3-pines-mys838-p-tsop17-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5426,7 +6282,12 @@
           <t>MCO636930217</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5441,7 +6302,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611260139-fototransistor-3-pines-mys838-p-tsop17-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=8095ae66-244b-4b54-9a29-28083c8a6e02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611260139-fototransistor-3-pines-mys838-p-tsop17-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7e0cf00e-9c2c-44f7-937f-a6d15591f1fd</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5450,6 +6311,7 @@
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5464,7 +6326,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-558695389-face-shield-protector-facial-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=05946aa0-38dc-4e53-9834-b07e146d0ff0</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-558695389-face-shield-protector-facial-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=24b2a7e7-5625-4271-b3ff-824faa82ed0c</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5472,7 +6334,12 @@
           <t>MCO558695389</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5487,7 +6354,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1218229570-estacion-portatil-energia-generador-bluetti-eb3a-lifepo4-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1218229570-estacion-portatil-energia-generador-bluetti-eb3a-lifepo4-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5496,6 +6363,7 @@
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5510,7 +6378,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1217051301-estacion-portatil-energia-generador-bluetti-ac200max-lifepo4-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1217051301-estacion-portatil-energia-generador-bluetti-ac200max-lifepo4-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5519,6 +6387,7 @@
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5533,7 +6402,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936056200-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936056200-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5541,7 +6410,12 @@
           <t>MCO936056200</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5556,7 +6430,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936069093-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936069093-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5564,7 +6438,12 @@
           <t>MCO936069093</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5579,7 +6458,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560633454-display-panel-aviso-led-smd-taxi-libre-blanco-o-azul-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560633454-display-panel-aviso-led-smd-taxi-libre-blanco-o-azul-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5587,7 +6466,12 @@
           <t>MCO560633454</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5602,7 +6486,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560634094-display-aviso-panel-led-alto-brillo-taxi-12v-blanco-o-azul-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560634094-display-aviso-panel-led-alto-brillo-taxi-12v-blanco-o-azul-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5610,7 +6494,12 @@
           <t>MCO560634094</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5625,7 +6514,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560613592-display-aviso-led-smd-ocupado-libre-taxis-cabinas-banos-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560613592-display-aviso-led-smd-ocupado-libre-taxis-cabinas-banos-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5633,7 +6522,12 @@
           <t>MCO560613592</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5648,7 +6542,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624003083-diodo-rectificador-1n4007-1-amperio-1000v-50-unidades-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624003083-diodo-rectificador-1n4007-1-amperio-1000v-50-unidades-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5656,7 +6550,12 @@
           <t>MCO624003083</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5671,7 +6570,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624002648-diodo-rectificador-1n4004-1-amperio-400v-50-unidades-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624002648-diodo-rectificador-1n4004-1-amperio-400v-50-unidades-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5679,7 +6578,12 @@
           <t>MCO624002648</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5694,7 +6598,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888586615-conector-terminal-xt30-plug-modelismo-rc-electronica-lipo-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888586615-conector-terminal-xt30-plug-modelismo-rc-electronica-lipo-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5702,7 +6606,12 @@
           <t>MCO888586615</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5717,7 +6626,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-860312405-conector-convertidor-sma-hembra-a-crc9-antenas-4g-gps-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-860312405-conector-convertidor-sma-hembra-a-crc9-antenas-4g-gps-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5725,7 +6634,12 @@
           <t>MCO860312405</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5740,7 +6654,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-618538587-circuito-integrado-compuerta-logica-74ls00-nand-2in-4-juegos-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-618538587-circuito-integrado-compuerta-logica-74ls00-nand-2in-4-juegos-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5748,7 +6662,12 @@
           <t>MCO618538587</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5763,7 +6682,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-623750388-circuito-integrado-an6876-driver-5-led-vumetro-display-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-623750388-circuito-integrado-an6876-driver-5-led-vumetro-display-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5771,7 +6690,12 @@
           <t>MCO623750388</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5786,7 +6710,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-616782739-circuito-integrado-amplificador-de-audio-stk4141ii-50-watts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-616782739-circuito-integrado-amplificador-de-audio-stk4141ii-50-watts-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5794,7 +6718,12 @@
           <t>MCO616782739</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5809,7 +6738,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-822502555-circuito-integrado-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-822502555-circuito-integrado-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5817,7 +6746,12 @@
           <t>MCO822502555</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5832,7 +6766,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-820192956-circuito-integrado-74ls190-contador-binario-up-down-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-820192956-circuito-integrado-74ls190-contador-binario-up-down-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5840,7 +6774,12 @@
           <t>MCO820192956</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5855,7 +6794,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819515863-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819515863-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5864,6 +6803,7 @@
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5878,7 +6818,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819483364-circuito-integrado-74ls153-selector-multiplexor-4-a-1-linea-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819483364-circuito-integrado-74ls153-selector-multiplexor-4-a-1-linea-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5887,6 +6827,7 @@
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5901,7 +6842,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881809380-chasis-robot-mini-sumo-profesional-cuchilla-acero-base-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881809380-chasis-robot-mini-sumo-profesional-cuchilla-acero-base-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5909,7 +6850,12 @@
           <t>MCO881809380</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5924,7 +6870,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512795813-celda-peltier-60w-termoelectrica-tec1-12706-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512795813-celda-peltier-60w-termoelectrica-tec1-12706-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5932,7 +6878,12 @@
           <t>MCO512795813</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5947,7 +6898,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611118190-celda-de-carga-de-50kg-cuadrada-arduino-pic-psoc-stm-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611118190-celda-de-carga-de-50kg-cuadrada-arduino-pic-psoc-stm-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5955,7 +6906,12 @@
           <t>MCO611118190</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5970,7 +6926,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611137363-celda-de-carga-de-1kg-peso-presion-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611137363-celda-de-carga-de-1kg-peso-presion-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5978,7 +6934,12 @@
           <t>MCO611137363</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5993,7 +6954,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-887684629-cargador-y-balanceador-de-baterias-imax-b6-ac-pb-litio-lipo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=a8962a8a-0dfb-4c0f-bfe6-820b61064318</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-887684629-cargador-y-balanceador-de-baterias-imax-b6-ac-pb-litio-lipo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0716676-bb10-4ce8-a28d-a781610c6b96</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6001,7 +6962,12 @@
           <t>MCO887684629</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6016,7 +6982,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607354143-cargador-litio-72v-20a-3a-carcaza-plastica-bateria-litio-nmc-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607354143-cargador-litio-72v-20a-3a-carcaza-plastica-bateria-litio-nmc-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6024,7 +6990,12 @@
           <t>MCO607354143</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6039,7 +7010,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607350559-cargador-gel-72v-36a-para-bateria-de-gel-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607350559-cargador-gel-72v-36a-para-bateria-de-gel-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6047,7 +7018,12 @@
           <t>MCO607350559</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6062,7 +7038,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607353600-cargador-gel-72v-22a-para-bateria-de-gel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607353600-cargador-gel-72v-22a-para-bateria-de-gel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6070,7 +7046,12 @@
           <t>MCO607353600</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6085,7 +7066,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607353626-cargador-gel-60v-22a-para-bateria-de-gel-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607353626-cargador-gel-60v-22a-para-bateria-de-gel-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6093,7 +7074,12 @@
           <t>MCO607353626</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6108,7 +7094,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-878912643-cargador-bicicleta-moto-electrica-36v-22ah-bateria-gel-plomo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-878912643-cargador-bicicleta-moto-electrica-36v-22ah-bateria-gel-plomo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6116,7 +7102,12 @@
           <t>MCO878912643</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6131,7 +7122,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879058656-cargador-bicicleta-electrica-24v-22ah-bateria-gel-plomo-seca-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879058656-cargador-bicicleta-electrica-24v-22ah-bateria-gel-plomo-seca-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6139,7 +7130,12 @@
           <t>MCO879058656</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6154,7 +7150,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607354323-cargador-bateria-litio-60v-20a-nmc-moto-bicicletica-plastico-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607354323-cargador-bateria-litio-60v-20a-nmc-moto-bicicletica-plastico-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6162,7 +7158,12 @@
           <t>MCO607354323</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6177,7 +7178,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879059253-cargador-bateria-litio-24v-20a-3a-bicicleta-electrica-294v-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=bad93338-ae34-41db-a419-528267903baa</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879059253-cargador-bateria-litio-24v-20a-3a-bicicleta-electrica-294v-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=ce0a092b-8c29-4139-9c39-c5ac1ac181e1</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6185,7 +7186,12 @@
           <t>MCO879059253</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6200,7 +7206,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884159351-cama-caliente-314x214mm-aluminio-termistor-cable-led-mk2a-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884159351-cama-caliente-314x214mm-aluminio-termistor-cable-led-mk2a-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6209,6 +7215,7 @@
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6223,7 +7230,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-871436433-caja-reductora-doble-motor-tamiya-70097-carro-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-871436433-caja-reductora-doble-motor-tamiya-70097-carro-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6231,7 +7238,12 @@
           <t>MCO871436433</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6246,7 +7258,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-527606345-caja-raspberry-pi-3-case-plastico-con-tornillos-soporte-fan-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-527606345-caja-raspberry-pi-3-case-plastico-con-tornillos-soporte-fan-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6254,7 +7266,12 @@
           <t>MCO527606345</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6269,7 +7286,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-605870650-bateria-gel-12v-58ah-ciclo-profundo-vehiculos-electicos-evf-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=a8962a8a-0dfb-4c0f-bfe6-820b61064318</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-605870650-bateria-gel-12v-58ah-ciclo-profundo-vehiculos-electicos-evf-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0716676-bb10-4ce8-a28d-a781610c6b96</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6277,7 +7294,12 @@
           <t>MCO605870650</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6292,7 +7314,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607611408-bateria-gel-12v-36a-motos-y-vehiculos-electricos-6-evf-36l-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=a8962a8a-0dfb-4c0f-bfe6-820b61064318</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607611408-bateria-gel-12v-36a-motos-y-vehiculos-electricos-6-evf-36l-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0716676-bb10-4ce8-a28d-a781610c6b96</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6300,7 +7322,12 @@
           <t>MCO607611408</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6315,7 +7342,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1215256633-bateria-expansion-bluetti-b300-3072-wh-para-ac300-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1215256633-bateria-expansion-bluetti-b300-3072-wh-para-ac300-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6324,6 +7351,7 @@
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6338,7 +7366,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1270617038-bateria-de-lipo-tronex-rc-alta-22000-mah-50c-6s-222v-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1270617038-bateria-de-lipo-tronex-rc-alta-22000-mah-50c-6s-222v-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6347,6 +7375,7 @@
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6361,7 +7390,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1270649740-bateria-de-lipo-tronex-rc-alta-16000-mah-50c-6s-222v-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1270649740-bateria-de-lipo-tronex-rc-alta-16000-mah-50c-6s-222v-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6370,6 +7399,7 @@
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6384,7 +7414,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522186682-bateria-lipo-nano-tech-4400-mh-148-v-4s-65130c-wxt-90-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522186682-bateria-lipo-nano-tech-4400-mh-148-v-4s-65130c-wxt-90-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6393,6 +7423,7 @@
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6407,7 +7438,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-554240956-baquelita-universal-de-circuito-impreso-mw205-155x125-cm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-554240956-baquelita-universal-de-circuito-impreso-mw205-155x125-cm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6415,7 +7446,12 @@
           <t>MCO554240956</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6430,7 +7466,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827262791-baquelita-pcb-virgen-placa-para-circuito-impreso-10x15-cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827262791-baquelita-pcb-virgen-placa-para-circuito-impreso-10x15-cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6438,7 +7474,12 @@
           <t>MCO827262791</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6453,7 +7494,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827295055-baquelita-pcb-virgen-placa-para-circuito-impreso-10x10-cm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827295055-baquelita-pcb-virgen-placa-para-circuito-impreso-10x10-cm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6461,7 +7502,12 @@
           <t>MCO827295055</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6476,7 +7522,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827255540-baquelita-circuito-impreso-prototipos-mw-202-95x73mm-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827255540-baquelita-circuito-impreso-prototipos-mw-202-95x73mm-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6484,7 +7530,12 @@
           <t>MCO827255540</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6499,7 +7550,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-882438255-aviso-luminoso-led-pov-mira-ball-360-grados-texto-e-imagen-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-882438255-aviso-luminoso-led-pov-mira-ball-360-grados-texto-e-imagen-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6507,7 +7558,12 @@
           <t>MCO882438255</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6522,7 +7578,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-523257931-arduino-mini-pro-compatible-microcontrolador-atmega328-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-523257931-arduino-mini-pro-compatible-microcontrolador-atmega328-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6530,7 +7586,12 @@
           <t>MCO523257931</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6545,7 +7606,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-538886709-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-25dbi-w425-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-538886709-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-25dbi-w425-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6553,7 +7614,12 @@
           <t>MCO538886709</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6568,7 +7634,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509923730-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-16dbi-w416-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509923730-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-16dbi-w416-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6576,7 +7642,12 @@
           <t>MCO509923730</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6591,7 +7662,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636065738-antena-wifi-modem-internet-24ghz-58ghz-sma-hembra-8dbi-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636065738-antena-wifi-modem-internet-24ghz-58ghz-sma-hembra-8dbi-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6599,7 +7670,12 @@
           <t>MCO636065738</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6614,7 +7690,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452950922-antena-para-modem-router-internet-3g-4g-lte-wifi-w422-22dbi-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452950922-antena-para-modem-router-internet-3g-4g-lte-wifi-w422-22dbi-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6622,7 +7698,12 @@
           <t>MCO452950922</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6637,7 +7718,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452162347-antena-para-modem-router-internet-3g-4g-lte-wifi-w435-35dbi-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452162347-antena-para-modem-router-internet-3g-4g-lte-wifi-w435-35dbi-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6645,7 +7726,12 @@
           <t>MCO452162347</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6660,7 +7746,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509388958-antena-para-modem-router-internet-3g-4g-lte-wifi-w425-25dbi-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509388958-antena-para-modem-router-internet-3g-4g-lte-wifi-w425-25dbi-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6668,7 +7754,12 @@
           <t>MCO509388958</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>+100 vendidos</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6683,7 +7774,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-541702320-antena-mimo-4g-3g-lte-para-exteriores-ganancia-50-dbi-w50-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-541702320-antena-mimo-4g-3g-lte-para-exteriores-ganancia-50-dbi-w50-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6691,7 +7782,12 @@
           <t>MCO541702320</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6706,7 +7802,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452161978-antena-4g-lte-3g-wifi-exteriores-ext-20m-ganancia-46dbi-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452161978-antena-4g-lte-3g-wifi-exteriores-ext-20m-ganancia-46dbi-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6714,7 +7810,12 @@
           <t>MCO452161978</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6729,7 +7830,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610494682-amplificador-40-watts-stereo-bluetooth-reproductor-usb-sd-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610494682-amplificador-40-watts-stereo-bluetooth-reproductor-usb-sd-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6737,7 +7838,12 @@
           <t>MCO610494682</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6752,7 +7858,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525740125-amplificador-4-ch-25x4-watts-bluetooth-sd-usb-fm-mp3-12vdc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525740125-amplificador-4-ch-25x4-watts-bluetooth-sd-usb-fm-mp3-12vdc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6760,7 +7866,12 @@
           <t>MCO525740125</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6775,7 +7886,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513043701-adaptador-inalambrico-wifi-usb-edup-ep-ms8551-150mbps-antena-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513043701-adaptador-inalambrico-wifi-usb-edup-ep-ms8551-150mbps-antena-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6783,7 +7894,12 @@
           <t>MCO513043701</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6798,7 +7914,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874487662-acople-rigido-aluminio-5mm-a-5mm-d14-l25-cnc-impresora-3d-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874487662-acople-rigido-aluminio-5mm-a-5mm-d14-l25-cnc-impresora-3d-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6806,7 +7922,12 @@
           <t>MCO874487662</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6821,7 +7942,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-578324124-acople-de-5-mm-a-5-mm-maquinas-cnc-impresoras-3d-actuador-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-578324124-acople-de-5-mm-a-5-mm-maquinas-cnc-impresoras-3d-actuador-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6829,7 +7950,12 @@
           <t>MCO578324124</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6844,7 +7970,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611100953-acelerometro-adxl345-3-ejes-digital-arduino-pic-raspberry-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611100953-acelerometro-adxl345-3-ejes-digital-arduino-pic-raspberry-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6852,7 +7978,12 @@
           <t>MCO611100953</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6867,7 +7998,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1017676964-6-unidades-protoboard-170-puntos-colores-arduino-breadboard-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1017676964-6-unidades-protoboard-170-puntos-colores-arduino-breadboard-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6876,6 +8007,7 @@
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6890,7 +8022,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644879728-6-unidades-potenciometro-rotativo-lineal-1k-sencillo-3-pin-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644879728-6-unidades-potenciometro-rotativo-lineal-1k-sencillo-3-pin-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6898,7 +8030,12 @@
           <t>MCO644879728</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6913,7 +8050,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644880128-6-unidades-potenciometro-rotativo-lineal-100k-sencillo-3pin-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644880128-6-unidades-potenciometro-rotativo-lineal-100k-sencillo-3pin-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6921,7 +8058,12 @@
           <t>MCO644880128</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6936,7 +8078,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636931695-5x-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636931695-5x-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6944,7 +8086,12 @@
           <t>MCO636931695</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6959,7 +8106,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828109198-50-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828109198-50-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6967,7 +8114,12 @@
           <t>MCO828109198</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6982,7 +8134,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-893382869-50-unidades-condensador-poliester-683-68nf-100-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-893382869-50-unidades-condensador-poliester-683-68nf-100-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6991,6 +8143,7 @@
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7005,7 +8158,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883690086-50-unidades-condensador-poliester-47nf-100v-capacitor-473-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883690086-50-unidades-condensador-poliester-47nf-100v-capacitor-473-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7014,6 +8167,7 @@
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7028,7 +8182,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883929299-50-unidades-condensador-poliester-22nf-250v-capacitor-222-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883929299-50-unidades-condensador-poliester-22nf-250v-capacitor-222-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7037,6 +8191,7 @@
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7051,7 +8206,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880756384-50-unidades-condensador-electrolitico-22uf-63v-capacitor-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880756384-50-unidades-condensador-electrolitico-22uf-63v-capacitor-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7060,6 +8215,7 @@
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7074,7 +8230,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-893335930-50-unidades-bobina-inductor-06-mh-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-893335930-50-unidades-bobina-inductor-06-mh-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7083,6 +8239,7 @@
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7097,7 +8254,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-650547280-50-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-650547280-50-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7105,7 +8262,12 @@
           <t>MCO650547280</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7120,7 +8282,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307293-5-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307293-5-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7128,7 +8290,12 @@
           <t>MCO653307293</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7143,7 +8310,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644852760-5-unidades-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644852760-5-unidades-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7151,7 +8318,12 @@
           <t>MCO644852760</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7166,7 +8338,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624320630-5-unidades-micro-switch-balancin-6a-110v-2-posiciones-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624320630-5-unidades-micro-switch-balancin-6a-110v-2-posiciones-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7174,7 +8346,12 @@
           <t>MCO624320630</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7189,7 +8366,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624335735-5-unidades-dip-switch-jumper-8-pocisiones-16-pines-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624335735-5-unidades-dip-switch-jumper-8-pocisiones-16-pines-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7197,7 +8374,12 @@
           <t>MCO624335735</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7212,7 +8394,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624332048-5-unidades-dip-switch-jumper-4-pocisiones-8-pines-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624332048-5-unidades-dip-switch-jumper-4-pocisiones-8-pines-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -7220,7 +8402,12 @@
           <t>MCO624332048</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7235,7 +8422,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624323577-5-unidades-dip-switch-2-posiciones-azul-jumper-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624323577-5-unidades-dip-switch-2-posiciones-azul-jumper-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7243,7 +8430,12 @@
           <t>MCO624323577</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7258,7 +8450,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827307714-5-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827307714-5-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7267,6 +8459,7 @@
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7281,7 +8474,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640010754-4x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640010754-4x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7289,7 +8482,12 @@
           <t>MCO640010754</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7304,7 +8502,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-868683437-4-unidades-bateria-celda-21700-36v-5000mah-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-868683437-4-unidades-bateria-celda-21700-36v-5000mah-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7312,7 +8510,12 @@
           <t>MCO868683437</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7327,7 +8530,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640008311-2x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640008311-2x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7335,7 +8538,12 @@
           <t>MCO640008311</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7350,7 +8558,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-885887984-20-unidades-protoboard-mini-170-puntos-colores-breadboard-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-885887984-20-unidades-protoboard-mini-170-puntos-colores-breadboard-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7358,7 +8566,12 @@
           <t>MCO885887984</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7373,7 +8586,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-886809502-20-unidades-modulo-led-cob-12-voltios-2-watts-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-886809502-20-unidades-modulo-led-cob-12-voltios-2-watts-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7381,7 +8594,12 @@
           <t>MCO886809502</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7396,7 +8614,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884621278-20-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884621278-20-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7405,6 +8623,7 @@
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7419,7 +8638,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884056014-20-unidades-condensador-poliester-1-uf-400v-capacitor-105-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884056014-20-unidades-condensador-poliester-1-uf-400v-capacitor-105-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7427,7 +8646,12 @@
           <t>MCO884056014</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7442,7 +8666,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880788760-20-unidades-condensador-electrolitico-2200uf-35v-capacitor-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880788760-20-unidades-condensador-electrolitico-2200uf-35v-capacitor-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7450,7 +8674,12 @@
           <t>MCO880788760</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7465,7 +8694,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-873287311-2-unidades-set-llantas-proyectos-dye-ruedas-de-goma-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-873287311-2-unidades-set-llantas-proyectos-dye-ruedas-de-goma-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7474,6 +8703,7 @@
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7488,7 +8718,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656218673-2-unidades-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656218673-2-unidades-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7497,6 +8727,7 @@
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7511,7 +8742,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877887960-2-unidades-llanta-de-lujo-65mm-con-acoples-ruedas-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877887960-2-unidades-llanta-de-lujo-65mm-con-acoples-ruedas-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7519,7 +8750,12 @@
           <t>MCO877887960</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7534,7 +8770,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-873299778-2-unidades-llanta-78mm-rover-4wd-proyectos-dye-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-873299778-2-unidades-llanta-78mm-rover-4wd-proyectos-dye-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7543,6 +8779,7 @@
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7557,7 +8794,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-872929456-2-unidades-llanta-66mm-compatible-con-lego-ejes-tipo-d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-872929456-2-unidades-llanta-66mm-compatible-con-lego-ejes-tipo-d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7565,7 +8802,12 @@
           <t>MCO872929456</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr"/>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7580,7 +8822,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874462659-2-unidades-acople-rigido-aluminio-5mm-a-5mm-d14-l25-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=9a39def9-880c-49f9-81fa-deb64af13d02</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874462659-2-unidades-acople-rigido-aluminio-5mm-a-5mm-d14-l25-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=1a76d619-6cb1-4989-817a-0512fb5feba3</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7588,7 +8830,12 @@
           <t>MCO874462659</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7603,7 +8850,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550906169-1sheeld-bluetooth-smartphone-compatibel-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550906169-1sheeld-bluetooth-smartphone-compatibel-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7611,7 +8858,12 @@
           <t>MCO550906169</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7626,7 +8878,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889292543-15-unidades-modulo-bms-baterias-litio-18650-1s-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889292543-15-unidades-modulo-bms-baterias-litio-18650-1s-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7634,7 +8886,12 @@
           <t>MCO889292543</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7649,7 +8906,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-645964432-12-unidades-pulsador-switch-6x6x9mm-horizontal-base-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-645964432-12-unidades-pulsador-switch-6x6x9mm-horizontal-base-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7658,6 +8915,7 @@
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7672,7 +8930,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644895228-12-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644895228-12-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7680,7 +8938,12 @@
           <t>MCO644895228</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7695,7 +8958,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644884568-12-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644884568-12-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7703,7 +8966,12 @@
           <t>MCO644884568</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7718,7 +8986,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811197182-12-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811197182-12-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7726,7 +8994,12 @@
           <t>MCO811197182</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7741,7 +9014,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647486623-12-unidades-pulsador-switch-6x6x11mm-4-pines-vertical-dip-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647486623-12-unidades-pulsador-switch-6x6x11mm-4-pines-vertical-dip-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7749,7 +9022,12 @@
           <t>MCO647486623</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7764,7 +9042,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811184636-12-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811184636-12-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7772,7 +9050,12 @@
           <t>MCO811184636</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7787,7 +9070,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811171633-12-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811171633-12-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7795,7 +9078,12 @@
           <t>MCO811171633</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7810,7 +9098,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-810544492-12-unidades-pulsador-switch-4-pin-6x6x43mm-dip-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-810544492-12-unidades-pulsador-switch-4-pin-6x6x43mm-dip-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7818,7 +9106,12 @@
           <t>MCO810544492</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7833,7 +9126,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-645972219-12-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-dip-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-645972219-12-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-dip-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7841,7 +9134,12 @@
           <t>MCO645972219</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7856,7 +9154,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1190233162-10x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1190233162-10x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7864,7 +9162,12 @@
           <t>MCO1190233162</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7879,7 +9182,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1190245491-100x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1190245491-100x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7888,6 +9191,7 @@
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7902,7 +9206,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825721335-1000-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825721335-1000-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7911,6 +9215,7 @@
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7925,7 +9230,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818749160-1000-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818749160-1000-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7934,6 +9239,7 @@
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7948,7 +9254,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828096088-1000-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828096088-1000-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7957,6 +9263,7 @@
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7971,7 +9278,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877663059-100-unidades-resistencia-56-k-ohm-14w-1-precision-carbon-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877663059-100-unidades-resistencia-56-k-ohm-14w-1-precision-carbon-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7980,6 +9287,7 @@
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7994,7 +9302,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877915008-100-unidades-resistencia-51-k-ohm-14w-1-precision-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877915008-100-unidades-resistencia-51-k-ohm-14w-1-precision-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8003,6 +9311,7 @@
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8017,7 +9326,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876183080-100-unidades-resistencia-51-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876183080-100-unidades-resistencia-51-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8026,6 +9335,7 @@
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8040,7 +9350,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877624309-100-unidades-resistencia-51-m-ohm-14-1-precision-carbon-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877624309-100-unidades-resistencia-51-m-ohm-14-1-precision-carbon-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8048,7 +9358,12 @@
           <t>MCO877624309</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8063,7 +9378,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877655073-100-unidades-resistencia-470k-ohm-14-5-resistor-carbon-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877655073-100-unidades-resistencia-470k-ohm-14-5-resistor-carbon-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8072,6 +9387,7 @@
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8086,7 +9402,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-878355688-100-unidades-resistencia-47-ohm-12w-5-carbon-film-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-878355688-100-unidades-resistencia-47-ohm-12w-5-carbon-film-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8094,7 +9410,12 @@
           <t>MCO878355688</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8109,7 +9430,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877668635-100-unidades-resistencia-47-m-ohm-14-5-resistor-carbon-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877668635-100-unidades-resistencia-47-m-ohm-14-5-resistor-carbon-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8117,7 +9438,12 @@
           <t>MCO877668635</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8132,7 +9458,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876900942-100-unidades-resistencia-330k-ohm-14-5-resistor-carbon-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876900942-100-unidades-resistencia-330k-ohm-14-5-resistor-carbon-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8140,7 +9466,12 @@
           <t>MCO876900942</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -8155,7 +9486,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877905005-100-unidades-resistencia-270k-ohm-14w-1-precision-carbon-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877905005-100-unidades-resistencia-270k-ohm-14w-1-precision-carbon-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8164,6 +9495,7 @@
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8178,7 +9510,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876812074-100-unidades-resistencia-240k-ohm-14-5-resistor-carbon-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876812074-100-unidades-resistencia-240k-ohm-14-5-resistor-carbon-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -8187,6 +9519,7 @@
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8201,7 +9534,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876741529-100-unidades-resistencia-22k-ohm-14-5-resistor-carbon-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876741529-100-unidades-resistencia-22k-ohm-14-5-resistor-carbon-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -8209,7 +9542,12 @@
           <t>MCO876741529</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr"/>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8224,7 +9562,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876918217-100-unidades-resistencia-27k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876918217-100-unidades-resistencia-27k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -8232,7 +9570,12 @@
           <t>MCO876918217</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8247,7 +9590,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877662652-100-unidades-resistencia-24-k-ohm-14w-1-precision-carbon-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877662652-100-unidades-resistencia-24-k-ohm-14w-1-precision-carbon-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -8256,6 +9599,7 @@
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8270,7 +9614,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876741679-100-unidades-resistencia-150k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876741679-100-unidades-resistencia-150k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8279,6 +9623,7 @@
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8293,7 +9638,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877902336-100-unidades-resistencia-150h-ohm-14w-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877902336-100-unidades-resistencia-150h-ohm-14w-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -8302,6 +9647,7 @@
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8316,7 +9662,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876106804-100-unidades-resistencia-120k-ohm-14-1-resistor-carbon-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876106804-100-unidades-resistencia-120k-ohm-14-1-resistor-carbon-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -8324,7 +9670,12 @@
           <t>MCO876106804</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8339,7 +9690,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880768985-100-unidades-resistencia-120-ohm-1w-1-precision-carbon-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880768985-100-unidades-resistencia-120-ohm-1w-1-precision-carbon-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -8347,7 +9698,12 @@
           <t>MCO880768985</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8362,7 +9718,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876106928-100-unidades-resistencia-18k-ohm-14-5-resistor-carbon-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876106928-100-unidades-resistencia-18k-ohm-14-5-resistor-carbon-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8370,7 +9726,12 @@
           <t>MCO876106928</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8385,7 +9746,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880749236-100-unidades-resistencia-18k-ohm-12w-5-carbon-film-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880749236-100-unidades-resistencia-18k-ohm-12w-5-carbon-film-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8394,6 +9755,7 @@
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8408,7 +9770,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877631287-100-unidades-resistencia-15-m-ohm-14w-1-precision-carbon-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877631287-100-unidades-resistencia-15-m-ohm-14w-1-precision-carbon-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8416,7 +9778,12 @@
           <t>MCO877631287</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8431,7 +9798,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877674865-100-unidades-resistencia-15-m-ohm-14-5-resistor-carbon-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877674865-100-unidades-resistencia-15-m-ohm-14-5-resistor-carbon-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8440,6 +9807,7 @@
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8454,7 +9822,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876151083-100-unidades-resistencia-1-ohm-14-5-resistor-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876151083-100-unidades-resistencia-1-ohm-14-5-resistor-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8463,6 +9831,7 @@
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8477,7 +9846,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644895337-100-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644895337-100-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8485,7 +9854,12 @@
           <t>MCO644895337</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8500,7 +9874,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644884684-100-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644884684-100-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8509,6 +9883,7 @@
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8523,7 +9898,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811158564-100-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811158564-100-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8532,6 +9907,7 @@
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8546,7 +9922,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647507192-100-unidades-pulsador-switch-6x6x13mm-4-pines-vertical-dip-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647507192-100-unidades-pulsador-switch-6x6x13mm-4-pines-vertical-dip-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8555,6 +9931,7 @@
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8569,7 +9946,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811184655-100-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811184655-100-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8578,6 +9955,7 @@
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8592,7 +9970,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811171611-100-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811171611-100-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8601,6 +9979,7 @@
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8615,7 +9994,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811164970-100-unidades-pulsador-switch-4-pines-6x6x43mm-dip-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811164970-100-unidades-pulsador-switch-4-pines-6x6x43mm-dip-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8623,7 +10002,12 @@
           <t>MCO811164970</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8638,7 +10022,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825222142-100-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825222142-100-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8647,6 +10031,7 @@
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8661,7 +10046,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825234761-100-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825234761-100-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8670,6 +10055,7 @@
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8684,7 +10070,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-824671631-100-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-824671631-100-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8692,7 +10078,12 @@
           <t>MCO824671631</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8707,7 +10098,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818704402-100-unidades-led-5mm-chorro-diodo-electronica-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818704402-100-unidades-led-5mm-chorro-diodo-electronica-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -8715,7 +10106,12 @@
           <t>MCO818704402</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8730,7 +10126,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818710125-100-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818710125-100-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8738,7 +10134,12 @@
           <t>MCO818710125</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8753,7 +10154,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883372176-100-unidades-condensador-ceramico-50pf-50v-capacitor-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883372176-100-unidades-condensador-ceramico-50pf-50v-capacitor-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8762,6 +10163,7 @@
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8776,7 +10178,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883789643-100-unidades-condensador-ceramico-47nf-50v-capacitor-473-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883789643-100-unidades-condensador-ceramico-47nf-50v-capacitor-473-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8784,7 +10186,12 @@
           <t>MCO883789643</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8799,7 +10206,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883727450-100-unidades-condensador-ceramico-200pf-50v-capacitor-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883727450-100-unidades-condensador-ceramico-200pf-50v-capacitor-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8808,6 +10215,7 @@
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8822,7 +10230,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883778933-100-unidades-condensador-ceramico-22nf-50v-capacitor-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883778933-100-unidades-condensador-ceramico-22nf-50v-capacitor-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8831,6 +10239,7 @@
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8845,7 +10254,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881495828-100-unidades-condensador-ceramico-15pf-50v-capacitor-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881495828-100-unidades-condensador-ceramico-15pf-50v-capacitor-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8853,7 +10262,12 @@
           <t>MCO881495828</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8868,7 +10282,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883310454-100-unidades-condensador-ceramico-150pf-50v-capacitor-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883310454-100-unidades-condensador-ceramico-150pf-50v-capacitor-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8877,6 +10291,7 @@
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8891,7 +10306,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881508699-100-unidades-condensador-ceramico-120pf-50v-capacitor-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881508699-100-unidades-condensador-ceramico-120pf-50v-capacitor-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8900,6 +10315,7 @@
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8914,7 +10330,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883784922-100-unidades-condensador-ceramico-10nf-50v-capacitor-103-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883784922-100-unidades-condensador-ceramico-10nf-50v-capacitor-103-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8922,7 +10338,12 @@
           <t>MCO883784922</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8937,7 +10358,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819905676-100-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819905676-100-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8946,6 +10367,7 @@
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8960,7 +10382,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819522078-100-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819522078-100-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8969,6 +10391,7 @@
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8983,7 +10406,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819496391-100-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819496391-100-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8992,6 +10415,7 @@
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9006,7 +10430,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828089581-100-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828089581-100-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -9014,7 +10438,12 @@
           <t>MCO828089581</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9029,7 +10458,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875918355-10-unidades-sensor-magnetico-reed-switch-14mm-interruptor-na-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875918355-10-unidades-sensor-magnetico-reed-switch-14mm-interruptor-na-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9037,7 +10466,12 @@
           <t>MCO875918355</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9052,7 +10486,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-968421131-10-unidades-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-968421131-10-unidades-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -9061,6 +10495,7 @@
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9075,7 +10510,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307581-10-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307581-10-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -9083,7 +10518,12 @@
           <t>MCO653307581</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9098,7 +10538,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884576339-10-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884576339-10-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -9107,6 +10547,7 @@
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9121,7 +10562,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825283054-10-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=aa4c295d-6be5-409a-8e03-171b856c2749</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825283054-10-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=06c6b9ad-4575-4d5d-8bb4-3fd28e625426</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -9129,7 +10570,12 @@
           <t>MCO825283054</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9144,7 +10590,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825241150-10-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825241150-10-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -9152,7 +10598,12 @@
           <t>MCO825241150</t>
         </is>
       </c>
-      <c r="E379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9167,7 +10618,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-824696691-10-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-824696691-10-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -9175,7 +10626,12 @@
           <t>MCO824696691</t>
         </is>
       </c>
-      <c r="E380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9190,7 +10646,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-657962334-10-unidades-kit-espaciador-electronica-pcb-hh-m3x60mm-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-657962334-10-unidades-kit-espaciador-electronica-pcb-hh-m3x60mm-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -9198,7 +10654,12 @@
           <t>MCO657962334</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9213,7 +10674,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-657749034-10-unidades-kit-espaciador-electronica-pcb-hh-m3x10mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-657749034-10-unidades-kit-espaciador-electronica-pcb-hh-m3x10mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -9221,7 +10682,12 @@
           <t>MCO657749034</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>+50 vendidos</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -9236,7 +10702,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636931350-10-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636931350-10-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -9244,7 +10710,12 @@
           <t>MCO636931350</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -9259,7 +10730,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888592980-10-unidades-conector-xt30-plug-modelismo-rc-electronica-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=1435056f-94d7-4901-ab49-4c15f750249d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888592980-10-unidades-conector-xt30-plug-modelismo-rc-electronica-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=f8f87035-aefb-44fc-9d25-722b4c06b18f</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -9267,7 +10738,12 @@
           <t>MCO888592980</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>1 vendido</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -9282,7 +10758,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828089670-10-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828089670-10-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -9290,7 +10766,12 @@
           <t>MCO828089670</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -9305,7 +10786,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-820205497-10-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-820205497-10-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -9314,6 +10795,7 @@
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -9328,7 +10810,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819502911-10-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819502911-10-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -9337,6 +10819,7 @@
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -9351,7 +10834,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819502862-10-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9843542-1c49-42cf-952e-f5ae8c5a1490</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819502862-10-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=463e8392-70d3-437e-86e8-0cc5b0409a11</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -9360,6 +10843,7 @@
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -9374,7 +10858,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828102582-10-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828102582-10-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -9382,7 +10866,12 @@
           <t>MCO828102582</t>
         </is>
       </c>
-      <c r="E389" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -9397,7 +10886,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827294852-10-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827294852-10-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -9405,7 +10894,12 @@
           <t>MCO827294852</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -9420,7 +10914,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827288119-10-unidades-baquelita-circuito-impreso-prototipos-mw-202-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827288119-10-unidades-baquelita-circuito-impreso-prototipos-mw-202-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -9429,6 +10923,7 @@
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9443,7 +10938,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-822502569-10-unidades-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-822502569-10-unidades-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -9452,6 +10947,7 @@
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9466,7 +10962,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-651309102-10-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=9527c85e-0a38-42a4-ae2b-a83926ca4ae6</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-651309102-10-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=e9169882-b528-45dd-8f6f-b607af613b56</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -9474,7 +10970,12 @@
           <t>MCO651309102</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>+5 vendidos</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9489,7 +10990,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-559699275-multimetro-siglent-sdm3055-digital-de-banco-alta-precision-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=c8aa0c20-1a06-4317-87cd-5ed3b394a7a4</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-559699275-multimetro-siglent-sdm3055-digital-de-banco-alta-precision-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=566c1f07-dd82-406a-a59a-b2a5d3c454cb</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -9498,6 +10999,7 @@
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9512,7 +11014,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550911258-modulo-shield-c-ugsm-dual-sim-con-m95-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=303b4aba-12f8-4ad9-9aa8-e4965d7572f8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550911258-modulo-shield-c-ugsm-dual-sim-con-m95-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=9f3affc4-8f61-4e44-be2f-b6b19fd6ca09</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -9521,6 +11023,7 @@
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -9535,7 +11038,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539677435-modulo-potenciometro-sin-fin-encoder-cuadratura-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0372e0d-2386-4301-a1df-d5b823aec831</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539677435-modulo-potenciometro-sin-fin-encoder-cuadratura-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1893ae3-6a49-4444-a627-a4dc1f014f03</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -9543,7 +11046,12 @@
           <t>MCO539677435</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr"/>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>+25 vendidos</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -9558,7 +11066,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551292777-mira-ball-aviso-luminoso-rotativo-360-grados-texto-e-imagen-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=fb79be9b-6042-4ca7-87ff-f33b05c21fda</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551292777-mira-ball-aviso-luminoso-rotativo-360-grados-texto-e-imagen-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=64c1f6b1-61ff-4de6-a32a-e5c97dd7739d</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -9566,14 +11074,20 @@
           <t>MCO551292777</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>+1 vendidos</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr"/>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr">
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
         <is>
           <t>+1000 ventas en los últimos 365 días</t>
         </is>

--- a/MOVILTRONICSROBOTICA.xlsx
+++ b/MOVILTRONICSROBOTICA.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-887744704-voltimetro-medidor-bateria-9-150v-dc-h52cup-litio-gel-agm-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=7a909c59-89b1-4f4b-bca6-139582cc258e</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-887744704-voltimetro-medidor-bateria-9-150v-dc-h52cup-litio-gel-agm-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=9660d20c-7615-4bc7-aac0-2632a00ba753</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875930028-voltimetro-digital-mini-display-rojo-7-segmentos-4530v-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875930028-voltimetro-digital-mini-display-rojo-7-segmentos-4530v-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -570,11 +570,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_707835-MCO49498718883_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -590,7 +586,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610614985-ventilador-portatil-variable-recargable-usb-li-ion-18650-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610614985-ventilador-portatil-variable-recargable-usb-li-ion-18650-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,7 +614,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_735428-MCO45104271801_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.FOTOGRAFÍAS REALES DEL PRODUCTOEspecificaciones:Voltaje nominal: 5 VDCVoltaje de carga: 5 VDCCorriente: 0.5 - 1 amperioPotencia: 4.5 WattsRegulador de 3 velocidadesBatería: Li-ion 18650Dimensiones: ancho 11 cm - lago 4 cm - alto 14.5 cmCable micro USB compatible con cargadores de teléfonos móviles (cargador no incluido) o con el puerto del PC USBContenido de la oferta1 Ventilador 1 Celda Li-ion 186501 Cable USB Envío a cargo del comprador- Por MercadoEnvíosPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509368977-transformador-de-corriente-30001-amperio-mw01251l12-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7eb7c138-e72f-4634-b049-4269bc78c633</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509368977-transformador-de-corriente-30001-amperio-mw01251l12-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=45a8014e-1a52-4fb7-a4d3-f90c505ab444</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,7 +662,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_764964-MCO31559787966_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Condición: USADO recuperado de equipos en des usoFuncionamiento: 10/10 testeado con garantíaEstado estético: 9/10 algunos rastros de polvo y marcas de usoCaracterísticas-Factor de conversión 300:0.1 Amperio-Corriente máxima de salida 1 Amperio-TRF=1.33@30CIdeal para uso industrial para sensado de corriente de forma segura con microcontroladores AVR, PIC, ST... Placas de desarrollo Arduino, Pinguino... Proyectos de electricidad y electrónica, prototipos, estudiantes. Contenido de la oferta1 Transformador de corriente MW0125.1L12ENVIO GRATISPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -678,7 +682,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-584911004-tl-smoother-suavizador-smoother-motor-paso-paso-driver-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-584911004-tl-smoother-suavizador-smoother-motor-paso-paso-driver-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -722,7 +726,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529097877-terminal-conector-bateria-lipo-tipo-deans-plug-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529097877-terminal-conector-bateria-lipo-tipo-deans-plug-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -750,11 +754,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_884963-MCO31749331855_082019-R.jpg</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -770,7 +770,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-608824951-tarjeta-psoc-6-wifi-bt-cy8cproto-0624343w-cypress-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-608824951-tarjeta-psoc-6-wifi-bt-cy8cproto-0624343w-cypress-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -794,11 +794,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_751895-MCO46108203089_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -814,7 +810,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621534451-tarjeta-protector-bms-2s-2-celdas-lipo-litio-18650-74v-8a-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621534451-tarjeta-protector-bms-2s-2-celdas-lipo-litio-18650-74v-8a-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -842,11 +838,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_651522-MCO45852552671_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -862,7 +854,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550773729-tarjeta-nodemcu-esp8266-v3-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550773729-tarjeta-nodemcu-esp8266-v3-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -890,7 +882,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_762845-MLA49725688358_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>En Moviltronicsayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.NodeMCU V3 es una placa de control basada en el módulo wifi ESP8266 / ESP12E compatible con el entorno de programación Arduino IDE, es ideal para proyectos de electrónica y robótica avanzados, que necesiten una gran potencia de proceso y comunicaciones wifi. Comunica tus proyectos Arduino con estos módulos de forma fácil y sencilla.CARACTERISTICAS:Microcontrolador: CPU RISC Tensilica de 32 bits Xtensa LX106Voltaje de funcionamiento: 3,3 VVoltaje de entrada: 7-12 VMemoria Flash: 4 MBSRAM: 64 KBVelocidad de reloj: 80 MHzChip de comunicación serial: USB-TTL basado en CP2102 Antena PCBConexión micro USBFuente de alimentación:- NodeMCU se puede alimentar a través del puerto USB- Se pueden suministrar 3.3V regulados a este pin para alimentar la placa- Fuente de alimentación externa adaptador o baterías.Pines análogos: A0 contiene solo un pin de conversión análogo digital ADCPines Entrada/Salida digital: 16 pines de propósito generalPines PWM: 4 Pines de los 16 digitales puedes ser salida PWMProtocolos de comunicación:- NodeMCU tiene cuatro pines disponibles para la comunicación SPI.- NodeMCU tiene dos interfaces UART, UART0 (RXD0 y TXD0) y UART1 (RXD1 y TXD1).  UART1 se utiliza para cargar el firmware / programa.- NodeMCU permite usar protocolos I2CMódulo de tamaño pequeño para adaptarse de manera inteligente a sus proyectos de IoTESP8266-12E es una versión mejorada de ESP8266-12Protocolo estándar: WiFi 802.11 b/g/n Soporte de red: 2.4 GHzBanda: 2400 (MHz)Wi-Fi Direct (P2p), Soft Access PointStack TCP/IP integrado.Potencia de salida: 0,15 (W); +19.5dBm en modo 802.11bConsumo en modo de baja energía: &lt;10 uAProcesador integrado de 32 bitsSoporta WPA/WPA2Soporta Lua, ATSoporta tres modos de funcionamiento: AP, STA, STA + APComunicación tipo de interfaz: SPI, Serial, UART (115200 bps)Tamaño: 24 mm x 13mm x 48mmCONTENIDO DE LA OFERTA1x Tarjeta NodeMCU ESP8266 ESP12E Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -906,7 +902,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-605326775-tarjeta-educativa-bbc-microbit-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-605326775-tarjeta-educativa-bbc-microbit-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -936,7 +932,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------La Tarjeta MicroBit es una board para aprender a programar! integra bluetooth, acelerómetro, brújula, sensor de temperatura, además de una matriz de 25 leds, es un micro-computador programable que cabe en tu mano y que puede usarse para todo tipo de fantásticas invenciones: desde robots a instrumentos musicales. ¡Las posibilidades son ilimitadas!Se puede programar desde cualquier navegador web en Bloques, Javascript, Python, Scratch y más, no se requiere ningún otro software. MicroBit es amplia mente utilizado en escuelas y universidades de todo el mundo, desde Finlandia e Islandia hasta Colombia, por su versatilidad de uso.-----------------------------------------------------------------------------------------------------------------------CARACTERISTICAS:Voltaje Funcionamiento: 3V - Si vas a usar baterías MicroBit recomienda usar AAA de 1.5V alcalinas, debido a  que las recargables pueden tener un voltaje un poco mas bajo 1.2V Cortex-M0 de 32 bits ARMMemoria Flash 256KBRAM 16KBMatriz de leds 5×5 RojoDos botones programablesSensor de temperaturaAcelerómetro BrújulaBluetooth Integrado3 anillos de Entrada/Salida Análogas/Digitales2 anillos de alimentación: 3V y tierra (GND)Conector de borde 20 pinesConector Micro USBConector de batería JST-PHBotón de reinicio con led de estadoLa MicroBit es ideal para incentivar el aprendizaje desde los niños hasta los mas grandes gracias a la versatilidad de programación que nos ofrece, puedes empezar a programarla en unos simples pasos en la web sin necesidad de instalar programas, carga tus archivos de programa tan simple como copiar una imagen en carpetas. Además de conectar a tu equipo, si deseas puedes instalar la aplicación disponible para iOS y Android que te permite programarla desde tu smartphone enviando tus proyectos por bluetooth además de usar todos los sensores de la MicroBit también puedes enviar mensajes de forma inalámbrica a otras MicroBits utilizando la función 'Radio'.Usa MicroBit en 4 sencillos pasos1. Conéctala!!! Conecta la tarjeta a tu computadora a través del cable USB. 2. Prográmala !! Prueba a arrastrar y soltar algunos bloques preprogramados con Makonde similar a Scratch3. Descarga lo que has programado!!! Descarga el programa que has creado con el editor y cárgalo en tu tarjeta MicroBit.4. Experimenta y diviértete!!! El LED amarillo de la parte posterior de tu MicroBit empezará a parpadear y el código se ejecutará automáticamente en cuanto se haya cargado.La tarjeta puede almacenar únicamente un archivo, por lo que cada vez que cargues un nuevo archivo se borrará el anterior programa.¿Qué te deseas crear hoy? Explota tu creatividad.-----------------------------------------------------------------------------------------------------------------------CONTENIDO DE LA OFERTA1x Tarjeta educativa MicroBit V1 -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -954,7 +950,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625632969-tarjeta-de-desarrollo-picoboard-atmega328-compatible-arduino-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625632969-tarjeta-de-desarrollo-picoboard-atmega328-compatible-arduino-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -980,7 +976,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------PicoBoard permite, de forma sencilla, utilizar diferentes sensores que se pueden conectar fácilmente con los cables de cocodrilo incluidos. Su corazón es el microcontrolador ATmega328, que permite la programación a través de la ranura mini-usb utilizando el software gráfico Scratch.DescripciónEl sistema compatible con Arduino Uno permite, de forma sencilla, utilizar diferentes sensores. Los sensores se pueden conectar fácilmente utilizando los cables de cocodrilo suministrados. El corazón del módulo es el microcontrolador ATmega328 con cargador de arranque instalado que permite la programación usando el software gráfico Scratch a  través del cable miniUSB  ; el cable debe comprarse por separado .Pines del móduloEl sistema dispone de 4 entradas para, incluidas en el conjunto, hilos de cocodrilo. Además de ellos, a bordo también están:Control deslizante: es decir, potenciómetro analógico linealSensor de luzEl botón de cambio de tactoSensor de la intensidad del sonidoPines para conectores de cocodrilo:A - conectado a ADC5 / SCL I2C (pin PC5 ATmega328)B - conectado a ADC4 / SDA I2C (pin (PC4 ATmega328)C - conectado a ADC2 (pin PC2 ATmega328)D - conectado a ADC1 (pin PC1 ATmega328)-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Tarjeta PicoBoard1x Cable USB-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -998,7 +994,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-546308763-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-546308763-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,7 +1038,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625952106-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625952106-tarjeta-de-desarrollo-fpga-xilinx-spartan-7-xc7s15-ftgb196-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1086,7 +1082,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610630605-tarjeta-compatible-nodemcu-esp8266-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610630605-tarjeta-compatible-nodemcu-esp8266-cp2102-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1114,7 +1110,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_617871-MCO30421822356_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.CARACTERÍSTICAS:NodeMCU compatible es una tarjeta de desarrollo similar a Arduino, especialmente orientada al Internet de las cosas (IoT). Está basado en el SoC (System on Chip) ESP8266, un chip altamente integrado, diseñado para las necesidades de un mundo conectado. Integra un potente procesador con Arquitectura de 32 bits (más potente que el Arduino Due) y conectividad Wifi.Para el desarrollo de aplicaciones se puede elegir entre los lenguajes Arduino y Lua. Al trabajar dentro del entorno Arduino podremos utilizar un lenguaje que ya conocemos y hacer uso de un IDE sencillo de utilizar, ademas de hacer uso de toda la información sobre proyectos y librerías disponibles en internet. La comunidad de usuarios de Arduino es muy activa y da soporte a plataformas como el ESP8266.NodeMCU viene con un firmware pre-instalado el cual nos permite trabajar con el lenguaje interpretado LUA, enviandole comandos mediante el puerto serial (CP2102). Las tarjetas NodeMCU y Wemos D1 mini son las plataformas mas usadas en proyectos de Internet de las cosas (IoT). No compite con Arduino, pues cubren objetivos distintos, incluso es posible programar NodeMCU desde el IDE de Arduino.La tarjeta compatible NodeMCU está diseñada especialmente para trabajar en protoboard. Posee un regulador de voltaje en placa que le permite alimentarse directamente del puerto USB. Los pines de entradas/salidas trabajan a 3.3V. El chip CP2102 se encarga de la comunicación USB-Serial.ESPECIFICACIONES:Voltaje de Alimentación (USB): 5V DCVoltaje de Entradas/Salidas: 3.3V DCSoC: ESP8266 (Módulo ESP-12)CPU: Tensilica Xtensa LX3 (32 bit)Frecuencia de Reloj: 80MHz/160MHzInstruction RAM: 32KBData RAM: 96KBMemoria Flash Externa: 4MBPines Digitales GPIO: 17 (pueden configurarse como PWM a 3.3V)Pin Analógico ADC: 1 (0-1V)UART: 2Chip USB-Serial: CP2102Certificación FCCAntena en PCB802.11 b/g/nWi-Fi Direct (P2P), soft-APStack de Protocolo TCP/IP integradoPLLs, reguladores, DCXO y manejo de poder integradosPotencia de salida de +19.5dBm en modo 802.11bCorriente de fuga menor a 10uASTBC, 1×1 MIMO, 2×1 MIMOA-MPDU &amp; A-MSDU aggregation &amp; 0.4ms guard intervalWake up and transmit packets in &lt; 2msConsumo de potencia Standby &lt; 1.0mW (DTIM3)INTERFAZ CORRESPONDIENTE:SDIO 2.0, SPI, UARTIntegra RF switch, balun, 24dBm PA, DCXO y PMUPosee un procesador RISC, memoria en chip e interface para memoria externaProcesador MAC/Baseband integradoInterface I2S para apliaciones de audio de alta calidadReguladores de voltaje lineales "low-dropout" en chipArquitectura propietaria de generacion de clock "spurious free"Módulos WEP, TKIP, AES y WAPI integradosContenido de la oferta1x Tarjeta compatible NodeMCU ESP8266MODCompras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509371732-taco-breaker-abb-50a-s-281-uc-z-50-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509371732-taco-breaker-abb-50a-s-281-uc-z-50-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1158,11 +1158,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_727282-MCO31111779586_062019-R.jpg</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.Condición: USADO recuperado de equipos en des usoFuncio</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1178,7 +1174,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-578347648-soporte-para-extrusor-mk7mk8-en-u-metalico-impresora-3d-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-578347648-soporte-para-extrusor-mk7mk8-en-u-metalico-impresora-3d-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1208,7 +1204,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS:Soporte para extrusores MK7/Mk8 con agujeros de montaje inferiorPara usar con rodamientos extendidos SCS8LUU SC8LUUMontaje de ventiladores de capa 50x50-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Soporte Extrusor metálico U color plateadoNO incluye extrusor, rodamientos, ventilador, ni accesorios las imágenes mostradas son ilustrativas. Disponible únicamente en color gris metálico.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1226,7 +1222,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641979708-soporte-base-holder-para-3-bateria-21700-ensamble-25-unidad-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641979708-soporte-base-holder-para-3-bateria-21700-ensamble-25-unidad-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1270,7 +1266,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641977768-soporte-base-holder-para-3-bateria-18650-ensamble-25-unidade-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641977768-soporte-base-holder-para-3-bateria-18650-ensamble-25-unidade-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1314,7 +1310,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641978782-soporte-base-holder-para-2-bateria-21700-ensamble-25-unidad-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641978782-soporte-base-holder-para-2-bateria-21700-ensamble-25-unidad-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1342,7 +1338,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_868928-MCO46586110547_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Porta pila 21700 x2 Formaleta de ensamblePaquete por 25 unidadesPara mínimo 2 celdasSoporte de batería  de litio cilíndrico 21700Materiales ignífugos pc + pp + gp;Borde resistente a las grietas con ranura y pestaña para acoplar, puede adaptarse a varios tamaños.Diámetro del orificio de instalación de la batería 21.45 mm, estructura de 2 enlaces, la prueba de vibración de placa de níquel se puede realizar sin conexión a ningún dispositivoAdecuado para todo tipo de ensamblaje de baterías.Tenga en cuenta que la instalación requiere una pieza superior e inferior para funcionar.Modelo: 21700×2Batería a soportar 21700No. baterías: 2 o mas acoplandoColor principal: NegroTamaño: 23.45 x 35.22 mm / (L * W) medida sin pestañasAlto: 9mmDiámetro interno: 21.45 mm / 0.7 ”Paquete por 25 unidadesLa compra incluye25   Porta pila 21700 x2 Formaleta de ensamble.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641977035-soporte-base-holder-para-2-bateria-18650-ensamble-25-unidade-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641977035-soporte-base-holder-para-2-bateria-18650-ensamble-25-unidade-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1386,11 +1386,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_865706-MCO46585994733_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1406,7 +1402,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522901824-soldadura-estano-en-tubo-08mm-6337-flux-2-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522901824-soldadura-estano-en-tubo-08mm-6337-flux-2-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1430,7 +1426,11 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Tubo dispensador de estaño. 1.5 metros, para trabajos de poca envergadura.Diámetro 0.8 mm.Aleación: Sn 63 / Pb 37.Cantidad: 5gr por TuboFlux de alta calidad en el núcleo.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Soldadura Estaño en Tubo 0.8mm 63/37 Flux 2%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635803254-shield-data-logger-v10-compatible-arduino-uno-leonardo-mega-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635803254-shield-data-logger-v10-compatible-arduino-uno-leonardo-mega-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525753305-set-de-brocas-pcb-03-a-12-mm-made-in-japan-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=7a909c59-89b1-4f4b-bca6-139582cc258e</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525753305-set-de-brocas-pcb-03-a-12-mm-made-in-japan-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=9660d20c-7615-4bc7-aac0-2632a00ba753</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611291476-sensor-touch-pulsador-de-toque-electronico-no-mecanico-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611291476-sensor-touch-pulsador-de-toque-electronico-no-mecanico-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611313384-sensor-temperatura-infrarrojo-sin-contacto-mlx90614-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611313384-sensor-temperatura-infrarrojo-sin-contacto-mlx90614-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-514450258-sensor-reflexion-3-juegos-analogo-qtr-3a-seguimiento-linea-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-514450258-sensor-reflexion-3-juegos-analogo-qtr-3a-seguimiento-linea-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1642,7 +1642,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_802669-MCO30722574331_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de reflexión QTR-3A AnálogoEste módulo compacto incluye tres pares IR / fototransistor en una placa de 1,25 “x 0,3”. Los sensores están montados en un paso de 0,375 “, lo que convierte a esta matriz en una excelente solución de detección mínima para un robot de seguimiento de línea. Cada sensor proporciona una salida de tensión analógica separada .El conjunto de sensores de reflectancia QTR-3A está pensado como un sensor de línea, pero se puede usar como un sensor de proximidad o reflectancia de uso general. El módulo es un portador conveniente para tres pares de emisor y receptor IR (fototransistor). Con sensores espaciados a intervalos de 0,375 “(9,525 mm) a lo largo del eje más largo de la placa, esta matriz funciona bien como un detector mínimo para robots de seguimiento de líneas, ya que los cursos de seguimiento de líneas se realizan comúnmente utilizando 3/4” (19 mm) cinta electrica negra. El sensor del medio está ligeramente desplazado a lo largo del eje corto de la placa.Cada fototransistor está conectado a una resistencia pull-up para formar un divisor de voltaje que produce una salida de voltaje analógica entre 0 V y VCC (que normalmente es de 5 V) como una función del IR reflejado. Una tensión de salida más baja es una indicación de una mayor reflexión.Las resistencias limitadoras de corriente de los LED están configuradas para entregar aproximadamente 17 mA a los LED cuando VCC es de 5 V, lo que hace que el consumo total de la placa sea superior a 50 mA. El diagrama esquemático del módulo se muestra a continuación:Las resistencias limitadoras de corriente LED para operación de 5 V están dispuestas en dos etapas; esto permite un bypass simple de una etapa para permitir el funcionamiento a 3.3 V. La corriente del LED es aproximadamente de 20 a 25 mA, lo que hace que el consumo total de la tarjeta sea ligeramente inferior a 100 mA.CaracterísticasDimensiones: 1.25 ¿ × 0.3 ¿ × 0.1 ¿ (32 × 8 × 3 mm) (sin los pasadores de cabecera instalados)Voltaje de funcionamiento: 5.0 VCorriente de suministro: 50 mAFormato de salida: 3 voltajes analógicos.Rango de voltaje de salida: 0 V al voltaje suministradoDistancia de detección óptima: 0.125 “(3 mm)Distancia de detección máxima recomendada: 0.25 “(6 mm)Peso sin pines de cabecera: 0.02 oz (0.6 g)Contenido de la oferta1x Sensores de reflexión QTR – 3APara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1658,7 +1662,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539252000-sensor-reflexion-16-juego-digital-qtr-md-16rc-seguidor-linea-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539252000-sensor-reflexion-16-juego-digital-qtr-md-16rc-seguidor-linea-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1686,7 +1690,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_854414-MCO32649548845_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de reflexión QTR-16RC16 juegos de sensores digital de lineaEste conjunto de pares de LED IR / fototransistor es ideal para identificar con precisión los cambios en la reflectancia (como la detección de línea). Funciona de 2.9 V a 5.5 V y ofrece un control de brillo regulable independiente del voltaje de alimentación y controles separados para los emisores pares e impares. En general, cuanto más cerca está el objeto, mayor es el contraste entre las lecturas claras y oscuras, pero los objetos de alta reflectancia son generalmente detectables al rededor de los 50 mm . Esta versión presenta los sensores QTR de estilo tradicional sin lentes.Estos sensores de reflectancia cuentan con una matriz lineal de módulos de par emisor / fototransistor infrarrojo en una disposición de alta densidad (paso de 4 mm) o de densidad media (paso de 8 mm), lo que los hace muy adecuados para aplicaciones que requieren la detección de cambios en la reflectividad. Este cambio en la reflectividad puede deberse a un cambio de color a una distancia fija, como al detectar una línea negra sobre un fondo blanco, así como a un cambio en la distancia o la presencia de un objeto frente al sensor. Hay una variedad de sensores y densidades disponibles para que pueda elegir la disposición ideal para su aplicación. Como las salidas son todas independientes, puede conectar solo algunos de los canales para lograr un espaciado de sensor irregular o no estándar.A diferencia de nuestros módulos de sensores QTR originales, estas unidades tienen controladores LED integrados que proporcionan un control de brillo independiente de la tensión de alimentación, que puede ser de 2,9 V a 5,5 V, al tiempo que permite la atenuación opcional a cualquiera de las 32 configuraciones de brillo posibles. Para los módulos de alta densidad (HD) con cinco o más sensores y los módulos de densidad media (MD) con once o más sensores, hay controles separados para los LED de números impares y pares, lo que le brinda opciones adicionales para detectar la luz reflejado en varios ángulos.Hay dos opciones de sensor diferentes disponibles, indicadas por “QTR” o “QTRX” en el nombre del producto. Las versiones “QTR” cuentan con módulos de sensores de menor costo sin lentes, mientras que las versiones “QTRX” cuentan con módulos de sensores de alto rendimiento con lentes, que permiten un rendimiento similar con una corriente LED IR mucho más baja.CaracterísticasDimensiones: 125.0 × 16.5 × 2.5 mm (vea el diagrama de dimensiones (1MB pdf) para más detalles)Voltaje de funcionamiento: 2.9 V a 5.5 VTipo de sensor: QTRRecuento de sensores: 16Paso del sensor: 8 mmCorriente LED de brillo completo: 30 mA (independiente de la tensión de alimentación)Corriente máxima de la placa: 250 mAFormato de salida: señales digitales compatibles con E / S que se pueden leer en paralelo como pulsos altos temporizadosDistancia de detección óptima: 5 mmDistancia de detección máxima recomendada: 50 mm.Peso: 7.5 gContenido de la oferta1x Sensor de reflexión QTR – 16RCPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1702,7 +1710,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-515104272-sensor-reflectivo-3-juegos-digital-qtr-3rc-seguidor-linea-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-515104272-sensor-reflectivo-3-juegos-digital-qtr-3rc-seguidor-linea-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1726,7 +1734,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_703578-MCO31562832129_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de reflexión QTR - 3RC digitalEste módulo compacto incluye tres pares IR fototransistor en una placa de 1,25 x 0,3. Los sensores están montados en un paso de 0,375, lo que permite que esta matriz se use como un detector mínimo para un robot de seguimiento de línea. Cada sensor proporciona una salida de voltaje medible por E S digital separada .El conjunto de sensores de reflectancia QTR - 3RC está pensado como un sensor de línea, pero puede usarse como un sensor de proximidad o reflectancia de uso general. El módulo es un portador conveniente para tres pares de emisor y receptor IR ( fototransistor ). Con sensores espaciados a intervalos de 0,375 ( 9,525 mm ) a lo largo del eje más largo de la placa, esta matriz funciona bien como un detector mínimo para robots de seguimiento de líneas, ya que los cursos de seguimiento de líneas se realizan comúnmente utilizando 3/4 ( 19 mm ) cinta eléctrica negra. El sensor del medio está ligeramente desplazado a lo largo del eje corto de la placa.Para usar un sensor, primero debe aplicar un voltaje alto a su pin de SALIDA. Luego puede leer la reflectancia retirando la tensión aplicada externamente en el pin OUT y cronometrando cuánto tiempo tarda la tensión de salida en decaer debido al fototransistor integrado. Un tiempo de decaimiento más corto es una indicación de una mayor reflexión. Este enfoque de medición tiene varias ventajas, especialmente cuando se utilizan múltiples unidades:No se requiere convertidor analógico a digital ( ADC )Sensibilidad mejorada sobre la salida analógica del divisor de voltajeLa lectura paralela de múltiples sensores es posible con la mayoría de los microcontroladoresLas resistencias limitadoras de corriente de los LED están configuradas para entregar aproximadamente 17 mA a los LED cuando VCC es de 5 V, lo que hace que el consumo total de la placa sea superior a 50 mA. El diagrama esquemático del módulo se muestra a continuación:CaracterísticasDimensiones: 1.25x 0.3 x 0.1 ( 32 mm x 8 mm x 3 mm ) ( sin los pasadores de cabecera instalados )Voltaje de funcionamiento: 5.0 VCorriente de suministro: 50 mAFormato de salida: 3 señales digitales compatibles con E S que pueden leerse como un pulso alto temporizadoDistancia de detección óptima: 0.125 (3 mm)Distancia de detección máxima recomendada: 0.25 6 mmPeso sin pines de cabecera: 0.02 oz ( 0.6 g )Contenido de la oferta1x Sensores de reflexión QTR – 3RCPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1742,7 +1754,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611308458-sensor-pulso-cardiaco-dactilar-ky-039-ritmo-cardiaco-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611308458-sensor-pulso-cardiaco-dactilar-ky-039-ritmo-cardiaco-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1786,7 +1798,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611311188-sensor-presion-atmosferica-y-temperatura-bmp280-barometrica-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611311188-sensor-presion-atmosferica-y-temperatura-bmp280-barometrica-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1812,7 +1824,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El Sensor BMP280 atmosférico de alta precisión, es un sensor ambiental con temperatura y presión barométrica que es la actualización de la próxima generación al BMP085 – BMP180 – BMP183. Este sensor es ideal para todo tipo de detección meteorológica e incluso se puede utilizar tanto en I2C como en SPI.El sensor de presión barométrica BMP280 posee alta precisión, linealidad y un bajo consumo de energía. Basado en tecnología BOSCH piezo-resistiva con gran robustez EMC, cuenta con estabilidad a largo plazo. Este sensor es la mejor solución de detección de precisión y bajo costo para medir la presión barométrica con una precisión absoluta de ± 1 hPa y la temperatura con una precisión de ± 1.0 ° C. Debido a que la presión cambia con la altitud, y las mediciones de presión son tan buenas, también puede usarlo como un altímetro con una precisión de ± 1 metro.-----------------------------------------------------------------------------------------------------------------------Características:Voltaje de alimentación: 1.8V a 3.3VChip principal: BMP280Comunicación: Protocolo de comunicación estándar I2C – SPIRango de Presión: 300-1100hpaResolución: 0.16Pa.Resolución absoluta: 1 hpaResolución de temperatura: 0.01° CPrecisión de temperatura: 1°CFrecuencia de muestreo: 157 hzNúmero de pines: 6Compatible con ArduinoDimensiones: 1.52 * 1.20 cmModelo: FC-03Este tipo de sensores pueden ser utilizados para calcular la altitud con gran precisión, por lo que es un sensor muy utilizado en sistemas de Autopiloto para Drones. Este sensor puede entregar medidas de altitud con una precisión de hasta 1m.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Sensor de presión atmosférica BMP280-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1830,7 +1842,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611259093-sensor-infrarrojo-tcrt5000-obstaculos-linea-velocista-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611259093-sensor-infrarrojo-tcrt5000-obstaculos-linea-velocista-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1870,7 +1882,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611257974-sensor-infrarrojo-e18-d80nk-3-80cm-e18-fotoelectrico-npn-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611257974-sensor-infrarrojo-e18-d80nk-3-80cm-e18-fotoelectrico-npn-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1898,11 +1910,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_906139-MCO45155158657_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1918,7 +1926,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611276353-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611276353-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1942,11 +1950,7 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1962,7 +1966,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656242361-sensor-fuerza-vibracion-piezoelectrico-ldtm-028k-arduino-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656242361-sensor-fuerza-vibracion-piezoelectrico-ldtm-028k-arduino-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2006,7 +2010,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611271039-sensor-de-voltaje-0-25v-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611271039-sensor-de-voltaje-0-25v-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2032,7 +2036,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de voltaje 0-25VEste módulo se basa en el principio de presión de los puntos de resistencia, y puede hacer que el voltaje de entrada del terminal rojo reduzca 5 veces el voltaje original.La tensión máxima de entrada analógica de Arduino es de 5 V, por lo que la tensión de entrada de este módulo no debe ser superior a 5 V x 5 = 25 V (si el sistema es de 3,3 V, la tensión de entrada no debe ser superior a 3,3 V x 5 = 16,5 V ).CaracterísticasRango de entrada de tensión: DC 0-25 VRango de detección de tensión DC 0.02445 V-25 VResolución analógica de tensión: 0.00489 VConector de entrada DC: cátodo terminal conectado a Vcc, poste negativo de GNDInterfaz de salida: “+” Conecte 5/3.3 V, “-” conectar GND, “s” pin de salida.Contenido de la oferta1x Sensor de voltaje 0-25VPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2050,7 +2054,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611272068-sensor-de-vibracion-sw18015p-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611272068-sensor-de-vibracion-sw18015p-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2070,7 +2074,11 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de vibración SW18015PEl sensor de Vibración basado en el componente SW-18015P, al detectar un movimiento actúa como un interruptor cerrado.Omnidireccional, detecta el movimiento, golpe o aceleraciones repentinas en cualquier dirección.CARACTERISTICAS:Módulo sensor de vibración interruptor de vibración módulo de alarma SW-18010P para arduino MÓDULO DE sensor DE CHOQUE normalmente abierto Diy KiTEl uso del interruptor de vibración de alta sensibilidad de la empresa SW-18010P por defecto con sensores de vibración.La salida del comparador indica una forma de onda limpia y buena, capacidad de conducción superior a 15 mAVoltaje de funcionamiento de 3,3 V-5 VForma de salida: salida de Conmutación digital (0 y 1)Agujero de perno fijo para una fácil instalaciónPlaca de circuito impreso pequeño tamaño: 3,2 cm x 1,4 cmUtiliza un comparador de voltaje amplio LM393Para las instrucciones de Cableado :VCC: fuente de alimentación positivaGND: NegativoDO: salida de señal digitalAO: Con este sensor de choque esta función no es válida.Contenido de la oferta1x Sensor de vibración SW18015PPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2086,7 +2094,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879588943-sensor-de-temperatura-ds18b20-circuito-integrado-to92-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879588943-sensor-de-temperatura-ds18b20-circuito-integrado-to92-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2114,11 +2122,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_727890-MCO49603723361_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2134,7 +2138,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539935696-sensor-de-movimiento-pir-hc-sr501-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539935696-sensor-de-movimiento-pir-hc-sr501-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2164,7 +2168,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrĂłnica y robĂłtica se hagan realidad,su</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de movimiento PIR HCSR501Emplea lentes Fresnel y sensores infrarrojos para detectar los cambios de luz infrarroja pasivos emitidos por cualquier objeto. Es extremadamente fácil de usar e ideal para aplicaciones de control de presencia, sistemas de alarmas, detección de movimiento, robótica, etc… Se alimenta con una única tensión de alimentación de +5Vcc y dispone de una salida que se activa al detectar el movimiento. Esta salida se puede conectar con la entrada de cualquier microcontrolador.Jumper selecciona el funcionamiento normal o sensibilidad reducida.Aproximadamente 90 grados de campo de vista.LED integrado que iluminan la lente para la retroalimentación visual cuando se detecta movimiento.3-pines perfecto para proyectos de la protoboard.Fácil comunicación con cualquier microcontrolado.El módulo HC-SR501 tiene 3 pines de conexión +5v, OUT (3,3v) y GND, y dos resistencias variables de calibración (Ch1 y RL2).Ch1: Con esta resistencia podemos establecer el tiempo que se va a mantener activa la salida del sensor. Una de las principales limitaciones de este módulo es que el tiempo mínimo que se puede establecer es de más o menos 3s. Si cambiamos la resistencia por otra de 100K, podemos bajar el tiempo mínimo a más o menos 0,5 s.RL2: Esta resistencia variable nos permite establecer la distancia de detección que puede variar entre 3-7m.La posibilidad de mantener activa la salida del módulo durante un tiempo determinado nos permite poder usarlo directamente para prácticamente cualquier aplicación sin necesidad de usar un microcontrolador. CaracterísticasRequisitos actuales: 3 mA activa ( sin carga )Comunicación: un solo bit de alto / bajoDimensiones: 1.41 x 1.0 x 0.8 in ( 3,6 x 2,5 x 2,0 cm )Rango de temperatura de funcionamiento: de 32 a 122 F (0 a 50 C)Sensor piro eléctrico (Pasivo) infrarrojo (También llamado PIR)El módulo incluye el sensor, lente, controlador PIR BISS0001, regulador y todos los componentes de apoyo para una fácil utilización.Rango de detección: 3 m a 7 m, ajustable mediante Trimmer (Sx)Lente fresnel de 19 zonas, ángulo &lt; 100Salida activa alta a 3.3 VTiempo en estado activo de la salida configurable mediante Trimmer (Tx)Re disparo configurable mediante jumper de soldaduraConsumo de corriente en reposo: 50 uAVoltaje de alimentación: 4.5 VDC a 20 VDCAplicaciones:Productos de seguridadIluminación automáticaAutomatización y control industrialPuertas y timbres automáticosJuguetesEntre otrosContenido de la oferta1x Sensor de movimiento PIR HCSR501Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2182,7 +2186,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611318999-sensor-de-luz-fotocelda-fotorresistencia-7mm-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611318999-sensor-de-luz-fotocelda-fotorresistencia-7mm-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2208,7 +2212,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Fotocelda de 7mmLa foto celda o fotorresistencia es un componente electrónico cuya resistencia disminuye con el aumento de intensidad de luz incidente. Su funcionamiento se basa en el efecto fotoeléctrico. Una fotorresistencia está hecho de un semiconductor de alta resistencia como el sulfuro de cadmio. Si la luz que incide en el dispositivo es de alta frecuencia, los fotones son absorbidos por las elasticidades del semiconductor dando a los electrones la suficiente energía para saltar la banda de conducción. El electrón libre que resulta, y su hueco asociado, conducen la electricidad, de tal modo que disminuye la resistencia. Los valores típicos varían entre 1 M ohm o más en la oscuridad y 100 ohm con luz brillante. El tiempo de respuesta típico de un LDR está en el orden de la décima de segundo.Se emplean en iluminación, apagado y encendido de alumbrado , en alarmas, en cámaras fotográficas, en medidores de luz, detectores de presencia, paso de objetos, entre otros. Las de la gama infrarroja en control de máquinas y procesos de contaje y detección de objetos. Son sensores ideales para proyectos de iluminación o cualquier proyecto que necesite controlar la luz ambiente o interna.Contenido de la oferta1x Fotocelda de 7mmPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2226,7 +2230,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539937007-sensor-de-luz-digital-bh1750-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539937007-sensor-de-luz-digital-bh1750-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2270,7 +2274,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611274985-sensor-de-luz-con-fotocelda-ky018-arduino-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611274985-sensor-de-luz-con-fotocelda-ky018-arduino-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2296,7 +2300,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor Fotocelda KY018El Modulo sensor con fotocelda  basa su funcionamiento en una fotorresistencia , con ella mide los datos de la intensidad de luz ambiente. La salida AO, estará en nivel alto hasta que la intensidad de luz supere el umbral que se haya fijado con ayuda del reset, por lo que el módulo podría diferenciar un entorno iluminado de uno oscuro.Ademas cuenta con dos leds indicadores de estado , uno indica que el modulo esta alimentado y otro es indicador de la señal de la fotorresistencia, el  amplificador operacional LM393, le brinda un excelente rendimiento así como fiabilidad.Sensor de resistencia fotosensible, cuenta con salida de comparador, la señal es limpia, la capacidad de conducción es fuerte, más de 15 mA, cuenta con potenciómetro ajustable puede detectar ajuste de brillo de luz.Alimentación: 3.3 VDC-6 VDCTamaño pequeño placa PCB: 3,2 cm x 1,4 cmSalida: Digital por comparacionComparador de tensión LM393.Contenido de la oferta1x Sensor fotocelda KY018 Modulo con operacionalPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2314,7 +2318,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539930224-sensor-de-lluvia-yc69-arduino-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539930224-sensor-de-lluvia-yc69-arduino-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2354,7 +2358,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611307357-sensor-de-inclinacion-sw520d-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611307357-sensor-de-inclinacion-sw520d-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2394,7 +2398,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611253772-sensor-de-herradura-klh512-encoder-motor-sensor-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611253772-sensor-de-herradura-klh512-encoder-motor-sensor-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2424,7 +2428,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Sensor de Herradura KLH512Un sensor fotoeléctrico es un dispositivo electrónico que responde al cambio en la intensidad de la luz. Estos sensores requieren de un componente emisor que genera la luz, y un componente receptor que percibe la luz generada por el emisor. Están diseñados especialmente para la detección, clasificación y posicionado de objetos; la detección de formas, colores y diferencias de superficie, incluso bajo condiciones ambientales extremas. Los sensores de luz se usan para detectar el nivel de luz y producir una señal de salida representativa respecto a la cantidad de luz detectada.En este caso el sensor de herradura KLH512 es principalmente usado en encoder para detección de posición de motores, o posición de piezas lineales o incluso final de carrera.CaracterísticasAncho de la ranura: 4.5 mmTipo transmisivoTamaño compactoLuz infrarrojaCorriente del LED en directo max: 50 mAVoltaje inverso del LED max: 6 VVoltaje colector-emisor max: 35 VCorriente de colector max: 20 mATiempo de respuesta: 50 us típicoAplicaciones:Detección de posiciónEncoder individuales o de cuadraturaMedición de revolucionesContenido de la oferta1x Sensor de herradura KLH512Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2442,7 +2446,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610977571-sensor-de-gas-mq8-hidrogeno-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610977571-sensor-de-gas-mq8-hidrogeno-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2466,11 +2470,7 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610966766-sensor-de-gas-mq4-gas-ch4-gas-natural-gnl-alcohol-humo-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610966766-sensor-de-gas-mq4-gas-ch4-gas-natural-gnl-alcohol-humo-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2510,11 +2510,7 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2530,7 +2526,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-554642565-sensor-de-flama-ky026-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-554642565-sensor-de-flama-ky026-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2556,7 +2552,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.El sensor de flama Ky026 se utilizan para la detección de fuego a una corta distancia, enfocado para detectar longitudes de onda específicas entre 760nm y 110nm, frecuencias a las que se encuentran la mayoría de las llamas e incendios, incluso puede detectar algún tipo de luz que se emita con demasiada potencia.Voltaje de alimentación: 3.3V a 5.5 VTemperatura: -25 - 85 CChip principal: LM393Forma de salida: digital y analógicaAngulo de Detección: 0 - 60 gradosNúmero de pines: 4Compatible con ArduinoDimensiones: 15 mm x 36 mmModelo: Ky-026Tiene 2 tipos de salida: digital y analógica .El umbral de detección es configurable por el potenciómetro que dispone el módulo.En la mayoría de casos se emplea en circuitos y su función consiste en enviar señales de advertencia.Contenido de la oferta1x Sensor de flama KY026Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2574,7 +2570,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611309412-sensor-de-flama-de-5-canales-infrarrojo-movimiento-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611309412-sensor-de-flama-de-5-canales-infrarrojo-movimiento-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2596,7 +2592,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Un sensor de flama es un dispositivo que permite detectar la existencia de combustión por la luz emitida por la misma. Esta luz puede ser detectada por un sensor óptico, y ser capturado por las entradas digitales y las entradas analógicas de Arduino.La flama es un fenómeno de emisión de luz asociado a los procesos de combustión. La combustión es un proceso que desprende grandes cantidades de energía en forma de calor. Durante la reacción se generan compuestos intermedios que liberan parte de su energía mediante la emisión de luz.Los sensores de flama son ampliamente utilizados en la industria. Muchas máquinas ejecutan procesos susceptibles de generar llamas, como por ejemplo procesos de mecanizado o de electroerosión. Frecuentemente se realizan en presencia de elementos combustibles como aceite o viruta.Por este motivo se incorporan sensores de flama como dispositivo de seguridad, permitiendo detener el proceso en caso de detectar cualquier indicio de combustión. Estos dispositivos se ajustan a las longitudes de onda características de la aparición de la llama y normalmente combinan las señales ultravioleta y de infrarrojo.Especificaciones:Canales de detección: 5 sensoresLongitud de onda: 700nm ~ 1100nmCada sensor detecta un rango de 30°Tarjeta de 120° de lecturaSalida DigitalSalida Analógica para mayor precisiónCompatible con SCM SystemVoltaje de alimentación: 3.3V – 9VAltamente ConfiableIndicador Led para cada sensorResistencias de 1% de tolerancia que brinda una alta precisión3 Agujeros M3 para fácil instalaciónContenido de la oferta1x Sensor de flama 5 canales YG1006Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2614,7 +2610,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879588987-sensor-de-efecto-hall-49e-circuito-integrado-to92-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879588987-sensor-de-efecto-hall-49e-circuito-integrado-to92-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2638,7 +2634,11 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Sensor hall 49EEl sensor 49E es un dispositivo de efecto Hall lineal, pequeño y versátil, que es operado por el campo magnético desde un imán permanente o un electroimán. La tensión de salida se establece por la tensión de alimentación y varía en proporción a la intensidad del campo magnético. El circuito integrado presenta una salida de ruido baja, lo que hace innecesario el uso de filtros externos. También incluye resistencias de precisión para proporcionar una mayor estabilidad y precisión de la temperatura. El rango de temperatura de operación de estos sensores Hall lineales es de -40 ° C a + 85 ° C, apropiado para aplicaciones comerciales, de consumo e industriales.-----------------------------------------------------------------------------------------------------------------------CaracterísticasConsumo de energía de 3.5mA a VCC = 5V paraSalida lineal para la flexibilidad del diseño del circuitoRango de temperatura de -40 C a 85 CResponde a Gauss positivo o negativoCorriente operativa: 3.5 mACorriente de salida máxima: 10 mAVoltaje operativo: 3V a 6.5V dcCubierta: TO-92S-3Voltaje de salida: 2.5 VSensibilidad: 1.6 mV/GS-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Sensor de efecto hall 49E-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874565073-sensor-de-distancia-ultrasonido-makeblock-me-11001-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874565073-sensor-de-distancia-ultrasonido-makeblock-me-11001-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611154829-sensor-de-corriente-acs712-30a-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611154829-sensor-de-corriente-acs712-30a-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2722,7 +2722,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_676735-MCO45145543763_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.El sensor ACS712 de Allegro, es un sensor de corriente por efecto hall, que provee un solución económica y precisa para medir corriente en AC o DC, ya sea en ambientes industriales o comerciales. Este Sensor funciona transformando un campo magnético surgido de el paso de la corriente por un alambre de cobre interno en el sensor, y convirtiendo este campo en un voltaje variable. Esto significa que a mayor cantidad de corriente que tengamos, mayor voltaje vamos a tener en un pin. Este sensor viene en 3 modelos distintos: ACS712ELCTR-05B-T que mide hasta 5A, el ACS712ELCTR-20A-T que mide hasta 20A y el ACS712ELCTR-30A-T que mide hasta 30A. Las diferencias entre cada uno de los modelos es que las variaciones de voltaje en su pin de salida es siempre la misma, por ende para cualquier modelo su salida analógica variara entre 0 y 5v dándonos una mejor precisión en el modelo de 5A que en el de 30A.Característicasseñal analógica de bajo ruidoEl ancho de banda del dispositivo se establece a través del nuevo pin FILTER Tiempo de subida de salida de 5 us en respuesta a la corriente de entrada escalonadaAncho de banda de 80 kHzError de salida total 1,5% en TA = 25  C Resistencia del conductor interno de 1,2 Mohm2.1 kVRMS de voltaje mínimo de aislamiento de los pines del chipSensibilidad de salida; 66 mV / AVoltaje de salida proporcional a las corrientes AC o DC Voltaje de compensación de salida extremadamente estableHistéresis magnética: casi nulaSalida radiométrica de la tensión de alimentaciónSensor lineal de efecto hall de bajo offset.Salida: variación Proporcional de 0V a 5VCapacidad de sobrevivir a picos de corriente de hasta 5 veces la corriente nominal de operación.Las terminales del elemento conductor se encuentran aisladas eléctricamente (Hasta 2.1KV).Voltaje de operación: 4.5V  5.5VDimensiones PCB: 31 (mm) x14 (mm)Ancho de banda 80 kHzContenido de la oferta1x Sensor de Corriente ACS712 de 30APara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2738,7 +2742,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611154382-sensor-de-corriente-acs712-20a-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611154382-sensor-de-corriente-acs712-20a-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2782,7 +2786,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525787997-seguidor-de-linea-5-sensores-reflexion-ir-bfd-1000-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525787997-seguidor-de-linea-5-sensores-reflexion-ir-bfd-1000-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2826,7 +2830,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539402343-sanyo-stk4141-ii-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539402343-sanyo-stk4141-ii-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2850,11 +2854,7 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-619777916-rueda-omnidireccional-56mm-proyectos-electronica-robotica-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-619777916-rueda-omnidireccional-56mm-proyectos-electronica-robotica-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-622073438-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-622073438-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621574092-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621574092-rueda-loca-tamiya-pololu-3-posiciones-70144-carrito-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513270827-rueda-loca-metalica-34-robot-arduino-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513270827-rueda-loca-metalica-34-robot-arduino-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610656227-rodamiento-lineal-lm10uu-101624mm-impresora-3d-cnc-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610656227-rodamiento-lineal-lm10uu-101624mm-impresora-3d-cnc-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656218578-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656218578-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3094,7 +3094,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_752110-MCO47101860888_082021-R.jpg</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Rodamiento cojinete L-1860HHUsado regularmente en proyectos de robótica, impresoras 3D, maquinas CNC, mecanismos actuadores, ejes lineales.-----------------------------------------------------------------------------------------------------------------------Category Metric Ball BearingsPart Number L-1680HHEnclosure ShieldedFlanged NoMaterial Chrome SteelBore Diameter [in] 0.315Outside Diameter [in] 0.6299Width [in] 0.1969 Bore Diameter [mm] 8Outside Diameter [mm] 16Width [mm] 5Dynamic Load Rating (Cr) [N] 1606Static Load Rating (Cor) [N] 712Fillet Radius (rsmin) [in] 0.008Fillet Radius (rsmin) [mm] 0.381Reference Diameter Inner (Li) [in] 0.558Reference Diameter Outer (Lo) [in] 0.2Reference Diameter Inner (Li) [mm] 9.68Reference Diameter Outer (Lo) [mm] 14.18Ball Size (DW) [in] 0.0938Ball Size (DW) [mm] 2.381Ball Complement (Z) 9Dynamic Load Rating (Cr) [N] 1606Static Load Rating (Cor) [N] 712-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Rodamiento L-1608HH-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512955887-rodamiento-chumacera-kp08-8mm-3d-maquinas-cnc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512955887-rodamiento-chumacera-kp08-8mm-3d-maquinas-cnc-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3140,7 +3144,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.CARACTERÍSTICAS:KP08 Rodamiento con camisa/chumacera tipo vertical de 8mm de diámetro interno.Carcasa de dos pernos con inserto de cojinete de bolas para una instalación lista para su montaje Cuello de bloqueo del tornillo de fijación para una fijación segura al eje guiado Entre el rodamiento interior y el ángulo exterior del anillo de fijación se puede ajustar con precisión.ESPECIFICACIONES:Modelo: KP08 Tamaño externo: Aprox. 50x25mm Diámetro interior: Aprox. 8 mm Los 2 espacios de agujeros de fijación: Aprox. 35 mm Diámetro del orificio fijo: aprox. 5 mm Material: Metal Contenido de la oferta1x Chumacera KP08 _______________________________________________________________ENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 2 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3158,7 +3162,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947369503-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947369503-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3188,7 +3192,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo Bluetooth Mp3 Usb 12vPuedes controlarlo desde tu celular instalando la aplicación BTLINK que puedes bajar de Play Store.Permite ver listado de canciones que tiene tu memoria usb en la pantalla de celular, ecualizar a tu gusto las melodías, o escuchar música de tu teléfono por bluetooth, cambiar las funciones del módulo radio, usb o entrada auxiliar, armar tu proyecto.Cabe donde quieras, ya que los módulos son muy pequeños.-----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS:- Soporta memorias hasta de 32 gigas.- Graba la entrada auxiliar a la memoria Micro SD- Conexión Bluetooth- Radio FM- Entrada auxiliar frontal con plug de 3.5 mm, muy útil para conectar tu laptop o pc.- Display digital para que veas en todo momento el estado de tu modulo.- Luces audiorítmicas incluidas en el display.-----------------------------------------------------------------------------------------------------------------------CONTENIDO:- 1 Modulo Reproductor MP3 6902 BTlink de 12 volts.- 1 Control Remoto infrarrojo con pila.- 2 Cables de conexión (1 de señal de audio y otro de alimentación).- 2 Tapas para cubrir tornillos de fijación.-----------------------------------------------------------------------------------------------------------------------IMPORTANTE:Para armarlo, se necesitan conocimientos básicos en electrónica, ya que hay que saber polaridades de alimentación y soldar cables de conexión en el amplificador.Por favor, despeje todas sus dudas antes de realizar compra, enviándonos pregunta por este medio. Gracias!-----------------------------------------------------------------------------------------------------------------------Garantía de 30 díasLa garantía no aplica en caso de recibir el producto en mal estado, sin sellos de seguridad, con daños por: golpes, rupturas, cotos circuitos, inversión de polaridad, sobre voltaje, sobre corriente, inmersión en líquidos, virus, des configuración del software, mano de obra no autorizada.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3206,7 +3210,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947357018-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947357018-reproductor-mp3-bluetooth-rectangular-usb-micro-sd-fm-12-vdc-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3236,7 +3240,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo Bluetooth Mp3 Usb 12vPuedes controlarlo desde tu celular instalando la aplicación BTLINK que puedes bajar de Play Store.Permite ver listado de canciones que tiene tu memoria usb en la pantalla de celular, ecualizar a tu gusto las melodías, o escuchar música de tu teléfono por bluetooth, cambiar las funciones del módulo radio, usb o entrada auxiliar, armar tu proyecto.Cabe donde quieras, ya que los módulos son muy pequeños.-----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS:- Soporta memorias hasta de 32 gigas.- Graba la entrada auxiliar a la memoria Micro SD- Conexión Bluetooth- Radio FM- Entrada auxiliar frontal con plug de 3.5 mm, muy útil para conectar tu laptop o pc.- Display digital para que veas en todo momento el estado de tu modulo.- Luces audiorítmicas incluidas en el display.-----------------------------------------------------------------------------------------------------------------------CONTENIDO:- 1 Modulo Reproductor MP3 6902 BTlink de 12 volts.- 1 Control Remoto infrarrojo con pila.- 2 Cables de conexión (1 de señal de audio y otro de alimentación).- 2 Tapas para cubrir tornillos de fijación.-----------------------------------------------------------------------------------------------------------------------IMPORTANTE:Para armarlo, se necesitan conocimientos básicos en electrónica, ya que hay que saber polaridades de alimentación y soldar cables de conexión en el amplificador.Por favor, despeje todas sus dudas antes de realizar compra, enviándonos pregunta por este medio. Gracias!-----------------------------------------------------------------------------------------------------------------------Garantía de 30 díasLa garantía no aplica en caso de recibir el producto en mal estado, sin sellos de seguridad, con daños por: golpes, rupturas, cotos circuitos, inversión de polaridad, sobre voltaje, sobre corriente, inmersión en líquidos, virus, des configuración del software, mano de obra no autorizada.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3254,7 +3258,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640866873-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640866873-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3282,11 +3286,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_987759-MCO52024646238_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640856146-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640856146-reproductor-mp3-bluetooth-micro-sd-btlink-salida-auxiliar-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3326,7 +3326,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_734006-MCO52025502346_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo Bluetooth Mp3 Usb 12v Teproductor salida auxiliar-Modulo reproductor usb , mp3 con Bluetooth y entrada auxiliar frontal y salida de audio para auxiliarCaracterísticas:-Puedes controlarlo desde tu celular instala la aplicación BTLINK que puedes bajar de play store. Puedes ver listado de canciones que tiene tu memoria usb en la pantalla de celular, ecualizar a tu gusto las melodías, o escuchar música de tu teléfono por bluetooth, cambiar las funciones del modulo radio, usb, bluetooth o entrada auxiliar, armar tu proyecto cabe donde quieras ya que los módulos son muy pequeños.-Reproductor MP3 por medio de una memoria usb o micro SD, puedes reproducir tus canciones favoritas, soporta memorias hasta de 32 gigas.-Graba la entrada auxiliar a la memoria Micro SD -Conexión Bluetooth olvídate de cables.-Radio fm escucha tus estaciones de radio FM Favoritas.-Entrada auxiliar frontal con plug de 3.5 mm, muy util para conectar tu laptop o pc.-Voltaje de alimentación 12 volts.-Display digital para que veas en todo momento el estado de tu modulo.-Luces audioritmicas incluidas en el display.-Incluye control remoto infrarrojo con pila.-Existencia disponible para envío inmediato no necesitas preguntar si tenemos en stock.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Alcance de Bluetooth : hasta 8 Metros.Respuesta en frecuencia: 80 Hz a 15 Khz.Voltaje de salida de audio: 530 mV.Distorsión: menor a 0.2%Rango de frecuencia FM: 87.5 A 108 Mhz.Ecualización: Jazz, pop, clásico, normal.Amplificador classe D con control de volumen 2x10 wattsVoltaje de funcionamiento recomendado 12 volts-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Reproductor 1x Control remoto1x Cable auxiliar1x Adpatador de voltaje-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3342,7 +3346,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560110726-reproductor-mp3-bluetooth-micro-sd-btlink-amplificador-20w-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560110726-reproductor-mp3-bluetooth-micro-sd-btlink-amplificador-20w-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3386,7 +3390,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-947305630-reproductor-mp3-bluetooth-amplificador-15w-usb-micro-sd-fm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-947305630-reproductor-mp3-bluetooth-amplificador-15w-usb-micro-sd-fm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3410,7 +3414,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_984812-MCO51805458795_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo Bluetooth Mp3 Usb 12v Amplificador digital estéreo de 15 WattsCabe donde quieras, ya que los módulos son muy pequeños.-----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS:- Soporta memorias hasta de 32 gigas.- Graba la entrada auxiliar a la memoria Micro SD- Conexión Bluetooth- Radio FM- Entrada auxiliar frontal con plug de 3.5 mm, muy útil para conectar tu laptop o pc.- Display digital para que veas en todo momento el estado de tu modulo.- Luces audiorítmicas incluidas en el display.-----------------------------------------------------------------------------------------------------------------------CONTENIDO:- 1 Modulo Reproductor MP3 BT-15AMP de 12 volts.- 1 Control Remoto infrarrojo con pila.- 3 Cables de conexión (1 de señal de audio, alimentación, salida parlantes).- 2 Tapas para cubrir tornillos de fijación.-----------------------------------------------------------------------------------------------------------------------IMPORTANTE:Para armarlo, se necesitan conocimientos básicos en electrónica, ya que hay que saber polaridades de alimentación y soldar cables de conexión en el amplificador.Por favor, despeje todas sus dudas antes de realizar compra, enviándonos pregunta por este medio. Gracias!-----------------------------------------------------------------------------------------------------------------------Garantía de 30 díasLa garantía no aplica en caso de recibir el producto en mal estado, sin sellos de seguridad, con daños por: golpes, rupturas, cotos circuitos, inversión de polaridad, sobre voltaje, sobre corriente, inmersión en líquidos, virus, des configuración del software, mano de obra no autorizada.-----------------------------------------------------------------------------------------------------------------------Recuerda que si compras 4 piezas o más, el envío es GRATIS.ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3426,7 +3434,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307031-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-mini-relevo-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307031-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-mini-relevo-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3456,7 +3464,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Rele 8 pines bobina 5VDC, tipo pcb, aptos para aparatos domésticos, máquinas de oficina, audio, equipos, etc. El relé cumple la función de protector o interruptor de circuito. -----------------------------------------------------------------------------------------------------------------------EspecificacionesRelé; Modelo: HK19F-DC5V-SHGVoltaje de la bobina: CC 5V Contacto: 1A 125VAC / 2A 30VDCTamaño principal (Aprox.): 2 x 1 x 1.5 cm / 0.8' 'x 0.4' 'x 0.6' '(L * W * T)Peso: 25g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Relé HK19F-DC5V-SHG-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3474,7 +3482,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509372247-rele-contactor-schaltbau-c137-e-bobina-12-vdc-cont-40-amp-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509372247-rele-contactor-schaltbau-c137-e-bobina-12-vdc-cont-40-amp-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3502,7 +3510,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_841143-MCO31559849772_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Condición: USADO Recuperado de equipos en des usoFuncionamiento: 10/10 testeado con garantíaEstado estético: 9/10 algunos rastros de polvo y marcas de usoFOTOGRAFÍAS REALES DEL PRODUCTOCaracterísticasPolos: 1Contactos Auxiliares: COM, NO, NCCorriente máxima contactos principales: 40 AmperiosCorriente maxima contacto auxiliar: 5 AmperiosVoltaje bobina: 12 VDCContenido de la oferta1 Rele Contactor Schaltbau C137 EENVÍO GRATISPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3518,7 +3530,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641534787-pvc-tubular-de-250mm-3mts-proteccion-baterias-termoencogible-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641534787-pvc-tubular-de-250mm-3mts-proteccion-baterias-termoencogible-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3546,7 +3558,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_813575-MCO46571892254_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.PVC Tubular 250mm 3 metrosPVC termo retráctil tubo ancho 250mm ± 5 mm longitud 3mts para batería,PVC temperatura de trabajo: -55c a 105cLongitud es de 3m.Ancho es de 250mm.Tensión de resistencia del tubo de calefacción: 300v.Color del producto: azulCaracterísticas del producto: excelente protección del medio ambiente, aislamiento, rendimiento estable, baja temperatura de contracción y rápida contracción.Usos: ampliamente utilizado en aluminio, condensadores electrolíticos, baterías, paquetes de baterías de litio, componentes electrónicos, iluminación, pernos LED, etc.,Ideal para: embellecer la apariencia del revestimiento,   aislamiento eléctrico, protección humedad, corrosión, polvo.La compra incluye1 3 metros de PVC Tubular 250mm color azulPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3562,7 +3578,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625156541-protoboard-mini-170-puntos-colores-arduino-breadboard-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625156541-protoboard-mini-170-puntos-colores-arduino-breadboard-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3606,7 +3622,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880035837-probador-tester-de-baterias-12v-plomo-gel-agm-efb-7-16-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880035837-probador-tester-de-baterias-12v-plomo-gel-agm-efb-7-16-vdc-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3634,11 +3650,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_780569-MCO49615690158_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3654,7 +3666,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637337566-probador-de-servos-y-esc-hj-4-canales-controlador-tester-6v-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637337566-probador-de-servos-y-esc-hj-4-canales-controlador-tester-6v-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3682,7 +3694,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_987594-MCO46446021315_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Descripciones:Puede ser sincronizado de control de salida 4 servos y se utiliza para comparar el control del aparato de gobierno el rendimiento de la señal de salida del servo de dirección puede tener una precisión de 2US (1 milisegundos = 1,000 microsegundos), puede probar el aparato de gobierno es capaz de responder a los cambios sutiles con PPM función de prueba de la señal en la pantalla, los cambios de la señal PPM de entrada, mientras que la entrada la salida de sincronización de la señal PPM al servo Energized entrará automáticamente en el modo manual ciclo de señal servo analógico (Química) 20 us 50H, 50 Hz de frecuencia, potenciómetros rotativos para reducir o aumentar el ancho de el impulso de salida.El botón de selección (Nota: la función de interruptor de llave, los patrones de circulación)1. S-1 modo manual (Manual)2. Modo S-2 bits (Neutral)3. S-3 en modo automático (Automatic)Teclas de ancho de pulso:1. 50H servo analógico 50Hz ciclo de la frecuencia de la señal 20us2. 125h digital, el aparato de gobierno una frecuencia de 125 Hz 8us ciclo de la señal3. ciclo de la señal de 250 Hz de frecuencia 4us 250H Digital Servo-----------------------------------------------------------------------------------------------------------------------Especificaciones:Marca: HJMaterial: de plásticoColor: azul + negroVoltaje de entrada: CC 5 ~ 6VAncho de señal de salida: 800 ~ 2200usTamaño del paquete: 14 * 10 * 3 cm / 5.5 * 3.9 * 1.2inPeso del paquete: 39 g / 1,4 oz-----------------------------------------------------------------------------------------------------------------------Contenido del a compra1x Comprobador de servos/ESC HJ-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -3698,7 +3714,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644850621-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644850621-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3726,7 +3742,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_749993-MCO46688919911_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Portapila de batería tipo AA x 2 unidades con un cable de 140 mm de longitud.Puede usar pilas alcalinas o recargables de tamaño AA.-----------------------------------------------------------------------------------------------------------------------Características:Dimensiones 58 mm x 32 mm x 15 mmPeso GW 9gTipo de batería AAMaterial plásticoTiene perforaciones para atornillarlo a un chasis ó a una placaLargo de cable: 14 cm-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Porta pila AA x2-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3742,7 +3762,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613032207-polea-sin-dientes-con-rodamiento-5mm-5x16x12-impresora-3d-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613032207-polea-sin-dientes-con-rodamiento-5mm-5x16x12-impresora-3d-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3770,11 +3790,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_648118-MCO31561610605_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:La polea sin dientes con rodamiento de </t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3790,7 +3806,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-870058834-plataforma-rectangular-tamiya-70157-robot-electronica-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-870058834-plataforma-rectangular-tamiya-70157-robot-electronica-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3814,7 +3830,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_865769-MCO49353738937_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Plataforma Rectangular (70157 Tamiya)   por 2 unidades Proporciona una plataforma reconfigurable para construir su propio chasis de robot. El juego viene con dos placas con orificios de montaje en cuadrícula, soportes angulares y pasadores de montaje que le permiten montar componentes mecánicos en gran variedad de posiciones.-----------------------------------------------------------------------------------------------------------------------Descripción general Plataforma Rectangular Tamiya 70157El juego de platos universales Tamiya 70157  Es un chasis personalizable diseñado para ser compatible con múltiples productosEste juego incluye dos placas de plástico con una cuadrícula de 11 x 31 orificios de 3 mm espaciados a 5 mm de distancia, que brindan espacio para muchas conexiones mecánicas. Los cuatro soportes en ángulo de ocho orificios incluidos pueden conectar las dos placas y las placas universales adicionales o pueden servir como punto de montaje para un eje. El juego de placas también incluye cuatro soportes de eje los soportes triangulares para soportar ejes. El kit proporciona 18 remaches de empuje para conectar los soportes angulares y los soportes del eje a las placas.Partes incluidasDos rejillas de 11 x 31 con orificios de 3 mm espaciados a 5 mm (60 x 160 mm, 2,36 “x 6,3”)Cuatro soportes angulares de ocho orificiosCuatro montajes para ejes18 remaches de empuje-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 Set Plataforma Rectangular Tamiya 70157-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales estamos en Bogotá D.C. zona Centro somos MOVILTRONIS SAS.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3830,7 +3850,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612009295-placa-desarrollo-atmega-328p-cable-usb-compatible-arduino-r3-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612009295-placa-desarrollo-atmega-328p-cable-usb-compatible-arduino-r3-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3854,7 +3874,11 @@
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.CARACTERÍSTICAS:Placa de desarrollo compatible Arduino Uno es una placa electrónica basada en el microcontrolador ATmega328. La placa incluye todo lo necesario para que el microcontrolador haga su trabajo, basta conectarla a un ordenador con el cable USB o a la corriente eléctrica a través de un adaptador o fuente de poder de 7 a 12 voltios.¡¡¡ Cable incluido !!!VENTAJAS:No se requiere mucho conocimiento para empezar.Un coste bastante bajo.Hay muchos bocetos y escudos disponibles.No se necesita un programador externo o una fuente de energía.ESPECIFICACIONES:Microcontrolador: ATmega328PVoltaje de funcionamiento: 5VVoltaje de entrada (recomendado): 7-12VVoltaje de entrada (límite): 6-20VAlimentación: Cable USB, Adaptador o fuente de poder Chip de conexión USB: Atmega16U2Pines de Entrada/Salida digitales: 14 En totalPines de salidas digitales PWM: 6 (configurables de los 14 pines digitales)Pines de entrada analógica: 6 (adicionales a los 14 pines digitales)Corriente continua por pin I / O: 20 mACorriente DC para 3.3V Pin: 50 mAMemoria Flash de 32 KB (ATmega328P) de la cual 0.5 KB utilizada por el gestor de arranque o BootloaderSRAM: 2 KB (ATmega328P)EEPROM: 1 KB (ATmega328P)Velocidad del reloj: 16 MHzLed multipropósito en el pin: 13Dimensiones: 8 x 5.51 x 2.49 cmPeso: 45.36 gramosColor: Azul Longitud del cable: 30cmPROTOCOLOS DE COMUNICACION:SERIAL RS232: 0 (RX) y 1 (TX). Recibir (RX) y transmitir (TX) datos serie TTLInterruptores externas: 2 y 3. Estas terminales pueden ser configuradas para disparar una interrupción con un valor bajo, un pulso de subida o bajada, o un cambio de valor.SPI: 10 (SS), 11 (MOSI), 12 (MISO), 13 (SCK). Estas terminales soportan comunicación SPI o por el puerto de comunicación SPI del arduino.I2C: 4 (SDA) y 5 (SCL). Soportan comunicaciones I2C (TWI) utilizando la librería Wire PINES DE CONEXIONPWM: 3, 5, 6, 9, 10, y 11. Proporcionan salidas PWM de 8 bit con la función analogWrite().ADC: A0, A1, A2, A3, A4, A5 Los pines de entrada analógicos soportan conversiones analógico-digital de 8 y 10 bit utilizando la función analogRead(). Las entradas analógicas pueden ser también usadas como pines digitales.INTERRUPCIONES:0, 1, 2 y 3. los pines puedes proporcionar interrupciones dentro del programa que desarrolles.CONTENIDO DE LA OFERTA1x Placa Desarrollo Compatible Arduino Uno R3 con chip DIP1x Cable USB Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3870,7 +3894,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613993406-placa-compatible-arduino-uno-r3-atmega328-smd-con-cable-usb-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613993406-placa-compatible-arduino-uno-r3-atmega328-smd-con-cable-usb-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3900,7 +3924,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Placa Compatible Con Plataforma Arduino UNO R3 chip Atmega 328P SMDCARACTERÍSTICAS:Placa De Desarrollo Compatible con Arduino UNO R3 basada en el microcontrolador ATmega328. La placa incluye todo lo necesario para que el microcontrolador haga su trabajo, basta conectarla a un ordenador con el cable USB o a la corriente eléctrica a través de un adaptador o fuente de poder de 7 a 12 voltios.¡¡¡ Cable incluido !!!VENTAJAS:No se requiere mucho conocimiento para empezar.Un coste bastante bajo.Hay muchos bocetos y escudos disponibles.No se necesita un programador externo o una fuente de energía.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONES:Microcontrolador: ATmega328P SMDVoltaje de funcionamiento: 5VVoltaje de entrada (recomendado): 7-12VVoltaje de entrada (límite): 6-20VAlimentación: Cable USB, Adaptador o fuente de poderChip de conexión USB: Atmega16U2Pines de Entrada/Salida digitales: 14 En totalPines de salidas digitales PWM: 6 (configurables de los 14 pines digitales)Pines de entrada analógica: 6 (adicionales a los 14 pines digitales)Corriente continua por pin I / O: 20 mACorriente DC para 3.3V Pin: 50 mAMemoria Flash de 32 KB (ATmega328P) de la cual 0.5 KB utilizada por el gestor de arranque o BootloaderSRAM: 2 KB (ATmega328P)EEPROM: 1 KB (ATmega328P)Velocidad del reloj: 16 MHzLed multipropósito en el pin: 13Dimensiones: 8 x 5.51 x 2.49 cmPeso: 45.36 gramosColor: AzulLongitud del cable: 30cm-----------------------------------------------------------------------------------------------------------------------PROTOCOLOS DE COMUNICACION:SERIAL RS232:0 (RX) y 1 (TX). Recibir (RX) y transmitir (TX) datos serie TTLInterruptores externas: 2 y 3. Estas terminales pueden ser configuradas para disparar una interrupción con un valor bajo, un pulso de subida o bajada, o un cambio de valor.SPI:10 (SS), 11 (MOSI), 12 (MISO), 13 (SCK).Estas terminales soportan comunicación SPI y por el puerto de comunicación SPI del arduino.I2C:4 (SDA) y 5 (SCL). Soportan comunicaciones I2C (TWI) utilizando la librería WirePINES DE CONEXIONPWM: 3, 5, 6, 9, 10, y 11. Proporcionan salidas PWM de 8 bit con la función analogWrite().ADC: A0, A1, A2, A3, A4, A5 Los pines de entrada analógicos soportan conversiones analógico-digital de 8 y 10 bit utilizando la función analogRead().Las entradas analógicas también pueden ser usadas como pines digitales.INTERRUPCIONES:0, 1, 2 y 3. los pines puedes proporcionar interrupciones dentro del programa que desarrolles.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Placa compatible con plataforma Arduino UNO Microchip Atmega 328p SMD1x Cable USB de Programación y comunicación-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3918,7 +3942,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625944699-placa-board-bigtreetech-skr-v13-32bit-1224v-impresora-3d-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625944699-placa-board-bigtreetech-skr-v13-32bit-1224v-impresora-3d-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3944,7 +3968,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Bigtreetech Skr V1.3 32bits 12/24V Tarjeta Main Board Para Impresora 3d32-bitFrecuencia 100MHzChip: ARM level Cortex-M3 series LPC1768Soporte para DELTA, CARTECIANA, ETC.Soporte 12V o 24VoltiosSoporte pantallas táctiles de color de 2,8 y 3,5 pulgadas,Soporte LCD 2004 y LCD 12864.Soporte BL Touch (Puertos para SERVOS señal PWM)Soporte Resume PrintingSoporte Detection de FilamentoSoporte Auto apagadoSoporte directo con JUMPERS de TMC2130 SPISoporte directo con JUMPERS de TMC2208 UART, LEGASY, DIRECTOCE Certification 4-Layer PCB con “Gold deposition technology”-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Board Bigtreetech Skr V1.3 32bits-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3962,7 +3986,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-523600938-placa-bigtreetech-skr-v13-32bits-1224-voltios-impresora-3d-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-523600938-placa-bigtreetech-skr-v13-32bits-1224-voltios-impresora-3d-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3990,7 +4014,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_849433-MCO31435100950_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.La placa base SKR V1.3 utiliza 32 bits frecuencia principal 100 MHz ARM-class Cortex-M3 series LPC1768 chip maestro. placa de circuito de cuatro capas, tecnología de deposición dorada y certificación CE aprobada. Equipado con firmware de código abierto y altamente modular Marlin2.0 y Smoothieware, es conveniente para los usuarios hacer bricolaje y desarrollo secundario, y puede evitar preocupaciones de no masterizar el código central. Admite el modo de funcionamiento SPI del controlador TMC2130, función de detección de material autónomo; TMC2130SPI, sin usar el interruptor de límite adicional, puede realizar la función del interruptor de límite modificando el firmware Marín. SERVOS de Puerto extendido reservados de señal PWM para soportar BL Touch; admite pantallas táctiles de color de 2,8 y 3,5 pulgadas, admite LCD 2004 y LCD 12864. Admite la impresión de reinicio mientras se apaga, detección de rotura de filamentos, apagado automático después de la impresión y otras funciones. Descripción:1La potencia de la cama caliente admitida aumenta a 144 W, la potencia de la cama caliente conectada a la placa base debe ser inferior o igual a 144 W (es decir, la resistencia térmica es mayor a 1O), Si se utiliza una cama caliente de alta potencia, se debe conectar la placa de expansión de alimentación de cama caliente externa. SKR de alimentación de la placa base:Después de la SKR placa principal es alimentado en la luz roja de la D4 en la esquina inferior izquierda se luz indica que la fuente de alimentación es normal; el SEL de 5 V en el centro del tablero es el extremo de selección de energía;1)Al usar USB para alimentar la placa base, conecta los pines + 5 V y USB con una tapa corta.2)Al usar la fuente de alimentación de 12 V-24 V, conecta los pines + 5 V e INT con la tapa de cortocircuito;Nota: Se puede conectar a [fuente de alimentación de 12 V-24 V] y [USB] al mismo tiempo. El proceso de impresión debe utilizar la tapa de cortocircuito para conectar los pines + 5 V e INT. La placa base SKR se transmite con el ordenador:La placa base SKR se transmite con el ordenador a través de la interfaz [USB]. Después de instalar el controlador, la placa base se inserta en el ordenador para reconocer el puerto para la transmisión de datos. Es fácil ver que el ordenador no reconoce el puerto USB sin instalar el controlador.1Instalación del controlador smoothieware-usb-driver-v1.1 (solo sistemas Windows)El controlador se puede obtener de nuestra red de código abierto; (Contáctanos para obtener el enlace)Nota: Al usar smoothieware open source firmware, ya que solo los controladores del sistema Windows, la tabla SKR en este momento solo puede ser reconocida por el puerto del sistema Windows.Si estás usando el firmware Marlin2.0, sigue el tutorial para instalar; (ponte en contacto con nosotros para obtener el enlace) Contenido de la oferta1x Placa BigTreetech SKR V1.3 1x Cable USBPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -4006,7 +4034,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522912472-pinza-punta-curva-esd-15-vetus-precision-integrados-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522912472-pinza-punta-curva-esd-15-vetus-precision-integrados-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4050,7 +4078,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522621223-pcb-placa-de-circuito-impreso-mini-sumo-sumotronics-smd-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522621223-pcb-placa-de-circuito-impreso-mini-sumo-sumotronics-smd-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4074,11 +4102,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_841024-MCO31385792740_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -4094,7 +4118,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956414-paso-a-paso-nema-17-17hs4401-17-a-maquina-cnc-3d-robotica-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956414-paso-a-paso-nema-17-17hs4401-17-a-maquina-cnc-3d-robotica-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4124,7 +4148,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este motor paso a paso NEMA17 es ideal para incluir un tu desarrollo de impresora 3D, puesto que cuenta con las especificaciones perfectas y precisas para elllo.Este motor paso a paso NEMA 17 es bipolar, tiene un ángulo de paso de 1.8º (200 pasos por vuelta) y cada bobinado es de 1.7A a 12V, capaz de cargar con 4Kg/cm.Es un motor muy robusto ampliamente utilizando en Impresoras 3D o maquinas CNC de propósito general, aunque este es ligeramente más potente del recomendado para garantizar la mejor fiabilidad ! El bastidor tiene una parte plana para asegurar un mejor ajuste.Este motor puede ser utilizado con controladores de motores tipo DRV8825 y A4988 , siendo especiales para ser manejados mediante Arduino y una tarjeta Shield CNC o Shield RAMPS.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESVoltaje: 12V.Corriente: 1.7AHolding torque:400mN.m MinRotor torque:57g.cm2Peso:275g RefInsulation resistance:100MO Min.(DC 500V)Insulation class: B(130)Tipo: Bipolar.Torque: 4000g/cm.Angulo de pasos de 1.8 Grados.No. Pasos: 200.No. de Cables: 4.Resistencia de la fase: 1.5 ohms.Inductancia de la bobina: 2.8mH.Cables preparados para soldar.Largo de cableado: 25 Cm aprox.Dimensiones: 42 × 42 × 40 mmEje de 5mm Diametro / 20 mm de Largo.Códigos de color de cableado:ROJO ......... Fase AVERDE ....... Fase A RegresoAMARILLO .. Fase BAZUL ......... Fase B Retorno-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Motor Paso a Paso NEMA 17 17HS4401 1.7A1x Conector y cable-----------------------------------------------------------------------------------------------------------------------Recuerda que si compras 2 piezas o más, el envío es GRATIS.ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4142,7 +4166,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522901395-papel-termo-transferible-carta-pcb-circuitos-impresos-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522901395-papel-termo-transferible-carta-pcb-circuitos-impresos-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4166,11 +4190,7 @@
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -4186,7 +4206,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512722320-pantalla-lcd-20x4-reprapdiscount-smart-controller-adaptador-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512722320-pantalla-lcd-20x4-reprapdiscount-smart-controller-adaptador-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4216,7 +4236,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Somos Moviltronics SAS.CARACTERÍSTICAS:Controlador inteligente de pantalla LCD para rampas 1.4 El c</t>
+          <t>Somos Moviltronics SAS.CARACTERÍSTICAS:Controlador inteligente de pantalla LCD para rampas 1.4 El controlador inteligente contiene un lector de tarjeta SD, un codificador giratorio y una pantalla LCD 2004. Puede conectarlo fácilmente a su placa de rampas utilizando el "adaptador inteligente". Después de conectar este panel a sus rampas ya no necesita su PC, el controlador inteligente suministra energía para su tarjeta SD. Además, todas las acciones, como la calibración, los movimientos de los ejes se pueden realizar con el codificador giratorio del Smart Controller. Imprima sus diseños 3D sin PC, solo con un diseño de código g almacenado en la tarjeta SD.ESPECIFICACIONES:Material: placa PCB Tamaño del artículo: Aprox. 150 * 63 mm / 5.91 * 2.48 in Peso del artículo: Aprox. 151g / 5.33oz Peso del paquete: Aprox. 157g / 5.55oz Tamaño del paquete: Aprox. 17.5 * 7 * 5cm / 6.89 * 2.76 * 1.97in Contenido de la oferta1x Controlador LCD 2004 1x Adaptador RAMPS 1.42x Cable planoPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4234,7 +4254,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963924265-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-60w-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963924265-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-60w-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4262,11 +4282,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_740862-MCO51605955875_092022-R.jpg</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los m</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -4282,7 +4298,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963935803-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-40w-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963935803-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-40w-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4326,7 +4342,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-963959151-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-30w-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-963959151-panel-solar-plegable-portatil-cargador-usb-salida-dc-18v-30w-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4350,11 +4366,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_938812-MCO51604531484_092022-R.jpg</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los m</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -4370,7 +4382,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512741538-osciloscopio-siglent-sds1202x-e-200mhz-super-phosphor-1g-2ch-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=7a909c59-89b1-4f4b-bca6-139582cc258e</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512741538-osciloscopio-siglent-sds1202x-e-200mhz-super-phosphor-1g-2ch-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=9660d20c-7615-4bc7-aac0-2632a00ba753</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4398,11 +4410,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_912337-MCO31561468642_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti - Distribuidores directos de SIGLENT en Colombia. Respa</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -4418,7 +4426,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-559682150-osciloscopio-siglent-sds1102x-100mhz-2ch-spo-super-fosforo-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=7a909c59-89b1-4f4b-bca6-139582cc258e</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-559682150-osciloscopio-siglent-sds1102x-100mhz-2ch-spo-super-fosforo-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=9660d20c-7615-4bc7-aac0-2632a00ba753</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4458,7 +4466,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550909340-modulo-shield-gsmgprsdtmfsd-dual-sim-con-mc60-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550909340-modulo-shield-gsmgprsdtmfsd-dual-sim-con-mc60-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4478,7 +4486,11 @@
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Especificaciones:- Antena integrada- interfaz Bluetooth 3.0- Motor de alta precisión GNSS- Doble SIM- Blindaje GSM- Compatible con Arduino, Teensy, BeagleBone y Raspberry- Bandá cuadruple GSM/ GPRS / DTMF /- 850/ 950/ 1800/ 1900 MHz (Cobertura Mundial)- Conector Dual SIM- USB (Compatible con WIN / LINUX / MAC / RPI / BBB)- Debían (USB tipo B)- UART- Ranura micro SD- 2 Jacks estéreo estándar de 3.5mm Contenido de la oferta1x Módulo Shield Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4494,7 +4506,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550907939-modulo-shield-gsmgprsdtmfsd-dual-sim-con-m95-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550907939-modulo-shield-gsmgprsdtmfsd-dual-sim-con-m95-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4530,7 +4542,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-573391583-modulo-shield-expansion-xbee-zigbee-compatible-con-arduino-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-573391583-modulo-shield-expansion-xbee-zigbee-compatible-con-arduino-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4556,7 +4568,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.DESCRIPCIÓNEl módulo es fácil de usar y de bajo consumo de energía y el suministro de datos críticos entre dispositivos de transmisión fiable. A medida que el diseño innovador, XBee-PRO puede estar en el rango de 2-3 veces más allá de los módulos ZigBee estándar. Módulos XBee-PRO funcionan en la banda de frecuencia de 2,4 GHz ISM. El módulo Zigbee XBee de MaxStream (1 mW) es compatible pines. El módulo Xbee es ampliamente utilizado en los Estados Unidos, Canadá, Australia, Israel y Europa. El establecimiento de la comunicación de RF no requiere ninguna configuración y la configuración por defecto del módulo soporta una amplia gama de aplicaciones de sistemas de datos. También puede utilizar un comando AT simple para la configuración avanzada. Un desarrollador de OEM es ahora paquete de desarrollo de código XBee. Es autodesarrollado en colaboración con el código de módulo RF MaxStream ZigBee / 802.15.4.Especificaciones:- Soporta Xbee (Xbee pro)- Soporta BTBee (HC-06)- Breakout SPI, IIC, UART BUS- Botón de Reset- Tamaño: 60 * 62 * 20 mmPlacas Soportadas: - Arduino Uno- Arduino MegaEste Shield (una placa de expansión sin módulo XBee) es una solución compatible diseñada para satisfacer redes de sensores inalámbricos de bajo consumo y bajo costo con necesidades especiales. El módulo es fácil de usar, bajo consumo de energía, y la provisión de datos críticos entre dispositivos de transmisión confiable. Como el diseño innovador, XBee-PRO puede estar en la gama 2-3 veces más allá de los módulos estándar de ZigBee. Los módulos XBee-PRO funcionan en la banda de frecuencia ISM 2.4 GHz. El módulo Zigbee XBee (1 mW) de MaxStream es compatible con pin.Contenido de la oferta:1x Módulo shieldNota:Shield no incluye un módulo XBee. Cualquier módulo XBee funcionará con el escudo.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4574,7 +4586,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513057540-modulo-sensor-de-color-tcs3200-arduino-raspberry-pic-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513057540-modulo-sensor-de-color-tcs3200-arduino-raspberry-pic-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4602,7 +4614,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_633351-MCO31561644126_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Sensor de color TCS3200El sensor de color con integrado TCS230 puede filtrar los datos RGB de la fuente de luz y la convierten en una onda cuadrada (50% ciclo de trabajo) con una frecuencia directamente proporcional a la intensidad de la luz de radiación. La frecuencia de salida se puede escalar por uno de los tres valores prestablecidos a través de dos pines de control de entrada SO y SI, con opciones seleccionables del 2%, 20% y 100% de frecuencia; los pines S2 y S3 sirven para controlar el filtro de RGB.-----------------------------------------------------------------------------------------------------------------------CaracterísticasVoltaje de la operación: 2.7V a 5.5VAlta resolución de conversión de la intensidad de luz de frecuenciaFiltro de color programable Full-ScaleSe comunica directamente con el microcontroladorS0 ~ S1: entradas de selección de escala de frecuencia de salidaS2 ~ S3: entradas de selección Tipo de fotodiodoOUT Pin: Frecuencia de salidaOE Pin: Frecuencia de salida permiten pin (bajo activo)Tamaño: 28.4×28.4mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Sensor de color TCS3200-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -4618,7 +4634,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-588807565-modulo-rtc-ds1302-reloj-en-tiempo-real-para-arduino-pic-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-588807565-modulo-rtc-ds1302-reloj-en-tiempo-real-para-arduino-pic-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4662,7 +4678,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539649790-modulo-infrarrojo-con-control-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539649790-modulo-infrarrojo-con-control-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4686,11 +4702,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_733765-MCO32696775887_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -4706,7 +4718,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-628719855-modulo-generador-senales-icl8038-senoidal-cuadrada-triangulo-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-628719855-modulo-generador-senales-icl8038-senoidal-cuadrada-triangulo-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4734,11 +4746,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_977639-MCO46205509546_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4754,7 +4762,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539923679-modulo-face-plate-audio-35-mm-x2-fp013-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539923679-modulo-face-plate-audio-35-mm-x2-fp013-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4770,11 +4778,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4790,7 +4794,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539574941-modulo-diodo-laser-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539574941-modulo-diodo-laser-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4818,7 +4822,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_855539-MCO32689041039_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.El modulo KY-008 es un circuito emisor de luz laser, diseñado para trabajar con proyectos y circuitos Arduino, microcontrolador o Raspberry; emite un haz de luz de alta potencia (650nm) de color rojo, su cabezal esta elaborado con bronce para darle mayor resistencia y una muy buena disipación del calor producido por el laser, esta diseñado con 3 pines de conexión, dos de alimentación (Vcc y Gnd) y un pin separador sin función asignada (NC). Al no contar con un pin de activación esta se debe llevar a cabo mediante el pin de Vcc; enviando el pulso de activación mediante un pin de salida de Arduino que le suministre los 5V que el modulo requiere, se recomienda extremar precauciones en la manipulación del modulo ya que la luz producida por el AR-LASER puede provocar quemaduras y daños temporales o permanentes en los ojos si se apunta o mira directamente al laser.ESPECIFICACIONES:Voltaje de funcionamiento: 5VCorriente: 30 – 40 mAColor: RojoLongitud de onda: 650 nmPeso: 6,0 gDimensiones: 2.8 cm x 1.5 cm x 0.8 cmContenido de la oferta1x Módulo Diodo LáserCompras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4834,7 +4842,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539576325-modulo-de-reloj-ds1307-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539576325-modulo-de-reloj-ds1307-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4864,7 +4872,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Este módulo de reloj en tiempo real está basado en tecnologí­a de Dallas Semiconductors, es compatible con Arduino, y viene totalmente ensamblado y listo para funcionar.Incluye una baterí­a tipo CR1225 que provee un funcionamiento aproximado durante un periodo de 9 años sin la alimentación de 5V. Este módulo presenta una interfaz de comunicación de protocolo I2C, y posee detección de caí­da de voltaje y la función de interruptor de la baterí­a.ESPECIFICACIONES:Voltaje de funcionamiento: 3.3V / 5VMemoria: 24C32 Baterí­a: LIR2032 de litio (recargable)Interfaz: I2C (controlar RTC DS1307 y AT24C32)Señal de reloj: Para el microcontrolador (salida de 1Hz para microcontroladores en cascada)Conexión: I2CChip Calendario BCD reloj de 56Bytes RAM no volátil/exacto hasta el 2100 (compensación de año bisiesto)Formato: 12 horas (AM/PM)/24 horas/segundo, minuto, hora, dí­a del mes, mes, dí­a de la semana, añoConsumo de energí­a de reserva: &lt;500uATamaño: 2.8cm x 2.5cm x 1.0cmPeso: 7 gramosContenido de la oferta1x Módulo de Reloj DS1307Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -4882,7 +4890,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-627772150-modulo-camara-1080p-para-raspberry-pi-webcam-5mp-rev-13-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-627772150-modulo-camara-1080p-para-raspberry-pi-webcam-5mp-rev-13-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4922,7 +4930,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-965946133-modulo-controlador-carga-descarga-tp4056-usb-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-965946133-modulo-controlador-carga-descarga-tp4056-usb-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4966,7 +4974,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539576742-modulo-controlador-carga-descarga-lipo-litio-tp4056-usb-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539576742-modulo-controlador-carga-descarga-lipo-litio-tp4056-usb-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4996,7 +5004,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.El Módulo TP4056 Cargador De Batería Litio Lipo es un minúsculo módulo perfecto para la carga de baterías LiPo o Li-ion de una sola celda de 3.7V 1 Ah o superior como las 16550 o las 18650 y ahora incluye su circuito de protección, para que se tus baterías no reciban ningún daño.Basado en el chip TP4056 y el chip de protección de batería DW01 este módulo ofrecerá una corriente de carga de 1A y luego se cortará cuando haya terminado de carga, lo que ayudará a optimizar el tiempo de vida útil de tu batería. Además, cuando el voltaje de la batería cae por debajo de 2,4 V, el chip de protección desconectará la carga para proteger la celda de funcionar a una tensión demasiado baja y también protege contra la conexión de sobretensión y polaridad inversa (normalmente se destruirá en lugar de batería).ESPECIFICACIONES:Método: carga lineal del 1%Corriente de carga: 1A ajustable (A través Rprog)Exactitud de la carga: 1.5%Voltaje de entrada: 4.5V-5.5VCompleto voltaje de carga: 4.2VIndicador LED: Rojo está cargando, y VERDE se carga por completoCarga de interfaz de entrada: Micro/Mini USBTemperatura de trabajo: -10 ¿ a + 85 ¿Polaridad Inversión: No se permiteDimensiones: 25 x 19 x 10mmContenido de la oferta1x Módulo Cargador Lipo TP4056Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5014,7 +5022,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889469493-modulo-bms-de-carga-y-proteccion-baterias-litio-18650-1s-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889469493-modulo-bms-de-carga-y-proteccion-baterias-litio-18650-1s-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5042,7 +5050,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_819014-MCO49850765637_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este es un circuito de detección de voltaje de alta precisión y proporciona un bajo consumo de corriente de reversa, este circuito se encarga de determinar cuando la batería ya no puede descargarse de su límite y en qué momento se ha cargado suficientemente. En el momento de estar alimentando un dispositivo permite que circule tensión de la batería a la carga hasta que disminuya a valores mínimos en ese momento el modulo impide que se descargue por más tiempo y la alimentación de salida hacia la carga quede cortada. En el momento de cargar la batería cuando ha alcanzado la tensión suficiente de 4.2V el circuito corta la entrada de corriente permitiendo la descarga, pero no la carga, es decir, establece un interesante equilibrio sobre cuando se admite carga y cuando se admite descarga a la batería.Este módulo cuenta con protección de sobrecarga, protección de sobre corriente y protección contra cortocircuitos.-----------------------------------------------------------------------------------------------------------------------CaracterísticasVoltaje de detección de sobrecarga: 4,25 ± 0,05 VVoltaje de liberación de sobrecarga: 4,23 ± 0,05 VVoltaje de detección de sobredescarga: 2,45 ± 0,1 VLímite superior de corriente continua: 2ACorriente de detección de sobrecorriente: 2.5AVoltaje de carga: 4,2 VTamaño del producto: 30 * 3,7 * 2,2 MMComponentes de IC: DW01 + 8205A-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Módulo BMS de Carga y Protección Baterías Litio 18650 1S-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -5058,7 +5070,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-890739053-modulo-bms-4s-40a-carga-proteccion-balanceo-baterias-litio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-890739053-modulo-bms-4s-40a-carga-proteccion-balanceo-baterias-litio-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5086,7 +5098,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_813677-MCO49882328310_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Características:Alta corriente de carga y descarga; Tamaño compacto y ligero.Circuito de detección de voltaje de alta precisión, mano de obra fina y duradera.Protección contra sobre descarga, protección contra sobre corriente, protección contra sobrecarga.El transistor MOS puede controlar la carga y descarga de la batería, bajo consumo de corriente en espera.Descripciones:Para conectar cables, use alambre de cobre de más de 3 milímetros cuadrados, sea el mejor cuanto más corto -----------------------------------------------------------------------------------------------------------------------Especificaciones:Modelo del producto: HW-293Voltaje de carga: CC 16,8-17,8 VCorriente de descarga continua: 40a máximo (si el entorno de disipación de calor no es bueno, reduce la corriente de carga)Corriente de carga continua: hasta 20ATamaño del producto: 45*60*4mmElección aplicable: adecuado para batería de litio con voltaje nominal de 3,7 V y carga completa de 4,2 V. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Módulo BMS de Carga y Protección Baterías Litio 18650 4S 40A-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -5102,7 +5118,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888493359-modulo-amplificador-digital-tpa3118-con-bluetooth-2x45-watts-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888493359-modulo-amplificador-digital-tpa3118-con-bluetooth-2x45-watts-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5130,11 +5146,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_816556-MCO49827232371_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -5150,7 +5162,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-553376222-multimetro-pinza-amperimetrica-digital-uni-t-ut200a-600v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-553376222-multimetro-pinza-amperimetrica-digital-uni-t-ut200a-600v-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5178,11 +5190,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_686817-MCO40811524869_022020-R.jpg</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -5198,7 +5206,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961144270-multimetro-digital-dt860d-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961144270-multimetro-digital-dt860d-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5226,7 +5234,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_941024-MCO31561431673_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------CaracterísticasCaracterísticas:Display LCD numérico de 3 ½ dígitosRango manualRangos voltaje DC: 200 mV, 2 V, 20 V, 200 V, 1000 VRangos voltaje AC: 200 V, 750 VRangos corriente DC: 2 mA, 20 mA, 200 mA, 10 ARangos resistencia: 200 O, 2 kO, 20 kO, 200 kO, 2 MOProbador de diodos (ó junturas de semiconductores)Probador de continuidad con indicación audibleMedidor de hFE de transistores bipolares. Rango: 0 a 1000Inyector de señal cuadrada, 50 Hz, 3 Vpp aprox.Indicación de sobre rangoProtección contra sobrecorriente mediante fusible de 250 mA (Rango de 10 A no protegido)Tamaño: 2.5 cm x 6.8 cm x 12.4 cm aprox.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Funciones Rango La precisión DCV 200mV~1000V ±(0,5%+2)  ACV 200V~750V ±(1,2%+10) El DCA 200uA~10A ±(1,0%+2) La resistencia 200O~2000kO ±(0,8%+2) La prueba del transistor Sí  La prueba de diodos Sí  Avisador acústico de continuidad Sí  Batería de 9V (6F22) -----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Multimetro DT860D1x Puntas de prueba-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -5242,7 +5254,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612445624-motorreductor-6v-6100rpm-51-12ga-o-n20-hp-pololu-1000-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612445624-motorreductor-6v-6100rpm-51-12ga-o-n20-hp-pololu-1000-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5272,7 +5284,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 6V 6100 RPM 12GAPololu (1000)Este motorreductor es un motor DC miniatura cepillado de alta potencia y 6 V con cepillos de carbón de larga duración y una caja de cambios de metal 29.86: 1 . Tiene una sección transversal de 10 × 12 mm, y el eje de salida de la caja de cambios en forma de D tiene 9 mm de largo y 3 mm de diámetro.Especificaciones clave:Voltaje nominal : 6VRendimiento sin carga: 6100 RPM, 70 mAExtrapolación de puesto: 0.11 kg x cm (1.5 oz x in), 1.6 AEspecificaciones:Relación de transmisión: 4.995: 1 Aproximado: 5:1Relación a 6VVelocidad sin carga a 6V: 6100 rpmCorriente sin carga a 6V: 0.07 AStall actual a 6V: 1.6 APar de parada a 6V: 0,11 kg x cmPotencia máxima de salida: 1.6WEje del motor: No extendidoCepillos de carbón: Larga duraciónFabricación: HPTipo de motor: 1.6A puesto a 6V ( HP 6V )RendimientoEficiencia máxima a 6V: 41%Velocidad a la máxima eficiencia: 4600 rpmPar a la máxima eficiencia: 0.026 kg x cmCorriente a la máxima eficiencia: 0.82 APotencia de salida a la máxima eficiencia: 1.6 WDimensionesTamaño: 10 × 12 × 26 mmPeso: 9.5 gDiámetro del eje: 3mmContenido de la compra1x Motorreductor 6V 6100RPM 12GA Pololu (1000)Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5290,7 +5302,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529085572-motorreductor-6v-590rpm-501-12ga-eje-extendido-pololu-2213-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529085572-motorreductor-6v-590rpm-501-12ga-eje-extendido-pololu-2213-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5334,7 +5346,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551296349-motorreductor-6v-3100rpm-101-12ga-hp-pololu-999-alto-rendim-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551296349-motorreductor-6v-3100rpm-101-12ga-hp-pololu-999-alto-rendim-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5362,11 +5374,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_904075-MCO45241779855_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -5382,7 +5390,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443299-motorreductor-6v-1000rpm-301-12ga-n20-eje-exten-pololu-2212-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443299-motorreductor-6v-1000rpm-301-12ga-n20-eje-exten-pololu-2212-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5406,7 +5414,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_631120-MCO45242673277_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precioMotorreductor 6V 1000 RPM 12GAEje Extendido Pololu (2212)Este motorreductor es un motor de corriente continua en miniatura de empaquetadura 12GA y de 12 V de alta potencia con cepillos de carbón de larga duración y una caja de piñones metálicos de relación 29.86: 1 . Tiene una sección transversal de 10 × 12 mm, y el eje de salida de la caja de cambios en forma de D tiene 9 mm de largo y 3 mm de diámetro. Esta versión también tiene un eje de motor extendido de 4,5 × 1 mm .Especificaciones clave:Voltaje nominal : 12VRendimiento sin carga: 1000 RPM, 70 mAExtrapolación de puesto: 0.57 kg x cm (7.9 oz x in), 1.6 AEspecificaciones:Relación de transmisión: 29.86 : 1 Aproximado:  30 : 1Relación a 6VVelocidad sin carga a 12V: 1000 rpmCorriente sin carga a 12V: 0.07AStall actual a 12V: 1.6 APar de parada a 12V: 0.57 kg x cmPotencia máxima: 1.5WEje del motor: ExtendidoCepillos de carbón: Larga duraciónTipo de motor: 0.36A puesto a 6V ( HPCB 6V – escobilla de carbón )RendimientoEficiencia máxima a 6V: 41 %Velocidad a la máxima eficiencia: 830 rpmPar a la máxima eficiencia: 0.10 kg x cmCorriente a la máxima eficiencia: 0.36 APotencia de salida a la máxima eficiencia: 0.89 WDimensionesTamaño: 10 × 12 × 26 mmPeso: 9.5 gDiámetro del eje: 3mmContenido de la compra1x Motorreductor 6V 1000RPM 12GA Eje Extendido Pololu (2212)Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -5422,7 +5434,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612444627-motorreductor-12v-650rpm-501-12ga-o-n20-hpcb-pololu-3039-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612444627-motorreductor-12v-650rpm-501-12ga-o-n20-hpcb-pololu-3039-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5448,7 +5460,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 12V 650 RPM 12GAPololu (3039)Este motorreductor es un motor DC miniatura cepillado de alta potencia y 6 V con cepillos de carbón de larga duración y una caja de cambios de metal 29.86: 1 . Tiene una sección transversal de 10 × 12 mm, y el eje de salida de la caja de cambios en forma de D tiene 9 mm de largo y 3 mm de diámetro.Especificaciones clave:Voltaje nominal : 6VRendimiento sin carga: 650 RPM, 60 mAExtrapolación de puesto: 0,67 kg x cm (9,3 oz x pulgadas), 0,75 AEspecificaciones:Relación de transmisión: 51.45: 1 Aproximado: 50:1Relación a 12VVelocidad sin carga a 12V: 650 rpmCorriente sin carga a 12V: 0.06 AStall actual a 12V: 0.75 APar de parada a 12V: 0,37 kg x cmPotencia máxima de salida: 1.1WRelación a 6VVelocidad sin carga a 6V: 325 rpmCorriente sin carga a 6V: 0.05 AStall actual a 6V: 0.38 APar de parada a 6V: 0,34 kg x cmPotencia máxima de salida: 1.1WEje del motor: No extendidoCepillos de carbón: Larga duraciónFabricación: HPCBTipo de motor: 0.75A puesto a 12V (HPCB 12V – escobilla de carbón)RendimientoEficiencia máxima a 12V: 31%Velocidad a la máxima eficiencia: 500 rpmPar a la máxima eficiencia: 0.15 kg x cmCorriente a la máxima eficiencia: 0.22 APotencia de salida a la máxima eficiencia: 0.79 WDimensionesTamaño: 10 × 12 × 26 mmPeso: 9.5 gDiámetro del eje: 3mmContenido de la compra1x Motorreductor 12V 650RPM 12GA Pololu (3039)Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5466,7 +5478,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443981-motorreductor-12v-6000rpm-51-12ga-n20-eje-exten-pololu-3047-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443981-motorreductor-12v-6000rpm-51-12ga-n20-eje-exten-pololu-3047-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5492,7 +5504,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 12V 6000 RPM 12GAEje Extendido Pololu (3047)Este motorreductor es un motor de corriente continua en miniatura de empaquetadura 12GA y de 12 V de alta potencia con cepillos de carbón de larga duración y una caja de piñones metálicos de relación 4,995: 1 . Tiene una sección transversal de 10 × 12 mm, y el eje de salida de la caja de cambios en forma de D tiene 9 mm de largo y 3 mm de diámetro. Esta versión también tiene un eje de motor extendido de 4,5 × 1 mm .Especificaciones clave:Voltaje nominal : 12VRendimiento sin carga: 6000 RPM, 60 mAExtrapolación de puesto: 0,19 kg x cm (2,6 ozx xin), 0,75 AEspecificaciones:Relación de transmisión: 4.995: 1 Aproximado:  5:1Relación a 12VVelocidad sin carga a 12V: 6000 rpmCorriente sin carga a 12V: 0.06AStall actual a 12V: 0.75 APar de parada a 12V: 0.19 kg x cmRelación a 6VVelocidad sin carga a 6V: 3000 rpmCorriente sin carga a 6V: 0.03 AStall actual a 6V: 0.38 APar de parada a 6V: 0,10 kg x cmEje del motor: ExtendidoCepillos de carbón: Larga duraciónTipo de motor: 0.75A puesto a 12V ( HPCB 12V – escobilla de carbón )DimensionesTamaño: 10 × 12 × 26 mmPeso: 9.5 gDiámetro del eje: 3mmContenido de la compra1x Motorreductor 12V 6000RPM 12GA Eje Extendido Pololu (3047)Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5510,7 +5522,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612443671-motorreductor-12v-3000rpm-101-12ga-n20-eje-exte-pololu-3048-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612443671-motorreductor-12v-3000rpm-101-12ga-n20-eje-exte-pololu-3048-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5536,7 +5548,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 12V 3000 RPM 12GAEje Extendido Pololu (3048)Este motorreductor es un motor de corriente continua en miniatura de empaquetadura 12GA y de 12 V de alta potencia con cepillos de carbón de larga duración y una caja de piñones metálicos de relación 9,96: 1 . Tiene una sección transversal de 10 × 12 mm, y el eje de salida de la caja de cambios en forma de D tiene 9 mm de largo y 3 mm de diámetro. Esta versión también tiene un eje de motor extendido de 4,5 × 1 mm .Especificaciones clave:Voltaje nominal : 12VRendimiento sin carga: 3000 RPM, 60 mAExtrapolación de puesto: 0,24 kg x cm (3,3 oz x in), 0,75 AEspecificaciones:Relación de transmisión: 9.96: 1 Aproximado: 10:1Relación a 12VVelocidad sin carga a 12V: 3000 rpmCorriente sin carga a 12V: 0.06AStall actual a 12V: 0.75 APar de parada a 12V: 0.24 kg x cmRelación a 6VVelocidad sin carga a 6V: 1500 rpmCorriente sin carga a 6V: 0.03 AStall actual a 6V: 0.38 APar de parada a 6V: 0,12 kg x cmEje del motor: ExtendidoCepillos de carbón: Larga duraciónTipo de motor: 0.75A puesto a 12V ( HPCB 12V – escobilla de carbón )DimensionesTamaño: 10 × 12 × 26 mmPeso: 9.5 gDiámetro del eje: 3mmContenido de la compra1x Motorreductor 12V 3000RPM 12GA Eje Extendido Pololu (3048)Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5554,7 +5566,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612445146-motorreductor-12v-1100rpm-301-12ga-o-n20-hpcb-pololu-3038-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612445146-motorreductor-12v-1100rpm-301-12ga-o-n20-hpcb-pololu-3038-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5594,7 +5606,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612442184-motorreductor-12ga-o-n20-3-a-12v-600rpm-micro-reductor-501-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612442184-motorreductor-12ga-o-n20-3-a-12v-600rpm-micro-reductor-501-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5624,7 +5636,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 6V 600 RPM 12GAEstos pequeños motorreductores DC están configurados para uso de 6 V, aunque en general, este tipo de motores pueden funcionar a tensiones por encima y por debajo de este voltaje nominal, por lo que deben operar cómodamente en el 3-9 V. Los motorreductores de metal están disponibles en una amplia gama de engranajes de 5: 1 hasta 1000: 1.EspecificacionesVoltaje: 3 – 9 V (6V típico)Relación de trasmisión: 50:1Corriente sin carga: 40 mACorriente Con Carga: 360 mARelación: 50:1 Caja MetálicaRevoluciones: 600 RPMArrastre: 10 oz-in (0.74 kg-cm)Dimensiones: 10 × 12 mmEje: D (9 mm largo y 3 mm de diámetro).Contenido de la compra1x Motorreductor 6V 600RPM 12GAPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5642,7 +5654,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612442425-motorreductor-12ga-o-n20-3-a-12v-1000rpm-micro-reductor-301-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612442425-motorreductor-12ga-o-n20-3-a-12v-1000rpm-micro-reductor-301-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5672,7 +5684,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respa</t>
+          <t>En Moviltronics S.A.S.Siempre con lo que tu necesitas en robótica y electrónica,con excelente respaldo, calidad y precio.Motorreductor 6V 1000 RPM 12GAEstos pequeños motorreductores DC están configurados para uso de 6 V, aunque en general, este tipo de motores pueden funcionar a tensiones por encima y por debajo de este voltaje nominal, por lo que deben operar cómodamente en el 3-9 V. Los motorreductores de metal están disponibles en una amplia gama de engranajes de 5: 1 hasta 1000: 1.EspecificacionesVoltaje: 3 – 9 V (6V típico)Relación de trasmisión: 30:1Corriente sin carga: 40 mACorriente Con Carga: 360 mARelación: 30:1 Caja MetálicaRevoluciones: 1000 RPMArrastre: 6.2 oz-in (0.45 kg-cm)Dimensiones: 10 × 12 mmEje: D (9 mm largo y 3 mm de diámetro) Contenido de la compra1x Motorreductor 6V 1000RPM 12GAPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5690,7 +5702,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-541781689-motorreductor-12ga-6v-500rpm-3-a-9-vdc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-541781689-motorreductor-12ga-6v-500rpm-3-a-9-vdc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5734,7 +5746,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-612441530-motorreductor-12ga-3-a-12v-100rpm-micro-reductor-3001-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-612441530-motorreductor-12ga-3-a-12v-100rpm-micro-reductor-3001-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5762,11 +5774,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_976700-MCO45242399870_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -5782,7 +5790,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956238-motor-paso-a-paso-nema-17-17hs4401-17-a-cnc-3d-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956238-motor-paso-a-paso-nema-17-17hs4401-17-a-cnc-3d-robotica-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5812,7 +5820,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este motor paso a paso NEMA17 es ideal para incluir un tu desarrollo de impresora 3D, puesto que cuenta con las especificaciones perfectas y precisas para elllo.Este motor paso a paso NEMA 17 es bipolar, tiene un ángulo de paso de 1.8º (200 pasos por vuelta) y cada bobinado es de 1.7A a 12V, capaz de cargar con 4Kg/cm.Es un motor muy robusto ampliamente utilizando en Impresoras 3D o maquinas CNC de propósito general, aunque este es ligeramente más potente del recomendado para garantizar la mejor fiabilidad ! El bastidor tiene una parte plana para asegurar un mejor ajuste.Este motor puede ser utilizado con controladores de motores tipo DRV8825 y A4988 , siendo especiales para ser manejados mediante Arduino y una tarjeta Shield CNC o Shield RAMPS.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESVoltaje: 12V.Corriente: 1.7AHolding torque:400mN.m MinRotor torque:57g.cm2Peso:275g RefInsulation resistance:100MO Min.(DC 500V)Insulation class: B(130)Tipo: Bipolar.Torque: 4000g/cm.Angulo de pasos de 1.8 Grados.No. Pasos: 200.No. de Cables: 4.Resistencia de la fase: 1.5 ohms.Inductancia de la bobina: 2.8mH.Cables preparados para soldar.Largo de cableado: 25 Cm aprox.Dimensiones: 42 × 42 × 40 mmEje de 5mm Diametro / 20 mm de Largo.Códigos de color de cableado:ROJO ......... Fase AVERDE ....... Fase A RegresoAMARILLO .. Fase BAZUL ......... Fase B Retorno-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Motor Paso a Paso NEMA 17 17HS4401 1.7A1x Conector y cable-----------------------------------------------------------------------------------------------------------------------Recuerda que si compras 2 piezas o más, el envío es GRATIS.ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5830,7 +5838,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-526966071-moto-bomba-de-aire-6v-map-am-265-proyectos-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-526966071-moto-bomba-de-aire-6v-map-am-265-proyectos-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5874,7 +5882,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-631793703-modulo-tester-voltaje-alarma-baterias-litio-lipo-de-1s-8s-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-631793703-modulo-tester-voltaje-alarma-baterias-litio-lipo-de-1s-8s-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5902,7 +5910,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_990565-MCO46284813676_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Administrar su batería LiPo es imprescindible. Si deja que su batería baje a un voltaje muy minimo, puede disminuir la capacidad de la batería o incluso inutilizarla. Ahí es donde entra en juego nuestro Tester de Voltaje con Alarma para Baterías Lipo.Esta es una gran herramienta dos en uno que da una alarma fuerte a bajo voltaje y puede mostrar rápidamente el voltaje de la batería. Simplemente conecte el conector de equilibrio de la batería 1-8 en el medidor de voltaje / zumbador. Recibirá una lectura instantánea del voltaje total y una lectura individual de cada celda.Primero, esta unidad se puede usar para probar el voltaje de su batería. Mostrará el voltaje total de su batería, luego recorrerá y mostrará el voltaje de cada celda individual.En segundo lugar, la unidad controlará su batería y hará sonar una alarma cuando una de sus celdas caiga por debajo de un voltaje preestablecido. Puede usar el botón de la unidad para configurar ese voltaje en cualquier lugar desde 2.7-3.8V, o apáguelo completamente. Este modo de monitor solo funcionará para baterías de 2 a 8 celdas.-----------------------------------------------------------------------------------------------------------------------Especificación: Uso para 1S-8S Lipo / Li-ion / LiMn / Li-FePrecisión de detección de voltaje: ± 0.01V.Rango de visualización de voltaje de unidad: 0.50 ~ 4.5VRango de visualización de voltaje total: 0.50 ~ 36VRango de voltaje de modo de prueba 1S: 3.7 ~ 30VModo de alarma de baja tensión para 2S-8SRango de valores configurados de alarma: OFF, 2.7-3.8VTamaño: 40 mm x 25 mm x 11 mmPeso: 9 gSonido de alarma súper fuerteCuando el voltaje está por debajo del valor de este, sonará y y prendera el LED, el valor preajustado 3.3v, la tecla Push  uede cambiar la configuración de voltaje de alarma.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Modulo Tester de Voltaje con Alarma para Baterías Lipo de 1S-8S-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -5918,7 +5930,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512940408-modulo-shield-protoboard-compatible-arduino-uno-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512940408-modulo-shield-protoboard-compatible-arduino-uno-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5946,7 +5958,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_843526-MCO31561564675_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:El protoshield facilita la realización de pequeños prototipos electrónicos con Arduino UNO, bien sobre la protoboard de 170 contactos incluida, o bien soldando directamente sobre la placa. El protoshield tiene un par de leds disponibles para experimentar, botón de reset, botón de propósito general y espacio para cualquier prototipo que quieras montar, puedes retirar la placa de prototipos incluida y soldar tus componentes directamente al shield.ESPECIFICACIONES:Mini protoboard de 170 contactos extraíble, incluidaÁrea de prototipos estándar (paso 2.54mm).Área para conexión de circuitos DIP de hasta 20 pines.Pads para conexión de un circuito SOIC de hasta 14 pines.Líneas de alimentación en el centro y los lados.Pulsador de resetPulsador de propósito general2 diodos led de propósito general.Conectores ISP para cargar programas usando un programador AVR.Espacio para condensadores cerámicos para filtrado de alimentación.Contenido de la oferta1x Modulo Shield ProtoboardPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -5962,7 +5978,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-529782694-modulo-shield-nodemcu-l293d-driver-motor-esp8266-cp2102-v2-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-529782694-modulo-shield-nodemcu-l293d-driver-motor-esp8266-cp2102-v2-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5990,7 +6006,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_733145-MCO31795544093_082019-R.jpg</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.MÓDULO SHIELD L293D - ESP12E PARA NODEMCUESP-12E Motor Shield ha sido diseñado y desarrollado por Shenzhen Doctors of Intelligence &amp; Technology (SZDOIT). Este gran módulo accionado por motor actual puede ser compatible con ESP12E Dev Kit y NodeMCU. Al utilizar el diseño de solapamiento, el escudo del motor se puede enchufar directamente con el ESP-12E Dev Kit y el módulo NodeMCU Lua.Esta placa protectora está impulsada por el especial y antiguo chip L293DD de puente completo de gran potencia de la famosa empresa Stmicroelectronics, que puede conducir directamente motores CC de 2 canales o motor paso a paso de un canal. La corriente conducida se puede llegar a 1.2A. Esta placa se genera con diseño nacional, separación de SMT e instalación conveniente.En esta placa protectora de motor, el puerto IO del kit de desarrollo ESP-12E se utiliza como puerto de control. El chip lógico configurado en el interior puede finalizar el IC. Por lo tanto, la placa protectora tiene cuatro puertos: D1, D2, D3 y D3, que se utilizan como PWMA (motor A), PWMB (motor B), DA (dirección del motor A) y DB (dirección del motor B) , respectivamente.Además, esta placa de protección tiene muchos pines, como VIN, 3.3V, DIO, AIO, SDIO, UART, SPI, RST y EN, por lo que puede conectar convenientemente todo tipo de sensores (p. Ej., Temperatura y humedad, zumbador, luz , sensor de relé, etc.).La placa está desarrollada por el diseño humanizado con un interruptor de encendido, y por lo tanto el usuario puede controlar el encendido y apagado de la energía de manera conveniente.ESPECIFICACIONES:Potencia del motor (VM): 4.5 V ~ 36 V, puede ser una fuente de alimentación independiente;Control de potencia (VIN): 4.5 V ~ 9 V (10 Vmax), puede ser alimentado por separado;Módulo proporciona cortocircuito sub (corta la VM Y VIN), usted puede fácilmente utilizar una (debe 4.5 V ~ 9 V) manejar simultáneamente y controlar el motor;Lógica de funcionamiento actual Iss: = 60mA (VI = L), =22ma (VI = H);Conduce parte de la corriente de trabajo Io: = 2A;Máxima disipación de energía: 4 W (T = 90)Nivel de entrada de señal de control: alto: 2.3V =vih=vin; baja:-V = =vil=1. 5 VTemperatura de trabajo:-25 ~ + 125Tipo de unidad: dual de alta potencia conductor del H-puenteESP12E DEV KIT puerto de control: D1, D3 (un motor); D2, D4 (B Motor)Peso: 20gReferencia de producto: ESP-12E MOTOR SHIELDContenido de la oferta1x MÓDULO SHIELD L293D - CP2102 PARA NODEMCUCompras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -6006,7 +6026,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512807398-modulo-shield-cnc-para-arduino-uno-fresadoras-laser-plotter-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512807398-modulo-shield-cnc-para-arduino-uno-fresadoras-laser-plotter-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6030,7 +6050,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_754317-MCO31561458891_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:El CNC Shield para Arduino, hace que sus proyectos CNC sean fáciles de montar haciéndolos que funcionen en unas pocas horas. Utiliza el firmware de código abierto en Arduino para controlar 4 motores paso a paso (PAP o Stepper), donde cuenta con 4 zócalos, para insertar 4 controladores A4988. Con este Shield y un Arduino usted puede construir todo tipo de proyectos de robótica o proyectos CNC.Esta board de expansión se usa principalmente en máquinas de grabado e impresoras 3D. Cuatro de sus ranuras se encargan de accionar cuatro motores paso a paso mediante el driver A4988 (tener presente que este módulo no incluye el driver A4988 para el control de motores paso a paso). Además, cada motor paso a paso solo necesita dos puertos IO para funcionar, dicho de otra forma, si se administran adecuadamente seis puertos de IO. son tres los motores paso a paso que se pueden controlar mediante esta práctica tarjeta de expansión.Este Shield te permite construir tu CNC de la manera más rápida y sencilla, solo necesitas agregar un Arduino Uno y unos cuantos Drivers A4988 o DRV8825. Posee un diseño modular y Open Source.Este shield puede ser usado con los drivers Pololu A4988 (Allegro) o los DRV8825 (Texas Inst.), el A4988 puede manejar motores Paso a paso de hasta 2A por bobina y microstepping de 1/16, el driver DRV8825 es más versatil pues ofrece hasta 2.5A por bobina y microstepping de hasta 1/32.Con este shield podrás desarrollar proyectos como Routers CNC, Cortadoras Laser y hasta una Máquina Pick&amp;Place.ESPECIFICACIONES:Voltaje de Potencia: 12- 36V DCCompatible con GRBL 0.9j (Firmware OpenSource para Arduino UNO que convierte código-G en comandos para motores Paso a Paso)Soporta 4 Ejes (X, Y, Z y duplicar uno de los anteriores o crear un eje a medida con los pines D12 y D13)2 Fin de carrera por cada eje (6 en Total)Habilitador y dirección de SpindleHabilitador de refrigerante (coolant)Diseñador para drivers Pololu A4988 o DRV8825.Jumpers para elegir el micro-stepping de los drivers.Diseño CompactoLos motores se pueden conectar usando header o Molex hembra de 4 pinesContenido de la oferta1x Modulo Shield CNC Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -6046,7 +6070,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512808934-modulo-shield-cnc-para-arduino-nano-fresadoras-laser-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512808934-modulo-shield-cnc-para-arduino-nano-fresadoras-laser-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6070,11 +6094,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_957332-MCO31561451067_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.Shield CNC para Arduino Nano, DIY Maquinas CNC de 3 pla</t>
-        </is>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -6090,7 +6110,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656221762-modulo-sensor-deteccion-sonido-microfono-electret-arduino-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656221762-modulo-sensor-deteccion-sonido-microfono-electret-arduino-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6118,7 +6138,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_897331-MCO49603845770_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El módulo del sensor de sonido tiene un micrófono electret capacitivo integrado que es muy sensible al sonido. Las ondas sonoras hacen que la película delgada del electret vibre y luego la capacitancia cambia, produciendo así el correspondiente cambio de voltaje, por lo que puede detectar la intensidad del sonido en el ambiente. Puede ajustar la sensibilidad girando el potenciómetro .Este sensor de sonido se utiliza para detectar si hay sonido envolvente o no, no puede reconocer la frecuencia o el volumen, no utilice el módulo para recoger la señal de sonido.-----------------------------------------------------------------------------------------------------------------------Voltaje de trabajo: DC3.5-5VLa forma de salida Salida de interruptor digital (1 sy 0 s + v)Equipado con un orificio de perno fijo, instalación convenienteTamaño: 34 mm * 16 mm * 15 mm (largo * ancho * alto)-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Modulo detección de sonido-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -6134,7 +6158,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610667831-modulo-sensor-de-herradura-f249o-o-fc03-compatible-arduino-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610667831-modulo-sensor-de-herradura-f249o-o-fc03-compatible-arduino-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6178,7 +6202,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513117477-modulo-sensor-de-efecto-hall-ky-035-arduino-pic-raspberry-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513117477-modulo-sensor-de-efecto-hall-ky-035-arduino-pic-raspberry-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6206,11 +6230,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_858667-MCO30522893547_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
-        </is>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -6226,7 +6246,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512606307-modulo-reproductor-mp3-wtv020-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512606307-modulo-reproductor-mp3-wtv020-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6254,7 +6274,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_873968-MCO30422034834_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:Es un módulo de MP3 pequeño y bajo costo con una producción simplificada directamente al altavoz, puede ser utilizado como un módulo independiente con una batería, altavoz y botones de accionamiento o se utiliza en combinación con un UNO Arduino o cualquier otro con capacidades de I/O.ESPECIFICACIONES:Frecuencias de muestreo compatibles (kHz): 8 / 11,025 / 12/16 / 22,05 / 24/32 / 44,1 / 48Salida DAC 24-bit, soporta para 90 dB de rango dinámico, 85dB SNR apoyoApoya plenamente FAT16, FAT32, máxima 2GEna variedad de modos de control, de E / S en modo de control, de modo de serie, el modo de control de botón ADDatos de audio ordenados por carpeta, soporta hasta 100 carpetas, cada carpeta puede contener hasta 255 cancionesVolumen ajustable 30 niveles, 6 -level EQ ajustableTensión de trabajo: DC 2.5 ~ 3.6VCorriente en reposo: (no se inserta la tarjeta SD) 16uAPeso: 3gDimensiones: 12 x 21 x 18 mmCapacidad de la tarjeta SD: 32MB a 1GBContenido de la oferta1x Modulo Reproductor MP3 WTV020Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -6270,7 +6294,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-588873018-modulo-reloj-rtc-ds3231-tiempo-real-rtc-arduino-pic-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-588873018-modulo-reloj-rtc-ds3231-tiempo-real-rtc-arduino-pic-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6298,11 +6322,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_968123-MCO43755517628_102020-R.jpg</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -6318,7 +6338,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-524177070-modulo-relevo-estado-solido-5v-x4-g3mb-202p-4-canales-ssr-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-524177070-modulo-relevo-estado-solido-5v-x4-g3mb-202p-4-canales-ssr-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6346,7 +6366,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_889695-MCO31468955261_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Dentro de la gran variedad de proyectos que podemos realizar con Arduino, uno de los temas más interesantes es la Automatización del hogar; donde normalmente se controlan equipos de corriente alterna (220VAC), los cuales no pueden ser manejados directamente con Arduino. En estos casos es necesario utilizar Relays o Reles, estos permiten controlar cargas de alto voltaje con una señal pequeña.Los Relay de estado solido o SSR (Solid State Relay) son una evolución de los clásicos relay de tipo electromecánico. El funcionamiento interno de un SSR es el siguiente: cuando se aplica un voltaje de control en la entrada del SSR, se activa un Led interno que ilumina y activa un fototransistor o fotodiodo, permitiendo el paso de corriente, que a su vez activa un Tiristor (Triac) que es el dispositivo que finalmente permite el paso de corriente en la carga. El aislamiento óptico por optoacoplador (led + fototransistor) permite que el circuito de control (Arduino) esté eléctricamente aislado de la carga.Los SSR tiene diversas ventajas sobre los relays electromecánicos: un menor tiempo de respuesta, mayor tiempo de vida, no tiene componentes móviles, aislamiento eléctrico óptico. Una de las aplicaciones más interesantes de los SSR es control por ángulo de disparo.El SSR del modulo fabricado por Omron con la más alta calidad y con capacidad de hasta 240V/2A. Diseñado para ser compatible con sistemas de 5V como Arduino o Pic y también con sistemas de 3.3V como Raspberry Pi.Características:– Modelo SSR: OMRON G3MB-202P-DC5– Voltaje de Alimentación: 5V DC– Corriente de trabajo: 12.5 mA– Voltaje de control: ON (0V-1.5V) OFF (2.5V-5V)– Voltaje de la Carga: 240VAC máx.– Corriente de la carga: 2A máx, por relé– Nº de Relays: 1– Salida Normalmente Abierto (NO)– Tiempo de acción: 1 ms– Cruce por CeroContenido de la oferta1x Modulo Relevo Estado Solido 5V X4 G3MB-202P_______________________________________________________________ENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 2 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -6362,7 +6386,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512784666-modulo-rele-1-canal-5-voltios-arduino-raspberri-pic-micros-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512784666-modulo-rele-1-canal-5-voltios-arduino-raspberri-pic-micros-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6406,7 +6430,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635163131-modulo-relay-2-canales-optoacopladas-5v-rele-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635163131-modulo-relay-2-canales-optoacopladas-5v-rele-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6450,7 +6474,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-635151729-modulo-reed-switch-sensor-magnetico-raspberry-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-635151729-modulo-reed-switch-sensor-magnetico-raspberry-arduino-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6478,7 +6502,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_879644-MCO46364604343_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Interruptor de láminas es un tipo de componente de conmutación electrónica pasiva con contactos con una estructura simple, pequeño tamaño y fácil de controlar. Consiste en una capsula sellada de vidrio, donde hay dos cañas elásticas ferrosos y está lleno de gas inerte llamado rodio. Normalmente, las dos cañas están separados en la capsula. Cuando un campo magnético se acerca a la envoltura de vidrio, las cañas se reunirán debido al campo magnético completando así un circuito eléctrico.Cuando el campo magnético externo desaparece, dos cañas serán separados debido a su elasticidad, el circuito también se desconecta.Por lo tanto, como un dispositivo de conmutación de circuito controlado por las señales de campo magnético, interruptor de láminas también se puede utilizar como un sensor para el recuento y la limitación, etc. (aplicado en los sistemas de seguridad, que se utilizan principalmente para la producción de puertas y ventanas imanes), y es también se usa ampliamente en una variedad de dispositivos de comunicaciones. En la práctica, es común el uso de los dos imanes permanentes para controlar la conexión de dos hojas de metal, por lo que también se llama un “magnetrón.”.El interruptor de láminas o reed swicth deben trabajar en conjunto con el imán, cuando se detecta el magnetismo, el circuito está conectado y la salida de los módulos de bajo nivel; cuando no hay fuerza magnética, es desconectado y salidas de los módulos de alto nivel. Si el rango de detección de la caña al imán es de más de 1,5 cm, se vuelven insensibles y no puede ser activado;HACER terminal de salida del módulo se puede conectar directamente al puerto I / O de MCU, el estado de disparo del interruptor de láminas se puede detectar a través de MCU;HACER terminal de salida del módulo se puede conectar al terminal IN de relé para formar un interruptor de láminas de alta potencia para el control directo de alto voltaje.AplicacionesSe ha aplicado en los intercambios almacenados control del programa, fotocopiadoras, lavadoras, frigoríficos, cámaras, Desinfección armarios, imanes de las puertas, las ventanas, los imanes relés electromagnéticos, dispositivos electrónicos de pesaje, medidores de nivel, medidores de gas, medidores de agua, etc.-----------------------------------------------------------------------------------------------------------------------Salida de comparador.Señal clara.Más de 15 mA en conmutación.Voltaje de funcionamiento: 3.3V-5V.Formato de salida: salida de conmutación digital (0 y 1)Con agujeros de perno fijo para una fácil instalaciónTamaño pequeño PCB: 32mm x 14mmLa adopción comparador LM393-----------------------------------------------------------------------------------------------------------------------Contenido de la comrpa1x Modulo Reed Switch con comparador-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -6494,7 +6522,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-633946618-modulo-receptor-infrarrojo-ky-022-tl1838-ir-arduino-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-633946618-modulo-receptor-infrarrojo-ky-022-tl1838-ir-arduino-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6522,11 +6550,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_765324-MCO46334190111_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -6542,7 +6566,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-641388605-modulo-multiplexor-i2c-tca9548-8-canales-arduino-nodemcu-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-641388605-modulo-multiplexor-i2c-tca9548-8-canales-arduino-nodemcu-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6586,7 +6610,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-639256438-modulo-mp5-reproductor-mp3-video-control-remoto-bluetooth-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-639256438-modulo-mp5-reproductor-mp3-video-control-remoto-bluetooth-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6614,11 +6638,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_839154-MCO46506926494_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -6634,7 +6654,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874565026-modulo-mosfet-ha210no6-cama-caliente-12v-24v-30a-210a-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874565026-modulo-mosfet-ha210no6-cama-caliente-12v-24v-30a-210a-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6678,7 +6698,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539660483-modulo-matriz-88-led-rojo-5mm-con-controlador-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539660483-modulo-matriz-88-led-rojo-5mm-con-controlador-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6718,7 +6738,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874457158-modulo-loragps-hat-915mhz-wireless-raspberry-shield-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874457158-modulo-loragps-hat-915mhz-wireless-raspberry-shield-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6762,7 +6782,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-544567573-modulo-led-cob-12-voltios-2-watts-variados-colores-abs-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-544567573-modulo-led-cob-12-voltios-2-watts-variados-colores-abs-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6782,7 +6802,11 @@
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo 6 LED 12V 2W Verde extra brillo y cálido consumo, brindan una excelente iluminación y su se emplea en cajas de luz, carteles, publicidad y cualquier aplicación que requiera luz. Ideal para colocar con facilidad, evitando sombras de luz, Cada Cadena integra un modulo de 6 led que crea una luz muy uniforme con una gran versatilidad y facilidad para su colocación. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje de alimentación: 12 VPotencia: 2WProtección IP: 67Color: VerdeTiempo Vida Util: 50.000 HorasLuminosidad: 190LMDimensiones: 20 mm x 70 mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Modulo LED x 6 COB ABS 12V 2W -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -6798,7 +6822,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512654880-modulo-led-bicolor-ky011-rojo-verde-arduino-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512654880-modulo-led-bicolor-ky011-rojo-verde-arduino-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6842,7 +6866,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-629249547-modulo-gps-ublox-neo-6m-gps6mv2-arduino-pic-raspberry-stm32-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-629249547-modulo-gps-ublox-neo-6m-gps6mv2-arduino-pic-raspberry-stm32-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6870,7 +6894,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_778612-MLA51575235962_092022-R.jpg</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Módulo GPS basado en u-blox NEO-6M con eeprom incluido, incluye antena. Es compatible con varios controladores de vuelo que necesitan de posicionamiento GPS.-----------------------------------------------------------------------------------------------------------------------Módulo GPS para Arduino y microcontroladores, basado en el receptor de la marca Ublox modelo NEO 6M, el módulo incluye su antena cerámica para colocarse directamente sobre el PCB, por lo que ya viene listo para operar sin requerir más accesorios.El GPS puede funcionar con un voltaje de alimentación en el rango de 3.0 a 5.0 volts, mientras que las señales que entran y salen son de 3.3 volts, por lo que se requiere un convertidor de niveles si un arduino o microcontrolador de 5 volts va a comunicarse (transmitir) hacia el módulo GPS. Si solamente se desean recibir los datos NMEA basta con conectar el pin TX con el RX de arduino y recibir los datos que envía el módulo, en este caso, no hace falta conversión de niveles por que el arduino reconoce los 3.3 volts como nivel alto.Ejemplos de conexión:[img-1885-left-large_default] [img-1886-left-large_default]Especificaciones:Modulo GPS Ublox NEO-6MComunicación serialVoltaje de alimentación:  (3.5 – 5 )VDCAntena cerámica activa incluidaLED indicador de señalTamaño de antena 22x22mmTamaño de modulo 23x30mmBAUDRATE: 9600EEPROM para guadar configuración de parámetrosSistema de coordenadas: WGS-84Sensibilidad de captura -148dBmSensibilidad de rastreo: -161 dBmMáxima altura medible: 18000Máxima velocidad 515 m/sExactitud: 1micro segundoFrecuencia receptora: L1 (1575.42 Mhz)Código C/A 1.023 MhzTiempo de inicio primera vez: 38s en promedioTiempo de inicio : 35s en promedio-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Modulo GPS NEO-6M1x Antena-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -6886,7 +6914,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512714915-modulo-final-de-carrera-impresora-3d-o-maquinas-cnc-bandas-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512714915-modulo-final-de-carrera-impresora-3d-o-maquinas-cnc-bandas-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6930,7 +6958,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512812107-modulo-easydriver-v44-a3967-para-motor-paso-a-paso-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512812107-modulo-easydriver-v44-a3967-para-motor-paso-a-paso-arduino-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6958,7 +6986,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_963975-MCO30455131603_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:EasyDriver es un simple controlador de motores paso a paso que es compatible con cualquier dispositivo que pueda proporcionar pulsos de 5V. Esta basado en el chip A3967 de Allegro y se puede alimentar con una alimentacion de entre 7 y 30V y posee un regulador de tensión que permite aislar la parte digital de 5V con la fuente principal.El manejo del motor se vuelte extremadamente sencillo ya que con sólo dos pines podemos controlar la dirección como el paso.Tan sólo conectar EasyDriver a una fuente de alimentación y un microcontrolador y tenemos un control altamente preciso de un motor paso a paso!Ësta es la nueva versión mejorada v4.4Â diseñada por Brian Schmalz. Proporciona mayor flexibilidad y control sobre el motor comparado con la versión anterior. Los pines de microstep (MS1 y MS2) del chip A3967 están ahora disponibles para poder ajustar la resolución. También están accesibles los pines de Sleep y Enable.ESPECIFICACIONES:Circuito integrado A3967Puede ajustarse resolución de micro pasos a través de los pins MS1 y MS2 en la placa. Las resoluciones son full, medio, un cuarto y un octavo (por defecto está ajustado en un octavo)Compatible con motores paso a paso de 4, 6 y 8 cables de cualquier voltaje.Corriente de control ajustable desde 150mA/fase a 750mA/faseAlimentación desde 7V a 30V. El voltaje es directamente proporcional a el torque en velocidad altas.Contenido de la oferta1x Modulo EasyDriver V4.4 A3967 Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -6974,7 +7006,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-590314711-modulo-easy-driver-motor-paso-a-paso-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-590314711-modulo-easy-driver-motor-paso-a-paso-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6994,11 +7026,7 @@
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -7014,7 +7042,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610629989-modulo-driver-para-motor-pololu-tb6612fng-713-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610629989-modulo-driver-para-motor-pololu-tb6612fng-713-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7054,7 +7082,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512799407-modulo-driver-para-motor-paso-a-paso-pololu-drv8825-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512799407-modulo-driver-para-motor-paso-a-paso-pololu-drv8825-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7082,11 +7110,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_922962-MCO46191682497_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -7102,7 +7126,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539679527-modulo-driver-l9110-con-ventilador-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539679527-modulo-driver-l9110-con-ventilador-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7146,7 +7170,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509368389-modulo-diodo-x2-dsi-2x55-12a-56-amperios-x-2-1200-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509368389-modulo-diodo-x2-dsi-2x55-12a-56-amperios-x-2-1200-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7174,7 +7198,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_667994-MCO31559809772_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Condición: USADO recuperado de equipos en des usoFuncionamiento: 10/10 testeado con garantíaEstado estético: 9/10 algunos rastros de polvo y marcas de usoFOTOGRAFÍAS REALES DEL PRODUCTOCaracterísticasModulo doble diodo rectificador independientesIF(AV)M = 2x 56 AVRRM = 1200-1600 VPtot TC = 25 Grados Centigrados 190 WAdosado en disipador de aluminio con aletasMedidas: Ancho 75mm, Largo: 74mm, Alto: 50mmIdeal para rectificadores de media onda, fuentes lineales, fuentes conmutadas (SMPS), UPS, control de motores. Contenido de la oferta1 Modulo Diodo DSI 2x55-12A con disipadorENVIO GRATISPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -7190,7 +7218,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889902288-modulo-corte-proteccion-sobredescarga-bateria-xh-m609-12-36v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889902288-modulo-corte-proteccion-sobredescarga-bateria-xh-m609-12-36v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7218,7 +7246,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_953984-MCO49865765651_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Pantalla LED Digital interruptor de desconexión de bajo voltaje Corte 12V 24V 36V 48V MÓDULO DE PROTECCIÓN DE sobredescarga para DC 12-36V batería de litio de plomo-ácido-----------------------------------------------------------------------------------------------------------------------Descripción:-Interruptor de desconexión de bajo voltaje de batería programable para batería de plomo ácido DC 12-36V y batería de iones de litio. Es un módulo de interruptor de protección, no incluye baterías en sí.-Botón momentáneo integrado para configurar el parámetro de desconexión de bajo voltaje y pantalla LED roja de 3 dígitos el parámetro fácil de operar-Cuando el voltaje de la batería alcance los valores de configuración, el módulo se desconecta automáticamente para evitar que la batería se sobrecargue para prolongar la vida útil de la batería-La pantalla es precisa, el módulo del interruptor se abre y cierra rápidamente cuando está cerca del voltaje mínimo; La configuración se almacena no volátil, puede mantenerse configurado cuando se apaga.-----------------------------------------------------------------------------------------------------------------------Especificaciones:-Rango de voltaje de entrada: CC 12-36V-Precisión del Control: 0,1 V-Batería Compatible: plomo-ácido, batería de iones de litio, batería de panel solar.-Tamaño de la placa: 57X42X19mm (L * W * H)-----------------------------------------------------------------------------------------------------------------------Instrucciones de funcionamiento:1. Haga doble clic en el botón + number, luego presione el botón + or-, configure el valor de voltaje de parada2. Haga doble clic en el botón de número, luego presione el botón + or-, configure el valor de voltaje de retorno3. Presione el botón + number, luego presione el botón + or-, calibre el valor de la pantalla de voltaje de entrada4. Presione el botón-number, luego presione el botón + or-, configure el valor de inicio de latencia T. En el momento en que el voltaje de salida alcanza el valor de inicio, después del retraso T, hay una salida de voltaje, el tiempo de retardo es de 0 ~ 10 minutos, la categoría de visualización es: 000, 001, 005 o 0105. Haga clic en el botón + number para ver el valor de voltaje de parada6. Haga clic en el botón-number para ver el valor de voltaje de retorno7. La diferencia en la diferencia se puede configurar en 48V, el mínimo se puede configurar en 0,5 V.¿Cuál es el "valor de diferencia"?El valor entre el voltaje de la batería para desconectar y el voltaje de la batería para volver a conectar. Por ejemploQuiero que la batería deje de salir cuando el voltaje de la batería es inferior a 11V y vuelva a salir cuando supera los 11,6 V. ¿Qué debo hacer?Mantener en "+" y establecer el valor como 11. El LED comienza a parpadear. Después de que el parpadeo se detenga, mantenga pulsado "-" y establezca el valor de diferencia como 0,6 V. P &amp; A:P: ¿Cuánto tiempo tardará este módulo en cargar la batería del coche?R: El módulo no se carga por sí solo, solo se enciende y apaga la carga.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Modulo Corte Protección sobre descarga batería XH-M609 12-36V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -7234,7 +7266,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637056235-modulo-conversor-niveles-logicos-5v-a-33v-4-canales-arduino-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637056235-modulo-conversor-niveles-logicos-5v-a-33v-4-canales-arduino-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7278,7 +7310,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-967755136-modulo-controlador-tp4056-proteccion-entrada-usb-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-967755136-modulo-controlador-tp4056-proteccion-entrada-usb-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7310,7 +7342,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888808707-modulo-control-de-carga-baterias-hw-633-v-30-6-60-voltios-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888808707-modulo-control-de-carga-baterias-hw-633-v-30-6-60-voltios-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7340,7 +7372,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Hw-633 V 3.0 18650 batería de litio carga tablero de Control DC 6-60V Li-ion batería de plomo ácido protección de carga 12V voltímetro Digital-----------------------------------------------------------------------------------------------------------------------DescripciónVoltaje de entrada: CC 6-60VPrecisión de la pantalla: 0,1 VPrecisión del Control: 0,1 VTipo de salida: salida directaTolerancia de voltaje: ± 0,1 VSolicitar: Batería de 6-60V máx. 80VDimensiones: 81x54x18mmConfiguración de inicio. 1. Configure el voltaje de inicio:Estado de voltaje de pantalla Normal, presione un botón de voltaje de arranque para mostrar el voltaje de carga de inicio. Mantenga presionado el botón de inicio, los flashes digitales, por el botón de inicio y parada, configure el valor de voltaje de inicio de carga.2. Establecer voltaje de parada:Modo de visualización Normal de voltaje normal, presione un botón de voltaje de parada para mostrar el voltaje de carga de parada. Mantenga presionado el botón de parada, los flashes digitales, por el botón de inicio y parada, configure el valor de voltaje de parada de carga.3. Error de configuración:Estado energizado mientras mantiene presionado el botón de inicio/parada, pantalla digital 888, que es la configuración de fábrica.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Módulo de Carga de Baterías HW-633 V3-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7358,7 +7390,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888391878-modulo-control-de-carga-baterias-hw-632-20a-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888391878-modulo-control-de-carga-baterias-hw-632-20a-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7386,7 +7418,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_688090-MCO49815214387_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este es el módulo de Control de carga de 20A puede usar generador, panel Solar y cualquier otra fuente de alimentación como entrada de 10 ~ 30 VDC para cargar a voltajes de 12 V o 24 V baterías de coche así como pilas con químicas diferentes como plomo-ácido, níquel-cadmio, níquel-metal hidruro, iones de litio, polímeros. Este módulo tiene carga y protección sobrecargada, puede establecer el voltaje de inicio y el voltaje de parada según los datos de su batería.-----------------------------------------------------------------------------------------------------------------------Modelo:	HW-632Voltaje de entrada:	10 V-30 V DCCorriente nominal:	20APrecisión:	0,1 VPrecisión de Control:	0,1 VTipo de salida:	Salida directaTolerancia de tensión:	+/-0,1 VCampos de aplicación:	Baterías de 12-24 VTipo de batería:	Baterías de plomo-ácidopilas de níquel-cadmioPilas de níquel-metal hidrurobaterías de iones de litio,Batería del cochebaterías del polímeroDimensiones:	82*58*18mmAjustes:1 configuración de tensión de arranque: en el estado de tensión de la pantalla normal, pulse el botón y mostrará la tensión de carga de inicio; la prensa larga para el tubo digital de 3 s será flash; puede iniciar o detener el botón para configurar el valor de tensión de arranque2 establecer Tensión de parada: en el estado de tensión de la pantalla normal, presione el botón mostrará el voltaje de carga de la carga; presione el botón 3s el display digital flash; puede iniciar o detener el botón para ajustar el valor de tensión de carga3 reinicio de fábrica: en el poder en el Estado presione el botón Inicio/parada al mismo tiempo, el display digital mostrará 888; que representa los ajustes de configuración de fábrica-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Módulo de Carga de Baterías HW-632-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -7402,7 +7438,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513073665-modulo-buzzer-fc-49-arduino-pic-stm32-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513073665-modulo-buzzer-fc-49-arduino-pic-stm32-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7430,7 +7466,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_802364-MCO30518013088_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Buzzer pasivo la frecuencia de oscilación requerida para ingresar a los puertos de E / S sonará un zumbador.Módulo que utiliza la unidad de transistor S8550 Tensión de funcionamiento 3.3V-5V con orificio de perno fijo para una fácil instalación.CARACTERÍSTICAS:Los Sistemas embebidos como Arduino necesitan interactuar con el usuario ya sea por medios visuales o de sonidos. Un buzzer es el elemento más usado como indicador de sonido, puede usarse al presionar una tecla, reproducir melodías, alarmas. Agregar un buzzer dará a tu proyecto un nivel más profesional de diseño y usabilidad. El módulo incluye un transistor que cumple la función de amplificador de señal, de esta forma podemos conectar el módulo directamente a nuestro Arduino y no preocuparnos por dañar algún componente. El buzzer piezoeléctrico es de tipo pasivo por lo que puede reproducir melodias utilizando la función TONE de Arduino.ESPECIFICACIONES:Voltaje de Operación: 3.3V - 5V DCTipo: Piezo eléctrico pasivoIncluye el transistor S8550Pines: VCC, GND y SeñalContenido de la oferta1x Modulo Buzzer FC-49Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -7446,7 +7486,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-638918157-modulo-bms-proteccion-bateria-litio-2s-6a-celda-1860-wh-2s80-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-638918157-modulo-bms-proteccion-bateria-litio-2s-6a-celda-1860-wh-2s80-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7490,7 +7530,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-638639748-modulo-bms-13s-25-amperios-48-voltios-baterias-litio-lithium-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-638639748-modulo-bms-13s-25-amperios-48-voltios-baterias-litio-lithium-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7518,7 +7558,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_747384-MCO46485536937_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------BMS 18650 Lipo Li-ion placa de carga de protección de bateríaBMS de iones de litio 18650 Placa de protección de batería para celdas 3.7 VBMS ajustable para :6 celdas en serie7 celdas en serie8 celdas en serie9 celdas en serie10 celdas en serie11 celdas en serie12 celdas en serie13 celdas en serie.-----------------------------------------------------------------------------------------------------------------------Tensión de recuperación de sobrecarga: mín.: 4,14 V TYP: V 4,19 máx.: 4,24 VVoltaje de detección de descarga excesiva: MIN: 2,72 V TYP: 2,8 V MAX: 2,88 VTensión de recuperación de descarga excesiva: mín.: 2,9 V TYP: 3 V máx.: 3,1 VDetección de sobrecarga corriente: mín.: 32A TYP: 40 A máx.: 48ATiempo de retardo de detección de sobrecarga: MIN: 700 mS TYP: 1000 mS MAX: 1300 mSTiempo de retardo de protección de corriente de sobrecarga: MIN: mS TYP: 16 mS MAX: 20 mSSobredescarga corriente de detección corriente: MIN: 54A TYP: 60A MAX: 66ATiempo de retardo de protección de corriente de sobredistancia: MIN: 18 mS TYP: 24 mS MAX: 30 mSCorriente de reposo: 25uATemperatura: SíProtección contra sobrecorriente: carga cortadaCorriente de descarga: 18A nominalDetección de sobrecarga voltaje: MIN: 4,23 V TYP: 4,25 V MAX: 4,27 V-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Modulo BMS 13S 25A1x Cables de conexion BMS-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -7534,7 +7578,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539664608-modulo-bluetooth-cc2541-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539664608-modulo-bluetooth-cc2541-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7562,7 +7606,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_709219-MCO32698463612_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Disipación de baja potencia BLE CC2541 CC41 Módulo serie UART Bluetooth Transceptor UART, utilizado por la configuración de chip CC2541 TI TI de 256Kb de espacio, siga la especificación Bluetooth V4.0 BLE. Admite comandos AT, el usuario puede modificar la velocidad en baudios del puerto serie, el nombre del dispositivo, la contraseña y otros parámetros según el par. El módulo es compatible con la interfaz UART y es compatible con el protocolo serie Bluetooth SPP. Conectado con Iphone 4S y Android 4.3 arriba.Especificaciones:Protocolo bluetooth: bluetooth especificación v4.0 ble, no reciben ningún límite de bytes, iphone 4s bajo entorno abierto y puede alcanzar 110 m de comunicación de larga distanciaFrecuencia de funcionamiento: banda ISM de 2.4 GHz La modulación: GFSK (frecuencia gausiana modulación por desplazamiento) Sensibilidad: = -84dbm en el 0.1% ber Velocidad de transferencia: asíncrono: 6 kbps síncrono: 6 kbps Características de seguridad: autenticación y cifrado Servicios de apoyo: el centro de &amp; FFE0 uuid periférica, ffe1 El consumo de energía: modo de suspensión automático, 400uA corriente de espera ~ 1.5mA, 8.5ma transmisión. Fuente de alimentación: + 3.3v dc 50mA Dimensiones: 26.9mm x 13mm x 2.2 mm Certificación del bluetooth: rohs Contenido de la oferta1x Modulo Bluetooth CC2541Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -7578,7 +7626,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875084039-modulo-bluetooth-arduino-hc-06-hc06-4-pines-esclavo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875084039-modulo-bluetooth-arduino-hc-06-hc06-4-pines-esclavo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7608,7 +7656,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este módulo te permite agregar conectividad inalámbrica a través de una interfaz serial TTL entre Microcontroladores (PIC, Arduino) y otros dispositivos como PC, laptops o tu Smartphone. El módulo Bluetooth HC-06 viene configurado de fábrica para trabajar como esclavo, es decir, preparado para escuchar peticiones de conexión.-----------------------------------------------------------------------------------------------------------------------Especificación bluetooth v2.0 + EDR (Enhanced Data Rate)Modo esclavo (Solo puede operar en este modo)Puede configurarse mediante comandos AT (Deben escribirse en mayúscula)Chip de radio: CSR BC417143Frecuencia: 2.4 GHz, banda ISMConsumo de corriente: 30 mA a 40 mAVoltaje de operación: 3.6 V a 6 VDimensiones totales: 1.7 cm x 4 cm aprox.Seguridad: Autenticación y encriptaciónInterfaz: Bluetooth Puerto serie UART TTL-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Modulo Bluetooth Integrado HC-06NOTA: debe tener en cuenta que este modulo Bluetooth permite la conexión y comunicación pero no permite modificar características con comando AT ni comunicación del modulo ya que viene pre-programado.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO *</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7626,7 +7674,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512943108-modulo-base-driver-l293d-esp12e-esp8266-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512943108-modulo-base-driver-l293d-esp12e-esp8266-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7650,7 +7698,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_878508-MCO30491308778_052019-R.jpg</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.CARACTERÍSTICAS:Tarjeta de expansión driver para motores L293D para placa NodeMcu ESP8266 ESP12E Cuenta con un controlador de motor L293DTiene un interruptor de encendido en la placa.ESPECIFICACIONES:Alimentación del motor (VM): 4.5V a 36V, se puede alimentar por separado Alimentación de control (VIN): 4.5V a 9V (10VMAX), puede ser alimentado por separado.El módulo proporciona un subcircuito de cortocircuito (cortocircuito en el VM y VIN), puede utilizar fácilmente una potencia (desde 4.5V a 9V) mientras completa la impulsión y el control del motor.Corriente lógica de funcionamiento Iss: = 60mA (Vi=L), = 22mA (Vi=H)Corriente de trabajo Io: = 1.2AMáxima disipación de energía: 4W (T=90)Nivel de entrada de la señal de control:- Alto: 2.3V = VIH = VIN;- Bajo: -0.3V = VIL = 1.5VTemperatura de trabajo: -25 a 125 gradosTipo de accionamiento: Conductor doble de alta potencia de puente en H.Puerto de control ESP12E: D1, D3 (motor A); D2, D4 (motor B)Contenido de la oferta1x Modulo Base L293DPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -7666,7 +7718,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-637633757-modulo-amplificador-tpa3118-60-watts-mono-bajos-subwoofer-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-637633757-modulo-amplificador-tpa3118-60-watts-mono-bajos-subwoofer-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7696,7 +7748,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El Módulo  TPA3118 ,es un amplificador monofonico Clase D que cuenta con un canal de salida de 60w de alto rendimiento y bajo consumo.Es utilizado para  amplificar señales de sonido de computadores, celulares, tablets, iPod, MP3, entre otrosIdeal para la fabricación de amplificadores debido a su tamaño y facilidad de usoEl modulo amplificador TPA3118 PBTL monofásico clase D utiliza múltiples opciones de frecuencia de conmutación para suprimir la interferencia de AM, contando con la opción de sincronizar varios dispositivos en el modo Master-Slave, proporcionando además protección contra corto circuito, sobre temperatura, sobre tensión para evitar daños en el procesador.Recomendado para la amplificacion de Subwoofer o bajos, combinelo con un amplificador estero para armar un sistema 2.1-----------------------------------------------------------------------------------------------------------------------Características:Chip Principal: TPA3118Tipo de Amplificador: Clase DCircuito Integrado: LM386Filtro: LCSalida : monoauralEficiencia: 87%Voltaje de alimentación: 8V a 24 VRango de voltaje recomendado: 20V a 24VCorriente de entrada: 2A a 4ANúmero de canales: 1Potencia de salida: 60W por canalAltavoces compatibles (impedancia de salida): 4ohms a 8 Ohms , recomendable 8 OhmsFrecuencia: 40 Hz – 22 KHzTemperatura de operación: -40 grados C a 85 grados CPeso: 11.23 gDimensiones: 46 mm x 35 mm x 12 mm-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Modulo Amplificador HW-327 TPA3118-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7714,7 +7766,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539697412-modulo-amplificador-pam8403-con-control-de-volumen-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539697412-modulo-amplificador-pam8403-con-control-de-volumen-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7758,7 +7810,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-534363139-modulo-amplificador-pam8403-3w-5v-dos-canales-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-534363139-modulo-amplificador-pam8403-3w-5v-dos-canales-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7786,11 +7838,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_907561-MCO32246058736_092019-R.jpg</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -7806,7 +7854,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875860813-modulo-amplificador-audio-tda2030-mono-18watts-6-12-vdc-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875860813-modulo-amplificador-audio-tda2030-mono-18watts-6-12-vdc-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7834,7 +7882,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_881408-MCO49498409549_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Amplificador de Audio TDA2030 18W Monofónico El módulo amplificador de audio de 18W monofónico TDA2030 tiene una calidad de sonido óptima, caracterizándose por su tamaño práctico y mínima cantidad de componentes.Este módulo funciona para amplificar señales pequeñas de sonido como la de computadores, celulares, MP3, MP4, Tablet, entre otros y poder escucharlas a través de un parlante de buena capacidad. -----------------------------------------------------------------------------------------------------------------------Principales Características:Voltaje de alimentación DC: 6V a 12VPotenciómetro de 10 Kohms para ajustar el volumenPotencia de salida 18WImpedancia de salida 4ohms - 8ohmsCorriente de salida pico de 3ADisipador de calor IncorporadoDimensiones: 3.3 cm x 2.8 cm x 2.3 cm-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Módulo amplificador TDA2030-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -7850,7 +7902,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539665378-modulo-acondicionamiento-con-termocupla-tipo-k-max6675-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539665378-modulo-acondicionamiento-con-termocupla-tipo-k-max6675-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7878,7 +7930,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_950920-MCO32698615046_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El circuito integrado MAX6675 de Maxim/Dallas Semiconductor es un convertidor analógico a digital para termopares tipo K. Bueno, la verdad es que este circuito tras su apariencia inocente con un encapsulado SOIC de 8 pines, esconde mucho más que un ADC y nos ahorrará bastante espacio al momento de diseñar un circuito impreso.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Interfaz compatible con SPI solo de lectura.Resolución de 12 bits, 0.25 grados centígrados.Precisión:+- 1.5°CMedición hasta 1024 grados centígrados.Alimentación de 3.3 a 5 volts.Temperatura de medición: 0°C a 1024°CFrecuencia de reloj SPI máxima Fscl 4.3 Mhz.Tiempo de conversión 0.17 s máximo 0.22 segundos.Consumo máximo de 1.5 mA.Dimensiones: 25mm x 15mm x 13mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 x Modulo Acondicionamiento 1 x Termocupla tipo-K MAX66751 x Cables conexión dupond-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -7894,7 +7950,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539805124-modulo-6-led-24v-2w-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539805124-modulo-6-led-24v-2w-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7918,7 +7974,11 @@
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo 6 LED 24V 2W luz muy uniforme con una gran versatilidad, bajo consumo, brindan una excelente iluminación se emplea en cajas de luz, carteles, publicidad y cualquier aplicación que requiera luz. Ideal para colocar con facilidad, Cada Cadena integra un modulo de 6 led que crea una luz muy uniforme y gran facilidad para su colocación.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje de alimentación: 24 VPotencia: 2WProtección IP: 68Tiempo Vida Util: 50.000 HorasLuminosidad: 190LMDimensiones: 20 mm x 70 mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Modulo 6 LED 24V 2W -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -7934,7 +7994,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539802958-modulo-3-led-12v-15w-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539802958-modulo-3-led-12v-15w-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7964,7 +8024,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo 3 LED 12V 1.5W de alta potencia, brindan una excelente iluminación y su aplicación es universal, cajas de luz, carteles, publicidad y cualquier aplicación que requiera luz. Ideal para colocar con facilidad, evitando sombras de luz. En la parte trasera incorporan un adhesivo para su colocación.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje de alimentación: 12 VPotencia: 1.5WProtección IP: 66Tiempo Vida Util: 50.000 HorasLuminosidad: 130LMDimensiones: 15 mm x 74 mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Modulo 3 LED 12V 1.5W-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -7982,7 +8042,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539797565-modulo-1-led-12v-15w-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539797565-modulo-1-led-12v-15w-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8026,7 +8086,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647289756-mini-protoboard-adhesiva-de-400-puntos-85cm-x-55cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647289756-mini-protoboard-adhesiva-de-400-puntos-85cm-x-55cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8056,7 +8116,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Mini Protoboard Adhesiva 400PProtoboard con 400 puntos. Útil para realizar prototipos de circuitos en corto tiempo. Dispone de lineas para la alimentación. Dispone de autoadhesivo y dientes en los costados para unir con otras protoboards del mismo tipo.-----------------------------------------------------------------------------------------------------------------------Características-400 puntos en total.-300 puntos para conexiones.-100 puntos para distribución de la alimentación.-58 terminales de 5 puntos, más 4 líneas de alimentación de 25 puntos cada una.-Dispone de letras en la parte superior y de numeración en cada lado.-Acepta la mayoría de los componentes electrónicos, incluidos los circuitos integrados y transistores para circuitos digitales y / o analógicos.-Diseñado para 5000 inserciones por punto.-Tamaño del tablero: 85mm (L) x 55mm (A).-Material en plástico ABS-Acepta conexiones desde 20 a 29 AWGIdeal para proyectos, practicas y prototipos de electrónica básica, Arduino, microcontroladores.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Mini Protoboard Adhesiva 400P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8074,7 +8134,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-564163046-mini-moto-bomba-de-aire-3v-robotica-arduino-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-564163046-mini-moto-bomba-de-aire-3v-robotica-arduino-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8102,7 +8162,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_938735-MCO41989291687_052020-R.jpg</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Excelente bomba de aire miniatura, ideal para emplear en tus proyectos que necesiten una de ellas.ESPECIFICACIONES:Voltaje nominal. DC 3.0VIntensidad de corriente. &lt;380mATiempo de inflación. &lt;7,5 S (de 0 a 300 mmHg en un tanque de 100CC).Flujo de aire sin carga. &gt; 0.07LPMPresión máxima de Max. Presión&gt; 350 mmHg a 350 mmHgLas fugas. Max 3mmHg / min de 300 mmHg en el tanque de 100CC.Nivel de ruido. Nivel de ruido 65dB (30 cm de distancia)Contenido de la oferta1x Bomba de aire mini 3VCompras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -8118,7 +8182,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-615272957-mini-bomba-de-aire-6-voltios-proyectos-caseros-electronica-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-615272957-mini-bomba-de-aire-6-voltios-proyectos-caseros-electronica-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8148,7 +8212,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Caracteristicas:Bomba de aire miniatura operada 6V (inflador de aire) utilizada en la máquina de presión arterial electrónica para inflar el propósito.Se puede usar con todas las unidades de control Micro, incluyendo Arduino, Raspberry Pi, NodeMCU, PIC, etc.Para probar perforar una bolsa Zip Lock e inflarla con esta bomba, se inflará hasta que la bolsa explote.Buena calidad y cada elemento probado en laboratorio antes de despachar.Tenga en cuenta: Esto no es una bomba de vacío, esto es solo un inflador. No puede usarse como una máquina de succiónEspecificaciones:Voltaje nominal:  6.0VRango de voltaje:  3.0 - 7.0VTiempo de prensado:  11.5sec o menos - Tiempo para agregar presión de 0 a 300 mmHg a un tanque de 500cc por voltaje nominal (CC 6V)Consumo de corriente:  430 mA o menos - Corriente máxima durante la adición de presión de 0 a 300 mmHg a un tanque de 500 cc por voltaje nominal (CC 6 V).Fuga de aire:  3.0 mmHg / min o menos - Disminución de la presión a los 30 segundos después de dejar de bombear a un tanque de 500cc hasta 40 ± 10mmHg y 300 ± 10mmHg.Presión máxima:  400 mmHg o másRuido:  55.0dB o menos - Ruido a 30cm de la bomba.Cuerpo Tamaño: O27 x 64 mm tubo de injertos Diámetro: Ø 4 mmPeso: 58 g Contenido de la oferta1x Moto Bomba de Aire 6V MAP-AM-265_______________________________________________________________ENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX----------------------------------------------------------------------------------------------------------------------- Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8166,7 +8230,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874993134-microcontrolador-pic16f877-8bit-256ram-4k-flash-dip-40-20mhz-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874993134-microcontrolador-pic16f877-8bit-256ram-4k-flash-dip-40-20mhz-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8194,7 +8258,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_861493-MCO49470071520_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este potente microcontrolador de 8 bits basado en FLASH CMOS (ejecución de instrucciones de 200 nanosegundos) pero fácil de programar (solo 35 instrucciones de una sola palabra) incluye la potente arquitectura PIC® de Microchip en un paquete de 40 o 44 pines y es compatible hacia arriba con el Dispositivos PIC16C5X, PIC12CXXX y PIC16C7X. PIC16F877 cuenta con 256 bytes de memoria de datos EEPROM, autoprogramación, un ICD, 8 canales de convertidor de analógico a digital (A/D) de 10 bits, 2 temporizadores adicionales, 2 funciones de captura/comparación/PWM, el puerto serial síncrono puede configurarse como interfaz periférica en serie de 3 hilos (SPI™) o como bus de circuito interintegrado (I²C™) de 2 hilos y un transmisor receptor asíncrono universal (USART).-----------------------------------------------------------------------------------------------------------------------Tipo de circuito integrado microcontrolador PICMemoria del programa 8kB x 14 palabras Capacidad de memoria SRAM 368BCapacidad de memoria EEPROM 256BFrecuencia 20MHzMontaje THTCarcasa DIP40Cantidad de entradas/salidas 33Cantidad de timers 8bit 2Cantidad de timers 16bit 1Clase de arquitectura Harvard 8bitFamilia PIC16Número de canales de capacidad 8Clase de empaquetado tuboTemperatura de trabajo 0...70°CCapacidad de memoria Flash 14000BRáster de terminales 2.54mmFrecuencia de servicio 0...20MHzNúmero de canales output compare 2Número de canales input capture 2-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Microcontrolador PIC16F877-20I/P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -8210,7 +8278,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-543292794-microcontrolador-pic16f716-8-bit-converter-ad-compare-pwm-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-543292794-microcontrolador-pic16f716-8-bit-converter-ad-compare-pwm-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8240,7 +8308,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este potente (ejecución de instrucción de 200 nanosegundos) pero fácil de programar (solo 35 instrucciones de una sola palabra) El microcontrolador CMOS de 8 bits basado en Flash empaqueta la potente arquitectura PIC® de Microchip en un paquete de 18 pines y es compatible con las PIC16C5X y PIC12FXXX dispositivos. El PIC16F716 presenta 4 canales de convertidor analógico a digital (A / D) de 8 bits con 2 temporizadores adicionales y una función mejorada de captura / comparación / PWM que lo hace ideal para aplicaciones A / D de nivel más avanzado en automoción, industrial, electrodomésticos y aplicaciones de consumo.-----------------------------------------------------------------------------------------------------------------------Tipo de memoria de programa FlashTamaño de la memoria del programa (KB) 3.5Velocidad de CPU (MIPS / DMIPS) 5 5SRAM (KB) 128Capturar / Comparar / Periféricos PWM 1 ECCP,Temporizadores 2 x 8 bits, 1 x 16 bitsEntrada ADC 4 canales, 8 bitsRango de temperatura (° C) -40 a 125Rango de voltaje de funcionamiento (V) 2 a 5.5-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Microcontrolador PIC16F716-I/P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8258,7 +8326,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874462679-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-modelismo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874462679-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-modelismo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8284,7 +8352,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Micro motor DC de 3V ideal para usar en proyetos de robotica, modelismo, RC, hobbismo, juguetes, DIY. Poyectos educativos y escolares. Pequeño y potente de bajo consumo de energia lo que permite su uso con baterias. Fabricacion robusta y de alta calidad.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje nominal: 3VCorriente en reposo: 45 mARevoluciones promedio: 12100 rpmCorriente sin carga: 160 mARevoluciones con carga: 9400 rpmPar: 0.2 mN x mPar maximo: 0.9 mN x mCorriente con carga: 540 mA-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Micromotor DC FF-N20 3V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8302,7 +8370,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-514321752-marco-impresora-3d-prusa-p3steel-acero-3mm-200x200x200mm-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-514321752-marco-impresora-3d-prusa-p3steel-acero-3mm-200x200x200mm-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8332,7 +8400,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.Marco (frame) para impresora 3D P3Steel+ Acero HS 3mm P</t>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Marco (frame) para impresora 3D P3Steel+ Acero HS 3mm PIntura electrostática corte laser de alta precisión Base cama 200x200mm expandible a 300x200mm (opcional)Fabrica la mejor impresora maker del mercado, precisa, durable y expandible en área de impresión. CARACTERÍSTICAS:Modelo: P3SteelMaterial: Acero HSCalibre: 3mmAcabado: Pintura electroestaticaÁrea de impresión efectiva: X-210mm / Y-210 / Z-210mm Área expandible efectiva: X-210mm / Y-300mm / Z-210mm (requiere base dela cama no incluida en esta oferta) Dimensiones: ancho 39 cm - alto - 45 cm - largo 52 cm Contenido de la oferta1x Marco P3Steel+ 30 piezas de acero. Envío gratis- Por MercadoEnvíosPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8350,7 +8418,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-613624419-luz-led-modulo-3-smd-x20und-12v-15w-avisos-espejos-vitrinas-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-613624419-luz-led-modulo-3-smd-x20und-12v-15w-avisos-espejos-vitrinas-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8378,7 +8446,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_616290-MCO45346219119_032021-R.jpg</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.PAQUETE 20 UNIDADESModulo 3 LED 12V 1.5W de alta potencia con LUPA, Paquete por 20 unidades brindan una excelente iluminación y su aplicación es universal, decorativos, cajas de luz, carteles, publicidad, espejos, vitrinas, acisos y cualquier aplicación que requiera luz. Ideal para colocar con facilidad, evitando sombras de luz. En la parte trasera incorporan un adhesivo para su colocación. Especificaciones:Voltaje de alimentación: 12 VPotencia: 1.5WProtección IP: 66Tiempo Vida Util: 50.000 HorasLuminosidad: 130LMDimensiones: 69*14*5,3mmContenido de la oferta20x Modulo 3 LED 12V 1.5W_______________________________________________________________ENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
@@ -8394,7 +8466,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551297947-llantas-velocista-goma-linetronics-con-alma-metalica-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551297947-llantas-velocista-goma-linetronics-con-alma-metalica-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8438,7 +8510,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513996392-llantas-para-mini-sumo-rin-en-aluminio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513996392-llantas-para-mini-sumo-rin-en-aluminio-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8464,7 +8536,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.SKU: M20085Llanta para mini sumo de alta calidad y exce</t>
+          <t>En Moviltronics SAS, siempre pensamos en ti.SKU: M20085Llanta para mini sumo de alta calidad y excelente agarre. CARACTERÍSTICAS:Llantas especialmente diseñadas para competencias de robótica en las categorías de Mini Sumo, Seguidor de línea o cualquier otra donde se requiera buen agarre y resistencia. Se vende por par e incluye la llave. Es compatible con motores Pololu y Fingertech con eje de 3mm en D (o con una parte plana del eje).Se venden por ParesESPECIFICACIONES:Diámetro de la llanta: 31 mmAnchura de la llanta: 20 mmPeso de la llanta: 15 gramos por llanta. Tipo de eje de acoplamiento: 3mm.Diámetro del Rin: 22mm.2x Llantas para Mini Sumo Rin en AluminioPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8482,7 +8554,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539030354-llantas-mini-sumo-rin-plastico-goma-especial-alto-agarre-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539030354-llantas-mini-sumo-rin-plastico-goma-especial-alto-agarre-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8510,11 +8582,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_941525-MCO32619394813_102019-R.jpg</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.Llanta para mini sumo de alta calidad y excelente agarr</t>
-        </is>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -8530,7 +8598,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513995714-llantas-mini-sumo-rin-aluminio-goma-especial-alto-agarre-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513995714-llantas-mini-sumo-rin-aluminio-goma-especial-alto-agarre-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8552,7 +8620,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti.SKU: M20085Llanta para mini sumo de alta calidad y exce</t>
+          <t>En Moviltronics SAS, siempre pensamos en ti.SKU: M20085Llanta para mini sumo de alta calidad y excelente agarre. CARACTERÍSTICAS:Llantas especialmente diseñadas para competencias de robótica en las categorías de Mini Sumo, Seguidor de línea o cualquier otra donde se requiera buen agarre y resistencia. Se vende por par e incluye la llave. Es compatible con motores Pololu y Fingertech con eje de 3mm en D (o con una parte plana del eje).Se venden por ParesESPECIFICACIONES:Diámetro de la llanta: 31 mmAnchura de la llanta: 20 mmPeso de la llanta: 15 gramos por llanta. Tipo de eje de acoplamiento: 3mm.Diámetro del Rin: 22mm.Contenido de la oferta2x Llantas Mini Sumo o VelocistaPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8570,7 +8638,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-896572300-llanta-tamiya-70101-36mm-4pcs-robotica-modelismo-proyectos-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-896572300-llanta-tamiya-70101-36mm-4pcs-robotica-modelismo-proyectos-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -8594,11 +8662,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_759340-MCO50011812093_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -8614,7 +8678,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877939516-llanta-50mm-todo-terreno-2-unidades-tamiya-70096-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877939516-llanta-50mm-todo-terreno-2-unidades-tamiya-70096-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8638,7 +8702,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_769445-MCO49567582355_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Llanta 50mm 2 unidades los dos neumáticos extremadamente elásticos del juego de neumáticos todo terreno tienen unos 50 mm de diámetro y 30 mm de ancho. Úselos si desea que su robot tenga un viaje suave y con amortiguación de aire a través de un terreno accidentado. Compatible can las cajas reductoras de la linea.Las Ruedas Tamiya Off-Road funcionan bien en una variedad de aplicaciones. Sus prestaciones TODO-TERRENO y tamaño, son ideales para robots pequeños que necesiten un buen agarre en diversas superficies.Estas ruedas son compatibles con todos los kits de motorreductores Tamiya como el 70097, 70167, 70168, etc.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESDiámetro: 50 mmAncho: 30mm1 eje de 3X10mm.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta2X llantas todo terreno2X rines para usar con ejes hexagonales de 3 mm1X eje hexagonal de 3 mm, 100 mm de largo-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -8654,7 +8722,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1031238901-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1031238901-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8684,7 +8752,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Kit solar Robot didáctico 6 en 1 para armar hasta 6 proyectos diferentes aprovechando la energía solar:AviónCachorroAutomóvilLanchaAvión giratorioMolinoEste es un juguete que ayuda a desarrollar las habilidades mentales y motrices de los niños, no requiere soldadura ni herramientas especiales, es divertido y muy fácil de armar. Todos los proyectos funcionan con un pequeño motor que es impulsado por energía solar recopilada por un panel fotovoltaico, por lo que no  necesita pilas.Las dos partes más importantes de este conjunto son la caja de engranajes y la celda solar . Ambas piezas deben usarse con cada robot si desea que tenga movimiento. Construir estas dos partes es simple y solo toma alrededor de 5 minutos en total.Para hacer que el robot se mueva, debe conectar los cables de la celda solar a la caja de engranajes. La gran parte es que no hay soldadura involucrada.-----------------------------------------------------------------------------------------------------------------------Características Kit solar Robot didáctico:Nivel básico: para mayores de 7 añosFunciona con energía solarNo requiere herramientas especiales o soldaduraConstruye: Avión/Cachorro/Auto/Bote/Avión giratorio/MolinoPanel solar: 1 Vcc 75 mAMotor: 12,000 rpm / 1.2 Vcc-----------------------------------------------------------------------------------------------------------------------Contenido de la compraInstructivo26 piezas de plásticoCelda solarMotor2 engranes2 cables cortos2 cables largos-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8702,7 +8770,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1031220135-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1031220135-kit-robot-solar-juguete-didactico-6-en-1-para-armar-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8730,7 +8798,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_954328-MCO52217420835_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Kit solar Robot didáctico 6 en 1 para armar hasta 6 proyectos diferentes aprovechando la energía solar:AviónCachorroAutomóvilLanchaAvión giratorioMolinoEste es un juguete que ayuda a desarrollar las habilidades mentales y motrices de los niños, no requiere soldadura ni herramientas especiales, es divertido y muy fácil de armar. Todos los proyectos funcionan con un pequeño motor que es impulsado por energía solar recopilada por un panel fotovoltaico, por lo que no  necesita pilas.Las dos partes más importantes de este conjunto son la caja de engranajes y la celda solar . Ambas piezas deben usarse con cada robot si desea que tenga movimiento. Construir estas dos partes es simple y solo toma alrededor de 5 minutos en total.Para hacer que el robot se mueva, debe conectar los cables de la celda solar a la caja de engranajes. La gran parte es que no hay soldadura involucrada.-----------------------------------------------------------------------------------------------------------------------Características Kit solar Robot didáctico:Nivel básico: para mayores de 7 añosFunciona con energía solarNo requiere herramientas especiales o soldaduraConstruye: Avión/Cachorro/Auto/Bote/Avión giratorio/MolinoPanel solar: 1 Vcc 75 mAMotor: 12,000 rpm / 1.2 Vcc-----------------------------------------------------------------------------------------------------------------------Contenido de la compraInstructivo26 piezas de plásticoCelda solarMotor2 engranes2 cables cortos2 cables largos-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -8746,7 +8818,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-806870555-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-806870555-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8790,7 +8862,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-842167011-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-842167011-kit-robot-solar-13-en-1-jueguete-didactico-para-armar-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8820,7 +8892,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El robot alimentado por energía solar puede transformarse en 13 modos diferentes de robots que incluyen una multitud de movimientos cómicos y funcionales. El usuario puede cambiar fácilmente de un perro-moviendo la cola -&gt; ejecutar escarabajo -&gt; caminar del cangrejo -&gt; surfista -&gt; velocista -&gt; cazador de zombis … El kit de robot ofrece accesorios únicos (incluido) y las piezas que componen el robot se mueva sobre la tierra y el agua .Con la energía alternativa de jugar un papel tan importante, no hay mejor momento que ahora para empezar los niños en el camino hacia el aprendizaje de los conceptos básicos detrás de estas tecnologías. Afortunadamente, este producto es alimentado por el sol, así que no hay baterías necesarias. El robot se mueve en la luz solar directa y permite que los niños crean y usan su imaginación infinita.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONES:El Tamaño del robot varia entre: 10 a 20 cmsMaterial: PolietilenoEdad de: 10 +Color: como muestra la imagen-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 KIT Solar Juguete educativo 13 en 1 robótica-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -8838,7 +8910,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-625612215-kit-placa-electronica-psoc-6-wi-fi-bt-cy8cproto-062-4343w-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-625612215-kit-placa-electronica-psoc-6-wi-fi-bt-cy8cproto-062-4343w-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -8878,7 +8950,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550903746-kit-mini-pci-e-evb-gsmgprs-4g-lte-quectel-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550903746-kit-mini-pci-e-evb-gsmgprs-4g-lte-quectel-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -8904,7 +8976,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.DESCRIPCIÓNEste kit EVB puede utilizar todas las funcionalidades del módulo de Mini PCIe y es funcional con los siguientes módulos:- UC20 Mini PCIe- UC15 Mini PCIe- EC20 Mini PCIeCaracterísticas principales:- Fuente de alimentación Suministro de CC 4.5 ~ 5.5V típicamente 5V, VBAT: 3.3V en J202- (U) Interfaz SIM Conector USIM / tarjeta SIM (6 pines) con carga de empuje- Tarjeta USIM / SIM: 3V y 1.8V- Interfaz de audio utilizada para auriculares y auriculares- Interfaz UART COM-interfaz serial para comunicación de datos (por defecto 115200bps)- Max. velocidad en baudios: 460800 bps- Interfaz USB USB 2.0- Indicación de señal 2 LED están disponibles para indicación de señal- Características físicas Tamaño: 94 × 58 mmContenido de la oferta:1x Fuente de alimentación Adaptador de conmutación 5V DC 11x Cables: Cable convertidor USB a UART 1, Cable USB 1, Cable de RF 31x Antena: Antena Principal 2, Antena GNSS (pasiva) 11x Auricular de audio 11x Disco USB2.0 a RS232 y disco USB controlador de disco 11x Otros pernos y tuercas para fijar EVB 1Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -8922,7 +8994,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550901370-kit-gsmnb-iot-evb-quectel-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550901370-kit-gsmnb-iot-evb-quectel-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -8948,7 +9020,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.------------------------------CARACTERÍSTICAS----------------------------------------- Quectel le proporciona todo tipo de placa de desarrollo o kit de desarrollo , que pueden ayudar a aprender, evaluar y utilizar Quectel GSM / GPRS , lo más simple posible.Quectel suministra GSM EVB para que los diseñadores desarrollen aplicaciones basadas en los módulos Quectel GSM, UMTS y NB-IoT. Este EVB puede probar las funcionalidades básicas de estos módulos.- fácil de usar - Abundantes interfaces funcionales- Interacción hombre-máquina- Visualización del estado de funcionamiento del módulo a través de LED.- Documentación y herramientas empaquetadas en un CD.Módulos Aplicables:Módulos GSM Quectel, módulo UC15 y módulo BC95.Contenido de la oferta1x GSM/NB-IoT EVB1x Cable convertidor de USB a UART X 11x Cable USB X 11x Cable RF X 11x Antena X 11x Adaptador de CC de 5 V X 11x Auricular X 11x Disco que involucra documentos y controladores relacionados X 1   1x Hoja de instrucciones para dar instrucciones para la conexión EVB , detalles de accesorios EVB, etc. X 11x Pernos y tuercas para fijar EVB X 1Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -8966,7 +9038,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621595940-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621595940-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8990,7 +9062,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_756210-MCO45852136994_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El sistema Grove está diseñado para conectar un procesador al mundo real a través de diferentes transductores (como sensores y motores), placas de expansión y cables Grove que se ven como un cable plano. Con el sistema Grove, no se molestará en manejar conexiones excesivas y complicadas como solía hacer. No se requieren herramientas de soldadura, paneles y cables de puente. Solo tiene que enchufar muchos transductores a la placa de desarrollo con placas de expansión de blindaje base y cables Grove. El sistema Grove es muy útil para acelerar el proceso de desarrollo de su proyecto, especialmente para un novato.-----------------------------------------------------------------------------------------------------------------------Características:Módulos Grove bien seleccionados con diferentes funciones, como detección, entrada, pantalla, etc., muy adecuado para principiantes.Rentable comparando otro kit de inicio para Arduino.Paquete bien con estructura de ranura interna suave, protegiendo el producto muy bien.Sin soldadura, sin cables de puente.Se proporciona la biblioteca completa de Arduino para Grove. Instrucciones detalladas para cada módulo Grove en nuestro sistema wiki.Descripción general del hardware:Esta sección enumera las partes principales de este kit y enlaces para obtener más información para cada módulo funcional.Este kit puede ayudarte con eso. Introduce la simplicidad de Grove System en su proyecto Arduino. El Grove Base Shield funciona perfectamente en Arduino / Genuino 101 o en cualquier placa de desarrollo que aplique el factor de forma Arduino Uno. Con un grupo de módulos Grove bien elegidos y listos para usar, puede configurar un proyecto y convertir su idea en algo real de manera fácil y rápida.NOTA: Este kit NO incluye el Arduino.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Base Shield1x Grove – Retroiluminación LCD RGB1x Grove – Smart Relay1x Grove – Zumbador1x Grove – Sensor de sonido1x Grove – Sensor táctil1x Grove – Sensor de ángulo giratorio1x Grove – Sensor de temperatura1x Grove – LED1x Grove – Sensor de luz1x Grove – Botón1x DIP LED Azul-Azul1x DIP LED Verde-Verde1x DIP LED Rojo-Rojo1x Mini Servo10x Cables Grove	1x Adaptador de 9V a Barrel Jack1x Manual de inicio de Grove1x Caja de plástico verde-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -9006,7 +9082,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621521172-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621521172-kit-grove-starter-shield-modulos-servo-sensor-para-arduino-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9032,7 +9108,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El sistema Grove está diseñado para conectar un procesador al mundo real a través de diferentes transductores (como sensores y motores), placas de expansión y cables Grove que se ven como un cable plano. Con el sistema Grove, no se molestará en manejar conexiones excesivas y complicadas como solía hacer. No se requieren herramientas de soldadura, paneles y cables de puente. Solo tiene que enchufar muchos transductores a la placa de desarrollo con placas de expansión de blindaje base y cables Grove. El sistema Grove es muy útil para acelerar el proceso de desarrollo de su proyecto, especialmente para un novato.-----------------------------------------------------------------------------------------------------------------------Características:Módulos Grove bien seleccionados con diferentes funciones, como detección, entrada, pantalla, etc., muy adecuado para principiantes.Rentable comparando otro kit de inicio para Arduino.Paquete bien con estructura de ranura interna suave, protegiendo el producto muy bien.Sin soldadura, sin cables de puente.Se proporciona la biblioteca completa de Arduino para Grove. Instrucciones detalladas para cada módulo Grove en nuestro sistema wiki.Descripción general del hardware:Esta sección enumera las partes principales de este kit y enlaces para obtener más información para cada módulo funcional.Este kit puede ayudarte con eso. Introduce la simplicidad de Grove System en su proyecto Arduino. El Grove Base Shield funciona perfectamente en Arduino / Genuino 101 o en cualquier placa de desarrollo que aplique el factor de forma Arduino Uno. Con un grupo de módulos Grove bien elegidos y listos para usar, puede configurar un proyecto y convertir su idea en algo real de manera fácil y rápida.NOTA: Este kit NO incluye el Arduino.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Base Shield1x Grove – Retroiluminación LCD RGB1x Grove – Smart Relay1x Grove – Zumbador1x Grove – Sensor de sonido1x Grove – Sensor táctil1x Grove – Sensor de ángulo giratorio1x Grove – Sensor de temperatura1x Grove – LED1x Grove – Sensor de luz1x Grove – Botón1x DIP LED Azul-Azul1x DIP LED Verde-Verde1x DIP LED Rojo-Rojo1x Mini Servo10x Cables Grove	1x Adaptador de 9V a Barrel Jack1x Manual de inicio de Grove1x Caja de plástico verde-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9050,7 +9126,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621513325-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621513325-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9074,7 +9150,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_848151-MCO45851825753_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El sistema Grove está diseñado para conectar un procesador al mundo real a través de diferentes transductores (como sensores y motores), placas de expansión y cables Grove que se ven como un cable plano. Con el sistema Grove, no se molestará en manejar conexiones excesivas y complicadas como solía hacer. No se requieren herramientas de soldadura, paneles y cables de puente. Solo tiene que enchufar muchos transductores a la placa de desarrollo con placas de expansión de blindaje base y cables Grove. El sistema Grove es muy útil para acelerar el proceso de desarrollo de su proyecto, especialmente para un novato.-----------------------------------------------------------------------------------------------------------------------Características:Módulos Grove bien seleccionados con diferentes funciones, como detección, entrada, pantalla, etc., muy adecuado para principiantes.Rentable comparando otro kit de inicio para Arduino.Paquete bien con estructura de ranura interna suave, protegiendo el producto muy bien.Sin soldadura, sin cables de puente.Se proporciona la biblioteca completa de Arduino para Grove. Instrucciones detalladas para cada módulo Grove en el sistema wiki.Descripción general del hardware:Esta sección enumera las partes principales de este kit y enlaces para obtener más información para cada módulo funcional.Este kit puede ayudarte con eso. Introduce la simplicidad de Grove System en su proyecto Arduino. El Grove Base Shield funciona perfectamente en Arduino / Genuino 101 o en cualquier placa de desarrollo que aplique el factor de forma Arduino Uno. Con un grupo de módulos Grove bien elegidos y listos para usar, puede configurar un proyecto y convertir su idea en algo real de manera fácil y rápida.NOTA: Este kit NO incluye el Arduino / Genuino 101.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Grove- Button	1x Grove – Sensor de sonido v1.2	1x Grove – Sensor táctil	1x Grove – Sensor de luz v1.2	1x Grove – Sensor de temperatura v1.1	1x Grove – Sensor de ángulo de rotación (P)	1x Grove – Sensor de vibración piezoeléctrica	1x Grove – Retroiluminación LCD RGB	1x Grove – Zumbador	1x Grove – LED v1.3	1x Motor paso a paso del engranaje con el conductor	1x Grove Base Shield v2	1x Cable Grove Universal de 4 pines	1x LED rojos	1x LED verdes	1x LED azules	-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -9090,7 +9170,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621597243-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621597243-kit-grove-starter-para-arduino-y-genuino-101-modulos-shield-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9114,7 +9194,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_848151-MCO45851825753_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El sistema Grove está diseñado para conectar un procesador al mundo real a través de diferentes transductores (como sensores y motores), placas de expansión y cables Grove que se ven como un cable plano. Con el sistema Grove, no se molestará en manejar conexiones excesivas y complicadas como solía hacer. No se requieren herramientas de soldadura, paneles y cables de puente. Solo tiene que enchufar muchos transductores a la placa de desarrollo con placas de expansión de blindaje base y cables Grove. El sistema Grove es muy útil para acelerar el proceso de desarrollo de su proyecto, especialmente para un novato.-----------------------------------------------------------------------------------------------------------------------Características:Módulos Grove bien seleccionados con diferentes funciones, como detección, entrada, pantalla, etc., muy adecuado para principiantes.Rentable comparando otro kit de inicio para Arduino.Paquete bien con estructura de ranura interna suave, protegiendo el producto muy bien.Sin soldadura, sin cables de puente.Se proporciona la biblioteca completa de Arduino para Grove. Instrucciones detalladas para cada módulo Grove en el sistema wiki.Descripción general del hardware:Esta sección enumera las partes principales de este kit y enlaces para obtener más información para cada módulo funcional.Este kit puede ayudarte con eso. Introduce la simplicidad de Grove System en su proyecto Arduino. El Grove Base Shield funciona perfectamente en Arduino / Genuino 101 o en cualquier placa de desarrollo que aplique el factor de forma Arduino Uno. Con un grupo de módulos Grove bien elegidos y listos para usar, puede configurar un proyecto y convertir su idea en algo real de manera fácil y rápida.NOTA: Este kit NO incluye el Arduino / Genuino 101.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Grove- Button	1x Grove – Sensor de sonido v1.2	1x Grove – Sensor táctil	1x Grove – Sensor de luz v1.2	1x Grove – Sensor de temperatura v1.1	1x Grove – Sensor de ángulo de rotación (P)	1x Grove – Sensor de vibración piezoeléctrica	1x Grove – Retroiluminación LCD RGB	1x Grove – Zumbador	1x Grove – LED v1.3	1x Motor paso a paso del engranaje con el conductor	1x Grove Base Shield v2	1x Cable Grove Universal de 4 pines	1x LED rojos	1x LED verdes	1x LED azules	-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -9130,7 +9214,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-573391560-kit-gps-l86-series-evb-quectel-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-573391560-kit-gps-l86-series-evb-quectel-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9154,7 +9238,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_780562-MCO40592386282_012020-R.jpg</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.DESCRIPCIÓNLa placa de evaluación L86 ofrece una interfaz efectiva y completa del módulo GNSS Quectel L86 con una antena de parche y una computadora. Los componentes y la interfaz de la placa incluyen conector de puerto UART, conector de antena, conector de adaptador de corriente, módulo L86, interruptor de encendido y de espera, botón RESET, puntos de prueba y LED de indicación.Contenido de la oferta:1x placa de desarrollo L8x1x cable USB a RS2321x CD con controladores para cable USB a RS2321x cable micro USB1x separadores de PCB1x guía de inicio rápido Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -9170,7 +9258,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550902033-kit-gps-l76-series-evb-quectel-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550902033-kit-gps-l76-series-evb-quectel-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9194,7 +9282,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_920464-MCO40591367227_012020-R.jpg</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Características principales- Tamaño compacto y fácil de usar.- Interfaces funcionales abundantes.- Interfaz micro-USB tanto para la fuente de alimentación como para la transferencia de datos.- Visualización del estado de funcionamiento del módulo a través de LED- Batería externa disponibleContenido de la oferta1x Instrucciones de una página1x Cable micro-USB1x Antena activa GNSS (3.3V)1x Un CD-ROM que incluye herramientas de evaluación, controlador USB y documentaciónPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
@@ -9210,7 +9302,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550902694-kit-evb-gsmgprs-3g-umtslte-quectel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550902694-kit-evb-gsmgprs-3g-umtslte-quectel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9230,7 +9322,11 @@
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.DESCRIPCIÓNQuectel le proporciona todo tipo de placa de desarrollo o kit de desarrollo, que puede ayudarle a aprender, evaluar y utilizar modulos 3G UMTSQuectel suministra UMTS y LTE EVB para que los diseñadores desarrollen aplicaciones basadas en módulos Quectel UMTS y LTE y módulos Wi-Fi. Este EVB puede probar las funcionalidades básicas de estos módulos.Módulos compatibles:- UC20- UGxx1)- EC2x2)- Serie FC203)- EG95Notas:1. 1) UGxx contiene UG35, UG95 y UG96.2. 2) EC2x contiene EC25, EC21, EC20 y EC20 R2.0.3. 3) La serie FC20 incluye tanto FC20 como FC20-N. EVB Componments e interfaz:- Slot para tarjeta SIM1- Principal puerto UART- Puerto de depuración UART- Puerto auxiliar UART- conector RF GSM- Parte de carga - Slot de la tarjeta micro SDContenido de la oferta:1x Cable convertidor de USB a UART X 11x Cable USB X 11x Cable RF X 11x Antena X 11x Adaptador de CC de 5 V X 11x Auricular X 11x Disco que involucra documentos y controladores relacionados X 1  1x Hoja de instrucciones para dar instrucciones para la conexión EVB , detalles de accesorios EVB, etc. X 1Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -9246,7 +9342,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-622073737-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-622073737-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9274,7 +9370,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_666112-MCO45852924190_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------La rueda de bolas de acero de Tamiya es una buena manera de darle una "tercera rueda" a un pequeño robot impulsado por un diferencial. El kit viene con suficientes piezas para hacer dos ruedas, ya sea de 15mm, 25 mm o 35 mm de altura.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x KIT para armar dos ruedas de 3 posiciones 70144-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -9290,7 +9390,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-621576377-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-621576377-kit-2x-rueda-loca-tamiya-pololu-3-posiciones-70144-robot-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -9334,7 +9434,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-967252175-juguete-kit-robot-solar-didactico-6-en-1-para-armar-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-967252175-juguete-kit-robot-solar-didactico-6-en-1-para-armar-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -9362,11 +9462,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_884193-MCO52217299540_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -9382,7 +9478,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550770915-juego-de-destornilladores-torx-25-en-1-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7a909c59-89b1-4f4b-bca6-139582cc258e</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550770915-juego-de-destornilladores-torx-25-en-1-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=9660d20c-7615-4bc7-aac0-2632a00ba753</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -9410,11 +9506,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_821398-MCO40578810744_012020-R.jpg</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
@@ -9430,7 +9522,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1218414760-inversor-ups-portatil-bluetti-ac300-generador-portatil-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1218414760-inversor-ups-portatil-bluetti-ac300-generador-portatil-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -9454,7 +9546,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_810981-MCO53587347863_022023-R.jpg</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Estación generadora expandible BLUETTI AC300. Inversor de CA de 3000 W y celda LFP: el potente inversor de CA de 3000 W está diseñado para dispositivos de alta carga. También puedes aumentar hasta 6000 W, 240 V, conectando dos conjuntos AC300 y B300 en serie con el dispositivo Fusion Box Pro (P030A) de Bluetti. Celda LFP superior integrada en el sistema B300, puedes utilizarla incluso durante una década.Inversor UPS Portátil AC300 de onda sinusoidal pura de 3000WCon un inversor de CA de calidad, el AC300 es lo suficientemente capaz y seguro para cuidar sus dispositivos de alta potencia como acondicionadores de aire, refrigeradores, cortadoras de césped y máquinas de corte por láser.Fuente de alimentación ampliableComo la primera estación 100 % modular de BLUETTI, la AC300 puede aceptar paquetes de baterías externas y aumentar su capacidad a Max. 12.288 Wh. Desde el respaldo de emergencia hasta la fuente de energía fuera de la red, este generador de respaldo para el hogar seguramente manejará todas sus necesidades de electricidad. Carga rápida de 5400 WConecte el adaptador y los paneles solares, luego puede recargar BLUETTI AC300 con una asombrosa tasa de entrada de 5400W. Cargue esta central eléctrica antes de un viaje improvisado y estará listo para comenzar. 5400 W = 3000 W CA + 2400 W solar (se REQUIEREN al menos 2 × B300)UPS las 24 horas, los 7 días de la semanaCon el panel de hogar inteligente BLUETTI, puede conectar el sistema de energía AC300 a su red doméstica. Prepárese siempre para los cortes de energía.-----------------------------------------------------------------------------------------------------------------------Características Inversor UPS Portátil AC300Inversor de onda sinusoidal pura de 3000 W CA (sobretensión de 6000 W);Expandible hasta 12,288 Wh con 4 × B300 (no incluidos)7 formas de recargar (CA/Solar/Automóvil/Generador/Batería de plomo/CA dual/CA+Solar);2400 W máx. Entrada solar5400 W máx. Carga dual rápida (solar + adaptador de CA simultáneamente);Monitoreo y control de aplicaciones inteligentes;Conexión de 240 V disponible;Respaldo de seguridad en el hogar de UPS las 24 horas del día, los 7 días de la semana;Dimensiones: 52 x 32 x 35,80 cmPeso: 21,6 kg-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Inversor UPS Portátil AC300(requiere el B300 para funcionar) No incluido en esta oferta.-----------------------------------------------------------------------------------------------------------------------Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
@@ -9470,7 +9566,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961140250-inversor-solar-o-automovil-800-watts-1224-vdc-a-110ac-usb-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961140250-inversor-solar-o-automovil-800-watts-1224-vdc-a-110ac-usb-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9500,7 +9596,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los m</t>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Múltiples protecciones: protección contra bajo voltaje, protección contra sobretensión, protección contra sobretemperatura, protección contra sobrecarga, protección contra polaridad inversa de batería, protección contra cortocircuitos.Carga rápida: salidas de CA de 110 V para cargar dispositivos más grandes como portátiles y tabletas, puertos de carga USB para alimentar dispositivos compatibles con USB. Alta eficiencia de conversión.Función: el inversor de coche proporciona salidas de CA continuas de CC a CA de salida de alimentación CA, convierte la energía de la batería de entrada CC 12 V/24 V a salida estándar de 110 V CA, con 1 salida de CA y 4 puertos USB.Potencia de emergencia: se puede conectar con encendedor de cigarrillos o batería de 12 V/24 V directamente para emergencias, tormentas de nieve y interrupciones, teléfono celular, laptop, luz eléctrica, cámara digital, extractor de leche, herramientas eléctricas y otros dispositivos electrónicos.Diseño de luz ambiental: con luz ambiental colorida y pantalla LCD, se iluminará siempre y cuando el interruptor inversor se encienda después de encenderlo. Es un práctico convertidor de potencia de vehículo para aparatos eléctricos. Ideal para vacaciones, camping y trabajo-----------------------------------------------------------------------------------------------------------------------Especificaciones:Tipo de artículo: inversor de cocheColor: rojo.Material: aleación de aluminio.Voltaje de entrada: CC 12 V/24 V.Voltaje de salida: 110 V CA.Frecuencia de salida: 60 Hz.Forma de onda de salida: onda sinusoidal modificadaEficiencia de conversión: &gt; 90%Consumo de corriente en espera: &lt;0.3 APotencia nominal pico: 4000 WPotencia máxima continua: 800 WCon pantalla LCD: sí.Modo de uso:Cableado: el rojo es positivo, el negro es negativo.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Inversor.1x kit cables de batería.1x Kit cable encendedor de cigarrillos.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -9518,7 +9614,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961149072-inversor-solar-o-automovil-500-watts-1224-vdc-a-110ac-usb-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961149072-inversor-solar-o-automovil-500-watts-1224-vdc-a-110ac-usb-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9542,7 +9638,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_851737-MCO51543407971_092022-R.jpg</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Múltiples protecciones: protección contra bajo voltaje, protección contra sobretensión, protección contra sobretemperatura, protección contra sobrecarga, protección contra polaridad inversa de batería, protección contra cortocircuitos.Carga rápida: salidas de CA de 110 V para cargar dispositivos más grandes como portátiles y tabletas, puertos de carga USB para alimentar dispositivos compatibles con USB. Alta eficiencia de conversión.Función: el inversor de coche proporciona salidas de CA continuas de CC a CA de salida de alimentación CA, convierte la energía de la batería de entrada CC 12 V/24 V a salida estándar de 110 V CA, con 1 salida de CA y 4 puertos USB.Potencia de emergencia: se puede conectar con encendedor de cigarrillos o batería de 12 V/24 V directamente para emergencias, tormentas de nieve y interrupciones, teléfono celular, laptop, luz eléctrica, cámara digital, extractor de leche, herramientas eléctricas y otros dispositivos electrónicos.Diseño de luz ambiental: con luz ambiental colorida y pantalla LCD, se iluminará siempre y cuando el interruptor inversor se encienda después de encenderlo. Es un práctico convertidor de potencia de vehículo para aparatos eléctricos. Ideal para vacaciones, camping y trabajo-----------------------------------------------------------------------------------------------------------------------Especificaciones:Tipo de artículo: inversor de cocheColor: rojo.Material: aleación de aluminio.Voltaje de entrada: CC 12 V/24 V.Voltaje de salida: 110 V CA.Frecuencia de salida: 60 Hz.Forma de onda de salida: onda sinusoidal modificadaEficiencia de conversión: &gt; 90%Consumo de corriente en espera: &lt;0.3 APotencia nominal pico: 3000 WPotencia máxima continua: 500 WCon pantalla LCD: sí.Modo de uso:Cableado: el rojo es positivo, el negro es negativo.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Inversor.1x kit cables de batería.1x Kit cable encendedor de cigarrillos.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
@@ -9558,7 +9658,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-961124435-inversor-solar-o-automovil-1000-watts-1224-vdc-a-110ac-usb-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-961124435-inversor-solar-o-automovil-1000-watts-1224-vdc-a-110ac-usb-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9586,7 +9686,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_686109-MCO51545067465_092022-R.jpg</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Múltiples protecciones: protección contra bajo voltaje, protección contra sobretensión, protección contra sobretemperatura, protección contra sobrecarga, protección contra polaridad inversa de batería, protección contra cortocircuitos.Carga rápida: salidas de CA de 110 V para cargar dispositivos más grandes como portátiles y tabletas, puertos de carga USB para alimentar dispositivos compatibles con USB. Alta eficiencia de conversión.Función: el inversor de coche proporciona salidas de CA continuas de CC a CA de salida de alimentación CA, convierte la energía de la batería de entrada CC 12 V/24 V a salida estándar de 110 V CA, con 1 salida de CA y 4 puertos USB.Potencia de emergencia: se puede conectar con encendedor de cigarrillos o batería de 12 V/24 V directamente para emergencias, tormentas de nieve y interrupciones, teléfono celular, laptop, luz eléctrica, cámara digital, extractor de leche, herramientas eléctricas y otros dispositivos electrónicos.Diseño de luz ambiental: con luz ambiental colorida y pantalla LCD, se iluminará siempre y cuando el interruptor inversor se encienda después de encenderlo. Es un práctico convertidor de potencia de vehículo para aparatos eléctricos. Ideal para vacaciones, camping y trabajo-----------------------------------------------------------------------------------------------------------------------Especificaciones:Tipo de artículo: inversor de cocheColor: rojo.Material: aleación de aluminio.Voltaje de entrada: CC 12 V/24 V.Voltaje de salida: 110 V CA.Frecuencia de salida: 60 Hz.Forma de onda de salida: onda sinusoidal modificadaEficiencia de conversión: &gt; 90%Consumo de corriente en espera: &lt;0.3 APotencia nominal pico: 6000 WPotencia máxima continua: 1000 WCon pantalla LCD: sí.Modo de uso:Cableado: el rojo es positivo, el negro es negativo.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Inversor.1x kit cables de batería.1x Kit cable encendedor de cigarrillos.-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
@@ -9602,7 +9706,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624317628-interruptor-balancin-neon-2-pociciones-switch-110v-20a-g132-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624317628-interruptor-balancin-neon-2-pociciones-switch-110v-20a-g132-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9632,7 +9736,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Interruptor basculante CE T85 15A 250VAC, interruptor de encendido y apagado de 3 pines SPST, interruptores de poste individuales 20A 125VAC con luz NEON para lámpara de 12V/ 220V-----------------------------------------------------------------------------------------------------------------------Especificaciones:Clasificación: 15A 250VAC; 20A 125VACVida útil: 10.000 ciclos de fabricación y rotura a carga completa.Vida útil mecánica: 100.000 ciclos min.Resistencia de contacto: 20 Mohm máx. (inicial)Resistencia de aislamiento: 100 Mohm min(DC500V).Fuerza dieléctrica: 2.000 V CA 1 minuto.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Interruptor Balancin Neon Mediano-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -9650,7 +9754,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512615313-impresora-termica-ep-260c-12v-raspberry-pi-arduino-ttl-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512615313-impresora-termica-ep-260c-12v-raspberry-pi-arduino-ttl-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9690,7 +9794,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-648956710-impresora-3d-maquina-cnc-paso-a-paso-nema-17-17hs4401-17a-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-648956710-impresora-3d-maquina-cnc-paso-a-paso-nema-17-17hs4401-17a-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9734,7 +9838,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640205487-ic-mt093ae-8-x-12-analog-switch-array-40-pin-plastic-dip-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640205487-ic-mt093ae-8-x-12-analog-switch-array-40-pin-plastic-dip-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9758,11 +9862,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_762666-MCO46535684747_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -9778,7 +9878,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-626125935-guia-lineal-eje-40-cm-carro-mgn12h-maquinas-cnc-impresora-3d-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-626125935-guia-lineal-eje-40-cm-carro-mgn12h-maquinas-cnc-impresora-3d-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -9804,7 +9904,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Descripción:Esta es una guía deslizante lineal que combina alta precisión, alta dureza y alta capacidad de carga, mejorando efectivamente la eficiencia de su trabajo. Características principales:• Especificaciones completas para más tamaños • Material: acero inoxidable • Adecuado para: equipos de fabricación de semiconductores, equipos de ensamblaje de circuitos impresos IC, equipos médicos, brazos robóticos, instrumentos de medición de precisión, equipos de oficina automáticos, impresoras 3D y otros dispositivos deslizantes lineales pequeños dispositivos-----------------------------------------------------------------------------------------------------------------------Especificaciones:Altura (Bloque) 10mmAncho (Bloque)  27mmLongitud (Bloque) 46mmAltura (carril)  8mmAncho (carril) 12mmLongitud (carril) 400mmMaterial del asiento del rodamiento: rodamiento de aceroPeso guia + carro: 350 gr-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Guia Eje Lineal 400mm1x Carro Guia -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
@@ -9822,7 +9922,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640519396-gripper-brazo-robotico-pinzas-garra-aluminio-2-servos-mg996-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640519396-gripper-brazo-robotico-pinzas-garra-aluminio-2-servos-mg996-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9850,7 +9950,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_938900-MCO46546539406_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este kit es una solución perfecta para proyectos que requieren pinzas mecánicas. Es impulsado por dos servos MG996: uno para controlar las mandíbulas para abrir y cerrar, y el otro para controlar la rotación de la pata. Cuando las mordazas están completamente estiradas, la distancia máxima es de 54 mm. Para la articulación soporta una fuerza mayor, es mejor que use los servos MG996R, mientras que los servos MG995 para articulaciones soportan una fuerza relativamente menor. Este kit es fácil de montar y se puede utilizar con facilidad en sus proyectos. Ideal para aprender robótica, electrónica, programación Arduino y programación Python. ¡Pruébalo y disfruta del bricolaje!-----------------------------------------------------------------------------------------------------------------------Parámetro técnico:Material: aleación de aluminioÁngulo máximo de la pata: 54 mm / 2,13 pulgadas (el ángulo máximo no agrega la distancia máxima de apertura de la placa de expansión 55 mm, instale la placa de extensión después de que el máximo sea 94 mm)Ángulo de rotación de 180 gradosAncho total: 98 mm / 3,86 pulgadas (ancho total máximo cuando la pata está abierto)MG996R:Dimensión: 40,8 * 20,1 * 38 mm / 1,61 * 0,79 *1,5 pulgadas Longitud del cable del conector: 300 mm / 11,8 pulgadasPeso: 56 gÁngulo máximo: 180 °Velocidad de funcionamiento: 0,16 segundos / 60 grados (6 V)Velocidad de funcionamiento: 0,14 seg / 60 grados (7,2 V) Momento de torsión: 12 kg.cm. a (6 V) / 13 kg.cm. a (7,2 V)Rango de temperatura: 0-55?Voltaje de funcionamiento: 6-7,2 V -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Kit Gripper Robot 2DOF con 2 Servos MG996-----------------------------------------------------------------------------------------------------------------------** ENVIO GRSTIS POR MERCADOENVIOS O MERCADOENVIOS FLEX**ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -9866,7 +9970,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936698418-generador-electrico-recargable-portatil-500wh-potencia-300-w-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936698418-generador-electrico-recargable-portatil-500wh-potencia-300-w-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -9894,7 +9998,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_873638-MCO51853067032_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Fuente de energía sólida para campamento: la estación de alimentación BLUETTI PS50 cuenta con capacidad de 500 Wh y salida de CA de 300 W, que puede ejecutar la mayoría de tus artículos esenciales al aire libre y electrónica del hogar como teléfonos, proyectores, mini congeladores, etc.Potencia 8 dispositivos simultáneamente: generador solar PS50 con una amplia gama de opciones de salida, incluyendo 2 salidas de CA, 1 USB-C, 2 puertos USB-A, 2 puertos de 12 V/3 A, una salida de coche regulada de 12 V/10 A, te da tranquilidad durante el corte de energía[0-80% en 3 horas] - PS50 soporta 150 W máx. carga solar. Se puede alimentar en 3,8 horas con panel solar, también se puede recargar con adaptador/coche/generadorFácil de transportar: diseñado para movilidad con tamaño de solo 11.0 x 7.4 x 8.2 pulgadas, peso de solo 15.4 libras, el mango plegable hace que sea fácil de transportar para aventuras al aire libre como tienda de campaña, viajes por carretera, patio, etc.Seguridad y durabilidad: la celda de batería Bluetooth PS50 integrada de nivel automático, la vida útil del ciclo es de más de 1000 y el BMS premium te ofrece protección de la batería.Lo que obtienes: estación de alimentación portátil BLUETTI PS50, adaptador de CA, cable de carga solar, cable de carga de coche, manual de usuario-----------------------------------------------------------------------------------------------------------------------Especificaciones:CAPACIDAD : 500WHCORRIENTE MAX : 300WPUERTO TIPO C : 1 DE 18WPUERTO USB : 2 DE 18WPUERTO JACK DC 5521: 2PUERTO CIGARRERA : 1 A 12VDC/10APUETO AC : 2PESO : 6.88KGCICLOS DE VIDA : 500 CICLOS-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Estación de alimentación portátil BLUETTI PS501x Adaptador de CA, 115 VAC1x Cable de carga solar, 1x Cable de carga de automóvil1x Manual de usuario-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -9910,7 +10018,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512810794-fuente-de-laboratorio-profesional-siglent-spd3303c-2-ch-3-a-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512810794-fuente-de-laboratorio-profesional-siglent-spd3303c-2-ch-3-a-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -9938,11 +10046,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_936276-MCO31561453387_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>Somos Moviltronics SAS Distribuidores directos de SIGLENT en Colombia. Respaldo Total--------------</t>
-        </is>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
@@ -9958,7 +10062,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636930217-fototransistor-receptor-ir-infrarojo-3-pines-mys838-p-tsop17-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636930217-fototransistor-receptor-ir-infrarojo-3-pines-mys838-p-tsop17-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -9986,11 +10090,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_891648-MCO46428132161_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -10006,7 +10106,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611260139-fototransistor-3-pines-mys838-p-tsop17-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=b40a2e77-b92d-4fe6-9043-d9551c688c48</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611260139-fototransistor-3-pines-mys838-p-tsop17-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=307f9de2-3c9a-4f4f-b7d0-cf58429d1b87</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10030,11 +10130,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_987122-MCO46428037145_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -10050,7 +10146,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-558695389-face-shield-protector-facial-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=193c90b8-4309-4971-9041-77d3661751e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-558695389-face-shield-protector-facial-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=50ed65bf-f2ff-4d78-9018-1e24e3df5118</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10080,7 +10176,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Protector facial, escudo protector de rostro anti fluidos.NO se empañaCon protector de espumaEste p</t>
+          <t>Protector facial, escudo protector de rostro anti fluidos.NO se empañaCon protector de espumaEste protector facial con protector ocular se puede reciclar después de la desinfección.Los protectores de plástico están hechos material súper transparente, ligero, visión clara, rápido y fácil de llevar.El protector facial de plástico tiene una tira de espuma, la banda elástica se puede ajustar fácilmente para adaptarse a la forma de la cara, está fijo firmemente, es cómodo de llevar.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta:Paquete x 10 unidades -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J219" t="inlineStr"/>
@@ -10098,7 +10194,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1218229570-estacion-portatil-energia-generador-bluetti-eb3a-lifepo4-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1218229570-estacion-portatil-energia-generador-bluetti-eb3a-lifepo4-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10122,7 +10218,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_997115-MCO54365372376_032023-R.jpg</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------OJO SOLO EN COLOR BLANCONO INCLUYE PANEL SOLARBLUETTI Estación de energía portátil EB3A, batería de respaldo LiFePO4 de 268 Wh con 2 salidas de CA de 600 W (sobretensión de 1200 W), recarga de 0-80% en 30 minutos, generador solar para acampar al aire libre (panel solar opcional)La Estación Eléctrica Portátil EB3A diseñada para ser más eficiente energéticamente que los generadores tradicionales, BLUETTI EB3A es muy liviano en términos de peso y hace su parte para ayudarlo a reducir las emisiones de carbono al medio ambiente.EB3A es lo suficientemente compacto, pero puede contar con él para trabajos grandes. Ya sea una licuadora pequeña, una mini olla arrocera o un refrigerador pequeño, EB3A lo cubre todo gracias al inversor de onda sinusoidal pura de 600 W CA (sobrecarga de 1200 W) y una capacidad impresionante de 268 Wh.CaracterísticasPequeño pero poderoso: con un inversor de CA de 600 W, batería LiFePO4 de 268 Wh y 9 tomas, esta estación de alimentación mantendrá tus dispositivos esenciales encendidos sobre la marcha o durante un corte de energía en casa.Carga ultrarrápida: sin ladrillo de alimentación voluminoso, un solo cable es bueno para cargarlo como máximo 350 W; también puedes utilizar el PV+AC juntos para un 80% SOC en solo 30 minutos.Especificaciones Estación Eléctrica Portátil EB3AInversor de onda sinusoidal pura de 600 W CA (sobretensión de 1200 W);Capacidad de 268 Wh;430 W máx. Carga dual rápida (solar + CA);Batería LiFePO4 con más de 2500 ciclos de vida al 80 %;6 formas de recargar (CA/Solar/Coche/Generador/CA+Solar/CA+Adaptador);9 salidas para cargar varios dispositivos a la vez;Control inteligente y monitor en la aplicación BLUETTI;200 W máx. Entrada solar;Fácil de transportar/Carga rápida/Seguro y fiable/EconómicoPeso: 21.4lb (9.7 kg)Dimensiones (LxWxD): 12.6 x 8.5 x 8.7 in (32 x 21.6 x 22.1cm)No incluye panel solar-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Estación Portátil Energía EB3A Blanco1x Cargador AC1x Cables para conexión a automóvil1x Cables de conexión a panel solar-----------------------------------------------------------------------------------------------------------------------Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
@@ -10138,7 +10238,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1217051301-estacion-portatil-energia-generador-bluetti-ac200max-lifepo4-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1217051301-estacion-portatil-energia-generador-bluetti-ac200max-lifepo4-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -10162,7 +10262,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_935323-MCO53582631023_022023-R.jpg</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Estación Portátil Energía AC200MAX expandible mejorada completa, la primera central eléctrica BLUETTI modular y ampliable.Equipado con asombrosas celdas LFP ultra duraderas de 2048 Wh y un inversor de onda sinusoidal pura de potencia total de 2200 W, el AC200MAX puede ser su centro de recarga móvil fuera de la red o en el camino.Potente bestia: la estación de alimentación AC200MAX viene con increíbles celdas LFP de 2048 Wh y un inversor de 2200 W, por lo que es un centro de alimentación seguro y fiable en el camino o fuera de la red.Capacidad ampliable: AC200MAX soporta 2 BLUETTI B300 (3072Wh) para un frioloso 8192Wh o 2 B230 (2048Wh) para 6144Wh, suficiente para exprimir todos los dispositivos hambrientos.Carga súper rápida: AC200MAX toma hasta 900 W solar y puede obtener 400 W desde la entrada de CA. Carga dual por ambos, puedes alimentarlo en menos de 2 horas.[16 puertos para cada necesidad] – El puerto NEMA TT-30 y 12 V/30 A CC son perfectos para los habitantes de caravanas. Además del puerto AC/USB-A/coche/100 W PD, los cargadores inalámbricos te permiten cargar dispositivos compatibles de forma inalámbrica.Lo que obtienes: estación de alimentación portátil BLUETTI AC200MAX, adaptador de CA de 400 W, cable de carga solar/coche, cable de aviación XT90, manual de usuario (idioma español no garantizado).Especificaciones Estación Portátil Energía AC200MAXCapacidad:	2048WhTipo de batería	LiFePO4 (más de 3500 ciclos al 80 %)Entrada de CA	500 WEntrada solar	VOC 10-145 V/900 W máx. / 15 A máx.Salida de CA	4 x CA 100-120 V, 1 x NEMA TT-30Salida CC	1 x 12 V/30 A CC, 1 x coche de 12 V, 2 x 12 V DC5521Salida USB	1 x 100 W PD, 2 x 18 W, 2 x 5 V/3 AAlmohadilla de carga inalámbrica	2 x 15 W máx. (para cada uno)Temperatura de carga	32°F-104°F / 32.0 °F-104.0 °FTemperatura de descarga:	-4°F-104°F / -4.0 °F-104.0 °FDimensiones:	42 x 28 x 38,65 cmPeso:	28,1 kg-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Estación Portátil Energía AC200MAX1x Cargador AC1x Cables para conexión a automóvil1x Cables de conexión a panel solar-----------------------------------------------------------------------------------------------------------------------Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -10178,7 +10282,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936056200-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936056200-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10206,7 +10310,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_768761-MCO51853022917_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Fuente de energía sólida para campamento: la estación de alimentación BLUETTI PS50 cuenta con capacidad de 500 Wh y salida de CA de 300 W, que puede ejecutar la mayoría de tus artículos esenciales al aire libre y electrónica del hogar como teléfonos, proyectores, mini congeladores, etc.Potencia 8 dispositivos simultáneamente: generador solar PS50 con una amplia gama de opciones de salida, incluyendo 2 salidas de CA, 1 USB-C, 2 puertos USB-A, 2 puertos de 12 V/3 A, una salida de coche regulada de 12 V/10 A, te da tranquilidad durante el corte de energía[0-80% en 3 horas] - PS50 soporta 150 W máx. carga solar. Se puede alimentar en 3,8 horas con panel solar, también se puede recargar con adaptador/coche/generadorFácil de transportar: diseñado para movilidad con tamaño de solo 11.0 x 7.4 x 8.2 pulgadas, peso de solo 15.4 libras, el mango plegable hace que sea fácil de transportar para aventuras al aire libre como tienda de campaña, viajes por carretera, patio, etc.Seguridad y durabilidad: la celda de batería Bluetooth PS50 integrada de nivel automático, la vida útil del ciclo es de más de 1000 y el BMS premium te ofrece protección de la batería.Lo que obtienes: estación de alimentación portátil BLUETTI PS50, adaptador de CA, cable de carga solar, cable de carga de coche, manual de usuario-----------------------------------------------------------------------------------------------------------------------Especificaciones:CAPACIDAD : 500WHCORRIENTE MAX : 300WPUERTO TIPO C : 1 DE 18WPUERTO USB : 2 DE 18WPUERTO JACK DC 5521: 2PUERTO CIGARRERA : 1 A 12VDC/10APUETO AC : 2PESO : 6.88KGCICLOS DE VIDA : 500 CICLOS-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Estación de alimentación portátil BLUETTI PS501x Adaptador de CA, 115 VAC1x Cable de carga solar, 1x Cable de carga de automóvil1x Manual de usuario-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
@@ -10222,7 +10330,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-936069093-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-936069093-estacion-electrica-portatil-500wh-recarga-solar-automovil-ac-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -10250,7 +10358,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_933141-MCO51852909990_102022-R.jpg</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Fuente de energía sólida para campamento: la estación de alimentación BLUETTI PS50 cuenta con capacidad de 500 Wh y salida de CA de 300 W, que puede ejecutar la mayoría de tus artículos esenciales al aire libre y electrónica del hogar como teléfonos, proyectores, mini congeladores, etc.Potencia 8 dispositivos simultáneamente: generador solar PS50 con una amplia gama de opciones de salida, incluyendo 2 salidas de CA, 1 USB-C, 2 puertos USB-A, 2 puertos de 12 V/3 A, una salida de coche regulada de 12 V/10 A, te da tranquilidad durante el corte de energía[0-80% en 3 horas] - PS50 soporta 150 W máx. carga solar. Se puede alimentar en 3,8 horas con panel solar, también se puede recargar con adaptador/coche/generadorFácil de transportar: diseñado para movilidad con tamaño de solo 11.0 x 7.4 x 8.2 pulgadas, peso de solo 15.4 libras, el mango plegable hace que sea fácil de transportar para aventuras al aire libre como tienda de campaña, viajes por carretera, patio, etc.Seguridad y durabilidad: la celda de batería Bluetooth PS50 integrada de nivel automático, la vida útil del ciclo es de más de 1000 y el BMS premium te ofrece protección de la batería.Lo que obtienes: estación de alimentación portátil BLUETTI PS50, adaptador de CA, cable de carga solar, cable de carga de coche, manual de usuario-----------------------------------------------------------------------------------------------------------------------Especificaciones:CAPACIDAD : 500WHCORRIENTE MAX : 300WPUERTO TIPO C : 1 DE 18WPUERTO USB : 2 DE 18WPUERTO JACK DC 5521: 2PUERTO CIGARRERA : 1 A 12VDC/10APUETO AC : 2PESO : 6.88KGCICLOS DE VIDA : 500 CICLOS-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Estación de alimentación portátil BLUETTI PS501x Adaptador de CA, 115 VAC1x Cable de carga solar, 1x Cable de carga de automóvil1x Manual de usuario-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -10266,7 +10378,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560633454-display-panel-aviso-led-smd-taxi-libre-blanco-o-azul-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560633454-display-panel-aviso-led-smd-taxi-libre-blanco-o-azul-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10286,7 +10398,11 @@
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Aviso luminoso LED Alto brillo SMD12 Voltios Dimensiones 6.5 x 19 cmCable 20 cmContenido de la oferta1x Aviso Luminoso LED 6.5 x 19 cmCompras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -10302,7 +10418,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560634094-display-aviso-panel-led-alto-brillo-taxi-12v-blanco-o-azul-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560634094-display-aviso-panel-led-alto-brillo-taxi-12v-blanco-o-azul-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -10338,7 +10454,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-560613592-display-aviso-led-smd-ocupado-libre-taxis-cabinas-banos-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-560613592-display-aviso-led-smd-ocupado-libre-taxis-cabinas-banos-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10358,7 +10474,11 @@
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Aviso LED SMD con indicador de ocupado o libres para uso en baños, taxis, cabinas, atención al publico, etc...Dimensiones: 19 cm x 6.5 cmCable 1.5 mtrs</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -10374,7 +10494,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624003083-diodo-rectificador-1n4007-1-amperio-1000v-50-unidades-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624003083-diodo-rectificador-1n4007-1-amperio-1000v-50-unidades-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10402,7 +10522,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_661187-MCO46026487064_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Pack 50 unidades diodo rectificador 1N40007-----------------------------------------------------------------------------------------------------------------------Contenido de la compra50x diodos 1N4007-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -10418,7 +10542,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624002648-diodo-rectificador-1n4004-1-amperio-400v-50-unidades-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624002648-diodo-rectificador-1n4004-1-amperio-400v-50-unidades-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -10446,11 +10570,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_661187-MCO46026487064_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -10466,7 +10586,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888586615-conector-terminal-xt30-plug-modelismo-rc-electronica-lipo-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888586615-conector-terminal-xt30-plug-modelismo-rc-electronica-lipo-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10494,7 +10614,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_907590-MCO49827731763_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Características:Enchufes banana chapados en oro de 2,0mm;Diseño ligero, tamaño pequeño, corriente de alta resistencia;Diseño Original de las piezas de plástico huecas, utilizando el modelo de flujo de aire activo de alta velocidad de la disipación de calor del enchufeAdecuado para la situación que necesita un enchufe ligero o de tamaño pequeño.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Corriente Continua de alta resistencia: 20aCable adecuado: 16-20AWG-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Conector XT30 Hembra1x Conector XT30 Macho-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
@@ -10510,7 +10634,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-860312405-conector-convertidor-sma-hembra-a-crc9-antenas-4g-gps-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-860312405-conector-convertidor-sma-hembra-a-crc9-antenas-4g-gps-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10540,7 +10664,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Conector A:Enchufe hembra SMAConector B: CRC9AdaptadorCable:RG174Impedancia nominal:50 ohmiosRango de frecuencia:0-3GHzLongitud: 15CMAplicaciones:Para PCI, enrutador wifi, módem USB 3G, DIY, para módem enrutador wifi HUAWEI PCI-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Convertidor RP-SMA a CRC9-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J230" t="inlineStr"/>
@@ -10558,7 +10682,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-618538587-circuito-integrado-compuerta-logica-74ls00-nand-2in-4-juegos-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-618538587-circuito-integrado-compuerta-logica-74ls00-nand-2in-4-juegos-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10588,7 +10712,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El circuito 7400 contiene cuatro puertas NAND de 2 entradas, su uso está muy difundido en el álgebra de Boole para implementar las funciones. Con estas puertas lógicas podemos invertir una señal o generar una lógica para activar otro circuito integrado. También podemos construir una Bascula R-S Asincrona con un par de puertas, como podemos ver en el esquema adjunto.El circuito 7400 y sus variantes, es uno de los más usados en electrónica, cuando hay que implementar funciones que usen muchas puertas NAND y el circuito cuando no es casero o de pruebas se utilizan memorias PAL o GAL principalmente, que son unos circuitos integrados que podemos grabar el resultado en una matriz lógica programable mediante un programador universal.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje: 4.75V - 5.25VTemperatura de operación: -0 °C a +70 °CBase Lógica: 7400Familia Lógica: LSFunción CI lógica: Quadruple 2-Input Positive-NAND GateMáxima corriente de salida: 8mANúmero de pines: 14-----------------------------------------------------------------------------------------------------------------------CONTENIDO DE LA OFERTA1x Compuerta logica 74LS00-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J231" t="inlineStr"/>
@@ -10606,7 +10730,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-623750388-circuito-integrado-an6876-driver-5-led-vumetro-display-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-623750388-circuito-integrado-an6876-driver-5-led-vumetro-display-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10634,11 +10758,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_866861-MCO46016717504_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -10654,7 +10774,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-616782739-circuito-integrado-amplificador-de-audio-stk4141ii-50-watts-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-616782739-circuito-integrado-amplificador-de-audio-stk4141ii-50-watts-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10682,11 +10802,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_921029-MCO45564974092_042021-R.jpg</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -10702,7 +10818,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-822502555-circuito-integrado-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-822502555-circuito-integrado-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10730,11 +10846,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_861355-MCO47917675069_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -10750,7 +10862,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-820192956-circuito-integrado-74ls190-contador-binario-up-down-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-820192956-circuito-integrado-74ls190-contador-binario-up-down-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10778,7 +10890,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_969572-MCO47843785088_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Circuito Integrado 74LS190 (Contador ascendente/descendente binario)Un contador es un circuito secuencial construido a partir de biestable y puertas lógicas capaz de almacenar y contar los impulsos (a menudo relacionados con una señal de reloj), que recibe en la entrada destinada a tal efecto, asimismo también actúa como divisor de frecuencia.-----------------------------------------------------------------------------------------------------------------------Características:Familia: LSTipo circuito lógico: Contador BCD sincrónico ascendente/descendenteContador BCD 8-4-2-1Salida: ParaleloTensión de alimentación mínima: 4.25 VTensión de alimentación máxima: 5.25 VTemperatura de operación mínima: 0°CTemperatura de operación máxima: 70°CEncapsulado: DIP16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x CI 74LS190-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
@@ -10794,7 +10910,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819515863-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819515863-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10818,7 +10934,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_653385-MCO47829701847_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Circuito Integrado TTL 74LS74. Flip- flop tipo D con disparo de subida doble, tipo D, positivos, con características de flip-flop disparado con salidas activas bajas, diseñados para la conducción de LEDs de ánodo común o indicadores incandescentes directamente. El circuito  se usa para para la conducción de los buffers de lámparas o LEDs de cátodo común.El flip-flop tipo D, sigue a la entrada, haciendo transiciones que coinciden con las de la entrada. El término D, significa dato; este flip-flop almacena el valor que está en la línea de datos. Se puede considerar como una celda básica de memoria. Un flip-flop D, se puede hacer con un flip-flop "set/reset", uniendo la salida set (estado alto) con la salida reset (estado bajo), a través de un inversor. El resultado se puede sincronizar.-----------------------------------------------------------------------------------------------------------------------Especificaciones6 flip-flops tipo DEntradas de clear y reloj comunesDisparado por flanco de subidaTecnología: TTL Low Schottky (LS)Voltaje de alimentación: 4.75 V a 5.25 VEncapsulado: PDIP 16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x CI SN74LS174 -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -10834,7 +10954,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819483364-circuito-integrado-74ls153-selector-multiplexor-4-a-1-linea-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819483364-circuito-integrado-74ls153-selector-multiplexor-4-a-1-linea-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10860,7 +10980,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El SN74LS153N es un selector / multiplexor de datos dual monolítico de 4 líneas a 1 línea que contiene inversores y controladores para proporcionar una selección de datos de descodificación totalmente complementaria, en chip y codificación binaria a las compuertas AND-OR. Se proporcionan entradas estroboscópicas para cada una de las dos secciones de 4 tiempos.* Permite multiplexar de N líneas a 1 línea* Realiza la conversión de paralelo a serie* Línea de estrobos (habilitación) para cascada (N líneas a N líneas)* Salidas de totem de alta impedancia y baja impedancia* Totalmente compatible con la mayoría de los circuitos TTL* Aplicaciones: Comunicaciones y red-----------------------------------------------------------------------------------------------------------------------Especificaciones* Familia: LS* Tipo de la lógica del circuito: Multiplexor* Número de canales: 2* Canales configuración de Línea: 4:1* Tensión de alimentación mínima: 4.75 V* Tensión de alimentación máxima: 5.25 V* Temperatura de trabajo mínima.: 0°C* Temperatura de trabajo máxima: 70°C* Encapsulado: DIP* 16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x CI SN74LS153N -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -10878,7 +10998,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881809380-chasis-robot-mini-sumo-profesional-cuchilla-acero-base-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881809380-chasis-robot-mini-sumo-profesional-cuchilla-acero-base-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10906,7 +11026,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_875870-MCO31537987811_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Base metálica, cuchilla en acero maquinado, base motores metálica contrapeso, carcasa impresión 3D diferentes colores.Diseño Exclusivo SumoTronicsPeso y medidas reglamentariasDimensiones: ancho 99mm – profundidad 96mm – alto 33mmPeso: 278.6 gramos-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Base metálica1x Cuchilla1x Soporte para motores metálico1x Base carrocería impresa 3D PLA1x Tapa carrocería impresa 3D PLA1x Set tornillos y tuercasENVIO GRATIS UNICAMENTE POR MERCADO ENVIOS-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -10922,7 +11046,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-512795813-celda-peltier-60w-termoelectrica-tec1-12706-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-512795813-celda-peltier-60w-termoelectrica-tec1-12706-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10962,7 +11086,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611118190-celda-de-carga-de-50kg-cuadrada-arduino-pic-psoc-stm-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611118190-celda-de-carga-de-50kg-cuadrada-arduino-pic-psoc-stm-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -10992,7 +11116,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Celda de carga de 50KgLa célula de micro carga se puede aplicar en escalas de cuerpo, escalas de mano, escalas de cocina, escalas postales, escalas de pesca, escalas del cuerpo del bebé y otros sistemas de pesaje micro electrónico. Está hecho de aleación de aluminio de alta calidadCaracterísticasRango: 50 kgSaldo cero: ± 0.5 FSSensibilidad: 1.0 ± 0. 15 mv / VLinealidad: 0.3 % F.sHistéresis: 0.3 % f.sRepetibilidad: 0.2 % f.sFluencia: 0.2 % F.s / 3 minResistencia de entrada: 1000 ± 10 ohmUtilice temp: - 10 a 40 CError de posición: 0.1 % f.sEfecto en cero: 0.3 % FS / 10 CEfecto de la temperatura: 0.3 % FS / 10 CResistencia de aislamiento:  1500 MSobrecarga final: 150 % fsDimensiones:  28 × 28 × 6mmCable: y PHI: 0.8 × 350mmContenido de la oferta1 x Celda de Carga de 50Kg cuadradaNota: no contiene modulo de acondicionamientoPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J240" t="inlineStr"/>
@@ -11010,7 +11134,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611137363-celda-de-carga-de-1kg-peso-presion-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611137363-celda-de-carga-de-1kg-peso-presion-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11034,7 +11158,11 @@
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.Celda de Carga de 1KgCon este indicador vas a ser capaz de determinar qué tan pesado es un objeto, si el peso de un objeto cambia con el tiempo, o si simplemente necesitas detectar la presencia de un objeto mediante la medición de la tensión o carga aplicada a una superficie.Estas celdas de carga tienen cuatro medidores de tensión que están conectados en un puente de Weatstone. Además, estas celdas de carga ofrecen un grado de protección IP65 y cuentan con dos M4 y M5 dos dimensionados través de los orificios para los propósitos de montaje.La estructura de puente completo, los cuatro conductores, fácil de usar, más el voltaje de conducción 5-10V, fuerza los cambios en la señal de voltaje de salida directamente.El sensor se fija en un extremo a través del orificio del tornillo, y el otro extremo en estado flotante, se aplica según la dirección de gravedad de la dirección de la etiqueta.Está hecho de aleación de aluminio de alta calidad.Celda de carga de 1 kg  la cual puede detectar peso o tensión.CaracterísticasRango de carga : 1kgSalida nominal: 1,0 ± 0.15mV / VRepetibilidad: 0,03% FSEfecto de la temperatura en la salida: 0,01% F.S /  CEfecto de la temperatura sobre cero: 0.05% F.S /  CCero: ± 0.1000 mV / VImpedancia de entrada: 1115 + -10% Impedancia de salida: 1000 + – 10% Resistencia de aislamiento:&gt; = 1000 MTasa Sobrecarga segura: 150 % FSTasa de sobrecarga final: 200 % FSRango de temperatura: -20 – 60  CVoltaje de funcionamiento: 3VDC  10 VDC.Material: Aleación de aluminioGrado de protección: IP65Cable: 0.8 × 20 cmCableado:Rojo: Alimentación +Negro: Fuente –Verde: Señal +Blanco: Señal –Contenido de la oferta1 x Celda de Carga de 1KgNota: no incluye modulo HX711 de acondicionamientoPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
@@ -11050,7 +11178,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-887684629-cargador-y-balanceador-de-baterias-imax-b6-ac-pb-litio-lipo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=2757310e-a0f5-4a69-8c9f-bc07962f74e7</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-887684629-cargador-y-balanceador-de-baterias-imax-b6-ac-pb-litio-lipo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=17bea0a2-11f5-403f-9452-7bda319fa894</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -11078,7 +11206,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_807716-MCO49797599574_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este es el Cargador y Balanceador OEM compatible IMAX B6 con Fuente para todas las baterías, viene para uso en Pista con la batería del carro o moto e Incluye fuente interna para alimentación a 110 voltios para uso en casa. El IMAX B6-AC es un cargador sólido que es capaz de cargar, balancear y descargar baterías de Li-ion, LiPo, LiFe (A123), NiCd, NiMH y PB. Las nuevas características actualizadas incluyen también la resistencia interna y corrector de capacidad, junto con el controlador de motor cepillado, espuma de cable de salida de corte en caliente, y motor sin escobillas corrector RPM.-----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICASEntrada de 12 V y AC 100 ~ 240VControlado por microprocesadorTodas las baterías: Li-ion, LiPo, LiFe (A123), NiCd, NiMH y PBVigilancia de la tensión de entrada. (Protege la batería del Vehículo usada en la Pista)Almacenamiento de datos (Almacena hasta 5 paquetes en memoria)Sensibilidad del Delta-picoBalancea cada celda individualmente-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESVoltaje de entrada: 11 ~ 18VCircuito de potencia: Max carga: 50W / Max de descarga: 5WRango de corriente de carga: 0.1 ~ 5.0ARango de Descarga: 0.1 ~ 1.0ACeldas de Ni-MH / NiCd: 1 ~ 15Celdas Poly / Li-ion: 1 ~ 6Voltaje baterías de Plomo: 2 ~ 20VPeso: 580gDimensiones: 133x87x33mm-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Cargador y Balanceador OEM compatible IMAX B6 AC1x Set de Cables ver foto 10-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -11094,7 +11226,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607354143-cargador-litio-72v-20a-3a-carcaza-plastica-bateria-litio-nmc-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607354143-cargador-litio-72v-20a-3a-carcaza-plastica-bateria-litio-nmc-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -11138,7 +11270,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607350559-cargador-gel-72v-36a-para-bateria-de-gel-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607350559-cargador-gel-72v-36a-para-bateria-de-gel-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11166,7 +11298,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_945737-MCO49591453486_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 72V 36A gel plomo.El cargador esta diseñado para ser usado con baterías secas de gel plomo libre de mantenimiento especialmente usadas en vehículos eléctricos como motos eléctricas, bicicletas eléctricas, patinetas, scooter y otros. Debes tener en cuenta que es para una serie de 6 baterías de 12v (voltios) y 32A (amperio) o superior de composición gel plomo, no es recomendable usarlo con baterías de litium ya que los valores técnicos y tipo de carga son muy diferentes.Características:Voltaje de entrada: 110 VAC 50hz / 60hzCorriente de entrada: 3.0 AVoltaje salida nominal: 72VIdeal para baterías: 32A o superiorVoltaje de salida: 88.0VDCCorriente de carga: 4.5ADimensiones aproximadas:Largo: 177.5mmAncho: 95mmAlto: 57mmPeso: 485 gramosCarcaza: plásticaConector de salida: de poder estándarCable de alimentación: 90cm aprox.Cable de carga: 90cm aprox.Indicador luminoso de estado de carga.Rejillas de ventilación y extractor de calor incorporado.Instrucciones, advertencias y garantíaContenido de la oferta1x Cargador para batería gel plomo 72V 36AA tener en cuenta en la garantíaGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexión de baterías que no son de gel plomo o de diferente voltaje al mencionado al cargador, así como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.___________________________________________________________ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOSENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -11182,7 +11318,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607353600-cargador-gel-72v-22a-para-bateria-de-gel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607353600-cargador-gel-72v-22a-para-bateria-de-gel-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -11226,7 +11362,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607353626-cargador-gel-60v-22a-para-bateria-de-gel-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607353626-cargador-gel-60v-22a-para-bateria-de-gel-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -11270,7 +11406,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-878912643-cargador-bicicleta-moto-electrica-36v-22ah-bateria-gel-plomo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-878912643-cargador-bicicleta-moto-electrica-36v-22ah-bateria-gel-plomo-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -11300,7 +11436,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 36V 22A gel plomo.El cargador esta diseñado para</t>
+          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 36V 22A gel plomo.El cargador esta diseñado para ser usado con baterías secas de gel plomo libre de mantenimiento especialmente usadas en vehículos eléctricos como motos eléctricas, bicicletas eléctricas, patinetas, scooter y otros. Debes tener en cuenta que es para una serie de 3 baterías de 12v (voltios) y de 20 a 28A (amperio) o superior de composición gel plomo, no es recomendable usarlo con baterías de litium ya que los valores técnicos y tipo de carga son muy diferentes.Características:Voltaje de entrada: 110 VAC 50hz / 60hzCorriente de entrada: 2.0 AVoltaje salida nominal: 36VIdeal para baterías: 20A a 28AVoltaje de salida: 44.0VDCCorriente de carga: 2.6A a 3.0ADimensiones aproximadas:Largo: 177.5mmAncho: 95mmAlto: 57mmPeso: 485 gramosCarcaza: plásticaConector de salida: de poder estándarCable de alimentación: 90cm aprox.Cable de carga: 90cm aprox.Indicador luminoso de estado de carga.Rejillas de ventilación y extractor de calor incorporado.Instrucciones, advertencias y garantíaContenido de la oferta1x Cargador para batería gel plomo 36V 22AA tener en cuenta en la garantíaGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexión de baterías que no son de gel plomo o de diferente voltaje al mencionado al cargador, así como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.___________________________________________________________ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOSENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -11318,7 +11454,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879058656-cargador-bicicleta-electrica-24v-22ah-bateria-gel-plomo-seca-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879058656-cargador-bicicleta-electrica-24v-22ah-bateria-gel-plomo-seca-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11346,7 +11482,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_740282-MCO49591681248_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 24V 22A gel plomo.El cargador esta diseñado para ser usado con baterías secas de gel plomo libre de mantenimiento especialmente usadas en vehículos eléctricos como motos eléctricas, bicicletas eléctricas, patinetas, scooter y otros. Debes tener en cuenta que es para una serie de 2 baterías de 12v (voltios) y de 20 a 28A (amperio) o superior de composición gel plomo, no es recomendable usarlo con baterías de litium ya que los valores técnicos y tipo de carga son muy diferentes.Características:Voltaje de entrada: 110 VAC 50hz / 60hzCorriente de entrada: 2.0 AVoltaje salida nominal: 24VIdeal para baterías: 20A a 28AVoltaje de salida: 29.4VDCCorriente de carga: 2.6A a 3.0ADimensiones aproximadas:Largo: 177.5mmAncho: 95mmAlto: 57mmPeso: 485 gramosCarcaza: plásticaConector de salida: de poder estándarCable de alimentación: 90cm aprox.Cable de carga: 90cm aprox.Indicador luminoso de estado de carga.Rejillas de ventilación y extractor de calor incorporado.Instrucciones, advertencias y garantíaContenido de la oferta1x Cargador para batería gel plomo 24V 22AA tener en cuenta en la garantíaGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexión de baterías que no son de gel plomo o de diferente voltaje al mencionado al cargador, así como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.___________________________________________________________ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOSENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
@@ -11362,7 +11502,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607354323-cargador-bateria-litio-60v-20a-nmc-moto-bicicletica-plastico-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607354323-cargador-bateria-litio-60v-20a-nmc-moto-bicicletica-plastico-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -11390,7 +11530,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_831203-MCO49591923719_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 60V litio NMC – 3A de cargaEl cargador esta diseñado para ser usado con baterías litio NMC (Níquel – Manganeso – Cobalto) libre de mantenimiento especialmente usadas en vehículos eléctricos como motos eléctricas, Patinetas, Silla de Ruedas, bicicletas eléctricas, triciclos de carga, scooter y otros. Debes tener en cuenta que el cargador esta diseñado para baterías de litio de composición NMC de 15 amperios o superior, no es recomendable usarlo con baterías de gel plomo ya que los valores técnicos y tipo de carga son muy diferentes.Voltaje de entrada: 110 VAC 50/60HzCorriente de entrada: 2 AmperiosVoltaje nominal: 60 VoltiosVoltaje Máximo de salida: 71.4 VoltiosPara batería de: 17 celdas (4.2V x 17 = 71.4V)Para batería de : 15 Ah o superiorCorriente de salida máxima: 3 AmperiosDimensiones:– Largo 15 cm– Ancho 7 cm– Alto 5 cmPeso: 400 gramosCarcaza: plásticaConector de salida: de poder estándarLed indicador de estado de cargaTipo de Batería: Batería de Litio 60V NMCBatería de mínimo 15A o que soporte 3A de carga.Instrucciones, advertencias y garantíaContenido de la oferta1x Cargador para batería litio NMC 60V 3AGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexión de baterías que no son de litio o de diferente voltaje al mencionado al cargador, asi como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.___________________________________________________________ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOSENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -11406,7 +11550,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-879059253-cargador-bateria-litio-24v-20a-3a-bicicleta-electrica-294v-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=a1b3b48f-76ae-4693-b145-17097fb58e09</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-879059253-cargador-bateria-litio-24v-20a-3a-bicicleta-electrica-294v-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=53eb4a2c-6404-4aa2-b923-0dacf36f836b</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11434,7 +11578,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_836285-MCO49592354001_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>En Moviltronics SASsiempre pensamos en ti.Cargador 24V litio NMC – 3A de cargaEl cargador esta diseñado para ser usado con baterías litio NMC (Níquel – Manganeso – Cobalto) libre de mantenimiento especialmente usadas en vehículos eléctricos como motos eléctricas, Patinetas, Silla de Ruedas, bicicletas eléctricas, triciclos de carga, scooter y otros. Debes tener en cuenta que el cargador esta diseñado para baterías de litio de composición NMC de 15 amperios o superior, no es recomendable usarlo con baterías de gel plomo ya que los valores técnicos y tipo de carga son muy diferentes.Voltaje de entrada: 110 VAC 50/60Hz 190WCorriente de entrada: 2 AmperiosVoltaje nominal: 24 VoltiosVoltaje Máximo de salida: 29.4 VoltiosPara batería de: 7 celdas (4.2V x 7 = 29.4V)Para batería de : 15 Ah o superiorCorriente de salida máxima: 3 AmperiosDimensiones:– Largo 15 cm– Ancho 7 cm– Alto 5 cmPeso: 400 gramosCarcaza: plásticaConector de salida: de poder estándarLed indicador de estado de cargaTipo de Batería: Batería de Litio 24V NMCBatería de mínimo 15A o que soporte 3A de carga.Instrucciones, advertencias y garantíaContenido de la oferta1x Cargador para batería litio NMC 24V 3AGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexión de baterías que no son de litio o de diferente voltaje al mencionado al cargador, asi como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.___________________________________________________________ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOSENTREGA EL MISMO DÍA EN BOGOTA SI HACE SU COMPRA ANTES DE LAS 3 PM POR MERCADOENVIOS FLEX-----------------------------------------------------------------------------------------------------------------------Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -11450,7 +11598,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884159351-cama-caliente-314x214mm-aluminio-termistor-cable-led-mk2a-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884159351-cama-caliente-314x214mm-aluminio-termistor-cable-led-mk2a-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -11474,7 +11622,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_693214-MLA48824679956_012022-R.jpg</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Cama caliente MK3 214x314 mm MK3 de aluminio con termistor 100K. Imprime directamente sobre la cama sin necesidad de cristal o puede utilizar cinta Capton o azul.LISTA PARA TRABAJAR con cableado, termistor, leds, resistencias smd, soldadasTamaño: Estandar 300x200 mm - efectivo de borde a borde ( 314 mm x 214 mm )Espesor: 3mm12V o 24VPosicionamiento agujeros: ( 308 mm x 208 mm) AvellanadosCompatible con Prusa P3Steel PLUS-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Cama Caliente 314x214 mm 1x termistor 100K1x Cable de poder soldado1x Leds y resistencias SMD montados y soldados-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -11490,7 +11642,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-871436433-caja-reductora-doble-motor-tamiya-70097-carro-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-871436433-caja-reductora-doble-motor-tamiya-70097-carro-robot-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11518,7 +11670,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_646022-MCO49388672310_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Caja reductora doble motor Tamiya 70097  consta de dos motores y cajas de engranajes de CC de escobillas independientes en una carcasa compacta, lo que la hace perfecta para robots pequeños. Puede ensamblar las cajas de cambios para que tengan una relación de transmisión de 58: 1 o 204: 1.Descripción general Caja reductora doble motor TamiyaLa caja de cambios de doble motor de Tamiya es una caja de cambios de plástico pequeña de un poco mas de 7.6cm (3 pulgadas de largo). Contiene dos pequeños motores de CC de escobillas que impulsan ejes de salida hexagonales de 3 mm separados. Hay dos formas de armar el kit: con una relación de transmisión de 58: 1 de alta velocidad o con una relación de transmisión de 203: 1 más lenta y mayor torque. De cualquier manera, los motores proporcionan mucha potencia para impulsar cualquier robot pequeño.Los ejes de salida incluidos en este kit son ejes hexagonales de 3 mm que miden 10 cm (aproximadamente cuatro pulgadas) de punta a punta. Los ejes funcionan con cualquiera de las ruedas de Tamiya que tenemos disponibles, lo que le brinda muchas opciones para la velocidad de su robot. Los dos motores de bajo voltaje funcionan con 3-6 voltios y consumen unos pocos amperios, lo que los convierte en candidatos perfectos. El sobrecalentamiento del motor puede deberse a un bloqueo excesivo, incluso a voltajes muy bajos. Le recomendamos que utilice sensores de detección de bloqueo, o simplemente observe su robot, para asegurarse de que no se detenga durante más de unos pocos segundos a la vez.-----------------------------------------------------------------------------------------------------------------------Características:Voltaje de funcionamiento mínimo: 3 VOpciones de relación de transmisión: 58:1 , 204: 1Velocidad del eje del motor sin carga a 3 V: 12300 rpmCorriente sin carga a 3 V: 150 mACorriente de bloqueo a 3 V:  2100 mAPar de bloqueo del eje del motor a 3 V: 0.5 ozColor: grisPuede usar el motorreductor 70097 con la plataforma 70157-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 KIT Caja reductora doble Tamiya 70097No incluye plataforma ni llantas, el robot de las imágenes es para ilustración. -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
@@ -11534,7 +11690,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-527606345-caja-raspberry-pi-3-case-plastico-con-tornillos-soporte-fan-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-527606345-caja-raspberry-pi-3-case-plastico-con-tornillos-soporte-fan-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11562,7 +11718,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_684827-MCO31653509409_082019-R.jpg</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Ideal para el uso con su Raspberry Pi 3 B o Raspberry Pi 3 B+ con diferentes accesorios, esta caja modular le permite acceder rápidamente a los diferentes puertos con el fin de insertar Flex Cable Camera, Tarjeta HAT, disipador técnico, puerto GPIO o Flex Cable pantalla.Montura para un ventilador, incluye tornillos y gomas autoadhesivas antideslizantes Características técnicas: Plástico ABSPies de cauchoEspacio para las tarjetas de expansiónDimensiones : Longitud 90mm, Ancho 63mm, Alto 34mmContenido de la oferta1x Caja plástica modular para Raspberry Pi 31x Set de autoadhesivos y tornillosOJO NO INCLUYE LA RASPBERRY LAS FOTOGRAFÍAS MOSTRADAS SON PARA REFERENCIACompras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -11578,7 +11738,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-605870650-bateria-gel-12v-58ah-ciclo-profundo-vehiculos-electicos-evf-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=2757310e-a0f5-4a69-8c9f-bc07962f74e7</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-605870650-bateria-gel-12v-58ah-ciclo-profundo-vehiculos-electicos-evf-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=17bea0a2-11f5-403f-9452-7bda319fa894</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11602,7 +11762,11 @@
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>En Moviltronics SASsiempre pensamos en ti.Batería Gel Plomo 12V 58A , vehículos eléctricosBatería GEL 12V 58A 6-DZF-58 ideal para uso en motos eléctricas y vehículos eléctricos en general, ideal para bici taxis, triciclos de carga, baterías libre de mantenimiento, sin composición de agua o acido siendo batería sin componentes líquidos.Mayor capacidad: diseño de estructura patentada con alta utilización de material activo, mejora al máximo la utilización de material activo y reducción del espacio interno de la batería obteniendo aumento en el porcentaje de autonomía de 5% -10% más capacidad que otros productos similares en el mercado.Alto rendimiento para grandes descargas de corriente. baja resistencia interna de la batería, reacción electroquímica interna uniforme bajo descarga de corriente grande, excelente capacidad de recuperación de descarga profunda. Excelente resistencia a la corrosión de la carcaza y resistencia a la deformación física.Alto rendimiento en bajas temperatura. Con un material conductor agregado y un agente de expansión criogénico de alta actividad para las placas, Seguridad y fiabilidad. Válvula de seguridad automática, anti-seca y extraíble, diseñada para un control común conveniente, así como la función de sellado para reducir la pérdida de gel en el proceso de carga y descarga mejorando la eficiencia de reacción del sellado.Características Batería GEL 12V 58AVoltaje promedio: 12VVoltaje máximo: 13.6Voltaje minimo:10.8Corriente: 58AhVida de ciclo más larga: 400-600 ciclos a 100% DOD.Tamaño:– Largo: 22 cm– Ancho: 15 cm– Alto: 17 cmPeso: 15,50 KgIdeal para:Aplicaciones de ciclo profundo, motos eléctricas, autos eléctricos, bici taxis, triciclos de carga, uso en juguetes, carros de niños, monopatines, sillas de ruedas, herramientas, carritos de golf, y otros.Contenido de la oferta1x Batería 12V 58A gel plomo 6-DZF-58 para moto y vehículo eléctricoGarantía de Tres (3) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexiones con otras baterías, golpes o baterías sopladas o infladas, asi como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro</t>
+        </is>
+      </c>
       <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
@@ -11618,7 +11782,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-607611408-bateria-gel-12v-36a-motos-y-vehiculos-electricos-6-evf-36l-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=2757310e-a0f5-4a69-8c9f-bc07962f74e7</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-607611408-bateria-gel-12v-36a-motos-y-vehiculos-electricos-6-evf-36l-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=17bea0a2-11f5-403f-9452-7bda319fa894</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -11640,7 +11804,7 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>En Moviltronics SASsiempre pensamos en ti.Batería Gel Plomo 12V 36A , vehículos eléctricosBatería G</t>
+          <t>En Moviltronics SASsiempre pensamos en ti.Batería Gel Plomo 12V 36A , vehículos eléctricosBatería GEL 12V 36A 6-DZF-36L ideal para uso en motos eléctricas y vehículos eléctricos en general, ideal para bici taxis, triciclos de carga, baterías libre de mantenimiento, sin composición de agua o acido siendo batería sin componentes líquidos.Mayor capacidad: diseño de estructura patentada con alta utilización de material activo, mejora al máximo la utilización de material activo y reducción del espacio interno de la batería obteniendo aumento en el porcentaje de autonomía de 5% -10% más capacidad que otros productos similares en el mercado.Alto rendimiento para grandes descargas de corriente. baja resistencia interna de la batería, reacción electroquímica interna uniforme bajo descarga de corriente grande, excelente capacidad de recuperación de descarga profunda. Excelente resistencia a la corrosión de la carcaza y resistencia a la deformación física.Alto rendimiento en bajas temperatura. Con un material conductor agregado y un agente de expansión criogénico de alta actividad para las placas, Seguridad y fiabilidad. Válvula de seguridad automática, anti-seca y extraíble, diseñada para un control común conveniente, así como la función de sellado para reducir la pérdida de gel en el proceso de carga y descarga mejorando la eficiencia de reacción del sellado.Características Batería GEL 12V 36AVoltaje promedio: 12VVoltaje máximo: 13.6Voltaje minimo:10.8Corriente: 36AhVida de ciclo más larga: 400-600 ciclos a 100% DOD.Tamaño:– Largo: 27 cm– Ancho: 8 cm– Alto: 17 cmPeso: 9,80 KgIdeal para:Aplicaciones de ciclo profundo, motos eléctricas, autos eléctricos, bici taxis, triciclos de carga, uso en juguetes, carros de niños, monopatines, sillas de ruedas, herramientas, carritos de golf,  y otros.Contenido de la oferta1x Batería 12V 36A gel plomo 6-DZF-36L para moto y vehículo eléctricoGarantía de seis (6) meses por defectos de fabricación.La garantía no cubre daños provocados por mal uso, corto circuito en entrada o salida, humedad, conexiones con otras baterías, golpes o baterías sopladas o infladas, asi como se solicita que no este ni allá sido destapado o manipulados o rotos los sellos de garantía.Para compras personales o recogidas estamos en Bogotá D.C. zona Centroles recordamos que el costo del envió o transporte es asumido por el comprador y no por nuestra empresa , dicho valor se le cancelara a la transportadora al momento de recibir el producto</t>
         </is>
       </c>
       <c r="J255" t="inlineStr"/>
@@ -11658,7 +11822,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1215256633-bateria-expansion-bluetti-b300-3072-wh-para-ac300-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1215256633-bateria-expansion-bluetti-b300-3072-wh-para-ac300-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11682,7 +11846,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_932892-MCO53563319479_022023-R.jpg</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Somos Moviltronics SAS, lideres en movilidad eléctrica y energías alternativas, suministramos los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Batería Expansión Bluetti B300 Capacidad adicional de 3072 Wh: la capacidad general del sistema AC300 puede alcanzar hasta 12,288Wh al conectarlo con 4 módulos B300; también es compatible con el sistema Bluetti AC200MAX / AC200P / EB240 / EB150Recarga flexiblePuedes recargar BLUETTI B300 rápidamente con 200W Max. Entrada solar gracias al MPPT incorporado. Además, también es compatible con la carga de baterías de CA, automóviles y plomo-ácido. El automóvil y la carga de la batería de plomo-ácido necesitan un D050S. Fuente de energía versátilPuede alimentar sus teléfonos inteligentes, computadoras portátiles, ventiladores, luces, refrigeradores, hornos de microondas, etc. con un puerto de salida específico: el USB-C de 100 W, el encendedor de cigarrillos de 12 V/10 A y los puertos de salida USB-A de 18 W. Paquete de batería expandibleB300 tiene una capacidad de 3072 Wh y más de 3500 ciclos de vida con las celdas de batería LifePO4, que ofrecen hasta el 80 % de la capacidad original. Además, duplicará, triplicará e incluso cuadriplicará la capacidad total con las series BLUETTI AC200MAX, AC200P o AC300. Banco de energía de respaldo y viaje para el hogarYa sea en una reunión familiar o en un viaje de campamento, el B300 le servirá como fuente de alimentación de respaldo o banco de energía. Alimenta bien las necesidades de su hogar y campamento, y todo lo que necesita hacer es disfrutar de los buenos momentos.-----------------------------------------------------------------------------------------------------------------------Características Batería Expansión Bluetti B300Con un USB-C de 100 W, una salida de automóvil de 12 V/10 A y puertos USB-A, puede usar el B300 como una estación de energía portátil.El MPPT inteligente dentro del B300 le permite recargarse rápidamente a través de la energía solar en una escala de carga máxima de 200W.También puede recargarlo con un enchufe de pared, una carga de automóvil o una batería de plomo-ácido.La carga del automóvil y la carga de la batería de plomo-ácido deben realizarse a través de D050S.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Batería de expansión BLUETTI B300 | 3,072Wh-----------------------------------------------------------------------------------------------------------------------Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
@@ -11698,7 +11866,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1270617038-bateria-de-lipo-tronex-rc-alta-22000-mah-50c-6s-222v-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1270617038-bateria-de-lipo-tronex-rc-alta-22000-mah-50c-6s-222v-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11718,11 +11886,7 @@
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
@@ -11738,7 +11902,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1270649740-bateria-de-lipo-tronex-rc-alta-16000-mah-50c-6s-222v-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1270649740-bateria-de-lipo-tronex-rc-alta-16000-mah-50c-6s-222v-_JM#position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -11758,7 +11922,11 @@
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Mayor densidad de energía.Ciclo de vida más largo.Mayor rata de descarga entregando mayor potencia a la descarga.Diseñadas para brindar alto rendimiento en competencia o entrenamientos.Estrictos controles de calidad durante la producción.Cables siliconados de alta resistencia y flexibilidad.-----------------------------------------------------------------------------------------------------------------------Especificaciones:CONFIGURACIÓN 6sREFERENCIA BPRC16000-25C-6S-CSISTEMA ELECTROQUÍMICO Litio – Polímero (LiPo)NÚMERO DE CELDAS 6RECARGABLE SiARREGLO ENSAMBLE SerieCONTACTO Lámina de níquelCONECTOR DE DESCARGA XT90CONECTOR DE BALANCEO JSTVOLTAJE NOMINAL (V) 22.2VCAPACIDAD NOMINAL (mAh) 16000RATA DE DESCARGA 25CDESCARGA MÁXIMA 50CPESO 1900gRATA DE CARGA 1-3C recomendado5C Máximo DIMENSIONES (mm) 63 x 75 x 180CUBRIMIENTO Plástico termo encogibleGARANTÍA* 6 mesesAPLICACIÓN F3A, aviones eléctricos, aviones a escala, entre otros-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Batería BPRC16000-25C-6S-C-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -11774,7 +11942,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-522186682-bateria-lipo-nano-tech-4400-mh-148-v-4s-65130c-wxt-90-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-522186682-bateria-lipo-nano-tech-4400-mh-148-v-4s-65130c-wxt-90-_JM#position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11790,11 +11958,7 @@
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -11810,7 +11974,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-554240956-baquelita-universal-de-circuito-impreso-mw205-155x125-cm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-554240956-baquelita-universal-de-circuito-impreso-mw205-155x125-cm-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11840,7 +12004,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Placa de circuito impreso universal baquelita MW205 distancia entre agujeros 2.54 mmIdeal para proyectos de electrónica, prototipos, pruebas. Resiente, fácil de soldar -----------------------------------------------------------------------------------------------------------------------Características:Material: baquelitaPistas: Cobre con recubrimiento estañoDimensiones: 15.5x12.5 cmEspesor: 2mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Placa de circuito impreso baquelita universal MW205-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -11858,7 +12022,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827262791-baquelita-pcb-virgen-placa-para-circuito-impreso-10x15-cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827262791-baquelita-pcb-virgen-placa-para-circuito-impreso-10x15-cm-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -11886,7 +12050,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_782894-MCO48089260452_112021-R.jpg</t>
         </is>
       </c>
-      <c r="I261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Una Placa Fenólica PCB o Baquelita es una lamina de cobre recubierta por un sustrato aislante. Las placas fenólicas pueden ser perforadas o o planas.También pueden ser usadas en el proceso de fabricación de circuitos impresos. En esta categoría podrás encontrar distintos tipos y categorías de baquelitas, placa fenólicas o PCB.Baquelita virgen con cobre en una sola cara, tamaño de 10x15 cm, para fabricación de circuitos impresos PCB electrónicos. -----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS • Resistencia al agua y el calor• Ideal para construir prototipos con soldadura• Lamina de cobre recubierta por un sustrato aislante• 1 cara• Recubierta por cobre de 1 onza de espesor• Facilita llevar a cabo un circuito impreso• Dimensiones: 100 x 150 x 2 mm• Peso: 31 g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Placa de baquelita cobre una cara 10x15 cm-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -11902,7 +12070,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827295055-baquelita-pcb-virgen-placa-para-circuito-impreso-10x10-cm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827295055-baquelita-pcb-virgen-placa-para-circuito-impreso-10x10-cm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11932,7 +12100,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Una Placa Fenólica PCB o Baquelita es una lamina de cobre recubierta por un sustrato aislante. Las placas fenólicas pueden ser perforadas o o planas.También pueden ser usadas en el proceso de fabricación de circuitos impresos. En esta categoría podrás encontrar distintos tipos y categorías de baquelitas, placa fenólicas o PCB.Baquelita virgen con cobre en una sola cara, tamaño de 10x10 cm, para fabricación de circuitos impresos PCB electrónicos. -----------------------------------------------------------------------------------------------------------------------CARACTERÍSTICAS • Resistencia al agua y el calor• Ideal para construir prototipos con soldadura• Lamina de cobre recubierta por un sustrato aislante• 1 cara• Recubierta por cobre de 1 onza de espesor• Facilita llevar a cabo un circuito impreso• Dimensiones: 100 x 100 x 2 mm• Peso: 31 g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Placa de baquelita cobre una cara 10x10 cm-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J262" t="inlineStr"/>
@@ -11950,7 +12118,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827255540-baquelita-circuito-impreso-prototipos-mw-202-95x73mm-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827255540-baquelita-circuito-impreso-prototipos-mw-202-95x73mm-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -11970,7 +12138,11 @@
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Una placa de creación de prototipos que le permite transferir el diseño de su placa de pruebas sin tener que volver a trabajarla. Incluye cinco orificios en cada lado por fila y rieles eléctricos a lo largo de la tabla.Pistas plata-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Placa prototipos MW-202-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -11986,7 +12158,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-882438255-aviso-luminoso-led-pov-mira-ball-360-grados-texto-e-imagen-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-882438255-aviso-luminoso-led-pov-mira-ball-360-grados-texto-e-imagen-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -12014,7 +12186,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_681110-MCO49678339185_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Aviso Luminoso Rotativo Mira Ball POVCARACTERÍSTICAS:Aviso luminoso en forma de bola de cristal, texto e imágenes, excelente para publicidad, decoración. Programe sus mensajes en colores y con imágenes desde el programa incluido. Puede programar desde los botones frontales la velocidad del giro del aviso. También puede quedar estática.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONES:Voltaje de entrada: 110/120 Voltios ACConexión a PC: Mini USB a USB Cable incluidoProgramación: Software compatible con Windows. IncluidoDimensiones: Diámetro 120mm. altura total 195mm -----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1x Mira Ball 1x Cable de poder1x Cable USB1x CD Software-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
@@ -12030,7 +12206,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-523257931-arduino-mini-pro-compatible-microcontrolador-atmega328-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-523257931-arduino-mini-pro-compatible-microcontrolador-atmega328-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -12058,7 +12234,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_832984-MCO31417420044_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>En Moviltronicsayudamos a que tus proyectos de electrónica y robótica se hagan realidad,suministrando los mejores productos con calidad y respaldo.VENTAJAS:No se requiere mucho conocimiento para empezar.Un coste bastante bajo.Hay muchos bocetos y escudos disponibles.No se necesita un programador externo o una fuente de energía.ESPECIFICACIONES:Microcontrolador ATmega328 Fuente de alimentación 3.35 -12 V (modelo 3.3V) o 5-12 V (modelo de 5V)Voltaje de funcionamiento del circuito 3.3V o 5V (dependiendo del modelo)Pines de Entrada/Salida digitales 14Pines de PWM: 6 (incluidas en las 14 digitales)Pines Entrada análoga: 6Interrupciones externas: 2Corriente CC por Pin I / O 40 mAMemoria Flash de 32 KB de los cuales 2 KB utilizados por el gestor de arranqueSRAM 2 KB EEPROM 1 KB Velocidad del reloj 8 MHz (versiones de 3.3V) o 16 MHz (versiones de 5V)Se puede conectar un programador de seis pines a un cable FTDI para proporcionar alimentación y comunicación USB a la placa. La placa viene sin regleta soldada, lo que permite el uso de varios tipos de conectores o la soldadura directa de cables. El diseño del pin es compatible con el Arduino Mini.PROTOCOLOS DE COMUNICACION:Serie RS232: 0 (RX) y 1 (TX). Se usa para recibir (RX) y transmitir (TX) datos en serie TTL.2 (RX) y 3 (TX). Se usa para recibir (RX) y transmitir (TX) datos en serie TTL.SPI:10 (SS), 11 (MOSI), 12 (MISO), 13 (SCK). Estos pines admiten la comunicación SPI.Interrupciones externas: 2 y 3. Estos pines se pueden configurar para activar una interrupción en un valor bajo, un flanco ascendente o descendente, o un cambio en el valor. PWM: 3, 5, 6, 9, 10 y 11. Proporcionan salida PWM de 8 y 10 bits con la función analogWrite.LED: 13. Hay un LED integrado conectado al pin digital 13. Cuando el pin tiene un valor ALTO, el LED está encendido, cuando el pin está BAJO, está apagado.CONTENIDO DE LA OFERTA1x Arduino Mini Pro compatible Microcontrolador Atmega328 Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
@@ -12074,7 +12254,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-538886709-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-25dbi-w425-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-538886709-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-25dbi-w425-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -12104,7 +12284,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------FOTOGRAFÍAS REALES DEL PRODUCTOModel: W425Color: WhiteInterface: SMAFrequence range : 791-821MHz,832-862MHz,1710-1785MHz,1805-1880MHz,2500-2570MHz,2620-2690MHzVSWR: =2.5Gain dBi: 25dBiMaximum Input Power: 10WPolarization Type : VerticalRadiation: OmniCable Type: RG174 (best) 100 Percent CooperDimensiones: (L x W x H): 17.7 x 6.4 x 2.8 cm / 6.96 x 2.52 x 1.10 inchesConector de antena puede ser-CRC9-SMA (Macho)-TS9-----------------------------------------------------------------------------------------------------------------------Contenido de la compra1x Antena W425ENVÍO GRATIS - ÚNICAMENTE POR MERCADOENVIOS-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J266" t="inlineStr"/>
@@ -12122,7 +12302,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509923730-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-16dbi-w416-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509923730-antena-wifi-modem-internet-3g-4g-lte-sma-crc9-ts9-16dbi-w416-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12150,11 +12330,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_651693-MCO40090816066_122019-R.jpg</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -12170,7 +12346,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636065738-antena-wifi-modem-internet-24ghz-58ghz-sma-hembra-8dbi-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636065738-antena-wifi-modem-internet-24ghz-58ghz-sma-hembra-8dbi-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -12198,7 +12374,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_830558-MCO45599199948_042021-R.jpg</t>
         </is>
       </c>
-      <c r="I268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Antena SMA de 16 cm, Gain 8dbi. Puede usar esta antena para una señal mejorada durante actividades al aire libre.Antena RP-SMA: Esta antena 2.4G/5.8G de alto rendimiento con conexión SMA hembra, adecuada para cualquier punto de acceso o punto de acceso y compatible con muchos modelos que tienen una toma SMA.Señal mejorada: con la señal mejorada potente, puede mejorar la intensidad de la señal y el rendimiento de su enrutador inalámbrico o tarjeta PCI WLAN con esta antena de alta ganancia 8dBi-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 Antena Wifi Modem Internet 2.4ghz / 5.8ghz Sma (hembra) 8dbi-----------------------------------------------------------------------------------------------------------------------POR COMPRAS DE 5 UNIDADES O MAS ENVIO GRATISENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -12214,7 +12394,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452950922-antena-para-modem-router-internet-3g-4g-lte-wifi-w422-22dbi-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452950922-antena-para-modem-router-internet-3g-4g-lte-wifi-w422-22dbi-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12240,7 +12420,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------FOTOGRAFÍAS REALES DEL PRODUCTO-----------------------------------------------------------------------------------------------------------------------Antena W422 LTE 3G 4GAntena 4G LTE de 22db permite aumenta la recepción de la señal de modem o mifi de 4G LTE en diferentes operadores como claro, Avantel, une y otros. para equipos de diferentes marcas como Huawei, AirCard, p-link, Quanta, indoor, ZTE, Netgear, entre otros.Debe tener en cuenta que es una antena de uso en interiores ideal para perímetros urbanos, para perímetros rurales puede funcionar dependiendo del lugar y de las antenas de retrasmisión del operador de internet cercanas para estos casos en perímetro rural se recomienda antenas externas que otorgan mayor recepción o antenas de mayor ganancia en db.Tomar en cuenta el conector del equipo o el modelo del quipo para verificar el conector. Antena WiFi con una ganancia de 22 dBi que permite una mayor ganancia en la señal, es para uso interior de dispositivos con entrada SMA ,TS9 o CRC9.ESPECIFICACIONES:Conector doble: SMA, TS9 o CRC9Longitud del cada cable: 1.80 mtsRadiación: OmnidireccionalUso: interioresImpedancia de entrada: 50 ohmiosTipo de cable: RG174 (mejor) 100% de cobreAumenta la intensidad de la señal y el rendimiento de la red inalámbrica 4G LTECon soporte de ventosaRango de frecuencia de operación:791-821MHz/ 832-862MHz/ 1710-1785MHz/1805-1880MHz/ 2500-2570MHz/ 2620-2690MHzVSWR: &lt;=2.5Ganancia: 22 dBiPosición : VerticalPotencia: 10WImpedancia: 50 Ohms nominalDimensiones de la antena: 24×8.8×2.7cmPeso: 194.6 grsColor: BlancoCONECTORES DISPONIBLES:Antes de cerrar tu compra verifica y selecciona el conector correcto para que no tengas problemas al usar el producto.– SMA (Macho)– CRC9– TS9Ideal para marcas y equipos como:ZTE: USB Modem 3G 4G(LTE), MF821, MF93D, F823L, M190Huawei: E5172, E5776, E589, E353, E392, E5005, E5172, E160, E5172, E3276s, E5573s,B310,UNE: Internet 3G 4G(LTE),Modem: H3S,Indoor: CPE wltfqt-152,Netgear: 770s.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 Antena 4G-Antenne W4221 Ventosa de sujeción-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J269" t="inlineStr"/>
@@ -12258,7 +12438,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452162347-antena-para-modem-router-internet-3g-4g-lte-wifi-w435-35dbi-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452162347-antena-para-modem-router-internet-3g-4g-lte-wifi-w435-35dbi-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -12288,7 +12468,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------OJO ESTA ANTENA SOLO SIRVE PARA USO EN INTERIORESFOTOGRAFÍAS REALES DEL PRODUCTOAntena 4G LTE de 35db permite aumenta la recepción de la señal de modem o mifi de 4G LTE en diferentes operadores como claro, Avantel, une y otros. para equipos de diferentes marcas como Huawei, AirCard, p-link, Quanta, indoor, entre otros. debe tener en cuenta que es una antena de uso en interiores ideal para perímetros urbanos, para perímetros rurales puede funcionar si la señal dependiendo del lugar y de las antenas de retrasmisión cercanas para ellos se recomienda antenas externas que otorgan mayor recepción.Debes tener en cuenta el conector del equipo o el modelo del quipo para verificar el conector, la antena viene equipada con dos extensiones de cable de 1.8 mts. Antena WiFi con una ganancia de 35 dBi que permite una mayor ganancia en la señal, es para uso interior de dispositivos con entrada SMA o CRC9. -----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONES:Conector doble: SMA o CRC9Longitud del cada cable: 1.80 mtsRadiación: OmnidireccionalUso: interioresImpedancia de entrada: 50 ohmiosTipo de cable: RG174 (mejor) 100 por ciento de cobreAumenta la intensidad de la señal y el rendimiento de la red inalámbrica 4G LTECon soporte de ventosaRango de frecuencia: 791-821MHz/ 832-862MHz/ 1710-1785MHz/1805-1880MHz/ 2500-2570MHz/ 2620-2690MHzVSWR: &lt;=2.5Ganancia: 35 dBiPosición : VerticalPotencia: 10WImpedancia: 50 Ohms nominalVentosa de sujeción de 5cm diámetroDimensiones de la antena: 22x19x2.1cmPeso: 230.7 grsColor: Blanco-----------------------------------------------------------------------------------------------------------------------Conector de antena puede serAntes de cerrar tu compra verifica y selecciona el conector correcto para que no tengas problemas al usar el producto.- SMA (Macho)- CRC9- TS9ideal para marcas y equipos como:ZTE; USB Modem 3G 4G(LTE), MF821, MF93D, F823L, M190Huawei; E5172, E5776, E589, E353, E392, E5005, E5172, E160, E5172, E3276s, E5573s,B310, UNE; Internet 3G 4G(LTE),Modem; H3S, Indoor; CPE wltfqt-152,Netgear: 770s.PARA TENER EN CUENTA: la antena viene con dos tramos de cable de 1.8mts que son propios de la antena y ambos tienen el mismo tipo de conector, debe seleccionar la antena entre los conectores disponibles. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra1 Antena 4G-Antenne W4351 Ventosa de sujeción -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
@@ -12306,7 +12486,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-509388958-antena-para-modem-router-internet-3g-4g-lte-wifi-w425-25dbi-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-509388958-antena-para-modem-router-internet-3g-4g-lte-wifi-w425-25dbi-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12334,7 +12514,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_757372-MCO40825088901_022020-R.jpg</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------FOTOGRAFÍAS REALES DEL PRODUCTOAntena W425 LTE 3G 4GAntena 4G LTE de 25db permite aumenta la recepción de la señal de modem o mifi de 4G LTE en diferentes operadores como claro, Avantel, une y otros. para equipos de diferentes marcas como Huawei, AirCard, p-link, Quanta, indoor, ZTE, Netgear, entre otros.Debe tener en cuenta que es una antena de uso en interiores ideal para perímetros urbanos, para perímetros rurales puede funcionar dependiendo del lugar y de las antenas de retrasmisión del operador de internet cercanas para estos casos en perímetro rural se recomienda antenas externas que otorgan mayor recepción.Tomar en cuenta el conector del equipo o el modelo del quipo para verificar el conector, la antena viene equipada con un tramo de cable de 1.8 mts. Antena WiFi con una ganancia de 25 dBi que permite una mayor ganancia en la señal, es para uso interior de dispositivos con entrada SMA ,TS9 o CRC9.ESPECIFICACIONES:Conector : SMA, TS9 o CRC9Longitud del cada cable: 1.80 mtsRadiación: OmnidireccionalUso: interioresImpedancia de entrada: 50 ohmiosTipo de cable: RG174 (mejor) 100 por ciento de cobreAumenta la intensidad de la señal y el rendimiento de la red inalámbrica 4G LTECon soporte de ventosaRango de frecuencia de operación: 791-821MHz/ 832-862MHz/ 1710-1785MHz/1805-1880MHz/ 2500-2570MHz/ 2620-2690MHzVSWR: &lt;=2.5Ganancia: 25 dBiPosición : VerticalPotencia: 10WImpedancia: 50 Ohms nominalVentosa de sujeción de 5cm diámetroDimensiones de la antena: 20.7x7x3cmPeso: 135.6 grsColor: BlancoCONECTORES DISPONIBLES:Antes de cerrar tu compra verifica y selecciona el conector correcto para que no tengas problemas al usar el producto.– SMA (Macho)– CRC9– TS9Ideal para marcas y equipos como:ZTE: USB Modem 3G 4G(LTE), MF821, MF93D, F823L, M190Huawei: E5172, E5776, E589, E353, E392, E5005, E5172, E160, E5172, E3276s, E5573s,B310,UNE: Internet 3G 4G(LTE),Modem: H3S,Indoor: CPE wltfqt-152,Netgear: 770s.PARA TENER EN CUENTA:la antena viene con un tramo de cable de 1.8mts que es propio de la antena, debes seleccionar la antena entre los conectores disponibles adecuados para su modem o router.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta1 Antena 4G-Antenne W4251 Ventosa de sujeción-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -12350,7 +12534,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-541702320-antena-mimo-4g-3g-lte-para-exteriores-ganancia-50-dbi-w50-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-541702320-antena-mimo-4g-3g-lte-para-exteriores-ganancia-50-dbi-w50-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -12378,7 +12562,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_620777-MCO32892537053_112019-R.jpg</t>
         </is>
       </c>
-      <c r="I272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.La antena Geerxin W50 es la solución más idónea para entornos RURALES Y ZONAS ALEJADAS DE LAS TORRES DE TELEFONÍA MÓVIL. Una vez conectada a nuestro Router veremos incrementada significativamente la velocidad de conexión a las redes 4G/y 3G.Gracias a su gran superficie podemos recibir en mejores condiciones la señal 4G por muy débil que esta sea.Fácil colocación. La podemos colocar al lado de la ventana o en la misma barandilla del balcón.Frecuencias y conexiones.Esta antena está diseñada para recibir todo el espectro de frecuencias utilizado para la transmisión de las conexiones 4G/ 4G+/3G/HSPA+ e incluso WIFI: 700 - 2600 mhz. Funciona con todas las compañías de telefonía móvil y routers tipo MIMO (dos conexiones de antena exterior).La antena se encuentra polarizada en +-45 grados, a fin de aprovecharse de las ventajas de la tecnología MIMO.Cableado.La distancia del par de cables que conduce al router es de 10 metros cada uno. El tipo de cable utilizado es alta calidad a fin de asegurar la menor pérdida en la transmisión de la señal.Tipo de conexión.La conexión de los cables que conectan al router es SMA, utilizada todos los router de sobremesa. Si pretende utilizar esta antena en pequeños routers MIFI portátiles deberá seleccionar adaptadores para CR9 o TS9 (no incluido). Instalación. Pasos.1. Coloque la antena en la parte más elevada de la vivienda, o en su caso en aquella fachada donde la señal recibida sea mayor. Cuantos menos obstáculos tengamos entre la torre de emisión de nuestra compañía y nuestra antena 4G, mejor será el rendimiento.2. Oriente la antena exterior hacia el punto del horizonte donde mejores resultados obtenga.3. Conectar cables. Utilice los dos cables suministrados para conectar el router a la antena 4G.Temperatura de entorno -40ºC a 65ºCTamaño sin soporte 25x47x4cmPeso sin soporte 1.8 kgContenido de la oferta1x Antena MIMO W501x Set de instalaciónENVÍO GRATIS - MercadoEnvios Compras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -12394,7 +12582,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-452161978-antena-4g-lte-3g-wifi-exteriores-ext-20m-ganancia-46dbi-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-452161978-antena-4g-lte-3g-wifi-exteriores-ext-20m-ganancia-46dbi-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -12438,7 +12626,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-610494682-amplificador-40-watts-stereo-bluetooth-reproductor-usb-sd-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-610494682-amplificador-40-watts-stereo-bluetooth-reproductor-usb-sd-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -12482,7 +12670,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-525740125-amplificador-4-ch-25x4-watts-bluetooth-sd-usb-fm-mp3-12vdc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-525740125-amplificador-4-ch-25x4-watts-bluetooth-sd-usb-fm-mp3-12vdc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -12526,7 +12714,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-513043701-adaptador-inalambrico-wifi-usb-edup-ep-ms8551-150mbps-antena-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-513043701-adaptador-inalambrico-wifi-usb-edup-ep-ms8551-150mbps-antena-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -12554,7 +12742,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_971169-MCO31561621366_072019-R.jpg</t>
         </is>
       </c>
-      <c r="I276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>En Moviltronics SAS, siempre pensamos en ti.Adaptador inalámbrico WiFi USB EDUP EP-MS8551 150Mbps con Antena 6dBi 802.11b / g / n Chipset MTK7601.Compatible con Raspberry PI CARACTERÍSTICAS:El adaptador inalámbrico USB 2.0 de EDUP le permite conectar su computadora portátil o de escritorio a cualquier red Wireless-N en su hogar u oficina. El decodificador inalámbrico Wireless-N (802.11n) 150mbps es ideal para aquellos que desean actualizar las computadoras antiguas para poder acceder a Internet a través de una red Wireless-N.ESPECIFICACIONES:La tecnología mimo mejora el rendimiento y la gama de datos sobre los productos 802.11b/G existentesAñadir inalámbrico de alta velocidad-N (borrador 802.11n) acceso a Internet a cualquier computadora USB habilitadoDescargar música y películas, surf Internet y correo electrónico hasta 5 veces más rápido que las redes inalámbricas de generación anterior (inalámbrico 802.11g)Ofrece una mayor cobertura que las redes inalámbricas-g para el acceso a Internet en toda su casa o oficinaFunciona con redes más antiguas inalámbricas-G e inalámbricas-BConfiguración Wi-Fi protegida (WPS) simplifica la configuración y la operaciónDistancia de funcionamiento de hasta 300 pies de interior, y hasta 900 pies en el espacio abiertoTasa de transferencia de datos de hasta 150 Mbps (downlink) y 150 Mbps (enlace ascendente)Soporta interfaz USB 2.0, compatible con USB 1.1 y 1.2Mejora de la seguridad inalámbrica WEP y WPA para acceso a Internet protegido64-bit/128-Bit WEP (Privacidad equivalente por cable), TKIP, AES 2.400 GHz ISMMétodo de modulación de banda de frecuencia: QPSK/bpsk/16-qam/64-qamAdmite modos ad hoc e infraestructuraSoporta os: WinXP/winvista/win7/win8/win8.1/win10/Kernel Mac OS/LinuxPeso del paquete: 0.072 kgTamaño del producto(L x W x H): 14.80 x 5.20 x 1.90 cm / 5.83 x 2.05 x 0.75 pulgadasTamaño del paquete(L x W x H): 19.50 x 10.50 x 3.50 cm / 7.68 x 4.13 x 1.38 pulgadasContenido de la oferta1x Adaptador EDUP EP-MS8551 1x Antena 1x CD con softwarePara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
@@ -12570,7 +12762,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874487662-acople-rigido-aluminio-5mm-a-5mm-d14-l25-cnc-impresora-3d-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874487662-acople-rigido-aluminio-5mm-a-5mm-d14-l25-cnc-impresora-3d-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12598,7 +12790,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_785808-MCO46693097922_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Acople de construido en una sola pieza de aluminio lo cual le otorga una gran rigidez lo cual le permite transmitir mucho mejor el movimiento, uno de los diámetros internos es de 5mm mientras el otro es de 8mm.(Diámetro externo 14, Largo 25).-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1x Acople rígido 5 a 5 mm-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
@@ -12614,7 +12810,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-578324124-acople-de-5-mm-a-5-mm-maquinas-cnc-impresoras-3d-actuador-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-578324124-acople-de-5-mm-a-5-mm-maquinas-cnc-impresoras-3d-actuador-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12638,7 +12834,11 @@
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.CARACTERÍSTICAS:El acoplador del eje se utiliza a menudo para conectar servomotores, motor paso a paso, codificador, conducción por tornillo, plataforma de la máquina, etcEl acoplador del eje del motor proporciona un agarre extremadamente apretado sin marcar el eje.Compatible para NEMA 17 motores paso a paso (para diámetro del eje de 5mm).Se adapta a impresoras 3D reprap o pequeñas máquinas CNC.ESPECIFICACIONES:Material: acero inoxidableColor: plataTornillos prisioneros bristolEje: 5mm x 5mmDimensión: 25mm largo x 18mm diámetro Contenido de la oferta1x Acople flexible con tornillos prisioneros 5mm a 5 mmPCompras realizadas antes de la 1:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -12654,7 +12854,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-611100953-acelerometro-adxl345-3-ejes-digital-arduino-pic-raspberry-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-611100953-acelerometro-adxl345-3-ejes-digital-arduino-pic-raspberry-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -12678,11 +12878,7 @@
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>En Moviltronics S.A.S.ayudamos a que tus proyectos de electrónica y robótica se hagan realidad,sumi</t>
-        </is>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -12698,7 +12894,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1017676964-6-unidades-protoboard-170-puntos-colores-arduino-breadboard-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1017676964-6-unidades-protoboard-170-puntos-colores-arduino-breadboard-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -12724,7 +12920,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Mini Protoboard Arduino de 170 Puntos Color Blanco con 10 filas y 17 columnas de inserción. Lleva pestañas para juntarlas con otras placas. La base es adhesiva y permite pegarse para un trabajo más delicado.-----------------------------------------------------------------------------------------------------------------------Especificaciones :Color: negro/verde/rojo/blanco/azul Color al azarMaterial plástico: ABSPeso: 14 G/0,5 oz-----------------------------------------------------------------------------------------------------------------------Contenido de la compra6x Protoboard 170 puntos color al azar---------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -12742,7 +12938,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644879728-6-unidades-potenciometro-rotativo-lineal-1k-sencillo-3-pin-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644879728-6-unidades-potenciometro-rotativo-lineal-1k-sencillo-3-pin-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12772,7 +12968,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Potenciómetro de perilla sencillo. Este potenciómetro o resistencia variable te permite sustituir uno ya dañado o bien hacer proyectos electrónicos y/o eléctricos. Los potenciómetros limitan el paso de la corriente eléctrica provocando una caída de tensión en ellos al igual que en una resistencia, pero en este caso el valor de la corriente y la tensión en el potenciómetro las podemos variar solo con cambiar el valor de su resistencia.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Tipo: CarbónNúmero de pines: 3Dimensiones de la base: Diámetro: 1.6 cm x Largo: 0.7 cmDimensiones del vástago: Diámetro: 0.6 cm x Largo: 1.4 cmCurva resistencia: lineal-----------------------------------------------------------------------------------------------------------------------Contenido de la compra 6x Potenciometro Lineal Rotativo 1K-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -12790,7 +12986,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644880128-6-unidades-potenciometro-rotativo-lineal-100k-sencillo-3pin-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644880128-6-unidades-potenciometro-rotativo-lineal-100k-sencillo-3pin-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -12820,7 +13016,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Potenciómetro de perilla sencillo. Este potenciómetro o resistencia variable te permite sustituir uno ya dañado o bien hacer proyectos electrónicos y/o eléctricos. Los potenciómetros limitan el paso de la corriente eléctrica provocando una caída de tensión en ellos al igual que en una resistencia, pero en este caso el valor de la corriente y la tensión en el potenciómetro las podemos variar solo con cambiar el valor de su resistencia.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Tipo: CarbónNúmero de pines: 3Dimensiones de la base: Diámetro: 1.6 cm x Largo: 0.7 cmDimensiones del vástago: Diámetro: 0.6 cm x Largo: 1.4 cmCurva resistencia: lineal-----------------------------------------------------------------------------------------------------------------------Contenido de la compra 6x Potenciometro Lineal Rotativo 100K-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
@@ -12838,7 +13034,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636931695-5x-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636931695-5x-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -12866,7 +13062,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_619260-MCO46427938531_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Fototransistor 3 pines MYS838 o TSOP17El fototransistor no es muy diferente a un transistor normal, es decir, está compuesto por el mismo material semiconductor, tienen dos junturas y las mismas tres conexiones externas: colector, base y emisor. Por supuesto, siendo un elemento sensible a la luz, la primera diferencia evidente es en su cápsula, que posee una ventana o es totalmente transparente, para dejar que la luz ingrese hasta las junturas de la pastilla semiconductora y produzca el efecto fotoeléctrico.De izquierda a derecha en la foto: Salida, GND, VCC-----------------------------------------------------------------------------------------------------------------------DescripciónUn receptor miniaturizado para control remoto por infrarrojos y transmisión de datos IR.El diodo PIN y el preamplificador se montan en el cuadro principal.El paquete de epoxi está diseñado como filtro IR.La señal de salida demodulada puede decodificarse directamente mediante un microprocesador.El principal beneficio es la operación con altas velocidades de datos y largas distancias.CaracterísticasFotodetector y preamplificador en un solo paqueteFiltro de banda interno para frecuencia PCMBlindaje interno contra la perturbación del campo eléctricoCompatibilidad TTL y CMOSSalida activa bajaPaquete de tamaño pequeño-----------------------------------------------------------------------------------------------------------------------Características especialesTensión de alimentación 3-5.5 VTiempo de establecimiento corto después del encendidoSe puede recibir un ciclo de trabajo de sobres elevadoInmunidad mejorada contra la perturbación de las lámparas de ahorro de energíaB.P.F Frecuencia central 38khzEmisión de Onda de Pico de 940nmAplicaciónInstrumentos AV como audio, TV, VCR, CD, DVD, MD, etc.Electrodomésticos como aire acondicionado, ventilador, etc.Los otros equipos con control remoto inalámbrico.CATV set top box.Equipo multimedia.Sensores y sistemas de barrera de luz para largas distancias.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra5x Fototransistor IR MYS838-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
@@ -12882,7 +13082,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828109198-50-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828109198-50-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -12912,7 +13112,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Para usar con tus diseños de placas electrónicas PCB.Bloque de terminales o conector de tornillo, de tipo modular Macho y Hembra, con soporte de hasta 10A con 300 Volts. Posee un tamaño mediano, además de una separación entre pines de aproximadamente 5 mm (0.2 pulgadas).-----------------------------------------------------------------------------------------------------------------------Bloque de terminales o conector de tornillo, de tipo modular Macho y Hembra, con soporte de hasta 10A con 300 Volts. Posee un tamaño mediano, además de una separación entre pines de aproximadamente 5 mm (0.2 pulgadas).Precio corresponde a 1 Unidad (1 Macho PCB y 1 Hembra Volante)Características:•    Módulo de fácil instalación e implementación. Simplifica conexión de cables•    Sujeción del cable mediante tornillo•    Calibres de Cables Soportado: 12 a 24 AWG•    Separación entre Pines: 0.2' (5 mm aprox)•    Dimensiones: largo 21.8mm, ancho 20.7 mm, alto 15.5 mm (sin pines macho)•    Capacidad de Operación: 10 A 300 VA•    Tensión de Aislación: 1500 V (Máximo 1 minuto)•    Color: Verde-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:50x Bornera 2EDG 5.08 4P macho50x Bornera 2EDG 5.08 4P hembra-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J284" t="inlineStr"/>
@@ -12930,7 +13130,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-893382869-50-unidades-condensador-poliester-683-68nf-100-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-893382869-50-unidades-condensador-poliester-683-68nf-100-voltios-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -12954,7 +13154,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_944867-MCO49939480795_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 68nF, Mini condensador de poliéster, 68nF, 100V, condensador de poliéster, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador de poliéster no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material poliéster actúa como dieléctrico. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: PoliésterVoltaje nominal: 100VCapacidad nominal: condensador de disco cerámico de 69nF 100vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra50x Condensador Poliéster 68nf 100 Voltios-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
@@ -12970,7 +13174,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883690086-50-unidades-condensador-poliester-47nf-100v-capacitor-473-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883690086-50-unidades-condensador-poliester-47nf-100v-capacitor-473-_JM#position=12&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12986,7 +13190,11 @@
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 47nF, Mini condensador de poliester, 47nF, 100V, condensador de poliéster, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador de poliéster no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material poliéster actúa como dieléctrico. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Poliester;Voltaje nominal: 100VCapacidad nominal: condensador de disco cerámico de 47nF 100vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra50x Condensador Poliéster 47nf x 100V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -13002,7 +13210,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883929299-50-unidades-condensador-poliester-22nf-250v-capacitor-222-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883929299-50-unidades-condensador-poliester-22nf-250v-capacitor-222-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -13024,7 +13232,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 2,2nF, Mini condensador de poliéster, 2,2nF, 250V, condensador de poliéster, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador de poliéster no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material poliéster actúa como dieléctrico. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Poliéster;Voltaje nominal: 250VCapacidad nominal: condensador de disco cerámico de 2,2nF 250vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra50x Condensador Poliéster 2,2nf x 250V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J287" t="inlineStr"/>
@@ -13042,7 +13250,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880756384-50-unidades-condensador-electrolitico-22uf-63v-capacitor-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880756384-50-unidades-condensador-electrolitico-22uf-63v-capacitor-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -13062,7 +13270,11 @@
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador Electrolitico 2.2uF x 50V, es un tipo de capacitor radial que usa liquido ionico conductor como una de sus placas. Típicamente con más capacidad por unidad de volumen que otros tipos de condensadores, son valiosos en circuitos eléctricos con alta corriente y baja frecuencia.Este es especialmente el caso en los filtros de alimentadores de corriente, donde se usan para almacenar la carga, y moderar la tensión eléctrica de salida y las fluctuaciones de corriente en la salida rectificada. Estos condensadores en micro faradios también son muy usados en los circuitos que deben conducir corriente continua (DC) pero no corriente alterna (AC)Los condensadores electrolíticos pueden tener mucha capacitancia, permitiendo la construcción de filtros de muy baja frecuencia.La unidad de medida de este tipo de condensadores se da en microfaradios-----------------------------------------------------------------------------------------------------------------------Especificaciones:Capacitancia: 2.2 uFVoltaje: 50VTemperatura: 85 Grados centígrados-----------------------------------------------------------------------------------------------------------------------Contenido de la compra50x Condensador Electrolítico 2.2uF x 63V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
@@ -13078,7 +13290,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-893335930-50-unidades-bobina-inductor-06-mh-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-893335930-50-unidades-bobina-inductor-06-mh-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -13102,11 +13314,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_913784-MCO49939442603_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
@@ -13122,7 +13330,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-650547280-50-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-650547280-50-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13146,7 +13354,11 @@
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.Las hojas de transferencia térmica, son el complemento ideal para el hobbista y diseñador de circuitos impresos que necesiten fabricar sus prototipos con acabado profesional y sin las complicaciones que traen otros métodos como fotográficos, serigráficos, marcadores indelebles, etc. Se adjunta manual de instrucciones.El papel transfer, es un papel tratado químicamente para permitir la mayor adherencia del tóner sobre la placa de PCB. Permitiendo hacer una transferencia de su diseño a la placa virgen en solo 2 minutos, usando una impresora Láser o una fotocopiadora para imprimir el diseño sobre la hoja, y una plancha hogareña para transferirlo a la plaqueta, dejándola lista para continuar con el proceso tradicional de ácido, perforación, etc.Contenido de la oferta50x Hoja de papel termo transferible tamaño cartaCompras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
@@ -13162,7 +13374,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307293-5-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307293-5-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -13206,7 +13418,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644852760-5-unidades-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644852760-5-unidades-porta-pila-aa-x2-cable-holder-baterias-aa-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -13234,7 +13446,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_645364-MCO46688964613_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I292" t="inlineStr"/>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Portapila de batería tipo AA x 2 unidades con un cable de 140 mm de longitud.Puede usar pilas alcalinas o recargables de tamaño AA.-----------------------------------------------------------------------------------------------------------------------Características:Dimensiones 58 mm x 32 mm x 15 mmPeso GW 9gTipo de batería AAMaterial plásticoTiene perforaciones para atornillarlo a un chasis ó a una placaLargo de cable: 14 cm-----------------------------------------------------------------------------------------------------------------------Contenido de la compra5x Porta pila AA x2-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
@@ -13250,7 +13466,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624320630-5-unidades-micro-switch-balancin-6a-110v-2-posiciones-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624320630-5-unidades-micro-switch-balancin-6a-110v-2-posiciones-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13270,7 +13486,11 @@
       </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Interruptor balancín de dos posiciones (on/off). Características:6A/250V2 pines 2 posicionesNo iluminadoDimensiones: 10 x 15 x 10 mmFabricado en plástico con pines metálicos-----------------------------------------------------------------------------------------------------------------------Contenido de la compra5x Switch Balancin mini-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
@@ -13286,7 +13506,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624335735-5-unidades-dip-switch-jumper-8-pocisiones-16-pines-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624335735-5-unidades-dip-switch-jumper-8-pocisiones-16-pines-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -13314,7 +13534,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_749682-MCO46041539490_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr"/>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Nombre del producto: Interruptor DIP Tipo: Tipo deslizante Características: 8 posiciones (2 filas de 8 pines)Paso: 2,54 mm / 0,1 " Clasificación sin conmutación: 100mA DC 50V Clasificación de conmutación: 25mA DC 24VResistencia de contacto: 50mÎ 24VDC / 100mA (al inicio); 100mÎ típico, 24VDC / 100mA (después de la prueba de vida): 100mÎ típico, 24VDC / 100mA (después de la prueba de vida) Material principal: plástico, metal; color: azul, tono dorado, blanco, negro-----------------------------------------------------------------------------------------------------------------------Conenido de la compra5x Dip Switch 8 pos 16 pines-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
@@ -13330,7 +13554,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624332048-5-unidades-dip-switch-jumper-4-pocisiones-8-pines-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624332048-5-unidades-dip-switch-jumper-4-pocisiones-8-pines-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -13358,7 +13582,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_799934-MCO46578735174_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Nombre del producto: Interruptor DIP Tipo: Tipo deslizante Características: 4 posiciones (2 filas de 8 pines)Paso: 2,54 mm / 0,1 " Clasificación sin conmutación: 100mA DC 50V Clasificación de conmutación: 25mA DC 24VResistencia de contacto: 50mÎ 24VDC / 100mA (al inicio); 100mÎ típico, 24VDC / 100mA (después de la prueba de vida): 100mÎ típico, 24VDC / 100mA (después de la prueba de vida) Cada tamaño: 12 x 10 x 11 mm / 0.47 "x 0.4 "x 0,43" (largo x ancho x alto)Material principal: plástico, metal; color: azul, tono dorado, blanco, negroPeso neto: 14 g-----------------------------------------------------------------------------------------------------------------------Conenido de la compra5x Dip Switch 4 pos 8 pines (rojo)-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
@@ -13374,7 +13602,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-624323577-5-unidades-dip-switch-2-posiciones-azul-jumper-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-624323577-5-unidades-dip-switch-2-posiciones-azul-jumper-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -13402,7 +13630,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_642636-MCO46040720734_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Tipo: DIP Switch JumperPosiciones: 2Color: Azul-----------------------------------------------------------------------------------------------------------------------Contenido de la compra5x DIP Switch 2 Posiciones-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
@@ -13418,7 +13650,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827307714-5-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827307714-5-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -13444,7 +13676,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Placa de circuito impreso universal baquelita MW205 distancia entre agujeros 2.54 mmIdeal para proyectos de electrónica, prototipos, pruebas. Resiente, fácil de soldar -----------------------------------------------------------------------------------------------------------------------Características:Material: baquelitaPistas: Cobre con recubrimiento estañoDimensiones: 15.5x12.5 cmEspesor: 2mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta5x Placa de circuito impreso baquelita universal MW205-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J297" t="inlineStr"/>
@@ -13462,7 +13694,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640010754-4x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640010754-4x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -13492,7 +13724,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Micro motor DC de 3V ideal para usar en proyetos de robotica, modelismo, RC, hobbismo, juguetes, DIY. Poyectos educativos y escolares. Pequeño y potente de bajo consumo de energia lo que permite su uso con baterias. Fabricacion robusta y de alta calidad.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje nominal: 3VCorriente en reposo: 45 mARevoluciones promedio: 12100 rpmCorriente sin carga: 160 mARevoluciones con carga: 9400 rpmPar: 0.2 mN x mPar maximo: 0.9 mN x mCorriente con carga: 540 mA-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:4x Micromotor DC FF-N20 3V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J298" t="inlineStr"/>
@@ -13510,7 +13742,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-868683437-4-unidades-bateria-celda-21700-36v-5000mah-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-868683437-4-unidades-bateria-celda-21700-36v-5000mah-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13540,7 +13772,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En MOVILTRONICS ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Batería tipo celda cilíndrica de iones de litio 21700 3.6V 5000mah nuevo diseño con un 20% mas de capacidad que las 18650Ideal para la fabricación de bancos de baterías para vehículos eléctricos, sistemas solares, UPS, sistemas de alarmas, sistemas de iluminación de emergencia etc…Para bancos de baterías debe usar controlador BMS Características Batería 21700 3.6V 5000mahMarca: MoviltronicsModelo: N21700CGCapacidad: 5000 mAhVoltaje nominal 3.6V – 3.7VVoltaje de terminación del ciclo de carga 4.20V ± 0.05VCorriente de descarga máxima: 10.2ANo descargue a menos de 2,5 VQuímica: Li-ionDiámetro: 21 mmAltura: 70 mmPeso: 69gLa Batería Celda 21700 3.6V es un nuevo estándar usado por fabricantes como Tesla y Samsung.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:4x Celda 21700 3.6V 5000 mah-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J299" t="inlineStr"/>
@@ -13558,7 +13790,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-640008311-2x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-640008311-2x-unidades-micro-motor-dc-ff-n20-15-3-vdc-15mm-robotica-rc-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -13586,7 +13818,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_670745-MCO46529108358_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I300" t="inlineStr"/>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Micro motor DC de 3V ideal para usar en proyetos de robotica, modelismo, RC, hobbismo, juguetes, DIY. Poyectos educativos y escolares. Pequeño y potente de bajo consumo de energia lo que permite su uso con baterias. Fabricacion robusta y de alta calidad.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje nominal: 3VCorriente en reposo: 45 mARevoluciones promedio: 12100 rpmCorriente sin carga: 160 mARevoluciones con carga: 9400 rpmPar: 0.2 mN x mPar maximo: 0.9 mN x mCorriente con carga: 540 mA-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:2x Micromotor DC FF-N20 3V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
@@ -13602,7 +13838,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-885887984-20-unidades-protoboard-mini-170-puntos-colores-breadboard-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-885887984-20-unidades-protoboard-mini-170-puntos-colores-breadboard-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13630,7 +13866,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_830491-MCO46093810358_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Mini Protoboard Arduino de 170 Puntos Color Blanco con 10 filas y 17 columnas de inserción. Lleva pestañas para juntarlas con otras placas. La base es adhesiva y permite pegarse para un trabajo más delicado.-----------------------------------------------------------------------------------------------------------------------Especificaciones :Color: negro/verde/rojo/blanco/azul Color al azarMaterial plástico: ABSPeso: 14 G/0,5 oz-----------------------------------------------------------------------------------------------------------------------Contenido de la compra20x Protoboard 170 puntos color al azar-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -13646,7 +13886,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-886809502-20-unidades-modulo-led-cob-12-voltios-2-watts-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-886809502-20-unidades-modulo-led-cob-12-voltios-2-watts-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -13668,7 +13908,7 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Modulo 6 LED 12V 2W Verde extra brillo y cálido consumo, brindan una excelente iluminación y su se emplea en cajas de luz, carteles, publicidad y cualquier aplicación que requiera luz. Ideal para colocar con facilidad, evitando sombras de luz, Cada Cadena integra un modulo de 6 led que crea una luz muy uniforme con una gran versatilidad y facilidad para su colocación. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Voltaje de alimentación: 12 VPotencia: 2WProtección IP: 67Color: VerdeTiempo Vida Util: 50.000 HorasLuminosidad: 190LMDimensiones: 20 mm x 70 mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta20x Modulo LED x 6 COB ABS 12V 2W -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J302" t="inlineStr"/>
@@ -13686,7 +13926,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884621278-20-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884621278-20-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -13712,7 +13952,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este potente (ejecución de instrucción de 200 nanosegundos) pero fácil de programar (solo 35 instrucciones de una sola palabra) El microcontrolador CMOS de 8 bits basado en Flash empaqueta la potente arquitectura PIC® de Microchip en un paquete de 18 pines y es compatible con las PIC16C5X y PIC12FXXX dispositivos. El PIC16F716 presenta 4 canales de convertidor analógico a digital (A / D) de 8 bits con 2 temporizadores adicionales y una función mejorada de captura / comparación / PWM que lo hace ideal para aplicaciones A / D de nivel más avanzado en automoción, industrial, electrodomésticos y aplicaciones de consumo.-----------------------------------------------------------------------------------------------------------------------Tipo de memoria de programa FlashTamaño de la memoria del programa (KB) 3.5Velocidad de CPU (MIPS / DMIPS) 5 5SRAM (KB) 128Capturar / Comparar / Periféricos PWM 1 ECCP,Temporizadores 2 x 8 bits, 1 x 16 bitsEntrada ADC 4 canales, 8 bitsRango de temperatura (° C) -40 a 125Rango de voltaje de funcionamiento (V) 2 a 5.5-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta20x Microcontrolador PIC16F716-I/P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J303" t="inlineStr"/>
@@ -13730,7 +13970,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884056014-20-unidades-condensador-poliester-1-uf-400v-capacitor-105-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884056014-20-unidades-condensador-poliester-1-uf-400v-capacitor-105-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -13758,7 +13998,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_740448-MCO49715343855_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr"/>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 1 uF, condensador de poliéster 1 uF, 100V, condensador de poliéster, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador de poliéster no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material poliéster actúa como dieléctrico. -----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Poliester;Voltaje nominal: 400VCapacidad nominal: condensador de disco cerámico de 1 uF 400VEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra20x Condensador Poliéster 1 uf x 400V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
@@ -13774,7 +14018,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880788760-20-unidades-condensador-electrolitico-2200uf-35v-capacitor-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880788760-20-unidades-condensador-electrolitico-2200uf-35v-capacitor-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -13802,11 +14046,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_801816-MCO49636259190_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
@@ -13822,7 +14062,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-873287311-2-unidades-set-llantas-proyectos-dye-ruedas-de-goma-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-873287311-2-unidades-set-llantas-proyectos-dye-ruedas-de-goma-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -13846,7 +14086,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_914667-MCO49435783886_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Kit de llantas para proyectos robótica, estas practicas y útiles llantas son adecuadas para incluir en la construcción de tus vehículos ya sea desde carrito de cuerda hasta un robot seguidor de línea a radio controlado, estas llantas son la solución mas sencilla y fácil de usar y acoplar a motores, motorreductores o ejes comunes. No te compliques haciendo o fabricando tus propias llantas para tu proyecto, con este producto tiene la solución perfecta con la variedad de medidas que tu necesitas.-----------------------------------------------------------------------------------------------------------------------Llanta No. 1 Radio del rin: 15 mmMateria del rin: Plástico inyectadoRadio con neumático: 23 mmMaterial del neumático: Goma alto agarreAncho: 13 mmDiámetro orificio del eje: 1.5 mmPeso: 2.53 grLlanta No. 2 Radio del rin: 26 mmMateria del rin: Plástico inyectadoRadio con neumático: 40 mmMaterial del neumático: Goma alto agarreAncho: 18 mmDiámetro orificio del eje: 2.5 mmPeso: 10.90 grLlanta N0. 3 Radio del rin: 34 mmMateria del rin: Plástico inyectadoRadio con neumático: 47 mmMaterial del neumático: Goma alto agarreAncho: 18 mmDiámetro orificio del eje: 2.5 mmPeso: 11.40 grLlanta No. 4 Radio del rin: 49 mmMateria del rin: Plástico inyectadoRadio con neumático: 62 mmMaterial del neumático: Goma alto agarreAncho: 18 mmEje:Orificio redondo del eje 2.5 mm (para eje o motor DC).Tipo D: de 3 mm (Para motorreductor).Peso: 11.40 grLlanta No. 5 Radio del rin: 69 mmMateria del rin: Plástico inyectadoRadio con neumático: 84 mmMaterial del neumático: Goma alto agarreAncho: 18 mmEje:Orificio redondo del eje 2.5 mm (para eje o motor DC).Tipo D: de 3 mm (Para motorreductor).Peso: 38.90 gr-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta2x Llanta No. 1:  Radio con neumático: 23 mm – Peso: 2.53 gr2x Llanta No. 2:  Radio con neumático: 40 mm – Peso: 10.90 gr2x Llanta N0. 3:  Radio con neumático: 47 mm – Peso: 11.40 gr2x Llanta No. 4:  Radio con neumático: 62 mm – Peso: 11.40 gr2x Llanta No. 5:  Radio con neumático: 84 mm – Peso: 38.90 gr-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
@@ -13862,7 +14106,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-656218673-2-unidades-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-656218673-2-unidades-rodamiento-l-1680hh-mecanismos-cnc-impresora-3d-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -13886,11 +14130,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_752110-MCO47101860888_082021-R.jpg</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -13906,7 +14146,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877887960-2-unidades-llanta-de-lujo-65mm-con-acoples-ruedas-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877887960-2-unidades-llanta-de-lujo-65mm-con-acoples-ruedas-rc-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -13934,7 +14174,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_601406-MCO49567096234_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I308" t="inlineStr"/>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Llanta de Lujo 65mm con acople 2 unidades de 65mm x 27 mm con eje y prisionero, están especialmente diseñadas para encajar en motores DC o motorreductores cuyo eje sea de 3.8 mm o inferior.Buje en Bronce para acoplar a llanta de Lujo, especialmente diseñado para realizar el empalme entre las ruedas con Rin de Lujo y Motores con eje de 3.8 mm o inferior(Ajustable por medio del tornillo prisionero)-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESDiámetro del rin: 60 mmDiámetro con neumático: 65 mmAncho de la goma: 39 mmDiámetro del orificio del eje: 6 mm máximo ajustableSi el diámetro del eje del motor es inferior a 6 mm se puede ajustar por medio del tornillo prisioneroOfrece un buen agarre gracias al diseño que reviste la parte externa de la llanta.Ampliamente utilizada para coches de carrera RC, Proyectos y Prototipos de Robotica escolar y profesional.Acople Buje en Bronce para llanta de LujoMaterial: BronceDiámetro del Eje: 6 mm (Ajustable por medio de tornillo prisionero)Incluye 2 Tornillos, ajuste a la llanta y al eje.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta2x Llanta de lujo de color Azul2x Acople de bronce con tornillo-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -13950,7 +14194,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-873299778-2-unidades-llanta-78mm-rover-4wd-proyectos-dye-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-873299778-2-unidades-llanta-78mm-rover-4wd-proyectos-dye-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -13976,7 +14220,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Llanta 78mm Múltiple conector, cubierta de goma que puedes acoplar a gran variedad de cajas reductoras, servomotores entre otros. Puede usarse en robot tipo rover 4×2 o 4×4, robot mini sumo, proyectos de robótica variados con motores controlados por módulos de potencia y placas Arduino.-----------------------------------------------------------------------------------------------------------------------Características Llanta 78mm Múltiple conector:Diámetro sin neumático: 50mmDiámetro con neumático: 78 mmAncho de la llanta: 17 mmConexión del eje por ambos costadosCompatible con múltiples tipos de ejesCompatible con los siguiente motoresCaja reductora amarillaServomotores de mas de 3 KgsNeumático de caucho adherenteRin de plástico duroPeso: 54.24 grs-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta2x Llantas 78mm 2x Set de acoples y tornillos-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J309" t="inlineStr"/>
@@ -13994,7 +14238,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-872929456-2-unidades-llanta-66mm-compatible-con-lego-ejes-tipo-d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-872929456-2-unidades-llanta-66mm-compatible-con-lego-ejes-tipo-d-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14024,7 +14268,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Llanta 66mm Compatible con Lego de goma que puedes acoplar a gran variedad de cajas reductoras, y motorreductores de eje de media caña o tipo D, Compatible con las piezas de lego de excelente adherencia y con dos tipos de acoples a motores intercambiables. Puede usarse para crear robots, carros, prototipos con piezas de Lego o simplemente con las plataformas Tamiya.-----------------------------------------------------------------------------------------------------------------------ESPECIFICACIONESDiámetro del rin: 52mmDiámetro con neumático: 66 mmAncho con neumático: 14 mmPeso: 18.14 grDos acoples plásticos para ejes:Caja reductora amarillaMotorreductores de eje tipo D (N20, N30, 12GA, 16GA, 25GA)Material: plástico ABS y goma.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta2x Llantas 66mm compatible Lego-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.DESPUÉS DE LAS 3:00 PM, ENTREGA AL DÍA SIGUIENTE HÁBIL.Para compras personales o recogidas, estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J310" t="inlineStr"/>
@@ -14042,7 +14286,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-874462659-2-unidades-acople-rigido-aluminio-5mm-a-5mm-d14-l25-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=0012d87f-fcf7-4d3c-9edb-596d52f31599</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-874462659-2-unidades-acople-rigido-aluminio-5mm-a-5mm-d14-l25-_JM#position=8&amp;search_layout=stack&amp;type=item&amp;tracking_id=4313e50a-b957-4de4-940e-c549fc50ba30</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14070,7 +14314,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_726754-MCO46693112654_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Acople de construido en una sola pieza de aluminio lo cual le otorga una gran rigidez lo cual le permite transmitir mucho mejor el movimiento, uno de los diámetros internos es de 5mm mientras el otro es de 8mm.(Diámetro externo 14, Largo 25).-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:2x Acople rígido 5 a 5 mm-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
@@ -14086,7 +14334,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550906169-1sheeld-bluetooth-smartphone-compatibel-arduino-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550906169-1sheeld-bluetooth-smartphone-compatibel-arduino-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -14114,11 +14362,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_942937-MLA49322894336_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -14134,7 +14378,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-889292543-15-unidades-modulo-bms-baterias-litio-18650-1s-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-889292543-15-unidades-modulo-bms-baterias-litio-18650-1s-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -14178,7 +14422,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-645964432-12-unidades-pulsador-switch-6x6x9mm-horizontal-base-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-645964432-12-unidades-pulsador-switch-6x6x9mm-horizontal-base-_JM#position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -14202,7 +14446,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_677200-MCO46722594116_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr"/>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador horizontal con base 6x6x9mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Pulsador Micro Switch 6x6x9 mm Lateral con base-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -14218,7 +14466,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644895228-12-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644895228-12-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -14248,7 +14496,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador horizontal con base 6x6x7mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Pulsador Micro Switch 6x6x7 mm Lateral con base-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J315" t="inlineStr"/>
@@ -14266,7 +14514,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644884568-12-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644884568-12-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -14296,7 +14544,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador horizontal con base 6x6x15mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Pulsador Micro Switch 6x6x15 mm Lateral con base-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J316" t="inlineStr"/>
@@ -14314,7 +14562,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811197182-12-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811197182-12-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -14342,11 +14590,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_618340-MCO46783435812_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -14362,7 +14606,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647486623-12-unidades-pulsador-switch-6x6x11mm-4-pines-vertical-dip-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647486623-12-unidades-pulsador-switch-6x6x11mm-4-pines-vertical-dip-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -14392,7 +14636,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador vertical 4 pines 6x6x11mm dela para montaje en PCB DIPVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Pulsador Micro Switch 6x6x11 mm vertical 4 pines-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J318" t="inlineStr"/>
@@ -14410,7 +14654,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811184636-12-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811184636-12-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -14438,11 +14682,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_928344-MCO47585163173_092021-R.jpg</t>
         </is>
       </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
@@ -14458,7 +14698,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811171633-12-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811171633-12-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -14488,7 +14728,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador 4 pin 6x6x7mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centígrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Switch pulsador 4 pin 6x6x7mm dela para montaje en PCB-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J320" t="inlineStr"/>
@@ -14506,7 +14746,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-810544492-12-unidades-pulsador-switch-4-pin-6x6x43mm-dip-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-810544492-12-unidades-pulsador-switch-4-pin-6x6x43mm-dip-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -14534,7 +14774,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_709434-MCO47571753046_092021-R.jpg</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador 4 pin 6x6x4.3mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centígrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra12x Switch pulsador 4 pin 6x6x4.3mm dela para montaje en PCB-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
@@ -14550,7 +14794,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-645972219-12-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-dip-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-645972219-12-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-dip-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -14578,7 +14822,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_714500-MCO46722992421_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Función de contacto momentáneo, 4 pines, pulsar el botón cuadrado negro, a través del agujero de montaje.Utilizados en los campos de productos electrónicos, electrodomésticos y mucho más.Diseño de mecanismo de alta precisión ofrece operación aguda y larga vida de servicio.Dimensión: 12x12x4.3mm/4pin-----------------------------------------------------------------------------------------------------------------------Función:Característica contacto momentáneo, 4 pins, pulsar el botón cuadrado negro, a través del agujero de montaje.Utilizados en los campos de productos electrónicos, electrodomésticos y mucho más.Diseño de mecanismo de alta precisión ofrece operación aguda y larga vida de servicio.Especificación:Dimensión: 12x12x4.3mm/4pinTemperatura: -25 a 70CResistir la tensión: AC250VCarga nominal: DC12V 50mAResistencia de contacto: menos de 0,03 OhmResistencia de aislamiento: Más de 100M ohmiosPeso:10g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:12x Unidades pulsador 12x12x4.3mm/4pin-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
@@ -14594,7 +14842,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1190233162-10x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1190233162-10x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -14638,7 +14886,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-1190245491-100x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-1190245491-100x-interruptor-balancin-neon-2-posiciones-switch-110v-20a-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -14662,11 +14910,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_641987-MCO46040042364_052021-R.jpg</t>
         </is>
       </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
@@ -14682,7 +14926,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825721335-1000-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825721335-1000-unidades-micro-switch-pulsador-12x12x43mm-4-pin-pcb-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -14708,7 +14952,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Función de contacto momentáneo, 4 pines, pulsar el botón cuadrado negro, a través del agujero de montaje.Utilizados en los campos de productos electrónicos, electrodomésticos y mucho más.Diseño de mecanismo de alta precisión ofrece operación aguda y larga vida de servicio.Dimensión: 12x12x4.3mm/4pin-----------------------------------------------------------------------------------------------------------------------Función:Característica contacto momentáneo, 4 pins, pulsar el botón cuadrado negro, a través del agujero de montaje.Utilizados en los campos de productos electrónicos, electrodomésticos y mucho más.Diseño de mecanismo de alta precisión ofrece operación aguda y larga vida de servicio.Especificación:Dimensión: 12x12x4.3mm/4pinTemperatura: -25 a 70CResistir la tensión: AC250VCarga nominal: DC12V 50mAResistencia de contacto: menos de 0,03 OhmResistencia de aislamiento: Más de 100M ohmiosPeso:10g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1000x Unidades pulsador 12x12x4.3mm/4pin-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J325" t="inlineStr"/>
@@ -14726,7 +14970,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818749160-1000-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818749160-1000-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -14752,7 +14996,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Los led’s de chorro de 3mm son tal vez los más conocidos dentro de la gama de led’s de alta luminosidad, estos pueden ser usados para aplicaciones básicas como indicar el estado de algo (encendido, apagado), como para aplicaciones algo más complejas por ejemplo una matriz de led’s que pase un mensaje.Una recomendación importante es utilizar siempre la tensión o voltaje adecuados para garantizar el buen funcionamiento y vida útil del led.-----------------------------------------------------------------------------------------------------------------------Led estándar redondo 3mmIntensidad de brillo 4000 – 6000 MCD (Mili Candelas)Voltaje 1,8V – 2,2VCorriente máxima 20mA-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1000x LED Chorro Azul 3mm-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J326" t="inlineStr"/>
@@ -14770,7 +15014,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828096088-1000-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828096088-1000-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -14794,7 +15038,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_770059-MCO48103214711_112021-R.jpg</t>
         </is>
       </c>
-      <c r="I327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Para usar con tus diseños de placas electrónicas PCB.Bloque de terminales o conector con tornillo, de tipo modular, con soporte de hasta 10A con 300V. Posee un tamaño pequeño, además de una separación entre pines de 3.5mm.-----------------------------------------------------------------------------------------------------------------------Bloque de terminales o conector con tornillo, de tipo modular, con soporte de hasta 10A con 300V. Posee un tamaño pequeño, además de una separación entre pines de 3.5mm.Características:•    Modular, se pueden unir entre sí para formar el tamaño requerido•    Sujeción del cable mediante tornillo•    Calibres de Cables Soportado: 24 a 18 AWG•    Separación entre pines: 3.5mm•    Tamaño Pequeño•    Dimensiones: Ver imágenes•    Capacidad de Operación: 10A, 300V-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:1000x Borneras Bloque Modelo KF350 3P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
@@ -14810,7 +15058,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877663059-100-unidades-resistencia-56-k-ohm-14w-1-precision-carbon-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877663059-100-unidades-resistencia-56-k-ohm-14w-1-precision-carbon-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -14834,11 +15082,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_975331-MCO49554868898_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
@@ -14854,7 +15098,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877915008-100-unidades-resistencia-51-k-ohm-14w-1-precision-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877915008-100-unidades-resistencia-51-k-ohm-14w-1-precision-carbon-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -14880,7 +15124,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión, con una resistencia eléctrica de 680K ohm, con una tolerancia del 1% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 680K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 1%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 680K Ohm 1/4W 1%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J329" t="inlineStr"/>
@@ -14898,7 +15142,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876183080-100-unidades-resistencia-51-ohm-14-5-resistor-carbon-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876183080-100-unidades-resistencia-51-ohm-14-5-resistor-carbon-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -14938,7 +15182,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877624309-100-unidades-resistencia-51-m-ohm-14-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877624309-100-unidades-resistencia-51-m-ohm-14-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -14966,7 +15210,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_646712-MCO49554141569_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión, con una resistencia eléctrica de 5,1 M ohm, con una tolerancia del 1% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 5,1 M OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 1%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 5,1 M Ohm 1/4 w 1%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
@@ -14982,7 +15230,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877655073-100-unidades-resistencia-470k-ohm-14-5-resistor-carbon-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877655073-100-unidades-resistencia-470k-ohm-14-5-resistor-carbon-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15002,7 +15250,11 @@
         </is>
       </c>
       <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 470K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 470K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 470K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
@@ -15018,7 +15270,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-878355688-100-unidades-resistencia-47-ohm-12w-5-carbon-film-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-878355688-100-unidades-resistencia-47-ohm-12w-5-carbon-film-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -15048,7 +15300,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón, con una resistencia eléctrica de 47 ohm, con una tolerancia del 5% y una capacidad de disipación de 1/2 de Vatio.CaracterísticasResistencia Eléctrica: 47 OmhPotencia de disipación: 0,5 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 47 Ohm 1/2W 5%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J333" t="inlineStr"/>
@@ -15066,7 +15318,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877668635-100-unidades-resistencia-47-m-ohm-14-5-resistor-carbon-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877668635-100-unidades-resistencia-47-m-ohm-14-5-resistor-carbon-_JM#position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -15106,7 +15358,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876900942-100-unidades-resistencia-330k-ohm-14-5-resistor-carbon-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876900942-100-unidades-resistencia-330k-ohm-14-5-resistor-carbon-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -15134,7 +15386,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_944903-MCO49532652076_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 330K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 330K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 330K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
@@ -15150,7 +15406,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877905005-100-unidades-resistencia-270k-ohm-14w-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877905005-100-unidades-resistencia-270k-ohm-14w-1-precision-carbon-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -15174,11 +15430,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_721521-MCO49554597982_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
@@ -15194,7 +15446,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876812074-100-unidades-resistencia-240k-ohm-14-5-resistor-carbon-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876812074-100-unidades-resistencia-240k-ohm-14-5-resistor-carbon-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -15214,7 +15466,11 @@
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 240K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 240K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 240K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
@@ -15230,7 +15486,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876741529-100-unidades-resistencia-22k-ohm-14-5-resistor-carbon-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876741529-100-unidades-resistencia-22k-ohm-14-5-resistor-carbon-_JM#position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -15258,7 +15514,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_622469-MCO49531639716_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 22k ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 22K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 22K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
@@ -15274,7 +15534,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876918217-100-unidades-resistencia-27k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876918217-100-unidades-resistencia-27k-ohm-14-5-resistor-carbon-_JM#position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -15302,7 +15562,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_941874-MCO49531586175_032022-R.jpg</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 2.7K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 2.7K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 2.7K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -15318,7 +15582,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877662652-100-unidades-resistencia-24-k-ohm-14w-1-precision-carbon-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877662652-100-unidades-resistencia-24-k-ohm-14w-1-precision-carbon-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -15358,7 +15622,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876741679-100-unidades-resistencia-150k-ohm-14-5-resistor-carbon-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876741679-100-unidades-resistencia-150k-ohm-14-5-resistor-carbon-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -15380,7 +15644,7 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 150K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 150K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 150K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J341" t="inlineStr"/>
@@ -15398,7 +15662,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877902336-100-unidades-resistencia-150h-ohm-14w-1-precision-carbon-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877902336-100-unidades-resistencia-150h-ohm-14w-1-precision-carbon-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -15422,7 +15686,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_721521-MCO49554597982_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión, con una resistencia eléctrica de 150H ohm, con una tolerancia del 1% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 150H OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 1%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 150H Ohm 1/4W 1%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -15438,7 +15706,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876106804-100-unidades-resistencia-120k-ohm-14-1-resistor-carbon-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876106804-100-unidades-resistencia-120k-ohm-14-1-resistor-carbon-_JM#position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -15482,7 +15750,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880768985-100-unidades-resistencia-120-ohm-1w-1-precision-carbon-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880768985-100-unidades-resistencia-120-ohm-1w-1-precision-carbon-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -15512,7 +15780,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión, con una resistencia eléctrica de 270K ohm, con una tolerancia del 1% y una capacidad de disipación de 1 Vatio.CaracterísticasResistencia Eléctrica: 120 OmhPotencia de disipación: 1 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 1%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 120 Ohm 1W 1%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J344" t="inlineStr"/>
@@ -15530,7 +15798,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876106928-100-unidades-resistencia-18k-ohm-14-5-resistor-carbon-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876106928-100-unidades-resistencia-18k-ohm-14-5-resistor-carbon-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -15560,7 +15828,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión con una resistencia eléctrica de 1.8K ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 1.8K OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 15%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 1.8K Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J345" t="inlineStr"/>
@@ -15578,7 +15846,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-880749236-100-unidades-resistencia-18k-ohm-12w-5-carbon-film-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-880749236-100-unidades-resistencia-18k-ohm-12w-5-carbon-film-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -15604,7 +15872,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón, con una resistencia eléctrica de 1.8k ohm, con una tolerancia del 5% y una capacidad de disipación de 1/2 de Vatio.CaracterísticasResistencia Eléctrica: 1.8K OmhPotencia de disipación: 0,5 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 1.8K Ohm 1/2W 5%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J346" t="inlineStr"/>
@@ -15622,7 +15890,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877631287-100-unidades-resistencia-15-m-ohm-14w-1-precision-carbon-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877631287-100-unidades-resistencia-15-m-ohm-14w-1-precision-carbon-_JM#position=9&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -15650,7 +15918,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_701143-MCO49555076203_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón de precisión, con una resistencia eléctrica de 1,5M ohms, con una tolerancia del 1% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 1,5 M OmhsPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 1%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 1,5M Ohms 1/4W 1%-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
@@ -15666,7 +15938,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-877674865-100-unidades-resistencia-15-m-ohm-14-5-resistor-carbon-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-877674865-100-unidades-resistencia-15-m-ohm-14-5-resistor-carbon-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -15688,7 +15960,7 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 1,5 M ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 1,5 M OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 1,5 M Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J348" t="inlineStr"/>
@@ -15706,7 +15978,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-876151083-100-unidades-resistencia-1-ohm-14-5-resistor-carbon-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-876151083-100-unidades-resistencia-1-ohm-14-5-resistor-carbon-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -15732,7 +16004,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Resistencia cerámica de carbón con una resistencia eléctrica de 1 ohm, con una tolerancia del 5% y una capacidad de disipación de ¼ de Vatio.CaracterísticasResistencia Eléctrica: 1 OmhPotencia de disipación: 0,25 vatios.Tecnología de inserción (through hole).Fabricante: Genérico.Disposición: Tipo Axial.Tolerancia: 5%. AplicacionesTelecomunicaciones.Equipo médico.Toda clase de circuitos electrónicos.-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta100x resistencia 1 Ohm 1/4 w-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 M POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J349" t="inlineStr"/>
@@ -15750,7 +16022,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644895337-100-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644895337-100-unidades-pulsador-switch-6x6x7mm-horizontal-base-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -15794,7 +16066,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-644884684-100-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-644884684-100-unidades-pulsador-switch-6x6x15mm-horizontal-base-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -15820,7 +16092,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador horizontal con base 6x6x15mm dela para montaje en PCBPaquete 100 unidadesVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Pulsador Micro Switch 6x6x15 mm Lateral con base-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J351" t="inlineStr"/>
@@ -15838,7 +16110,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811158564-100-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811158564-100-unidades-pulsador-switch-6x6x15mm-4-pines-vertical-dip-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -15862,7 +16134,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_618340-MCO46783435812_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador vertical 4 pines 6x6x15mm dela para montaje en PCB DIPVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Pulsador Micro Switch 6x6x15 mm vertical 4 pines-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -15878,7 +16154,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-647507192-100-unidades-pulsador-switch-6x6x13mm-4-pines-vertical-dip-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-647507192-100-unidades-pulsador-switch-6x6x13mm-4-pines-vertical-dip-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -15902,7 +16178,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_618340-MCO46783435812_072021-R.jpg</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador vertical 4 pines 6x6x13mm dela para montaje en PCB DIPVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centigrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Pulsador Micro Switch 6x6x13 mm vertical 4 pines-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
@@ -15918,7 +16198,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811184655-100-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811184655-100-unidades-pulsador-switch-4-pines-6x6x8mm-dip-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -15942,7 +16222,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_928344-MCO47585163173_092021-R.jpg</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador 4 pin 6x6x8mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centígrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Switch pulsador 4 pin 6x6x8mm dela para montaje en PCB-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -15958,7 +16242,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811171611-100-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811171611-100-unidades-pulsador-switch-4-pines-6x6x7mm-dip-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -15982,11 +16266,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_928344-MCO47585163173_092021-R.jpg</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -16002,7 +16282,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-811164970-100-unidades-pulsador-switch-4-pines-6x6x43mm-dip-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-811164970-100-unidades-pulsador-switch-4-pines-6x6x43mm-dip-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -16030,7 +16310,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_709434-MCO47571753046_092021-R.jpg</t>
         </is>
       </c>
-      <c r="I356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Switch pulsador 4 pin 6x6x4.3mm dela para montaje en PCBVida util: mayor o igual 100,000 cycles.Contact Resistance: menor o igual 50mOhmsInsulationg Resistance: mayor o igual 100MOhmsOperating Force: 130/180/250/320+50/-50gfWithstand Voltage: AC250V 1min Raiting: DC12V 50mA Operating Temperature:-20 - 70 grados centígrados -----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Switch pulsador 4 pin 6x6x4.3mm dela para montaje en PCB-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -16046,7 +16330,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825222142-100-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825222142-100-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -16070,7 +16354,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_726600-MCO48029257229_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------MICA AISLANTE PARA TRANSISTOR TO-3 SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris Uso en componentes con encapsulado TO3 (transistores, reguladores, Triac) diámetro del agujero: 3mm / 0.1" -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:100x Pad Aislante Silicona TO3-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
@@ -16086,7 +16374,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825234761-100-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825234761-100-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -16112,7 +16400,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------PAD AISLANTE PARA TRANSISTOR TO-247SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris cada tamaño: 2,6 x 2 x 0,03 cm / 1" x 0,8" x 0.01 (L x W x T);diámetro del agujero: 3mm / 0.1" entre componentes electrónicos como semiconductores, IC, CPU, MOS y disipador de calor. iluminación Led, TV LCD, dispositivo de telecomunicaciones, Hub inalámbrico, fuente de alimentación, etc. módulos de refrigeración, módulos térmicos, en todas las aplicaciones donde se utiliza una carcasa metálica como disipador térmico. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:100x Pad Aislante Silicona TO247-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J358" t="inlineStr"/>
@@ -16130,7 +16418,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-824671631-100-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-824671631-100-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -16158,7 +16446,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_655493-MCO48009803148_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------MICA AISLANTE PARA TRANSISTOR TO-3P SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris cada tamaño: 1.3 x 1.9 x 0,03 cm / 1" x 0,8" x 0.01 (L x W x T);diámetro del agujero: 3mm / 0.1" entre componentes electrónicos como semiconductores, IC, CPU, MOS y disipador de calor. iluminación Led, TV LCD, dispositivo de telecomunicaciones, Hub inalámbrico, fuente de alimentación, etc. módulos de refrigeración, módulos térmicos, en todas las aplicaciones donde se utiliza una carcasa metálica como disipador térmico. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:100x Pad Aislante Silicona TO220-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
@@ -16174,7 +16466,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818704402-100-unidades-led-5mm-chorro-diodo-electronica-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818704402-100-unidades-led-5mm-chorro-diodo-electronica-arduino-_JM#position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -16218,7 +16510,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-818710125-100-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-818710125-100-unidades-led-3mm-chorro-azul-diodo-led-electronica-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -16246,11 +16538,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_795553-MCO47798002178_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -16266,7 +16554,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883372176-100-unidades-condensador-ceramico-50pf-50v-capacitor-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883372176-100-unidades-condensador-ceramico-50pf-50v-capacitor-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -16290,7 +16578,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_656438-MCO49696995629_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 50pF, Mini condensador de cerámica, 50pF, 50V, condensador de disco de cerámica, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador cerámico no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material cerámico actúa como dieléctrico. Está construido de dos o más capas alternas de cerámica y una capa de metal que actúa como electrodo. La composición del material cerámico define el comportamiento eléctrico y por tanto las aplicaciones.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Cerámica;Voltaje nominal: 50VCapacidad nominal: condensador de disco cerámico de 50pF 50vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.Rango de temperatura de funcionamiento: -55 grados centígrados a +125 grados centígradosEstos condensadores de disco de cerámica: DIP (paquete dual en línea).Número de derivaciones: 2;Paso de plomo: 2,54 mm;Longitud del cable: 25 mm.Tamaño del producto: 23x5 mmPeso: 0,05 g-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Estas características de los condensadores de disco de cerámica: DIP (paquete dual en línea).Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.Los capacitores cerámicos ofrecen alta estabilidad y bajas pérdidas para aplicaciones de circuitos resonantes.Los capacitores cerámicos ofrecen una alta eficiencia volumétrica para las aplicaciones de búfer, derivación y acoplamiento.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Condensador Cerámico 50pf x 50V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -16306,7 +16598,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883789643-100-unidades-condensador-ceramico-47nf-50v-capacitor-473-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883789643-100-unidades-condensador-ceramico-47nf-50v-capacitor-473-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -16332,7 +16624,7 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 47nF, Mini condensador de cerámica, 47nF, 50V, condensador de disco de cerámica, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador cerámico no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material cerámico actúa como dieléctrico. Está construido de dos o más capas alternas de cerámica y una capa de metal que actúa como electrodo. La composición del material cerámico define el comportamiento eléctrico y por tanto las aplicaciones.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Cerámica;Voltaje nominal: 50VCapacidad nominal: condensador de disco cerámico de 47nF 50vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.Rango de temperatura de funcionamiento: -55 grados centígrados a +125 grados centígradosEstos condensadores de disco de cerámica: DIP (paquete dual en línea).Número de derivaciones: 2;Paso de plomo: 2,54 mm;Longitud del cable: 25 mm.Tamaño del producto: 23x5 mmPeso: 0,05 g-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Estas características de los condensadores de disco de cerámica: DIP (paquete dual en línea).Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.Los capacitores cerámicos ofrecen alta estabilidad y bajas pérdidas para aplicaciones de circuitos resonantes.Los capacitores cerámicos ofrecen una alta eficiencia volumétrica para las aplicaciones de búfer, derivación y acoplamiento.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Condensador Cerámico 47nf x 50V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J363" t="inlineStr"/>
@@ -16350,7 +16642,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883727450-100-unidades-condensador-ceramico-200pf-50v-capacitor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883727450-100-unidades-condensador-ceramico-200pf-50v-capacitor-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -16374,7 +16666,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_698674-MCO49708395261_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 200pF, Mini condensador de cerámica, 200pF, 50V, condensador de disco de cerámica, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador cerámico no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material cerámico actúa como dieléctrico. Está construido de dos o más capas alternas de cerámica y una capa de metal que actúa como electrodo. La composición del material cerámico define el comportamiento eléctrico y por tanto las aplicaciones.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Cerámica;Voltaje nominal: 50VCapacidad nominal: condensador de disco cerámico de 200pF 50vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.Rango de temperatura de funcionamiento: -55 grados centígrados a +125 grados centígradosEstos condensadores de disco de cerámica: DIP (paquete dual en línea).Número de derivaciones: 2;Paso de plomo: 2,54 mm;Longitud del cable: 25 mm.Tamaño del producto: 23x5 mmPeso: 0,05 g-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Estas características de los condensadores de disco de cerámica: DIP (paquete dual en línea).Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.Los capacitores cerámicos ofrecen alta estabilidad y bajas pérdidas para aplicaciones de circuitos resonantes.Los capacitores cerámicos ofrecen una alta eficiencia volumétrica para las aplicaciones de búfer, derivación y acoplamiento.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Condensador Cerámico 200pf x 50V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -16390,7 +16686,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883778933-100-unidades-condensador-ceramico-22nf-50v-capacitor-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883778933-100-unidades-condensador-ceramico-22nf-50v-capacitor-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -16426,7 +16722,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881495828-100-unidades-condensador-ceramico-15pf-50v-capacitor-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881495828-100-unidades-condensador-ceramico-15pf-50v-capacitor-_JM#position=10&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -16454,11 +16750,7 @@
           <t>https://http2.mlstatic.com/D_Q_NP_735543-MCO49654569423_042022-R.jpg</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr">
-        <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
-        </is>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -16474,7 +16766,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883310454-100-unidades-condensador-ceramico-150pf-50v-capacitor-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883310454-100-unidades-condensador-ceramico-150pf-50v-capacitor-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -16500,7 +16792,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 150pF, Mini condensador de cerámica, 150pF, 50V, condensador de disco de cerámica, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador cerámico no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material cerámico actúa como dieléctrico. Está construido de dos o más capas alternas de cerámica y una capa de metal que actúa como electrodo. La composición del material cerámico define el comportamiento eléctrico y por tanto las aplicaciones.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Cerámica;Voltaje nominal: 50VCapacidad nominal: condensador de disco cerámico de 150pF 50vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.Rango de temperatura de funcionamiento: -55 grados centígrados a +125 grados centígradosEstos condensadores de disco de cerámica: DIP (paquete dual en línea).Número de derivaciones: 2;Paso de plomo: 2,54 mm;Longitud del cable: 25 mm.Tamaño del producto: 23x5 mmPeso: 0,05 g-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Estas características de los condensadores de disco de cerámica: DIP (paquete dual en línea).Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.Los capacitores cerámicos ofrecen alta estabilidad y bajas pérdidas para aplicaciones de circuitos resonantes.Los capacitores cerámicos ofrecen una alta eficiencia volumétrica para las aplicaciones de búfer, derivación y acoplamiento.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Condensador Cerámico 150pf x 50V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J367" t="inlineStr"/>
@@ -16518,7 +16810,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-881508699-100-unidades-condensador-ceramico-120pf-50v-capacitor-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-881508699-100-unidades-condensador-ceramico-120pf-50v-capacitor-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -16544,7 +16836,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Condensador de 120pF, Mini condensador de cerámica, 120pF, 50V, condensador de disco de cerámica, para orificio pasante no polarizado, para circuitos y piezas eléctricas.El condensador cerámico no tiene polaridad. Es decir, se puede conectar en cualquier dirección. Es compatible con tableros. Para agregar a eso, se puede usar fácilmente en un tablero perforado.Un condensador donde el material cerámico actúa como dieléctrico. Está construido de dos o más capas alternas de cerámica y una capa de metal que actúa como electrodo. La composición del material cerámico define el comportamiento eléctrico y por tanto las aplicaciones.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Material: Cerámica;Voltaje nominal: 50VCapacidad nominal: condensador de disco cerámico de 120pF 50vEstructura: Condensadores fijosCondensador no polarizadoTolerancia: mas o menos 10%.Rango de temperatura de funcionamiento: -55 grados centígrados a +125 grados centígradosEstos condensadores de disco de cerámica: DIP (paquete dual en línea).Número de derivaciones: 2;Paso de plomo: 2,54 mm;Longitud del cable: 25 mm.Tamaño del producto: 23x5 mmPeso: 0,05 g-----------------------------------------------------------------------------------------------------------------------Características:Compatible con placa de pruebasSin ruido piezoeléctricoAlta precisión y estabilidad.Alta capacidad de corriente de ondulaciónDuradero y fácil de instalar.Muy conveniente y práctico.Muy popular entre los amantes de la electrónica.Estas características de los condensadores de disco de cerámica: DIP (paquete dual en línea).Ampliamente utilizado en suministro de energía, equipos de iluminación, electrodomésticos, comunicaciones, equipos de seguridad, electrónica automotriz, nuevos campos de energía y más.Los capacitores cerámicos ofrecen alta estabilidad y bajas pérdidas para aplicaciones de circuitos resonantes.Los capacitores cerámicos ofrecen una alta eficiencia volumétrica para las aplicaciones de búfer, derivación y acoplamiento.-----------------------------------------------------------------------------------------------------------------------Aplicaciones:Proyectos de bricolaje.Proyectos eléctricos y electrónicos.Condensadores de oscilador de cristal.Electrónica de consumo.telecomunicacionesProcesamiento de datos.PC, discos duros, PC de juegos, DVD.Cámaras de video, Teléfonos móviles.Circuitos electrónicos general-----------------------------------------------------------------------------------------------------------------------Contenido de la compra100x Condensador Cerámico 120pf x 50V-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J368" t="inlineStr"/>
@@ -16562,7 +16854,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-883784922-100-unidades-condensador-ceramico-10nf-50v-capacitor-103-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-883784922-100-unidades-condensador-ceramico-10nf-50v-capacitor-103-_JM#position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -16602,7 +16894,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819905676-100-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819905676-100-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -16642,7 +16934,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819522078-100-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819522078-100-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -16668,7 +16960,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Circuito Integrado TTL 74LS74. Flip- flop tipo D con disparo de subida doble, tipo D, positivos, con características de flip-flop disparado con salidas activas bajas, diseñados para la conducción de LEDs de ánodo común o indicadores incandescentes directamente. El circuito  se usa para para la conducción de los buffers de lámparas o LEDs de cátodo común.El flip-flop tipo D, sigue a la entrada, haciendo transiciones que coinciden con las de la entrada. El término D, significa dato; este flip-flop almacena el valor que está en la línea de datos. Se puede considerar como una celda básica de memoria. Un flip-flop D, se puede hacer con un flip-flop "set/reset", uniendo la salida set (estado alto) con la salida reset (estado bajo), a través de un inversor. El resultado se puede sincronizar.-----------------------------------------------------------------------------------------------------------------------Especificaciones6 flip-flops tipo DEntradas de clear y reloj comunesDisparado por flanco de subidaTecnología: TTL Low Schottky (LS)Voltaje de alimentación: 4.75 V a 5.25 VEncapsulado: PDIP 16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:100x CI SN74LS174 -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J371" t="inlineStr"/>
@@ -16686,7 +16978,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819496391-100-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819496391-100-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -16726,7 +17018,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828089581-100-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828089581-100-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -16770,7 +17062,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-875918355-10-unidades-sensor-magnetico-reed-switch-14mm-interruptor-na-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-875918355-10-unidades-sensor-magnetico-reed-switch-14mm-interruptor-na-_JM#position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -16800,7 +17092,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Reed Switch 14mmEste es pequeño dispositivo Reed Switch que tan solo mide 14 mm de largo, es conocido como “Reed Switch” (interruptor de lengüeta). Se caracteriza por ser un Switch magnético, muy parecido a un relé, la diferencia que el campo magnético se aplica directamente al dispositivo y no mediante una bobina.Cuando el dispositivo esta expuesto a un campo magnético, los dos materiales ferrosos que están en el interior del interruptor de se unen, cerrando el interruptor. Cuando se retira, aleja o elimina el campo magnético, los dos materiales ferrosos se separan, abriendo el interruptor. Esto ultimo, se resume en que el interruptor, es normalmente abierto (N.A.)Sus aplicaciones mas utilizadas, son como sensor, para enviar señales digitales (unos y ceros) a un microcontrolador, cuando se detecte o no se detecte un campo magnético, aunque de igual forma se puede utilizar, para habilitar o deshabilitar dispositivos terminales o actuadores como; ampolletas, motores, etc, gracias a que este interruptor soporta hasta 1,2A, esto lo convierte en un gran interruptor sin contacto.El gas de la cápsula por lo general consiste de nitrógeno o algún gas inerte equivalente. Algunos se encuentran al vació para trabajar con tensiones elevadas. Las láminas actúan como conductores del flujo magnético cuando se encuentran expuestas a un campo magnético externo, ya sea un imán permanente o una bobina electromagnética. Se generan polos de polaridad opuesta y la contactos se cierran cuando la fuerza magnética excede la fuerza elástica de las láminas. A medida que se reduce el campo magnético externo se reduce la fuerza magnética hasta que se hace menor a la fuerza elástica de las  láminas momento en el cual se abre el contacto (si el Switch es NO, en caso de ser NC se cierra).Se pueden encontrar Reed Switch doble NO y NC. En este caso sola una lámina presenta movimiento, se encuentra conectado al contacto normalmente cerrada (NC) en ausencia de campo magnético.Cuando un campo magnético de intensidad suficiente actúa sobre el Switch la lámina se desplaza hacia el contacto normalmente abierto (NO).-----------------------------------------------------------------------------------------------------------------------CaracterísticasPotencia de conmutación – máx. 10 W / VAVoltaje de conmutación – máx. V 200/140 (DC / AC)Desglose Voltag – mín. 200  230VCorriente de Swtiching – max.  500/500 mA (DC / AC)Corriente de carga – máx. 500 mA (DC, AC)Resistencia de contacto – max. 150 mOhmsFrecuencia de resonancia – típ. 10800 HzTemperatura de funcionamiento -55  150 oC-----------------------------------------------------------------------------------------------------------------------Contenido de la compra10x Reed Switch 14mm NA-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J374" t="inlineStr"/>
@@ -16818,7 +17110,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-968421131-10-unidades-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-968421131-10-unidades-sensor-hall-41f-sensor-efecto-campo-magnetico-_JM#position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -16838,7 +17130,11 @@
         </is>
       </c>
       <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Sensor hall 41FLa serie 41F es un sensor de efecto Hall digital pequeño y versátil, es un dispositivos que son operados por el campo magnético de un imán permanente o un electroimán, y están diseñados para responder a polos norte y sur alternados. Un regulador incorporado proporciona una mayor estabilidad de operación más de 4,5 VCC a 24 VCC rango de tensión de alimentaciónEs un sensor de efecto Hall 41F con retención de estado. Esto significa que cada vez que un campo magnético este dentro de su rango de sensado, el sensor cambiara su estado, de 0 a 1 o de 1 a 0 según su estado actual, reteniendo lo hasta que de nuevo el campo magnético se encuentre dentro de su rango de sensado, al contrario de otros sensores que solo cambian su estado cuando el imán esta cerca.-----------------------------------------------------------------------------------------------------------------------CaracterísticasModelo: 41FPaquete: TO-92Número de pines: 3Fuente de voltaje: 4.5v 24vCorriente de salida: 25mARango de temperatura de funcionamiento: -40 C + 150 CTipo: Sensor magnéticoUso: Sensor de VelocidadSalida: Sensor digital-----------------------------------------------------------------------------------------------------------------------Contenido de la compra10x Sensor de efecto hall 41F-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
@@ -16854,7 +17150,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-653307581-10-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-653307581-10-unidades-rele-5v-8-pines-hk19f-dc5v-shg-125vac-1-a-relevo-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -16884,7 +17180,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Rele 8 pines bobina 5VDC, tipo pcb, aptos para aparatos domésticos, máquinas de oficina, audio, equipos, etc. El relé cumple la función de protector o interruptor de circuito. -----------------------------------------------------------------------------------------------------------------------EspecificacionesRelé; Modelo: HK19F-DC5V-SHGVoltaje de la bobina: CC 5V Contacto: 1A 125VAC / 2A 30VDCTamaño principal (Aprox.): 2 x 1 x 1.5 cm / 0.8' 'x 0.4' 'x 0.6' '(L * W * T)Peso: 25g-----------------------------------------------------------------------------------------------------------------------Contenido de la compra10x Relé HK19F-DC5V-SHG-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J376" t="inlineStr"/>
@@ -16902,7 +17198,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-884576339-10-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-884576339-10-unidades-microcontrolador-pic16f716-8-bit-converter-ad-_JM#position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -16926,7 +17222,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_993347-MCO32994254787_112019-R.jpg</t>
         </is>
       </c>
-      <c r="I377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Este potente (ejecución de instrucción de 200 nanosegundos) pero fácil de programar (solo 35 instrucciones de una sola palabra) El microcontrolador CMOS de 8 bits basado en Flash empaqueta la potente arquitectura PIC® de Microchip en un paquete de 18 pines y es compatible con las PIC16C5X y PIC12FXXX dispositivos. El PIC16F716 presenta 4 canales de convertidor analógico a digital (A / D) de 8 bits con 2 temporizadores adicionales y una función mejorada de captura / comparación / PWM que lo hace ideal para aplicaciones A / D de nivel más avanzado en automoción, industrial, electrodomésticos y aplicaciones de consumo.-----------------------------------------------------------------------------------------------------------------------Tipo de memoria de programa FlashTamaño de la memoria del programa (KB) 3.5Velocidad de CPU (MIPS / DMIPS) 5 5SRAM (KB) 128Capturar / Comparar / Periféricos PWM 1 ECCP,Temporizadores 2 x 8 bits, 1 x 16 bitsEntrada ADC 4 canales, 8 bitsRango de temperatura (° C) -40 a 125Rango de voltaje de funcionamiento (V) 2 a 5.5-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta10x Microcontrolador PIC16F716-I/P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
@@ -16942,7 +17242,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825283054-10-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825283054-10-unidades-mica-goma-to3-aislante-transistor-regulador-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -16972,7 +17272,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------MICA AISLANTE PARA TRANSISTOR TO-3 SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris Uso en componentes con encapsulado TO3 (transistores, reguladores, Triac) diámetro del agujero: 3mm / 0.1" -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Pad Aislante Silicona TO3-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J378" t="inlineStr"/>
@@ -16990,7 +17290,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-825241150-10-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-825241150-10-unidades-mica-goma-to247-aislante-transistor-regulador-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -17020,7 +17320,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------PAD AISLANTE PARA TRANSISTOR TO-247SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris cada tamaño: 2,6 x 2 x 0,03 cm / 1" x 0,8" x 0.01 (L x W x T);diámetro del agujero: 3mm / 0.1" entre componentes electrónicos como semiconductores, IC, CPU, MOS y disipador de calor. iluminación Led, TV LCD, dispositivo de telecomunicaciones, Hub inalámbrico, fuente de alimentación, etc. módulos de refrigeración, módulos térmicos, en todas las aplicaciones donde se utiliza una carcasa metálica como disipador térmico. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Pad Aislante Silicona TO247-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J379" t="inlineStr"/>
@@ -17038,7 +17338,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-824696691-10-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-824696691-10-unidades-mica-goma-to220-aislante-transistor-regulador-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -17066,7 +17366,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_655493-MCO48009803148_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------MICA AISLANTE PARA TRANSISTOR TO-3P SILICONA-----------------------------------------------------------------------------------------------------------------------Material: silicona;color: gris cada tamaño: 2,5 x 2 x 0,03 cm / 1" x 0,8" x 0.01 (L x W x T);diámetro del agujero: 3mm / 0.1" entre componentes electrónicos como semiconductores, IC, CPU, MOS y disipador de calor. iluminación Led, TV LCD, dispositivo de telecomunicaciones, Hub inalámbrico, fuente de alimentación, etc. módulos de refrigeración, módulos térmicos, en todas las aplicaciones donde se utiliza una carcasa metálica como disipador térmico. -----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Pad Aislante Silicona TO220-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -17082,7 +17386,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-657962334-10-unidades-kit-espaciador-electronica-pcb-hh-m3x60mm-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-657962334-10-unidades-kit-espaciador-electronica-pcb-hh-m3x60mm-_JM#position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -17126,7 +17430,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-657749034-10-unidades-kit-espaciador-electronica-pcb-hh-m3x10mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-657749034-10-unidades-kit-espaciador-electronica-pcb-hh-m3x10mm-_JM#position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -17170,7 +17474,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-636931350-10-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-636931350-10-unidades-fototransistor-receptor-infrarojo-3-pines-mys838-_JM#position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -17198,7 +17502,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_612280-MCO46427831828_062021-R.jpg</t>
         </is>
       </c>
-      <c r="I383" t="inlineStr"/>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Fototransistor 3 pines MYS838 o TSOP17El fototransistor no es muy diferente a un transistor normal, es decir, está compuesto por el mismo material semiconductor, tienen dos junturas y las mismas tres conexiones externas: colector, base y emisor. Por supuesto, siendo un elemento sensible a la luz, la primera diferencia evidente es en su cápsula, que posee una ventana o es totalmente transparente, para dejar que la luz ingrese hasta las junturas de la pastilla semiconductora y produzca el efecto fotoeléctrico.De izquierda a derecha en la foto: Salida, GND, VCC-----------------------------------------------------------------------------------------------------------------------DescripciónUn receptor miniaturizado para control remoto por infrarrojos y transmisión de datos IR.El diodo PIN y el preamplificador se montan en el cuadro principal.El paquete de epoxi está diseñado como filtro IR.La señal de salida demodulada puede decodificarse directamente mediante un microprocesador.El principal beneficio es la operación con altas velocidades de datos y largas distancias.CaracterísticasFotodetector y preamplificador en un solo paqueteFiltro de banda interno para frecuencia PCMBlindaje interno contra la perturbación del campo eléctricoCompatibilidad TTL y CMOSSalida activa bajaPaquete de tamaño pequeño-----------------------------------------------------------------------------------------------------------------------Características especialesTensión de alimentación 3-5.5 VTiempo de establecimiento corto después del encendidoSe puede recibir un ciclo de trabajo de sobres elevadoInmunidad mejorada contra la perturbación de las lámparas de ahorro de energíaB.P.F Frecuencia central 38khzEmisión de Onda de Pico de 940nmAplicaciónInstrumentos AV como audio, TV, VCR, CD, DVD, MD, etc.Electrodomésticos como aire acondicionado, ventilador, etc.Los otros equipos con control remoto inalámbrico.CATV set top box.Equipo multimedia.Sensores y sistemas de barrera de luz para largas distancias.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra10x Fototransistor IR MYS838-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 3:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 3:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
@@ -17214,7 +17522,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-888592980-10-unidades-conector-xt30-plug-modelismo-rc-electronica-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=87c2571d-e44d-49aa-b397-705d00b292e8</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-888592980-10-unidades-conector-xt30-plug-modelismo-rc-electronica-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d017b9d-9b96-4e6e-b9d5-295224692b20</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -17242,7 +17550,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_907590-MCO49827731763_052022-R.jpg</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Características:Enchufes banana chapados en oro de 2,0mm;Diseño ligero, tamaño pequeño, corriente de alta resistencia;Diseño Original de las piezas de plástico huecas, utilizando el modelo de flujo de aire activo de alta velocidad de la disipación de calor del enchufeAdecuado para la situación que necesita un enchufe ligero o de tamaño pequeño.-----------------------------------------------------------------------------------------------------------------------Especificaciones:Corriente Continua de alta resistencia: 20aCable adecuado: 16-20AWG-----------------------------------------------------------------------------------------------------------------------Contenido de la compra10x Conector XT30 Hembra10x Conector XT30 Macho-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 12:00 PM POR MERCADOENVIOS FLEX.Envío Nacional, compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -17258,7 +17570,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828089670-10-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828089670-10-unidades-conector-bornera-terminal-4-pines-2edg-508-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -17286,7 +17598,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_701166-MCO50952990188_082022-R.jpg</t>
         </is>
       </c>
-      <c r="I385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Para usar con tus diseños de placas electrónicas PCB.Bloque de terminales o conector de tornillo, de tipo modular Macho y Hembra, con soporte de hasta 10A con 300 Volts. Posee un tamaño mediano, además de una separación entre pines de aproximadamente 5 mm (0.2 pulgadas).-----------------------------------------------------------------------------------------------------------------------Bloque de terminales o conector de tornillo, de tipo modular Macho y Hembra, con soporte de hasta 10A con 300 Volts. Posee un tamaño mediano, además de una separación entre pines de aproximadamente 5 mm (0.2 pulgadas).Precio corresponde a 1 Unidad (1 Macho PCB y 1 Hembra Volante)Características:•    Módulo de fácil instalación e implementación. Simplifica conexión de cables•    Sujeción del cable mediante tornillo•    Calibres de Cables Soportado: 12 a 24 AWG•    Separación entre Pines: 0.2' (5 mm aprox)•    Dimensiones: largo 21.8mm, ancho 20.7 mm, alto 15.5 mm (sin pines macho)•    Capacidad de Operación: 10 A 300 VA•    Tensión de Aislación: 1500 V (Máximo 1 minuto)•    Color: Verde-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Bornera 2EDG 5.08 4P macho10x Bornera 2EDG 5.08 4P hembra-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -17302,7 +17618,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-820205497-10-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-820205497-10-unidades-circuito-integrado-74ls190-contador-binario-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -17328,7 +17644,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Circuito Integrado 74LS190 (Contador ascendente/descendente binario)Un contador es un circuito secuencial construido a partir de biestable y puertas lógicas capaz de almacenar y contar los impulsos (a menudo relacionados con una señal de reloj), que recibe en la entrada destinada a tal efecto, asimismo también actúa como divisor de frecuencia.-----------------------------------------------------------------------------------------------------------------------Características:Familia: LSTipo circuito lógico: Contador BCD sincrónico ascendente/descendenteContador BCD 8-4-2-1Salida: ParaleloTensión de alimentación mínima: 4.25 VTensión de alimentación máxima: 5.25 VTemperatura de operación mínima: 0°CTemperatura de operación máxima: 70°CEncapsulado: DIP16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x CI 74LS190-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J386" t="inlineStr"/>
@@ -17346,7 +17662,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819502911-10-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819502911-10-unidades-circuito-integrado-74ls174-6-flip-flop-tipo-d-_JM#position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -17386,7 +17702,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-819502862-10-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=5ab68e9d-3c5b-4306-93ea-a9b889640f9d</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-819502862-10-unidades-circuito-integrado-74ls153-selector-multiplexor-_JM#position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=d1dfe87f-23c7-4af9-97e6-bfc51be075a8</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -17410,7 +17726,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_752046-MCO47829577909_102021-R.jpg</t>
         </is>
       </c>
-      <c r="I388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------El SN74LS153N es un selector / multiplexor de datos dual monolítico de 4 líneas a 1 línea que contiene inversores y controladores para proporcionar una selección de datos de descodificación totalmente complementaria, en chip y codificación binaria a las compuertas AND-OR. Se proporcionan entradas estroboscópicas para cada una de las dos secciones de 4 tiempos.* Permite multiplexar de N líneas a 1 línea* Realiza la conversión de paralelo a serie* Línea de estrobos (habilitación) para cascada (N líneas a N líneas)* Salidas de totem de alta impedancia y baja impedancia* Totalmente compatible con la mayoría de los circuitos TTL* Aplicaciones: Comunicaciones y red-----------------------------------------------------------------------------------------------------------------------Especificaciones* Familia: LS* Tipo de la lógica del circuito: Multiplexor* Número de canales: 2* Canales configuración de Línea: 4:1* Tensión de alimentación mínima: 4.75 V* Tensión de alimentación máxima: 5.25 V* Temperatura de trabajo mínima.: 0°C* Temperatura de trabajo máxima: 70°C* Encapsulado: DIP* 16 pines-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x CI SN74LS153N -----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -17426,7 +17746,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-828102582-10-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-828102582-10-unidades-bornera-bloque-kf350-3-pines-35mm-_JM#position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -17454,7 +17774,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_770059-MCO48103214711_112021-R.jpg</t>
         </is>
       </c>
-      <c r="I389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Para usar con tus diseños de placas electrónicas PCB.Bloque de terminales o conector con tornillo, de tipo modular, con soporte de hasta 10A con 300V. Posee un tamaño pequeño, además de una separación entre pines de 3.5mm.-----------------------------------------------------------------------------------------------------------------------Bloque de terminales o conector con tornillo, de tipo modular, con soporte de hasta 10A con 300V. Posee un tamaño pequeño, además de una separación entre pines de 3.5mm.Características:•    Modular, se pueden unir entre sí para formar el tamaño requerido•    Sujeción del cable mediante tornillo•    Calibres de Cables Soportado: 24 a 18 AWG•    Separación entre pines: 3.5mm•    Tamaño Pequeño•    Dimensiones: Ver imágenes•    Capacidad de Operación: 10A, 300V-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Borneras Bloque Modelo KF350 3P-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -17470,7 +17794,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827294852-10-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827294852-10-unidades-baquelita-universal-de-circuito-impreso-mw205-_JM#position=7&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -17498,7 +17822,11 @@
           <t>https://http2.mlstatic.com/D_Q_NP_614259-MCO40892782573_022020-R.jpg</t>
         </is>
       </c>
-      <c r="I390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Placa de circuito impreso universal baquelita MW205 distancia entre agujeros 2.54 mmIdeal para proyectos de electrónica, prototipos, pruebas. Resiente, fácil de soldar -----------------------------------------------------------------------------------------------------------------------Características:Material: baquelitaPistas: Cobre con recubrimiento estañoDimensiones: 15.5x12.5 cmEspesor: 2mm-----------------------------------------------------------------------------------------------------------------------Contenido de la oferta10x Placa de circuito impreso baquelita universal MW205-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
+        </is>
+      </c>
       <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
@@ -17514,7 +17842,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-827288119-10-unidades-baquelita-circuito-impreso-prototipos-mw-202-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=b052a156-be0e-4904-9508-b0d85752b5fd</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-827288119-10-unidades-baquelita-circuito-impreso-prototipos-mw-202-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=f56a2e00-ca80-467e-a62e-1e8335f58956</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -17532,7 +17860,7 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Una placa de creación de prototipos que le permite transferir el diseño de su placa de pruebas sin tener que volver a trabajarla. Incluye cinco orificios en cada lado por fila y rieles eléctricos a lo largo de la tabla.Pistas plata-----------------------------------------------------------------------------------------------------------------------Contenido de la compra:10x Placa prototipos MW-202-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil.Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J391" t="inlineStr"/>
@@ -17550,7 +17878,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-822502569-10-unidades-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-822502569-10-unidades-74ls48-decodificador-bcd-7-segmentos-cc-_JM#position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -17590,7 +17918,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-651309102-10-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=e0b00171-8b7a-4fbf-bc19-25e86910cc18</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-651309102-10-hojas-papel-termo-transferible-pcb-circuitos-impresos-_JM#position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4f4753e-04f8-44c3-a8e9-675c225c6ff6</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -17616,7 +17944,7 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministr</t>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.-----------------------------------------------------------------------------------------------------------------------Las hojas de transferencia térmica, son el complemento ideal para el hobbista y diseñador de circuitos impresos que necesiten fabricar sus prototipos con acabado profesional y sin las complicaciones que traen otros métodos como fotográficos, serigráficos, marcadores indelebles, etc. Se adjunta manual de instrucciones.-----------------------------------------------------------------------------------------------------------------------El papel transfer, es un papel tratado químicamente para permitir la mayor adherencia del tóner sobre la placa de PCB. Permitiendo hacer una transferencia de su diseño a la placa virgen en solo 2 minutos, usando una impresora Láser o una fotocopiadora para imprimir el diseño sobre la hoja, y una plancha hogareña para transferirlo a la plaqueta, dejándola lista para continuar con el proceso tradicional de ácido, perforación, etc.-----------------------------------------------------------------------------------------------------------------------Contenido de la compra 10x Hoja de papel termo transferible tamaño carta-----------------------------------------------------------------------------------------------------------------------ENTREGA EL MISMO DÍA EN BOGOTA, SI HACE SU COMPRA ANTES DE LAS 2:00 PM POR MERCADOENVIOS FLEX.Compras realizadas antes de la 2:00 PM se enviaran el mismo día, de lo contrario se enviara al siguiente día hábil. Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.*** TENEMOS STOCK PARA ENVÍO INMEDIATO ***</t>
         </is>
       </c>
       <c r="J393" t="inlineStr"/>
@@ -17634,7 +17962,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-559699275-multimetro-siglent-sdm3055-digital-de-banco-alta-precision-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=daa73ee2-7195-4c40-8d19-d2f946d5049c</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-559699275-multimetro-siglent-sdm3055-digital-de-banco-alta-precision-_JM#position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=f4d8454f-bc9b-4c43-950a-09c6bc81be9f</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -17660,7 +17988,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>En Moviltronics SAS, siempre pensamos en ti - Distribuidores directos de SIGLENT en Colombia. Respa</t>
+          <t>En Moviltronics SAS, siempre pensamos en ti - Distribuidores directos de SIGLENT en Colombia. Respaldo TotalENTREGA INMEDIATA!CARACTERÍSTICAS:El Siglent SDM3055 es un multímetro de mesa digital de clase media muy bueno con una frecuencia de muestreo de máx. 150 Sa / s.Estos multímetros Siglent tienen una interfaz muy sofisticada y fácil de usar y proporcionan muchas funciones para todas las tareas de medición. El uso del menú de navegación es muy intuitivo y los dispositivos proporcionarán resultados precisos en todas sus áreas de aplicación.La pantalla TFT de 4.3 “(10,9 cm) con 480×272 píxeles es fácil de leer y proporciona una muy buena visión general de todas las características. La pantalla tiene una resolución de 5½ dígitos (recuento máximo de 240,000).Interfaz de usuario simpleLa pantalla TFT de 4.3 “con 480×272 píxeles es fácil de leer y ofrece una muy buena visión general de todas las funciones. Ayuda en lineaCada función y cada botón tiene una breve descripción en la función de ayuda en línea incorporada. Simplemente presione y mantenga presionado un botón para ver su descripción. Gráfico de tendencias / Historia Memoria interna enormeEl multímetro admite cuatro tipos de formas de ver los datos medidos: “Número”, “Medidor de barras”, “Gráfico de tendencia” e “Histograma”. La memoria volátil puede almacenar hasta 10000 lecturas de historial y la función Administrar archivo permite a los usuarios crear una nueva carpeta y guardar, copiar, renombrar o eliminar archivos en el enorme almacenamiento local (1 GB NAND Flash), así como en el almacenamiento USB. Prueba de límitesLa operación de límites le indica que la señal está sobrepasando su rango de acuerdo con los parámetros de límite alto y bajo seleccionados; Mientras tanto, el zumbador emite un sonido de alarma (si el sonido está activado).Sistema de termoparEl SDM3055 tiene una compensación de terminal fría incorporada para mediciones de termopar. El multímetro admite dos tipos de sensores de temperatura: TC y RTD.Contenido de la oferta1x Multimetro Siglent SDM30552x Cables de prueba1x Documentación y software EasyDMMEnvío gratis- Por MercadoEnvíosPara compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
         </is>
       </c>
       <c r="J394" t="inlineStr"/>
@@ -17678,7 +18006,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-550911258-modulo-shield-c-ugsm-dual-sim-con-m95-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=38cdedc7-0bf0-4ad7-ae4f-02419a5fc602</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-550911258-modulo-shield-c-ugsm-dual-sim-con-m95-_JM#position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=d2f743b5-7ac7-4c28-aa4a-4f55a391880d</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -17698,7 +18026,11 @@
         </is>
       </c>
       <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>En Moviltronics ayudamos a que tus proyectos de electrónica y robótica se hagan realidad, suministrando los mejores productos con calidad y respaldo.CARACTERÍSTICAS- Módulo GSM / GPRS de banda cuádruple (Quectel M95F) con cobertura mundial real: 850MHz, 900MHz, 1800MHz y 1900MHz. - SIM DOBLE, SINGLE STANDBY Formato SIM SIMPLE 2x2G (función única). - Muy compacto y ligero: 1.25 “x1.57” (31.75×39.88mm), alrededor de 10 gramos, probablemente el mejor en su clase. - Adaptador USB incorporado con adaptador de puente SERIAL a USB – con conector tipo micro USB A ( puede conectar el protector c-uGSM, a través de USB o SERIAL TTL con su Raspberry PI o puede usarlo como un módem USB inalámbrico con su Windows o Linux PC ) (característica única). Interfaz digital (interfaces SERIAL y CONTROL): nivel automático 3-5V(UART TX + RX / RESET / ENCENDIDO / APAGADO / RI / STS / RTS / CTS) ; puede conectar directamente (sin la necesidad de ningún adaptador de nivel) el escudo c-uGSM con cualquier escudo Arduino 3 / 5V o cualquier versión de RASPBERRY PI, BEAGLEBONE, BANANA PI o cualquier otro microcontrolador compatible de 2.8V hasta 5V. La interfaz digital (y de alimentación) está disponible en un conector de pin estándar de 0.1 “(2.54 mm) y es 99% pin 2 pin compatible con el blindaje d-u3G . - Cargador de batería LiPol integrado: el protector c-uGSM puede ejecutarse en configuraciones con o sin batería LiPolimer , según el esquema de alimentación elegido - Interfaz de audio analógica de alta potencia (salida-700 mW RMS, MIC del condensador) – a través del conector estándar de pin de 0.1 “(2.54 mm)- Dos interruptores integrados : control para MODEM ON / OFF y MODEM RESET - Múltiples esquemas de encendido: – a través de USB , a través de ENERGÍA, interfaz SERIAL y CONTROL (interfaz digital) o mediante conmutación externa opcional (20.3×34.29mm) pin a pin 5-25V Fuente de alimentación - Los ejemplos de código extendido de Arduino y RaspberryPI admiten archivos : – GSM, SMS, DTMF, TCP / UDP, https y http a través de GPRS **, características inteligentes como el SISTEMA DE DISCO RAM para ALMACENAMIENTO DE ARCHIVOS, uso de DUAL SIM y otros. Soporte de enrutamiento RaspberryPI PPP y TCPIP (RaspbianOS) a través de scripts de instalación y uso fáciles. Y, por último, pero no por ello menos importante, c-uGSM es compatible con nuestra ” CLOUD IoT 2 móvil ” para Arduinoprototipo: implementación de IoT bastante pequeña (~ 16Kb gratis en ATMEGA328), con optimización de transferencia de datos móviles ** y basado en nuestro concepto original ” IoT2CLOUD ABSTRACTIZATION LAYER ” . Contenido de la oferta:1x Modulo Shield c-uGSM Dual SIM con M95Para compras personales o recogidas estamos en Bogotá D.C. zona Centro.</t>
+        </is>
+      </c>
       <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -17714,7 +18046,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-539677435-modulo-potenciometro-sin-fin-encoder-cuadratura-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=04103eb0-7ff3-41ac-8b1d-e2e86a1b12e2</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-539677435-modulo-potenciometro-sin-fin-encoder-cuadratura-_JM#position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=8528b536-3e06-4044-83db-553c8636a422</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -17758,7 +18090,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.co/MCO-551292777-mira-ball-aviso-luminoso-rotativo-360-grados-texto-e-imagen-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=40219d55-b261-40ab-bf7d-fecd7de55564</t>
+          <t>https://articulo.mercadolibre.com.co/MCO-551292777-mira-ball-aviso-luminoso-rotativo-360-grados-texto-e-imagen-_JM#position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=5dcac0e8-3aa5-457f-a779-46941dbfb08b</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
